--- a/examples/USA OGD/Baton_rouge/profile.xlsx
+++ b/examples/USA OGD/Baton_rouge/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,22 @@
       <c r="P2" t="n">
         <v>3797</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2500032927</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>2639760</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>179954</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['1000000543', '1000002035', '1000002377', '1000002595', '1000002691', '1000002749', '1000003034', '1000004444', '1000004524', '1000005075', '1000005346', '1000005862', '1000006014', '1000006054', '1000006108', '1000006192', '1000006236', '1000006463', '1000006649', '1000007030', '1000007295', '1000007298', '1000008540', '1000009461', '1000009624', '1000010305', '1000010649', '1000010765', '1000010884', '1000011333', '1000011517', '1000011735', '1000012300', '1000013084', '1000013310', '1000013653', '1000014173', '1000014871', '1000014923', '1000016020', '1000016810', '1000016970', '1000017485', '1000017523', '1000018019', '1000018753', '1000020044', '1000020228', '1000020345', '1000020448', '1000021444', '1000021792', '1000021881', '1000022435', '1000023408', '1000023603', '1000024192', '1000024526', '1000024869', '1000026069', '1000026316', '1000027076', '1000027697', '1000028011', '1000028399', '1000028445', '1000028715', '1000029126', '1000029772', '1000030240', '1000030283', '1000030290', '1000030910', '1000031082', '1000031810', '1000032871', '1000032910', '1000033305', '1000033587', '1000034820', '1000035071', '1000035104', '1000035450', '1000036000', '1000036064', '1000036214', '1000036218', '1000036597', '1000037560', '1000037627', '1000037711', '1000037738', '1000037766', '1000038029', '1000038281', '1000038733', '1000038866', '1000038951', '1000039320', '1000041296', '1000041859', '1000041949', '1000041972', '1000042223', '1000042479', '1000043467', '1000043493', '1000043658', '1000043822', '1000043962', '1000044123', '1000044290', '1000044881', '1000045647', '1000045702', '1000045776', '1000047396', '1000047542', '1000047864', '1000048143', '1000048185', '1000048914', '1000049336', '1000050473', '1000051048', '1000051134', '1000051355', '1000051369', '1000051831', '1000052159', '1000052257', '1000052555', '1000052559', '1000052620', '1000053492', '1000053620', '1000053794', '1000053930', '1000053991', '1000054087', '1000054101', '1000054179', '1000054668', '1000055174', '1000055596', '1000056502', '1000057350', '1000057572', '1000057666', '1000058016', '1000058303', '1000058607', '1000058630', '1000058759', '1000059163', '1000059509', '1000059647', '1000059659', '1000059904', '1000059978', '1000061459', '1000061697', '1000062277', '1000062456', '1000062583', '1000062667', '1000063098', '1000063461', '1000063518', '1000063753', '1000064414', '1000064892', '1000065144', '1000065188', '1000065440', '1000065543', '1000065913', '1000067151', '1000067382', '1000067446', '1000067721', '1000067743', '1000067745', '1000067804', '1000067819', '1000067829', '1000067843', '1000067906', '1000068144', '1000068333', '1000068868', '1000069954', '1000071754', '1000071819', '1000071870', '1000072135', '1000072235', '1000073034', '1000073042', '1000073686', '1000074244', '1000074316', '1000074390', '1000074401', '1000074415', '1000074494', '1000074527', '1000074725', '1000075459', '1000076518', '1000076523', '1000076753', '1000076935', '1000077271', '1000077396', '1000077539', '1000077540', '1000077598', '1000077690', '1000077747', '1000077946', '1000077966', '1000077981', '1000078360', '1000078416', '1000078682', '1000078740', '1000078842', '1000078899', '1000079243', '1000079682', '1000079753', '1000080003', '1000080145', '1000080203', '1000080617', '1000080698', '1000080702', '1000080767', '1000080923', '1000081108', '1000081288', '1000081290', '1000081355', '1000081389', '1000081420', '1000081521', '1000082174', '1000082249', '1000082416', '1000082635', '1000082975', '1000083334', '1000083447', '1000083759', '1000083772', '1000083870', '1000083914', '1000084226', '1000084648', '1000084924', '1000085113', '1000085170', '1000085366', '1000085418', '1000085527', '1000085774', '1000085797', '1000086171', '1000086481', '1000086951', '1000086959', '1000086994', '1000087270', '1000087320', '1000088036', '1000088184', '1000088194', '1000088289', '1000088501', '1000088534', '1000088635', '1000088894', '1000088953', '1000089783', '1000090732', '1000090927', '1000091289', '1000091311', '1000091391', '1000091708', '1000092224', '1000092795', '1000092952', '1000092969', '1000093096', '1000093121', '1000093200', '1000093237', '1000093567', '1000093678', '1000093804', '1000093884', '1000093927', '1000094125', '1000094205', '1000094568', '1000094592', '1000094644', '1000094919', '1000095032', '1000095359', '1000095448', '1000095502', '1000095846', '1000096034', '1000096279', '1000096430', '1000096486', '1000096782', '1000096806', '1000096857', '1000097102', '1000097212', '1000097474', '1000097501', '1000097585', '1000098118', '1000098201', '1000098458', '1000098464', '1000099312', '1000099333', '1000099525', '1000099593', '1000099734', '1000100613', '1000102084', '1000102085', '1000102086', '1000102088', '1000102109', '1000102452', '1000102532', '1000102656', '1000102697', '1000103103', '1000103275', '1000103325', '1000103460', '1000103627', '1000103694', '1000104307', '1000104447', '1000104699', '1000104812', '1000105027', '1000105160', '1000105168', '1000105626', '1000105729', '1000105973', '1000106041', '1000106062', '1000106124', '1000106160', '1000106751', '1000106948', '1000107258', '1000107453', '1000108100', '1000108276', '1000108511', '1000108552', '1000108987', '1000109136', '1000109494', '1000109735', '1000109784', '1000110129', '1000110137', '1000110189', '1000111116', '1000111158', '1000111193', '1000111367', '1000111705', '1000111744', '1000111908', '1000112041', '1000112409', '1000112508', '1000112538', '1000112901', '1000112942', '1000113183', '1000113471', '1000113743', '1000113873', '1000113909', '1000113913', '1000114069', '1000114102', '1000114144', '1000114163', '1000114478', '1000114521', '1000114573', '1000114965', '1000114974', '1000115519', '1000116021', '1000116101', '1000116108', '1000116131', '1000116275', '1000116374', '1000116712', '1000117634', '1000118338', '1000118390', '1000118483', '1000118672', '1000118770', '1000118776', '1000118821', '1000119028', '1000119163', '1000119176', '1000119281', '1000119304', '1000119331', '1000119488', '1000119520', '1000119576', '1000119625', '1000119969', '1000120185', '1000120204', '1000120422', '1000120535', '1000120574', '1000120597', '1000121025', '1000121440', '1000121443', '1000121546', '1000121658', '1000121682', '1000121918', '1000122086', '1000122221', '1000122266', '1000122577', '1000122664', '1000123083', '1000123195', '1000123226', '1000123901', '1000124065', '1000124180', '1000124263', '1000124300', '1000124359', '1000124453', '1000124486', '1000124723', '1000124729', '1000124765', '1000124836', '1000124940', '1000125108', '1000125147', '1000125706', '1000125744', '1000126090', '1000126230', '1000126409', '1000126544', '1000126557', '1000126734', '1000127645', '1000127781', '1000128304', '1000128314', '1000128724', '1000129066', '1000129084', '1000129191', '1000129281', '1000129355', '1000129537', '1000129568', '1000129678', '1000130010', '1000130701', '1000130766', '1000131040', '1000131104', '1000131410', '1000131713', '1000131762', '1000132105', '1000132146', '1000132166', '1000132259', '1000132445', '1000492027', '1100000013', '1100000024', '1100000030', '1100000034', '1100000037', '1100000038', '1100000043', '1100000048', '1100000050', '1100000052', '1100000056', '1100000057', '1100000059', '1100000060', '1100000061', '1100000063', '1100000065', '1100000070', '1100000071', '1100000072', '1100000075', '1100000077', '1100000093', '1100000094', '1100000106', '1100000123', '1100000126', '1100000131', '1100000137', '1100000138', '1100000140', '1100000141', '1100000143', '1100000144', '1100000151', '1100000157', '1100000159', '1100000160', '1100000161', '1100000163', '1100000166', '1100000167', '1100000169', '1100000173', '1100000174', '1100000178', '1100000180', '1100000186', '1100000196', '1100000198', '1100000200', '1100000207', '1100000214', '1100000221', '1100000223', '1100000224', '1100000225', '1100000226', '1100000230', '1100000232', '1100000234', '1100000237', '1100000240', '1100000241', '1100000243', '1100000251', '1100000255', '1100000258', '1100000260', '1100000261', '1100000262', '1100000263', '1100000266', '1100000267', '1100000270', '1100000277', '1100000282', '1100000284', '1100000285', '1100000287', '1100000289', '1100000290', '1100000301', '1100000305', '1100000307', '1100000311', '1100000319', '1100000322', '1100000324', '1100000325', '1100000326', '1100000333', '1100000336', '1100000337', '1100000339', '1100000353', '1100000362', '1100000376', '1100000378', '1100000384', '1100000386', '1100000387', '1100000390', '1100000392', '1100000393', '1100000394', '1100000395', '1100000400', '1100000404', '1100000406', '1100000407', '1100000408', '1100000409', '1100000412', '1100000415', '1100000424', '1100000431', '1100000436', '1100000442', '1100000444', '1100000449', '1100000450', '1100000451', '1100000457', '1100000458', '1100000459', '1100000473', '1100000477', '1100000479', '1100000487', '1100000490', '1100000498', '1100000505', '1100000509', '1100000513', '1100000515', '1100000517', '1100000519', '1100000522', '1100000527', '1100000531', '1100000534', '1100000538', '1100000540', '1100000549', '1100000550', '1100000551', '1100000552', '1100000553', '1100000555', '1100000559', '1100000561', '1100000562', '1100000563', '1100000564', '1100000565', '1100000578', '1100000581', '1100000587', '1100000588', '1100000589', '1100000590', '1100000598', '1100000600', '1100000603', '1100000606', '1100000609', '1100000611', '1100000618', '1100000622', '1100000623', '1100000629', '1100000632', '1100000633', '1100000634', '1100000635', '1100000637', '1100000640', '1100000648', '1100000654', '1100000657', '1100000658', '1100000659', '1100000666', '1100000667', '1100000670', '1100000672', '1100000673', '1100000678', '1100000686', '1100000690', '1100000691', '1100000693', '1100000697', '1100000709', '1100000710', '1100000714', '1100000719', '1100000722', '1100000728', '1100000732', '1100000734', '1100000736', '1100000739', '1100000740', '1100000743', '1100000750', '1100000751', '1100000752', '1100000767', '1100000773', '1100000774', '1100000778', '1100000782', '1100000788', '1100000791', '1100000793', '1100000797', '1100000798', '1100000804', '1100000807', '1100000808', '1100000810', '1100000813', '1100000818', '1100000824', '1100000825', '1100000827', '1100000832', '1100000833', '1100000834', '1100000836', '1100000838', '1100000853', '1100000857', '1100000861', '1100000866', '1100000867', '1100000868', '1100000870', '1100000876', '1100000878', '1100000880', '1100000882', '1100000885', '1100000887', '1100000890', '1100000893', '1100000894', '1100000897', '1100000900', '1100000902', '1100000909', '1100000914', '1100000915', '1100000916', '1100000917', '1100000925', '1100000931', '1100000934', '1100000935', '1100000938', '1100000942', '1100000943', '1100000950', '1100000952', '1100000956', '1100000959', '1100000963', '1100000966', '1100000972', '1100000975', '1100000976', '1100000977', '1100000978', '1100000979', '1100000982', '1100000984', '1100000986', '1100000990', '1100000993', '1100000997', '1100001003', '1100001005', '1100001008', '1100001013', '1100001019', '1100001021', '1100001048', '1100001049', '1100001052', '1100001053', '1100001063', '1100001068', '1100001073', '1100001078', '1100001079', '1100001082', '1100001084', '1100001086', '1100001093', '1100001097', '1100001101', '1100001103', '1100001106', '1100001109', '1100001112', '1100001114', '1100001115', '1100001126', '1100001129', '1100001130', '1100001132', '1100001136', '1100001137', '1100001139', '1100001140', '1100001141', '1100001142', '1100001143', '1100001144', '1100001146', '1100001147', '1100001149', '1100001150', '1100001153', '1100001156', '1100001159', '1100001166', '1100001167', '1100001170', '1100001175', '1100001190', '1100001194', '1100001196', '1100001199', '1100001200', '1100001201', '1100001202', '1100001205', '1100001212', '1100001213', '1100001218', '1100001220', '1100001221', '1100001224', '1100001225', '1100001226', '1100001230', '1100001232', '1100001235', '1100001242', '1100001248', '1100001250', '1100001251', '1100001255', '1100001256', '1100001260', '1100001278', '1100001279', '1100001284', '1100001285', '1100001288', '1100001290', '1100001297', '1100001313', '1100001320', '1100001321', '1100001323', '1100001324', '1100001327', '1100001328', '1100001335', '1100001338', '1100001339', '1100001342', '1100001356', '1100001362', '1100001363', '1100001364', '1100001367', '1100001371', '1100001378', '1100001382', '1100001383', '1100001385', '1100001387', '1100001388', '1100001390', '1100001391', '1100001393', '1100001395', '1100001397', '1100001401', '1100001418', '1100001435', '1100001437', '1100001439', '1100001441', '1100001442', '1100001448', '1100001450', '1100001458', '1100001460', '1100001471', '1100001472', '1100001474', '1100001475', '1100001486', '1100001487', '1100001491', '1100001494', '1100001498', '1100001500', '1100001513', '1100001514', '1100001516', '1100001519', '1100001521', '1100001523', '1100001524', '1100001525', '1100001528', '1100001529', '1100001530', '1100001535', '1100001545', '1100001551', '1100001554', '1100001555', '1100001559', '1100001565', '1100001567', '1100001568', '1100001573', '1100001577', '1100001581', '1100001582', '1100001587', '1100001588', '1100001590', '1100001597', '1100001601', '1100001604', '1100001607', '1100001608', '1100001615', '1100001617', '1100001620', '1100001622', '1100001623', '1100001636', '1100001638', '1100001640', '1100001645', '1100001652', '1100001658', '1100001660', '1100001662', '1100001664', '1100001671', '1100001677', '1100001678', '1100001683', '1100001684', '1100001689', '1100001690', '1100001691', '1100001694', '1100001697', '1100001699', '1100001700', '1100001701', '1100001702', '1100001704', '1100001712', '1100001713', '1100001715', '1100001720', '1100001721', '1100001723', '1100001724', '1100001726', '1100001729', '1100001734', '1100001735', '1100001736', '1100001738', '1100001739', '1100001743', '1100001747', '1100001749', '1100001751', '1100001758', '1100001760', '1100001769', '1100001774', '1100001775', '1100001779', '1100001780', '1100001781', '1100001783', '1100001785', '1100001788', '1100001795', '1100001796', '1100001798', '1100001804', '1100001807', '1100001808', '1100001809', '1100001811', '1100001812', '1100001817', '1100001821', '1100001824', '1100001825', '1100001831', '1100001836', '1100001839', '1100001842', '1100001843', '1100001844', '1100001846', '1100001854', '1100001855', '1100001862', '1100001866', '1100001870', '1100001875', '1100001878', '1100001880', '1100001881', '1100001886', '1100001887', '1100001889', '1100001891', '1100001897', '1100001904', '1100001906', '1100001907', '1100001910', '1100001912', '1100001914', '1100001915', '1100001922', '1100001924', '1100001927', '1100001928', '1100001930', '1100001931', '1100001938', '1100001939', '1100001940', '1100001941', '1100001943', '1100001949', '1100001950', '1100001951', '1100001954', '1100001963', '1100001970', '1100001975', '1100001979', '1100001983', '1100001985', '1100001989', '1100001995', '1100001997', '1100002000', '1100002005', '1100002018', '1100002022', '1100002028', '1100002036', '1100002038', '1100002048', '1100002049', '1100002052', '1100002054', '1100002058', '1100002062', '1100002063', '1100002064', '1100002065', '1100002066', '1100002067', '1100002069', '1100002070', '1100002074', '1100002076', '1100002077', '1100002079', '1100002080', '1100002082', '1100002083', '1100002085', '1100002086', '1100002089', '1100002090', '1100002095', '1100002096', '1100002106', '1100002109', '1100002111', '1100002121', '1100002131', '1100002140', '1100002142', '1100002143', '1100002144', '1100002146', '1100002148', '1100002150', '1100002151', '1100002155', '1100002156', '1100002158', '1100002159', '1100002170', '1100002175', '1100002176', '1100002178', '1100002181', '1100002193', '1100002197', '1100002201', '1100002203', '1100002209', '1100002211', '1100002212', '1100002215', '1100002219', '1100002230', '1100002232', '1100002235', '1100002240', '1100002245', '1100002249', '1100002251', '1100002254', '1100002255', '1100002256', '1100002258', '1100002261', '1100002272', '1100002276', '1100002284', '1100002285', '1100002290', '1100002293', '1100002294', '1100002297', '1100002298', '1100002299', '1100002301', '1100002303', '1100002308', '1100002309', '1100002310', '1100002314', '1100002315', '1100002316', '1100002318', '1100002319', '1100002321', '1100002322', '1100002324', '1100002327', '1100002328', '1100002330', '1100002340', '1100002346', '1100002349', '1100002350', '1100002352', '1100002354', '1100002358', '1100002367', '1100002368', '1100002375', '1100002377', '1100002378', '1100002382', '1100002389', '1100002392', '1100002397', '1100002401', '1100002403', '1100002404', '1100002407', '1100002409', '1100002411', '1100002416', '1100002418', '1100002421', '1100002422', '1100002428', '1100002429', '1100002430', '1100002431', '1100002432', '1100002436', '1100002438', '1100002439', '1100002441', '1100002442', '1100002445', '1100002447', '1100002455', '1100002465', '1100002469', '1100002471', '1100002472', '1100002479', '1100002484', '1100002487', '1100002489', '1100002490', '1100002491', '1100002494', '1100002495', '1100002496', '1100002497', '1100002500', '1100002502', '1100002503', '1100002504', '1100002507', '1100002508', '1100002509', '1100002510', '1100002511', '1100002516', '1100002520', '1100002521', '1100002522', '1100002524', '1100002526', '1100002527', '1100002532', '1100002534', '1100002535', '1100002543', '1100002548', '1100002549', '1100002550', '1100002551', '1100002557', '1100002567', '1100002569', '1100002570', '1100002573', '1100002585', '1100002591', '1100002600', '1100002601', '1100002602', '1100002608', '1100002612', '1100002614', '1100002615', '1100002625', '1100002628', '1100002633', '1100002637', '1100002638', '1100002640', '1100002641', '1100002644', '1100002649', '1100002652', '1100002653', '1100002655', '1100002656', '1100002663', '1100002664', '1100002665', '1100002667', '1100002674', '1100002677', '1100002678', '1100002679', '1100002681', '1100002685', '1100002686', '1100002689', '1100002693', '1100002700', '1100002701', '1100002702', '1100002703', '1100002705', '1100002706', '1100002707', '1100002725', '1100002729', '1100002741', '1100002742', '1100002747', '1100002750', '1100002752', '1100002753', '1100002757', '1100002760', '1100002761', '1100002762', '1100002766', '1100002771', '1100002776', '1100002780', '1100002786', '1100002787', '1100002789', '1100002791', '1100002798', '1100002799', '1100002802', '1100002803', '1100002806', '1100002810', '1100002811', '1100002818', '1100002823', '1100002826', '1100002832', '1100002833', '1100002834', '1100002835', '1100002842', '1100002844', '1100002845', '1100002846', '1100002848', '1100002855', '1100002858', '1100002859', '1100002860', '1100002861', '1100002864', '1100002865', '1100002867', '1100002870', '1100002879', '1100002883', '1100002884', '1100002887', '1100002892', '1100002893', '1100002900', '1100002902', '1100002904', '1100002905', '1100002908', '1100002911', '1100002915', '1100002918', '1100002919', '1100002921', '1100002922', '1100002924', '1100002925', '1100002932', '1100002933', '1100002936', '1100002940', '1100002944', '1100002946', '1100002947', '1100002948', '1100002952', '1100002953', '1100002957', '1100002958', '1100002960', '1100002970', '1100002981', '1100002987', '1100002993', '1100003000', '1100003002', '1100003003', '1100003017', '1100003019', '1100003020', '1100003021', '1100003022', '1100003026', '1100003030', '1100003032', '1100003035', '1100003037', '1100003038', '1100003040', '1100003043', '1100003048', '1100003052', '1100003055', '1100003063', '1100003068', '1100003070', '1100003073', '1100003078', '1100003083', '1100003086', '1100003090', '1100003093', '1100003094', '1100003096', '1100003098', '1100003100', '1100003122', '1100003127', '1100003128', '1100003136', '1100003143', '1100003144', '1100003147', '1100003149', '1100003150', '1100003166', '1100003170', '1100003172', '1100003175', '1100003176', '1100003179', '1100003188', '1100003190', '1100003193', '1100003199', '1100003213', '1100003220', '1100003238', '1100003244', '1100003248', '1100003252', '1100003253', '1100003254', '1100003260', '1100003261', '1100003262', '1100003267', '1100003270', '1100003271', '1100003272', '1100003273', '1100003274', '1100003275', '1100003277', '1100003278', '1100003280', '1100003283', '1100003287', '1100003288', '1100003290', '1100003291', '1100003294', '1100003299', '1100003300', '1100003303', '1100003305', '1100003311', '1100003315', '1100003316', '1100003318', '1100003319', '1100003320', '1100003323', '1100003325', '1100003327', '1100003328', '1100003330', '1100003331', '1100003333', '1100003334', '1100003335', '1100003338', '1100003341', '1100003342', '1100003343', '1100003346', '1100003351', '1100003352', '1100003355', '1100003356', '1100003357', '1100003364', '1100003369', '1100003370', '1100003378', '1100003384', '1100003386', '1100003387', '1100003388', '1100003393', '1100003394', '1100003399', '1100003401', '1100003403', '1100003412', '1100003414', '1100003420', '1100003422', '1100003427', '1100003428', '1100003440', '1100003449', '1100003453', '1100003455', '1100003456', '1100003459', '1100003463', '1100003468', '1100003482', '1100003489', '1100003490', '1100003493', '1100003494', '1100003497', '1100003500', '1100003512', '1100003513', '1100003521', '1100003523', '1100003530', '1100003549', '1100003554', '1100003555', '1100003556', '1100003561', '1100003564', '1100003567', '1100003571', '1100003572', '1100003573', '1100003575', '1100003580', '1100003582', '1100003590', '1100003593', '1100003596', '1100003603', '1100003604', '1100003605', '1100003608', '1100003611', '1100003615', '1100003617', '1100003620', '1100003623', '1100003624', '1100003627', '1100003628', '1100003630', '1100003632', '1100003633', '1100003639', '1100003642', '1100003648', '1100003656', '1100003659', '1100003660', '1100003663', '1100003664', '1100003667', '1100003670', '1100003672', '1100003674', '1100003680', '1100003681', '1100003685', '1100003688', '1100003689', '1100003691', '1100003695', '1100003697', '1100003699', '1100003709', '1100003710', '1100003711', '1100003713', '1100003714', '1100003716', '1100003720', '1100003721', '1100003725', '1100003726', '1100003729', '1100003732', '1100003740', '1100003743', '1100003744', '1100003747', '1100003750', '1100003753', '1100003755', '1100003756', '1100003760', '1100003763', '1100003764', '1100003765', '1100003768', '1100003771', '1100003779', '1100003783', '1100003787', '1100003789', '1100003790', '1100003791', '1100003797', '1100003804', '1100003807', '1100003808', '1100003814', '1100003815', '1100003819', '1100003821', '1100003826', '1100003828', '1100003830', '1100003831', '1100003836', '1100003846', '1100003850', '1100003852', '1100003854', '1100003855', '1100003860', '1100003866', '1100003867', '1100003874', '1100003877', '1100003885', '1100003890', '1100003891', '1100003893', '1100003901', '1100003903', '1100003904', '1100003912', '1100003917', '1100003922', '1100003927', '1100003931', '1100003932', '1100003935', '1100003939', '1100003944', '1100003951', '1100003955', '1100003969', '1100003972', '1100003973', '1100003974', '1100003976', '1100003977', '1100003979', '1100003981', '1100003983', '1100003987', '1100003993', '1100003997', '1100004005', '1100004007', '1100004025', '1100004029', '1100004032', '1100004033', '1100004039', '1100004040', '1100004041', '1100004042', '1100004044', '1100004047', '1100004051', '1100004055', '1100004056', '1100004064', '1100004073', '1100004075', '1100004078', '1100004080', '1100004082', '1100004084', '1100004088', '1100004090', '1100004097', '1100004102', '1100004108', '1100004110', '1100004111', '1100004115', '1100004119', '1100004125', '1100004126', '1100004140', '1100004143', '1100004154', '1100004161', '1100004164', '1100004177', '1100004178', '1100004179', '1100004181', '1100004182', '1100004184', '1100004186', '1100004187', '1100004188', '1100004189', '1100004191', '1100004197', '1100004199', '1100004209', '1100004210', '1100004211', '1100004212', '1100004213', '1100004214', '1100004215', '1100004216', '1100004217', '1100004218', '1100004219', '1100004220', '1100004225', '1100004227', '1100004228', '1100004232', '1100004237', '1100004241', '1100004243', '1100004248', '1100004256', '1100004260', '1100004261', '1100004263', '1100004268', '1100004271', '1100004272', '1100004278', '1100004283', '1100004285', '1100004290', '1100004291', '1100004293', '1100004297', '1100004298', '1100004300', '1100004301', '1100004303', '1100004305', '1100004306', '1100004309', '1100004313', '1100004316', '1100004320', '1100004321', '1100004322', '1100004323', '1100004329', '1100004331', '1100004333', '1100004339', '1100004343', '1100004349', '1100004352', '1100004355', '1100004357', '1100004359', '1100004361', '1100004364', '1100004365', '1100004367', '1100004371', '1100004382', '1100004394', '1100004396', '1100004398', '1100004402', '1100004405', '1100004407', '1100004420', '1100004422', '1100004424', '1100004425', '1100004426', '1100004430', '1100004432', '1100004435', '1100004436', '1100004440', '1100004442', '1100004445', '1100004446', '1100004451', '1100004452', '1100004454', '1100004455', '1100004456', '1100004457', '1100004459', '1100004461', '1100004462', '1100004463', '1100004464', '1100004466', '1100004468', '1100004470', '1100004471', '1100004475', '1100004477', '1100004478', '1100004484', '1100004485', '1100004487', '1100004488', '1100004490', '1100004492', '1100004495', '1100004496', '1100004497', '1100004498', '1100004500', '1100004507', '1100004509', '1100004511', '1100004513', '1100004516', '1100004517', '1100004519', '1100004521', '1100004523', '1100004526', '1100004527', '1100004528', '1100004529', '1100004530', '1100004532', '1100004534', '1100004540', '1100004543', '1100004545', '1100004548', '1100004550', '1100004551', '1100004553', '1100004557', '1100004566', '1100004567', '1100004571', '1100004576', '1100004577', '1100004586', '1100004587', '1100004589', '1100004590', '1100004592', '1100004593', '1100004608', '1100004617', '1100004619', '1100004620', '1100004624', '1100004626', '1100004632', '1100004634', '1100004639', '1100004642', '1100004643', '1100004645', '1100004648', '1100004653', '1100004657', '1100004658', '1100004662', '1100004663', '1100004664', '1100004667', '1100004678', '1100004683', '1100004692', '1100004693', '1100004694', '1100004696', '1100004699', '1100004700', '1100004703', '1100004707', '1100004709', '1100004710', '1100004712', '1100004713', '1100004715', '1100004718', '1100004719', '1100004720', '1100004721', '1100004723', '1100004724', '1100004726', '1100004727', '1100004729', '1100004733', '1100004734', '1100004736', '1100004739', '1100004740', '1100004741', '1100004745', '1100004751', '1100004752', '1100004754', '1100004757', '1100004761', '1100004763', '1100004765', '1100004768', '1100004769', '1100004770', '1100004774', '1100004782', '1100004784', '1100004786', '1100004787', '1100004793', '1100004794', '1100004795', '1100004796', '1100004797', '1100004798', '1100004799', '1100004801', '1100004805', '1100004806', '1100004808', '1100004810', '1100004811', '1100004815', '1100004816', '1100004817', '1100004822', '1100004823', '1100004825', '1100004826', '1100004828', '1100004830', '1100004832', '1100004835', '1100004836', '1100004838', '1100004839', '1100004840', '1100004843', '1100004849', '1100004853', '1100004856', '1100004862', '1100004863', '1100004864', '1100004865', '1100004872', '1100004873', '1100004874', '1100004875', '1100004876', '1100004878', '1100004881', '1100004884', '1100004888', '1100004895', '1100004897', '1100004898', '1100004902', '1100004905', '1100004906', '1100004907', '1100004910', '1100004915', '1100004919', '1100004922', '1100004923', '1100004928', '1100004933', '1100004939', '1100004941', '1100004942', '1100004946', '1100004947', '1100004948', '1100004961', '1100004962', '1100004967', '1100004971', '1100004972', '1100004985', '1100004987', '1100004988', '1100004995', '1100004997', '1100004999', '1100005000', '1100005006', '1100005011', '1100005012', '1100005013', '1100005014', '1100005015', '1100005018', '1100005024', '1100005025', '1100005029', '1100005030', '1100005031', '1100005032', '1100005034', '1100005036', '1100005039', '1100005042', '1100005043', '1100005045', '1100005048', '1100005052', '1100005053', '1100005057', '1100005058', '1100005062', '1100005065', '1100005068', '1100005070', '1100005071', '1100005074', '1100005075', '1100005079', '1100005081', '1100005086', '1100005087', '1100005090', '1100005091', '1100005092', '1100005097', '1100005099', '1100005100', '1100005106', '1100005112', '1100005115', '1100005116', '1100005118', '1100005120', '1100005122', '1100005125', '1100005129', '1100005130', '1100005137', '1100005155', '1100005158', '1100005161', '1100005163', '1100005165', '1100005166', '1100005168', '1100005169', '1100005171', '1100005173', '1100005174', '1100005175', '1100005178', '1100005180', '1100005182', '1100005183', '1100005184', '1100005186', '1100005189', '1100005190', '1100005191', '1100005194', '1100005197', '1100005198', '1100005204', '1100005206', '1100005207', '1100005209', '1100005210', '1100005212', '1100005214', '1100005215', '1100005216', '1100005218', '1100005219', '1100005221', '1100005222', '1100005223', '1100005224', '1100005225', '1100005228', '1100005233', '1100005234', '1100005239', '1100005240', '1100005245', '1100005246', '1100005248', '1100005253', '1100005255', '1100005262', '1100005264', '1100005270', '1100005271', '1100005272', '1100005275', '1100005282', '1100005287', '1100005288', '1100005289', '1100005291', '1100005296', '1100005299', '1100005300', '1100005302', '1100005303', '1100005304', '1100005306', '1100005310', '1100005322', '1100005325', '1100005334', '1100005335', '1100005338', '1100005340', '1100005341', '1100005342', '1100005347', '1100005350', '1100005352', '1100005353', '1100005356', '1100005358', '1100005361', '1100005368', '1100005373', '1100005376', '1100005377', '1100005379', '1100005380', '1100005382', '1100005386', '1100005388', '1100005392', '1100005394', '1100005396', '1100005398', '1100005399', '1100005406', '1100005408', '1100005409', '1100005411', '1100005412', '1100005414', '1100005416', '1100005417', '1100005421', '1100005423', '1100005428', '1100005429', '1100005434', '1100005436', '1100005437', '1100005439', '1100005443', '1100005445', '1100005450', '1100005451', '1100005452', '1100005457', '1100005465', '1100005467', '1100005476', '1100005477', '1100005478', '1100005480', '1100005481', '1100005482', '1100005483', '1100005493', '1100005494', '1100005495', '1100005503', '1100005504', '1100005507', '1100005508', '1100005513', '1100005516', '1100005520', '1100005528', '1100005529', '1100005536', '1100005545', '1100005550', '1100005551', '1100005562', '1100005576', '1100005581', '1100005584', '1100005585', '1100005589', '1100005591', '1100005597', '1100005600', '1100005603', '1100005604', '1100005605', '1100005606', '1100005607', '1100005610', '1100005612', '1100005615', '1100005616', '1100005619', '1100005623', '1100005626', '1100005630', '1100005632', '1100005634', '1100005639', '1100005641', '1100005642', '1100005646', '1100005653', '1100005656', '1100005661', '1100005662', '1100005666', '1100005676', '1100005678', '1100005682', '1100005685', '1100005687', '1100005693', '1100005694', '1100005696', '1100005697', '1100005698', '1100005700', '1100005701', '1100005704', '1100005706', '1100005707', '1100005708', '1100005709', '1100005710', '1100005713', '1100005717', '1100005718', '1100005722', '1100005729', '1100005733', '1100005734', '1100005735', '1100005737', '1100005738', '1100005739', '1100005744', '1100005748', '1100005752', '1100005761', '1100005765', '1100005770', '1100005771', '1100005772', '1100005774', '1100005775', '1100005776', '1100005777', '1100005778', '1100005781', '1100005788', '1100005791', '1100005793', '1100005796', '1100005797', '1100005798', '1100005801', '1100005805', '1100005808', '1100005813', '1100005818', '1100005822', '1100005826', '1100005830', '1100005831', '1100005852', '1100005858', '1100005860', '1100005863', '1100005866', '1100005867', '1100005873', '1100005874', '1100005875', '1100005877', '1100005882', '1100005883', '1100005884', '1100005891', '1100005892', '1100005893', '1100005897', '1100005899', '1100005900', '1100005904', '1100005908', '1100005909', '1100005911', '1100005913', '1100005916', '1100005922', '1100005923', '1100005924', '1100005927', '1100005928', '1100005935', '1100005936', '1100005937', '1100005948', '1100005951', '1100005954', '1100005962', '1100005963', '1100005964', '1100005966', '1100005969', '1100005970', '11000</t>
         </is>
@@ -578,18 +591,26 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9/12/2015</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>03/25/2011</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>2597274</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1864</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['01/13/2011', '01/13/2012', '01/13/2013', '01/13/2014', '01/13/2015', '01/13/2016', '01/14/2011', '01/14/2012', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2011', '01/15/2012', '01/15/2013', '01/15/2014', '01/15/2015', '01/15/2016', '01/16/2011', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/16/2016', '01/17/2011', '01/17/2012', '01/17/2013', '01/17/2014', '01/17/2015', '01/17/2016', '01/18/2011', '01/18/2012', '01/18/2013', '01/18/2014', '01/18/2015', '01/18/2016', '01/19/2011', '01/19/2012', '01/19/2013', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2011', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2011', '01/21/2012', '01/21/2013', '01/21/2014', '01/21/2015', '01/21/2016', '01/22/2011', '01/22/2012', '01/22/2013', '01/22/2014', '01/22/2015', '01/22/2016', '01/23/2011', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/23/2016', '01/24/2011', '01/24/2012', '01/24/2013', '01/24/2014', '01/24/2015', '01/24/2016', '01/25/2011', '01/25/2012', '01/25/2013', '01/25/2014', '01/25/2015', '01/25/2016', '01/26/2011', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2011', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2011', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2015', '01/28/2016', '01/29/2011', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2011', '01/30/2012', '01/30/2013', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2011', '01/31/2012', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/13/2011', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/14/2011', '02/14/2012', '02/14/2013', '02/14/2014', '02/14/2015', '02/15/2011', '02/15/2012', '02/15/2013', '02/15/2014', '02/15/2015', '02/16/2011', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2011', '02/17/2012', '02/17/2013', '02/17/2014', '02/17/2015', '02/18/2011', '02/18/2012', '02/18/2013', '02/18/2014', '02/18/2015', '02/19/2011', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2011', '02/20/2012', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2011', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2011', '02/22/2012', '02/22/2013', '02/22/2014', '02/22/2015', '02/23/2011', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2011', '02/24/2012', '02/24/2013', '02/24/2014', '02/24/2015', '02/25/2011', '02/25/2012', '02/25/2013', '02/25/2014', '02/25/2015', '02/26/2011', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2011', '02/27/2012', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2011', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/13/2011', '03/13/2012', '03/13/2013', '03/13/2014', '03/13/2015', '03/14/2011', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2011', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2011', '03/16/2012', '03/16/2013', '03/16/2014', '03/16/2015', '03/17/2011', '03/17/2012', '03/17/2013', '03/17/2014', '03/17/2015', '03/18/2011', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2011', '03/19/2012', '03/19/2013', '03/19/2014', '03/19/2015', '03/20/2011', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2011', '03/21/2012', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2011', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2011', '03/23/2012', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2011', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2011', '03/25/2012', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2011', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2011', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2011', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2011', '03/29/2012', '03/29/2013', '03/29/2014', '03/29/2015', '03/30/2011', '03/30/2012', '03/30/2013', '03/30/2014', '03/30/2015', '03/31/2011', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/13/2011', '04/13/2012', '04/13/2013', '04/13/2014', '04/13/2015', '04/14/2011', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2011', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2011', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2011', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2011', '04/18/2012', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2011', '04/19/2012', '04/19/2013', '04/19/2014', '04/19/2015', '04/20/2011', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2011', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2011', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2011', '04/23/2012', '04/23/2013', '04/23/2014', '04/23/2015', '04/24/2011', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2011', '04/25/2012', '04/25/2013', '04/25/2014', '04/25/2015', '04/26/2011', '04/26/2012', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2011', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2011', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2011', '04/29/2012', '04/29/2013', '04/29/2014', '04/29/2015', '04/30/2011', '04/30/2012', '04/30/2013', '04/30/2014', '04/30/2015', '05/13/2011', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2011', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2011', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2011', '05/16/2012', '05/16/2013', '05/16/2014', '05/16/2015', '05/17/2011', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2011', '05/18/2012', '05/18/2013', '05/18/2014', '05/18/2015', '05/19/2011', '05/19/2012', '05/19/2013', '05/19/2014', '05/19/2015', '05/20/2011', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2011', '05/21/2012', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2011', '05/22/2012', '05/22/2013', '05/22/2014', '05/22/2015', '05/23/2011', '05/23/2012', '05/23/2013', '05/23/2014', '05/23/2015', '05/24/2011', '05/24/2012', '05/24/2013', '05/24/2014', '05/24/2015', '05/25/2011', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2011', '05/26/2012', '05/26/2013', '05/26/2014', '05/26/2015', '05/27/2011', '05/27/2012', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2011', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2011', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2011', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2011', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/13/2011', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2011', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2011', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2011', '06/16/2012', '06/16/2013', '06/16/2014', '06/16/2015', '06/17/2011', '06/17/2012', '06/17/2013', '06/17/2014', '06/17/2015', '06/18/2011', '06/18/2012', '06/18/2013', '06/18/2014', '06/18/2015', '06/19/2011', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2011', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2011', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2011', '06/22/2012', '06/22/2013', '06/22/2014', '06/22/2015', '06/23/2011', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2011', '06/24/2012', '06/24/2013', '06/24/2014', '06/24/2015', '06/25/2011', '06/25/2012', '06/25/2013', '06/25/2014', '06/25/2015', '06/26/2011', '06/26/2012', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2011', '06/27/2012', '06/27/2013', '06/27/2014', '06/27/2015', '06/28/2011', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2011', '06/29/2012', '06/29/2013', '06/29/2014', '06/29/2015', '06/30/2011', '06/30/2012', '06/30/2013', '06/30/2014', '06/30/2015', '07/13/2011', '07/13/2012', '07/13/2013', '07/13/2014', '07/13/2015', '07/14/2011', '07/14/2012', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2011', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2011', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2011', '07/17/2012', '07/17/2013', '07/17/2014', '07/17/2015', '07/18/2011', '07/18/2012', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2011', '07/19/2012', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2011', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2011', '07/21/2012', '07/21/2013', '07/21/2014', '07/21/2015', '07/22/2011', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2011', '07/23/2012', '07/23/2013', '07/23/2014', '07/23/2015', '07/24/2011', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2011', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2011', '07/26/2012', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2011', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2011', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2011', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2011', '07/30/2012', '07/30/2013', '07/30/2014', '07/30/2015', '07/31/2011', '07/31/2012', '07/31/2013', '07/31/2014', '07/31/2015', '08/13/2011', '08/13/2012', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2011', '08/14/2012', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2011', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2011', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2011', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2011', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2011', '08/19/2012', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2011', '08/20/2012', '08/20/2013', '08/20/2014', '08/20/2015', '08/21/2011', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2011', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2011', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2011', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2011', '08/25/2012', '08/25/2013', '08/25/2014', '08/25/2015', '08/26/2011', '08/26/2012', '08/26/2013', '08/26/2014', '08/26/2015', '08/27/2011', '08/27/2012', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2011', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2011', '08/29/2012', '08/29/2013', '08/29/2014', '08/29/2015', '08/30/2011', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2011', '08/31/2012', '08/31/2013', '08/31/2014', '08/31/2015', '09/13/2011', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2011', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2011', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2011', '09/16/2012', '09/16/2013', '09/16/2014', '09/16/2015', '09/17/2011', '09/17/2012', '09/17/2013', '09/17/2014', '09/17/2015', '09/18/2011', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2011', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2011', '09/20/2012', '09/20/2013', '09/20/2014', '09/20/2015', '09/21/2011', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2011', '09/22/2012', '09/22/2013', '09/22/2014', '09/22/2015', '09/23/2011', '09/23/2012', '09/23/2013', '09/23/2014', '09/23/2015', '09/24/2011', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2011', '09/25/2012', '09/25/2013', '09/25/2014', '09/25/2015', '09/26/2011', '09/26/2012', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2011', '09/27/2012', '09/27/2013', '09/27/2014', '09/27/2015', '09/28/2011', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2011', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2011', '09/30/2012', '09/30/2013', '09/30/2014', '09/30/2015', '1/01/2011', '1/01/2012', '1/01/2013', '1/01/2014', '1/01/2015', '1/01/2016', '1/02/2011', '1/02/2012', '1/02/2013', '1/02/2014', '1/02/2015', '1/02/2016', '1/03/2011', '1/03/2012', '1/03/2013', '1/03/2014', '1/03/2015', '1/03/2016', '1/04/2011', '1/04/2012', '1/04/2013', '1/04/2014', '1/04/2015', '1/04/2016', '1/05/2011', '1/05/2012', '1/05/2013', '1/05/2014', '1/05/2015', '1/05/2016', '1/06/2011', '1/06/2012', '1/06/2013', '1/06/2014', '1/06/2015', '1/06/2016', '1/07/2011', '1/07/2012', '1/07/2013', '1/07/2014', '1/07/2015', '1/07/2016', '1/08/2011', '1/08/2012', '1/08/2013', '1/08/2014', '1/08/2015', '1/08/2016', '1/09/2011', '1/09/2012', '1/09/2013', '1/09/2014', '1/09/2015', '1/09/2016', '1/10/2011', '1/10/2012', '1/10/2013', '1/10/2014', '1/10/2015', '1/10/2016', '1/11/2011', '1/11/2012', '1/11/2013', '1/11/2014', '1/11/2015', '1/11/2016', '1/12/2011', '1/12/2012', '1/12/2013', '1/12/2014', '1/12/2015', '1/12/2016', '10/01/2011', '10/01/2012', '10/01/2013', '10/01/2014', '10/01/2015', '10/02/2011', '10/02/2012', '10/02/2013', '10/02/2014', '10/02/2015', '10/03/2011', '10/03/2012', '10/03/2013', '10/03/2014', '10/03/2015', '10/04/2011', '10/04/2012', '10/04/2013', '10/04/2014', '10/04/2015', '10/05/2011', '10/05/2012', '10/05/2013', '10/05/2014', '10/05/2015', '10/06/2011', '10/06/2012', '10/06/2013', '10/06/2014', '10/06/2015', '10/07/2011', '10/07/2012', '10/07/2013', '10/07/2014', '10/07/2015', '10/08/2011', '10/08/2012', '10/08/2013', '10/08/2014', '10/08/2015', '10/09/2011', '10/09/2012', '10/09/2013', '10/09/2014', '10/09/2015', '10/10/2011', '10/10/2012', '10/10/2013', '10/10/2014', '10/10/2015', '10/11/2011', '10/11/2012', '10/11/2013', '10/11/2014', '10/11/2015', '10/12/2011', '10/12/2012', '10/12/2013', '10/12/2014', '10/12/2015', '10/13/2011', '10/13/2012', '10/13/2013', '10/13/2014', '10/13/2015', '10/14/2011', '10/14/2012', '10/14/2013', '10/14/2014', '10/14/2015', '10/15/2011', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2011', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2011', '10/17/2012', '10/17/2013', '10/17/2014', '10/17/2015', '10/18/2011', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2011', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2011', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2011', '10/21/2012', '10/21/2013', '10/21/2014', '10/21/2015', '10/22/2011', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2011', '10/23/2012', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2011', '10/24/2012', '10/24/2013', '10/24/2014', '10/24/2015', '10/25/2011', '10/25/2012', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2011', '10/26/2012', '10/26/2013', '10/26/2014', '10/26/2015', '10/27/2011', '10/27/2012', '10/27/2013', '10/27/2014', '10/27/2015', '10/28/2011', '10/28/2012', '10/28/2013', '10/28/2014', '10/28/2015', '10/29/2011', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2011', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2011', '10/31/2012', '10/31/2013', '10/31/2014', '10/31/2015', '11/01/2011', '11/01/2012', '11/01/2013', '11/01/2014', '11/01/2015', '11/02/2011', '11/02/2012', '11/02/2013', '11/02/2014', '11/02/2015', '11/03/2011', '11/03/2012', '11/03/2013', '11/03/2014', '11/03/2015', '11/04/2011', '11/04/2012', '11/04/2013', '11/04/2014', '11/04/2015', '11/05/2011', '11/05/2012', '11/05/2013', '11/05/2014', '11/05/2015', '11/06/2011', '11/06/2012', '11/06/2013', '11/06/2014', '11/06/2015', '11/07/2011', '11/07/2012', '11/07/2013', '11/07/2014', '11/07/2015', '11/08/2011', '11/08/2012', '11/08/2013', '11/08/2014', '11/08/2015', '11/09/2011', '11/09/2012', '11/09/2013', '11/09/2014', '11/09/2015', '11/10/2011', '11/10/2012', '11/10/2013', '11/10/2014', '11/10/2015', '11/11/2011', '11/11/2012', '11/11/2013', '11/11/2014', '11/11/2015', '11/12/2011', '11/12/2012', '11/12/2013', '11/12/2014', '11/12/2015', '11/13/2011', '11/13/2012', '11/13/2013', '11/13/2014', '11/13/2015', '11/14/2011', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2011', '11/15/2012', '11/15/2013', '11/15/2014', '11/15/2015', '11/16/2011', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2011', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2011', '11/18/2012', '11/18/2013', '11/18/2014', '11/18/2015', '11/19/2011', '11/19/2012', '11/19/2013', '11/19/2014', '11/19/2015', '11/20/2011', '11/20/2012', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2011', '11/21/2012', '11/21/2013', '11/21/2014', '11/21/2015', '11/22/2011', '11/22/2012', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2011', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2011', '11/24/2012', '11/24/2013', '11/24/2014', '11/24/2015', '11/25/2011', '11/25/2012', '11/25/2013', '11/25/2014', '11/25/2015', '11/26/2011', '11/26/2012', '11/26/2013', '11/26/2014', '11/26/2015', '11/27/2011', '11/27/2012', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2011', '11/28/2012', '11/28/2013', '11/28/2014', '11/28/2015', '11/29/2011', '11/29/2012', '11/29/2013', '11/29/2014', '11/29/2015', '11/30/2011', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '12/01/2011', '12/01/2012', '12/01/2013', '12/01/2014', '12/01/2015', '12/02/2011', '12/02/2012', '12/02/2013', '12/02/2014', '12/02/2015', '12/03/2011', '12/03/2012', '12/03/2013', '12/03/2014', '12/03/2015', '12/04/2011', '12/04/2012', '12/04/2013', '12/04/2014', '12/04/2015', '12/05/2011', '12/05/2012', '12/05/2013', '12/05/2014', '12/05/2015', '12/06/2011', '12/06/2012', '12/06/2013', '12/06/2014', '12/06/2015', '12/07/2011', '12/07/2012', '12/07/2013', '12/07/2014', '12/07/2015', '12/08/2011', '12/08/2012', '12/08/2013', '12/08/2014', '12/08/2015', '12/09/2011', '12/09/2012', '12/09/2013', '12/09/2014', '12/09/2015', '12/10/2011', '12/10/2012', '12/10/2013', '12/10/2014', '12/10/2015', '12/11/2011', '12/11/2012', '12/11/2013', '12/11/2014', '12/11/2015', '12/12/2011', '12/12/2012', '12/12/2013', '12/12/2014', '12/12/2015', '12/13/2011', '12/13/2012', '12/13/2013', '12/13/2014', '12/13/2015', '12/14/2011', '12/14/2012', '12/14/2013', '12/14/2014', '12/14/2015', '12/15/2011', '12/15/2012', '12/15/2013', '12/15/2014', '12/15/2015', '12/16/2011', '12/16/2012', '12/16/2013', '12/16/2014', '12/16/2015', '12/17/2011', '12/17/2012', '12/17/2013', '12/17/2014', '12/17/2015', '12/18/2011', '12/18/2012', '12/18/2013', '12/18/2014', '12/18/2015', '12/19/2011', '12/19/2012', '12/19/2013', '12/19/2014', '12/19/2015', '12/20/2011', '12/20/2012', '12/20/2013', '12/20/2014', '12/20/2015', '12/21/2011', '12/21/2012', '12/21/2013', '12/21/2014', '12/21/2015', '12/22/2011', '12/22/2012', '12/22/2013', '12/22/2014', '12/22/2015', '12/23/2011', '12/23/2012', '12/23/2013', '12/23/2014', '12/23/2015', '12/24/2011', '12/24/2012', '12/24/2013', '12/24/2014', '12/24/2015', '12/25/2011', '12/25/2012', '12/25/2013', '12/25/2014', '12/25/2015', '12/26/2011', '12/26/2012', '12/26/2013', '12/26/2014', '12/26/2015', '12/27/2011', '12/27/2012', '12/27/2013', '12/27/2014', '12/27/2015', '12/28/2011', '12/28/2012', '12/28/2013', '12/28/2014', '12/28/2015', '12/29/2011', '12/29/2012', '12/29/2013', '12/29/2014', '12/29/2015', '12/30/2011', '12/30/2012', '12/30/2013', '12/30/2014', '12/30/2015', '12/31/2011', '12/31/2012', '12/31/2013', '12/31/2014', '12/31/2015', '2/01/2011', '2/01/2012', '2/01/2013', '2/01/2014', '2/01/2015', '2/01/2016', '2/02/2011', '2/02/2012', '2/02/2013', '2/02/2014', '2/02/2015', '2/02/2016', '2/03/2011', '2/03/2012', '2/03/2013', '2/03/2014', '2/03/2015', '2/03/2016', '2/04/2011', '2/04/2012', '2/04/2013', '2/04/2014', '2/04/2015', '2/04/2016', '2/05/2011', '2/05/2012', '2/05/2013', '2/05/2014', '2/05/2015', '2/05/2016', '2/06/2011', '2/06/2012', '2/06/2013', '2/06/2014', '2/06/2015', '2/06/2016', '2/07/2011', '2/07/2012', '2/07/2013', '2/07/2014', '2/07/2015', '2/07/2016', '2/08/2011', '2/08/2012', '2/08/2013', '2/08/2014', '2/08/2015', '2/09/2011', '2/09/2012', '2/09/2013', '2/09/2014', '2/09/2015', '2/10/2011', '2/10/2012', '2/10/2013', '2/10/2014', '2/10/2015', '2/11/2011', '2/11/2012', '2/11/2013', '2/11/2014', '2/11/2015', '2/12/2011', '2/12/2012', '2/12/2013', '2/12/2014', '2/12/2015', '3/01/2011', '3/01/2012', '3/01/2013', '3/01/2014', '3/01/2015', '3/02/2011', '3/02/2012', '3/02/2013', '3/02/2014', '3/02/2015', '3/03/2011', '3/03/2012', '3/03/2013', '3/03/2014', '3/03/2015', '3/04/2011', '3/04/2012', '3/04/2013', '3/04/2014', '3/04/2015', '3/05/2011', '3/05/2012', '3/05/2013', '3/05/2014', '3/05/2015', '3/06/2011', '3/06/2012', '3/06/2013', '3/06/2014', '3/06/2015', '3/07/2011', '3/07/2012', '3/07/2013', '3/07/2014', '3/07/2015', '3/08/2011', '3/08/2012', '3/08/2013', '3/08/2014', '3/08/2015', '3/09/2011', '3/09/2012', '3/09/2013', '3/09/2014', '3/09/2015', '3/10/2011', '3/10/2012', '3/10/2013', '3/10/2014', '3/10/2015', '3/11/2011', '3/11/2012', '3/11/2013', '3/11/2014', '3/11/2015', '3/12/2011', '3/12/2012', '3/12/2013', '3/12/2014', '3/12/2015', '4/01/2011', '4/01/2012', '4/01/2013', '4/01/2014', '4/01/2015', '4/02/2011', '4/02/2012', '4/02/2013', '4/02/2014', '4/02/2015', '4/03/2011', '4/03/2012', '4/03/2013', '4/03/2014', '4/03/2015', '4/04/2011', '4/04/2012', '4/04/2013', '4/04/2014', '4/04/2015', '4/05/2011', '4/05/2012', '4/05/2013', '4/05/2014', '4/05/2015', '4/06/2011', '4/06/2012', '4/06/2013', '4/06/2014', '4/06/2015', '4/07/2011', '4/07/2012', '4/07/2013', '4/07/2014', '4/07/2015', '4/08/2011', '4/08/2012', '4/08/2013', '4/08/2014', '4/08/2015', '4/09/2011', '4/09/2012', '4/09/2013', '4/09/2014', '4/09/2015', '4/10/2011', '4/10/2012', '4/10/2013', '4/10/2014', '4/10/2015', '4/11/2011', '4/11/2012', '4/11/2013', '4/11/2014', '4/11/2015', '4/12/2011', '4/12/2012', '4/12/2013', '4/12/2014', '4/12/2015', '5/01/2011', '5/01/2012', '5/01/2013', '5/01/2014', '5/01/2015', '5/02/2011', '5/02/2012', '5/02/2013', '5/02/2014', '5/02/2015', '5/03/2011', '5/03/2012', '5/03/2013', '5/03/2014', '5/03/2015', '5/04/2011', '5/04/2012', '5/04/2013', '5/04/2014', '5/04/2015', '5/05/2011', '5/05/2012', '5/05/2013', '5/05/2014', '5/05/2015', '5/06/2011', '5/06/2012', '5/06/2013', '5/06/2014', '5/06/2015', '5/07/2011', '5/07/2012', '5/07/2013', '5/07/2014', '5/07/2015', '5/08/2011', '5/08/2012', '5/08/2013', '5/08/2014', '5/08/2015', '5/09/2011', '5/09/2012', '5/09/2013', '5/09/2014', '5/09/2015', '5/10/2011', '5/10/2012', '5/10/2013', '5/10/2014', '5/10/2015', '5/11/2011', '5/11/2012', '5/11/2013', '5/11/2014', '5/11/2015', '5/12/2011', '5/12/2012', '5/12/2013', '5/12/2014', '5/12/2015', '6/01/2011', '6/01/2012', '6/01/2013', '6/01/2014', '6/01/2015', '6/02/2011', '6/02/2012', '6/02/2013', '6/02/2014', '6/02/2015', '6/03/2011', '6/03/2012', '6/03/2013', '6/03/2014', '6/03/2015', '6/04/2011', '6/04/2012', '6/04/2013', '6/04/2014', '6/04/2015', '6/05/2011', '6/05/2012', '6/05/2013', '6/05/2014', '6/05/2015', '6/06/2011', '6/06/2012', '6/06/2013', '6/06/2014', '6/06/2015', '6/07/2011', '6/07/2012', '6/07/2013', '6/07/2014', '6/07/2015', '6/08/2011', '6/08/2012', '6/08/2013', '6/08/2014', '6/08/2015', '6/09/2011', '6/09/2012', '6/09/2013', '6/09/2014', '6/09/2015', '6/10/2011', '6/10/2012', '6/10/2013', '6/10/2014', '6/10/2015', '6/11/2011', '6/11/2012', '6/11/2013', '6/11/2014', '6/11/2015', '6/12/2011', '6/12/2012', '6/12/2013', '6/12/2014', '6/12/2015', '7/01/2011', '7/01/2012', '7/01/2013', '7/01/2014', '7/01/2015', '7/02/2011', '7/02/2012', '7/02/2013', '7/02/2014', '7/02/2015', '7/03/2011', '7/03/2012', '7/03/2013', '7/03/2014', '7/03/2015', '7/04/2011', '7/04/2012', '7/04/2013', '7/04/2014', '7/04/2015', '7/05/2011', '7/05/2012', '7/05/2013', '7/05/2014', '7/05/2015', '7/06/2011', '7/06/2012', '7/06/2013', '7/06/2014', '7/06/2015', '7/07/2011', '7/07/2012', '7/07/2013', '7/07/2014', '7/07/2015', '7/08/2011', '7/08/2012', '7/08/2013', '7/08/2014', '7/08/2015', '7/09/2011', '7/09/2012', '7/09/2013', '7/09/2014', '7/09/2015', '7/10/2011', '7/10/2012', '7/10/2013', '7/10/2014', '7/10/2015', '7/11/2011', '7/11/2012', '7/11/2013', '7/11/2014', '7/11/2015', '7/12/2011', '7/12/2012', '7/12/2013', '7/12/2014', '7/12/2015', '8/01/2011', '8/01/2012', '8/01/2013', '8/01/2014', '8/01/2015', '8/02/2011', '8/02/2012', '8/02/2013', '8/02/2014', '8/02/2015', '8/03/2011', '8/03/2012', '8/03/2013', '8/03/2014', '8/03/2015', '8/04/2011', '8/04/2012', '8/04/2013', '8/04/2014', '8/04/2015', '8/05/2011', '8/05/2012', '8/05/2013', '8/05/2014', '8/05/2015', '8/06/2011', '8/06/2012', '8/06/2013', '8/06/2014', '8/06/2015', '8/07/2011', '8/07/2012', '8/07/2013', '8/07/2014', '8/07/2015', '8/08/2011', '8/08/2012', '8/08/2013', '8/08/2014', '8/08/2015', '8/09/2011', '8/09/2012', '8/09/2013', '8/09/2014', '8/09/2015', '8/10/2011', '8/10/2012', '8/10/2013', '8/10/2014', '8/10/2015', '8/11/2011', '8/11/2012', '8/11/2013', '8/11/2014', '8/11/2015', '8/12/2011', '8/12/2012', '8/12/2013', '8/12/2014', '8/12/2015', '9/01/2011', '9/01/2012', '9/01/2013', '9/01/2014', '9/01/2015', '9/02/2011', '9/02/2012', '9/02/2013', '9/02/2014', '9/02/2015', '9/03/2011', '9/03/2012', '9/03/2013', '9/03/2014', '9/03/2015', '9/04/2011', '9/04/2012', '9/04/2013', '9/04/2014', '9/04/2015', '9/05/2011', '9/05/2012', '9/05/2013', '9/05/2014', '9/05/2015', '9/06/2011', '9/06/2012', '9/06/2013', '9/06/2014', '9/06/2015', '9/07/2011', '9/07/2012', '9/07/2013', '9/07/2014', '9/07/2015', '9/08/2011', '9/08/2012', '9/08/2013', '9/08/2014', '9/08/2015', '9/09/2011', '9/09/2012', '9/09/2013', '9/09/2014', '9/09/2015', '9/10/2011', '9/10/2012', '9/10/2013', '9/10/2014', '9/10/2015', '9/11/2011', '9/11/2012', '9/11/2013', '9/11/2014', '9/11/2015', '9/12/2011', '9/12/2012', '9/12/2013', '9/12/2014', '9/12/2015']</t>
         </is>
@@ -648,18 +669,26 @@
       <c r="P4" t="n">
         <v>3796</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Jan-35</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>950325</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>1448</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['0', '082-', '090O', '1', '10', '100', '1000', '1001', '1002', '1003', '1004', '1005', '1006', '1007', '1008', '1009', '101', '1010', '1011', '1012', '1013', '1014', '1015', '1016', '1017', '1018', '1019', '102', '1020', '1021', '1022', '1023', '1024', '1025', '1026', '1027', '1028', '1029', '103', '1030', '1031', '1032', '1033', '1034', '1035', '1036', '1037', '1038', '1039', '103O', '104', '1040', '1041', '1042', '1043', '1044', '1045', '1046', '1047', '1048', '1049', '105', '1050', '1051', '1052', '1053', '1054', '1055', '1056', '1057', '1058', '1059', '106', '107', '108', '109', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '1129', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1137', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '117', '118', '119', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1210', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '127', '128', '129', '13', '130', '1300', '1301', '1302', '1303', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1323', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1343', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '137', '138', '139', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1418', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1427', '1428', '1429', '143', '1430', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '1439', '144', '1440', '1441', '1442', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1452', '1453', '1454', '1455', '1456', '1457', '1458', '1459', '146', '147', '148', '149', '15', '150', '1500', '1501', '1502', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1551', '1552', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '157', '158', '159', '16', '1600', '1601', '1602', '1603', '1604', '1605', '1606', '1607', '1608', '1609', '1610', '1611', '1612', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '1628', '1629', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '1640', '1641', '1642', '1643', '1644', '1645', '1646', '1647', '1648', '1649', '1650', '1651', '1652', '1653', '1654', '1655', '1656', '1657', '1658', '1659', '17', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '1720', '1721', '1722', '1723', '1724', '1725', '1726', '1727', '1728', '1729', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '174:00:00', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '18', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1817', '1818', '1819', '1820', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '19', '1900', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193-', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '202O', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '207', '208', '209', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '210:00:00', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '217', '218', '219', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '227', '228', '229', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '237', '238', '239', '24', '240', '241', '242', '243', '244', '245', '246', '247', '248', '249', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '26', '27', '28', '29', '3', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '32', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '330', '331', '332', '333', '334', '335', '336', '337', '338', '339', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '35', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '37', '38', '39', '4', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '41', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '47', '48', '49', '5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '54', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '56', '57', '58', '59', '6', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '620', '621', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651', '652', '653', '654', '655', '656', '657', '658', '659', '7', '700', '701', '702', '703', '704', '705', '706', '707', '708', '709', '710', '711', '712', '713', '714', '715', '716', '717', '718', '719', '720', '721', '722', '723', '724', '725', '726', '727', '728', '729', '730', '731', '732', '733', '734', '735', '736', '737', '738', '739', '740', '741', '742', '743', '744', '745', '746', '747', '748', '749', '750', '751', '752', '753', '754', '755', '756', '757', '758', '759', '8', '800', '801', '802', '803', '804', '805', '806', '807', '808', '809', '810', '811', '812', '813', '814', '815', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '827', '828', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '844', '845', '846', '847', '848', '849', '850', '851', '852', '853', '854', '855', '856', '857', '858', '859', '9', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916', '917', '918', '919', '920', '921', '922', '923', '924', '925', '926', '927', '928', '929', '930', '931', '932', '933', '934', '935', '936', '937', '938', '939', '940', '941', '942', '943', '944', '945', '946', '947', '948', '949', '950', '951', '952', '953', '954', '955', '956', '957', '958', '959', 'Jan-35']</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>VICE</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>2526035</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>17</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['ASSAULT', 'BATTERY', 'BUSINESS ROBBERY', 'CRIMINAL DAMAGE TO PROPERTY', 'FIREARM', 'HOMICIDE', 'INDIVIDUAL ROBBERY', 'JUVENILE', 'NARCOTICS', 'NON-RESIDENTIAL BURGLARY', 'NUISANCE', 'OTHER', 'RESIDENTIAL BURGLARY', 'SEXUAL ASSAULT', 'THEFT', 'VEHICLE BURGLARY', 'VICE']</t>
         </is>
@@ -788,18 +825,26 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>COMMITTED</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>2409957</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['ATTEMPTED', 'COMMITTED']</t>
         </is>
@@ -858,18 +903,26 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.588194444</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>2183116</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>754</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['0.275', '0.501388889', '0.502083333', '0.504166667', '0.504861111', '0.505555556', '0.50625', '0.506944444', '0.507638889', '0.508333333', '0.509027778', '0.513888889', '0.514583333', '0.515277778', '0.515972222', '0.516666667', '0.517361111', '0.520833333', '0.522222222', '0.525', '0.527777778', '0.529861111', '0.531944444', '0.532638889', '0.533333333', '0.534722222', '0.536805556', '0.5375', '0.538194444', '0.542361111', '0.547222222', '0.548611111', '0.55', '0.553472222', '0.555555556', '0.55625', '0.556944444', '0.557638889', '0.558333333', '0.559027778', '0.561111111', '0.569444444', '0.588194444', '0.588888889', '0.589583333', '0.590972222', '0.598611111', '0.599305556', '0.600694444', '0.604166667', '0.604861111', '0.605555556', '0.60625', '0.606944444', '0.607638889', '0.611805556', '0.6125', '0.613194444', '0.613888889', '0.614583333', '0.615972222', '0.616666667', '0.61875', '0.619444444', '0.625694444', '0.626388889', '0.627083333', '0.628472222', '0.629166667', '0.630555556', '0.63125', '0.631944444', '0.632638889', '0.633333333', '0.634027778', '0.634722222', '0.635416667', '0.6375', '0.638194444', '0.638888889', '0.639583333', '0.640277778', '0.640972222', '0.641666667', '0.643055556', '0.644444444', '0.645138889', '0.645833333', '0.647222222', '0.647916667', '0.648611111', '0.649305556', '0.65', '0.650694444', '0.651388889', '0.652083333', '0.652777778', '0.653472222', '0.654166667', '0.654861111', '0.655555556', '0.65625', '0.656944444', '0.657638889', '0.658333333', '0.660416667', '0.661111111', '0.663888889', '0.664583333', '0.665277778', '0.666666667', '0.668055556', '0.673611111', '0.674305556', '0.675', '0.675694444', '0.676388889', '0.679166667', '0.6875', '0.722916667', '0.723611111', '0.726388889', '0.727083333', '0.733333333', '0.736111111', '0.736805556', '0.738888889', '0.739583333', '0.742361111', '0.743055556', '0.755555556', '0.764583333', '0.779861111', '0.780555556', '0.78125', '0.800694444', '0.810416667', '0.811111111', '0.811805556', '0.813888889', '0.814583333', '0.815277778', '0.847222222', '0.8625', '0.863194444', '0.863888889', '0.890277778', '0.916666667', '0.923611111', '00:38.1', '00:38.3', '1.001388889', '1.042361111', '1.105555556', '1.108333333', '1.111805556', '1.113194444', '1.113888889', '1.2125', '1.236805556', '1.239583333', '1.241666667', '1.243055556', '1.24375', '1.244444444', '1.245138889', '1.245833333', '1.246527778', '1.247916667', '1.248611111', '1.249305556', '1.274305556', '1.279861111', '1.563194444', '1.779861111', '10771/13.7(A)', '11:131A', '11:131C', '11:140-G', '11:22', '11:245A', '11:245B', '11:27', '11:281A', '11:30', '11:33', '11:34', '11:415-14', '11:42', '11:45', '11:45.3', '11:53B', '11:60B', '11:60C', '11:91A', '12:11.1', '12:26.1', '13:1018 D', '13:1018.1B', '13:103(1)', '13:103(2)', '13:103(3)', '13:103(4)', '13:103(5)', '13:103(6)', '13:1056.2.A', '13:1056.2.B', '13:1058.A', '13:1058.B', '13:1062A', '13:12.1', '13:27', '13:35', '13:35.1', '13:35.3', '13:37', '13:38', '13:39', '13:39.1', '13:40.1', '13:40.2', '13:41.3', '13:46', '13:56', '13:56.1', '13:59', '13:92.A', '14:03.3', '14:03.5', '14:03.6', '14:03.7', '14:07.1', '14:07.2', '14:07.6', '14:08.1', '14:08.3', '14:103A(1)', '14:103A(2)', '14:103A(3)', '14:103A(4)', '14:103A.1', '14:110A', '14:110C', '14:20', '14:220.1A(2)', '14:23.3', '14:24', '14:25', '14:26', '14:27', '14:28', '14:28.1', '14:30.1/G', '14:30.1/K', '14:30.1/O', '14:30.1/R', '14:30.2', '14:30.2/G', '14:30.2/K', '14:30/AR', '14:30/BF', '14:30/G', '14:30/K', '14:30/O', '14:30/R', '14:31', '14:31.1', '14:31.2', '14:31.3', '14:31.4', '14:31.5', '14:31.6', '14:31.7', '14:31.8', '14:31.9', '14:32', '14:32.1', '14:32.6', '14:32.7', '14:32.8', '14:34.1', '14:34.2', '14:34.3', '14:34.4', '14:34.6', '14:34.7', '14:34.8', '14:34/G', '14:34/HFF', '14:34/K', '14:34/ODW', '14:35', '14:35.1', '14:35.2', '14:35.3', '14:35/J', '14:37', '14:37.1', '14:37.2', '14:37.3', '14:37.4/A', '14:37.4A', '14:37.6', '14:37.7', '14:37/B', '14:37/C', '14:37/D', '14:37B', '14:37C', '14:37D', '14:38', '14:38.1', '14:38.2', '14:38.3', '14:38/J', '14:39', '14:39.1', '14:39.2', '14:40.1', '14:40.2', '14:40.3', '14:40.7', '14:42.1/A', '14:42.1/B', '14:42.1/O', '14:42.1/V', '14:42/A', '14:42/O', '14:42/V', '14:43', '14:43.1', '14:43.1/N', '14:43.2', '14:43.3', '14:43.3/N', '14:43.4/N', '14:43.5', '14:43/A', '14:43/O', '14:43/V', '14:44', '14:44.1', '14:44.2', '14:45', '14:45.1', '14:46', '14:46.1', '14:46.2', '14:46.3', '14:47', '14:48.2', '14:50.1', '14:50.2', '14:51', '14:52', '14:53', '14:54', '14:54.1', '14:54.2', '14:54.3', '14:54.3.1', '14:54.5', '14:55', '14:56', '14:56.1', '14:56.2', '14:56.4', '14:56/V', '14:57', '14:57/A', '14:59', '14:60/NRDF', '14:60/NRDNF', '14:60/NRNF', '14:60/NRNNF', '14:60/NRUF', '14:60/NRUNF', '14:60/RDF', '14:60/RDNF', '14:60/RNF', '14:60/RNNF', '14:60/RUF', '14:60/RUNF', '14:62.2/RDF', '14:62.2/RDNF', '14:62.2/RNF', '14:62.2/RNNF', '14:62.2/RUF', '14:62.2/RUNF', '14:62/AD', '14:62/BD', '14:62/CD', '14:62/NRDF', '14:62/NRDNF', '14:62/NRNF', '14:62/NRNNF', '14:62/NRUF', '14:62/NRUNF', '14:62/RDF', '14:62/RDNF', '14:62/RNF', '14:62/RNNF', '14:62/RUF', '14:62/RUNF', '14:64/AA', '14:64/AB', '14:64/AC', '14:64/AD', '14:64/AE', '14:64/AF', '14:64/AG', '14:64/BA', '14:64/BB', '14:64/BC', '14:64/BD', '14:64/BE', '14:64/BF', '14:64/BG', '14:64/CA', '14:64/CB', '14:64/CC', '14:64/CD', '14:64/CE', '14:64/CG', '14:64/DA', '14:64/DB', '14:64/DC', '14:64/DD', '14:64/DE', '14:64/DF', '14:64/DG', '14:67.3/A', '14:67.3/B', '14:67.3/C', '14:67/AA', '14:67/AB', '14:67/AC', '14:67/AD', '14:67/AE', '14:67/AF', '14:67/AG', '14:67/AH', '14:67/AI', '14:67/AJ', '14:67/AR', '14:67/BA', '14:67/BB', '14:67/BC', '14:67/BD', '14:67/BE', '14:67/BF', '14:67/BG', '14:67/BH', '14:67/BI', '14:67/BJ', '14:67/C', '14:67/CA', '14:67/CB', '14:67/CC', '14:67/CD', '14:67/CE', '14:67/CF', '14:67/CG', '14:67/CH', '14:67/CI', '14:67/DD', '14:67/E', '14:67/O', '14:67/T', '14:72.1.1', '14:81.1.1', '14:90.5(B)', '14:91.9 A (2)', '14:93.2.1', '14:93.2.3', '14:93/NF', '14:95.1.1', '14:95.A(3)', '14:95E', '14:98J', '15:02.1', '15:02.2', '15:02.3', '15:02.4', '15:02.5', '15:02.6', '15:02.7', '15:02.8', '15:03.3', '15:03.4', '15:04', '15:04.1', '15:04.2', '15:04.3', '15:04.4', '15:05.1', '15:05.2', '15:07.1', '15:07.2', '15:07.3', '15:07.6', '15:07.7', '15:07.9', '15:08.1', '15:08.2', '15:08.3', '15:08.4', '15:08.6', '15:08.7', '15:09.1', '15:10.1', '15:10.2', '15:10.4', '15:10.7', '15:11.1', '15:12.1', '15:12.2', '15:12.6', '15:13.1', '15:13.2', '15:13.3', '15:13.5', '15:13.6', '15:13.7', '15:18.1', '15:19.1', '15:20.1', '15:21.1', '15:21.2', '15:21.3', '15:22.1', '15:23.1', '15:23.2', '15:23.3', '15:29.1', '15:30.2', '15:31.1', '15:31.4', '15:31.7', '15:31.8', '15:32.1', '15:32.2', '15:33.1', '15:33.2', '15:33.3', '15:33.4', '15:33.5', '15:35.1', '15:35.2', '15:35.3', '15:35.5', '15:35.6', '15:35.7', '15:35.8', '15:37.1', '15:38.1', '15:38.2', '15:38.3', '15:40.1', '15:41.1', '15:42.1', '15:42.2', '15:42.5', '15:42.8', '15:43.1', '15:43.2', '15:46.1', '15:46.2', '15:47.1', '15:47.2', '15:47.3', '15:47.7', '15:48.1', '15:48.2', '15:52.1', '16:02.2', '16:06.1', '16:09.1', '16:10.1', '16:13.1', '16:13.2', '16:13.4', '16:14.1', '16:14.2', '16:35.1', '17:22.1', '17:40.1', '17:42.1', '17:43.7', '17:55.1', '19:29.1', '19:29.2', '19:29.3', '19:29.4', '19:29.6', '2.252777778', '20:43.2', '21:21', '22:1925/F', '24:02.1', '27:30.1', '29:58.1', '30:18.2', '30:2531', '30:36.4', '32:101', '32:101.C', '32:104', '32:122', '32:123', '32:123.D', '32:124', '32:125', '32:1304', '32:1308.A', '32:1308B', '32:141', '32:143', '32:143:14', '32:145', '32:190', '32:194', '32:197', '32:213B', '32:216', '32:218', '32:231', '32:232', '32:237', '32:263C', '32:281', '32:282', '32:289', '32:292', '32:295', '32:299', '32:300', '32:303', '32:304', '32:304.C', '32:319A', '32:320', '32:322', '32:329A', '32:341', '32:354', '32:398', '32:402', '32:406', '32:408C', '32:411', '32:412', '32:415', '32:421', '32:423', '32:51:00', '32:52:00', '32:53:00', '32:53D', '32:56A', '32:58:00', '32:61', '32:64', '32:64/A', '32:64B', '32:65', '32:707', '32:71', '32:726', '32:78', '32:79', '32:81', '32:82', '32:861', '32:863', '34:23.1', '35:10.1', '36:55.1', '36:59.3', '37:00.5', '37:1862', '37:1864', '37:1866', '37:1870', '38:01.1', '38:54.1', '40:1023', '40:1031', '40:1041', '40:1049', '40:1379.3 I (1)', '40:1379.3 I (2)', '40:1390', '40:1742', '40:1783', '40:1785', '40:1788', '40:1792', '40:966', '40:966A', '40:966C', '40:966E', '40:967', '40:967(2)', '40:967A', '40:967C', '40:968', '40:968A', '40:968C', '40:969', '40:969A', '40:969C', '40:970', '40:970A', '40:970C', '40:971', '40:971B', '40:971B.1.B', '40:971B.1.I', '40:979', '40:981', '40:982', '40:983', '40:989', '47:501', '47:506A', '47:507', '47:508', '47:509A', '47:536', '47:9071', '56:11.1', '56:11.2', '56:21.1', '56:21.2', '56:21.3', '56:21.4', '5:35', '8:43', '9:422A', 'C.CR.P. ART 202', 'C.CR.P. ART 21', 'C.CR.P. ART 575', 'C.CR.P. ART 900', 'CC14:200', 'CC14:201', 'CC14:202', 'CC14:204', 'CC14:208', 'CC14:217', 'CC14:222', 'CC14:501', 'CC14:501.3', 'OTHER']</t>
         </is>
@@ -928,18 +981,26 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>YIELD/PASSING EMERGENCY VEHICLE</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>THEFT/MISD/CC</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>5570084</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>807</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['ABAND/INOPERATIVE VEHICLE/CC', 'ABET ENT/REM ON PREM', 'ABUSE/NEG OF ADULTS', 'ACC AFTER FACT(Code Modifier)', 'ACCESS DEVICE FRAUD', 'ADD LIGHTING EQUIP', 'ADDRESS NUMBERS REQUIRED', 'AGG ASSAULT UPON A PEACE OFFICER', 'AGG ASSAULT W/MOTOR VEHICLE UPON A PEACE OFFICER', 'AGG ESCAPE', 'AGG ORAL SEX BATT (AGE OF VIC)', 'AIDING TO REMAIN ON PREMISES/CC', 'ALARM PERMIT REQUIRED', 'ALCOHOL/SALE TO A MINOR', 'ALTER/REMOVE VEH VIN #', 'AMPLIFIED DEVICES IN PUBLIC', 'ANIMALS PROHIBITED AT FESTIVALS', 'ANIMALS RUNNING AT LARGE', 'ARSON W/INTENT TO DEFRAUD', 'ARSON/AGG', 'ARSON/COMMUNICATE FALSE INFO', 'ARSON/PLACE COMB MAT', 'ARSON/SIMPLE', 'ASSAULT/ AGG FIREARM', 'ASSAULT/ AGG INJURY', 'ASSAULT/ AGG KNIFE CUTTING INST', 'ASSAULT/ AGG ODW', 'ASSAULT/AGG', 'ASSAULT/AGG DOMESTIC ABUSE', 'ASSAULT/AGG FIREARM', 'ASSAULT/AGG INJURY', 'ASSAULT/AGG KNIFE CUTTING INST', 'ASSAULT/AGG ODW', 'ASSAULT/AGG/CC', 'ASSAULT/CHILD WELFARE WORKER', 'ASSAULT/DRIVE-BY SHOOTING', 'ASSAULT/SCHOOL TEACHER', 'ASSAULT/SIMPLE', 'ASSAULT/SIMPLE ON A JUVENILE', 'ASSAULT/SIMPLE/CC', 'ATT OR CONSPIRACY:DRUGS', 'ATTEMPT', 'ATTEMPTED (Code Modifier)', 'BACKING UNSAFELY', 'BANK FRAUD', 'BARRICADES', 'BARRICADES/CC', 'BATHING NUDE', 'BATT/2ND DEGREE', 'BATT/AGG 2ND DEGREE', 'BATT/AGG GUN', 'BATT/AGG HANDS', 'BATT/AGG KNIFE', 'BATT/AGG OTHER DANGER WEAPON', 'BATT/ORAL SEXUAL', 'BATT/POLICE OFF', 'BATT/POLICE OFF/CC', 'BATT/SCHOOL ATHLETEC OFFICIAL', 'BATT/SCHOOL TEACHER', 'BATT/SEXUAL', 'BATT/SEXUAL AGG', 'BATT/SIM CHILD WELFARE AGT', 'BATT/SIM OF THE INFIRM', 'BATT/SIMPLE', 'BATT/SIMPLE/CC', 'BATT/SIMPLE/OF JUVENILE', 'BATTERY OF EMERGENCY ROOM PERSONNEL, EMERGENCY SER', 'BICYCLE/FRONT LAMP/SIDE/REAR REFLECTORS REQ', 'BICYCLIST CARRYING ARTICLES', 'BICYCLIST MUST OBEY TRAFFIC CONTROLS', 'BIKE REGISTRATION REQUIRED/CC', 'BLOCK INTERSECTION', 'BLOCK INTERSECTION/CC', 'BLOCKING PRIVATE DRIVEWAY', 'BRAKE LIGHTS REQ', 'BRAKES REQUIRED', 'BURG/AG NON RES NIGHT NO FORCE', 'BURG/AGG NON RES DAY FORCE', 'BURG/AGG NON RES DAY NO FORCE', 'BURG/AGG NON RES NIGHT FORCE', 'BURG/AGG NON RES UNK FORCE', 'BURG/AGG NON RES UNK NO FORCE', 'BURG/AGG RES DAY FORCE', 'BURG/AGG RES DAY NO FORCE', 'BURG/AGG RES NIGHT FORCE', 'BURG/AGG RES NIGHT NO FORCE', 'BURG/AGG RES UNK FORCE', 'BURG/AGG RES UNK NO FORCE', 'BURG/AUTO $50 - $200', 'BURG/AUTO OVER $200', 'BURG/AUTO UNDER $50', 'BURG/S NON RES DAY FORCE', 'BURG/S NON RES DAY NO FORCE', 'BURG/S NON RES NIGHT FORCE', 'BURG/S NON RES NIGHT NO FORCE', 'BURG/S NON RES UNK FORCE', 'BURG/S NON RES UNK NO FORCE', 'BURG/S RES DAY FORCE', 'BURG/S RES DAY NO FORCE', 'BURG/S RES NIGHT FORCE', 'BURG/S RES NIGHT NO FORCE', 'BURG/S RES UNK FORCE', 'BURG/S RES UNK NO FORCE', 'BURG/S/IN DWE RES UNK NO FORCE', 'BURG/S/IN/DWEL/RES DAY NOFORCE', 'BURG/S/IN/DWEL/RES NIGHT FORCE', 'BURG/S/INH DWEL RES DAY FORCE', 'BURG/S/INH DWEL RES UNK FORCE', 'BURG/SID/ RES NIGHT NO FORCE', 'BURGLARY OF A RELIGIOUS BUILDING', 'BURGLARY OF PHARMACY/S', 'BURGLARY/S INHAB DWELLING', 'BURGLARY/SIMPLE', 'BURNING TRASH', 'CARELESS DRIVING', 'CARJACKING', 'CARNAL KNOW OF JUV', 'CARNAL KNOWLEDGE OF JUV(MISD)', 'CARRYING FIREARM/DANGEROUS WEAPON ON SCHOOL PROP', 'CELL/RADIO USE BY BUS PROHIB', 'CHEATING AND SWINDLING', 'CHILD ABUSE', 'CHILD DESERTION', 'CHILD RESTRAINT REQ', 'CHILD RESTRAINTS', 'CITY CHAUFFEUR LICENSE REQUIRE/CC', 'CLEAN INDOOR AIR ACT', 'CLOSING HOURS FOR ENTERTAINMENT ESTAB', 'COLLATERAL SECURITY UU WITHDRA', 'COMM FALSE INFO BOMB AT SCHOOL', 'COMPOUNDING A FELONY', 'COMPUTER AIDED SOLITICITATION OF MINOR', 'COMPUTER FRAUD', 'COMPUTER TAMPERING', 'CONCEALED CARRY WHILE UNDER INFLUENCE', 'CONCEALED CARRY/FAILURE TO NOTIFY LEO', 'CONDUCT W/IN COURTROOM AREAS', 'CONSPIRACY (Code Modifier)', 'CONT DEL OF A JUV', 'CONTEMPT OF COURT', 'CONTRACTORS MISAPLIC PAY', 'CORRUPT INFLUENCING', 'CREATE/DIST/POSS/COUNTERFIEIT CDS', 'CREATION/OPERATION OF DRUG LAB', 'CREDIT CARD FRAUD', 'CRIM ABANDONMENT', 'CRIM DAM COIN-OP DEV', 'CRIM DAM OF A PIPELINE', 'CRIM DAM TO PROP/AGG', 'CRIM DAM TO PROP/SIMPLE', 'CRIM DAM TO PROP/SIMPLE/CC', 'CRIM MISCHIEF/CC', 'CRIM NEGLECT OF FAMILY', 'CRIM TRESPASS', 'CRIME AGAINST ELDERLY', 'CRIME AGAINST NATURE', 'CRIME AGAINST NATURE/AGG', 'CRIMINAL BLIGHTING OF PROPERTY', 'CRIMINAL DAMAGE TO PROPERTY (GRAFFITI)', 'CRIMINAL MISCHIEF', 'CROSSING AT OTHER THAN SIDEWALK', 'CROSSING FIRE HOSE/CC', 'CRUELTY TO ANIMALS', 'CRUELTY TO ANIMALS/CC', 'CRUELTY TO ANIMALS/PROPER CARE', 'CRUELTY TO INFIRM', 'CRUELTY TO JUV (NOT FAMILY)', 'CRUELTY TO JUVENILES', 'CRUELTY TO JUVENILES/2ND DEG', 'CURFEW VIOL/JUVENILE/CC', 'CUT ACROSS PRIV PROP', 'CYBERBULLYING', 'CYBERSTALKING', 'Contraband Penal Institution', 'D W I', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE (CC)', 'D W I /CC', 'D/L 2 VALID LICENSES', 'D/L CLASS RESTRICTION', 'D/L EXPIRED', 'D/L FAIL CHG ADDRESS', 'D/L FAIL CHG ADDRESS /CC', 'D/L ILLEGAL USE', 'D/L M/C ENDORSEMENT REQD', 'D/L NOT IN POSS/CC', 'D/L NOT ON PERSON', 'D/L REQUIRED (STATE)', 'D/L RESTRICTION VIOL', 'D/L SUSP/REV', 'DAM PROP TO DEFRAUD', 'DAM TO PROP BY VANDALISM', 'DAM TO PROP/PUBLIC OR PRIVATE', 'DEFACING BUILDINGS/CC', 'DEFAMATION', 'DEFINITIONS CURELTY TO ANIMALS', 'DESECRATION OF FLAG', 'DESECRATION OF GRAVE', 'DESECRATION OF GRAVES', 'DESTROY OR ALTER VIN', 'DISARMING OF A POLICE OFFICER', 'DISCHARGE FIREARMS/CC', 'DISOBEY CONTROL DEV/CC', 'DISOBEY POLICE OFF', 'DISOBEY POLICE OFF/CC', 'DIST THE PEACE/CC', 'DIST/MANF SCH 2 DRUG', 'DIST/MANF SCH 3 DRUG', 'DIST/MANF SCH 4 DRUG', 'DIST/MANF SCH 5 DRUG', 'DIST/MANF SCH1 DRUG', 'DIST/PEACE', 'DIST/PEACE/FISTIC ENCOUNTER', 'DIST/PEACE/FISTIC ENCOUNTER/CC', 'DIST/PEACE/INTER LAWFUL ASSEM/CC', 'DIST/PEACE/INTOXICATED', 'DIST/PEACE/INTOXICATION/CC', 'DIST/PEACE/OFFENSIVE NOISES/CC', 'DIST/PEACE/OFFENSIVE WORDS', 'DIST/PEACE/TUMULTUOUS MANNER', 'DIST/PEACE/TUMULTUOUS MANNR/CC', 'DIST/PEACE/UNLAWFUL ASSEMBL/CC', 'DOGFIGHTING', 'DOMESTIC ABUSE BATT', 'DOMESTIC ABUSE BATTERY/CC', 'DRAG RACING/PUB ROAD', 'DRAG RACING/PUB ROAD/CC', 'DRINKING IN A MOTOR VEHICLE/CC', 'DRINKING IN PUBLIC/CC', 'DRINKING/ MOTOR VEHICLE (OPEN CONTAINER) /CC', 'DRIV IN PARKING LANE/CC', 'DRIV LEFT OF CENTER', 'DRIV LEFT OF CENTER/CC', 'DRIV ON SIDEWALK/CC', 'DRIV OVER MEDIAN', 'DRIV OVER MEDIAN/CC', 'DRIV TOO SLOW', 'DRIVING OVER PRIVATE PROPERTY', 'DRIVING TOO FAST FOR ROAD CONDITIONS', 'DRIVING TOO SLOW', 'DRUG MONEY TRANSACTION', 'DRUG RACKETEERING', 'DRUG TRAFFIC LOITERING', 'DRUG-TRAFFIC LOITERING/CC', 'DUMPING', 'DWI (CC) CHILD ENDANGERMENT LAW', 'DWI-CHILD ENDANGEMENT LAW', 'EMANATION OF EXCESSIVE SOUND OR NOISE', 'ENCOURAGE/CONT/DEL JUV', 'ENT/REM AFTER FORB', 'ENT/REM AFTER FORB/CC', 'EQUIPMENT VIOL', 'EQUIPMENT VIOL/CC', 'ESCAPE', 'EXPLOITATION OF THE INFIRMED', 'EXTORTION', 'EYE PROTECT REQ', 'EYE PROTECT REQ/CC', 'FAIL MAIN CONTROL (CARELESS OPERATION)', 'FAIL MAIN CONTROL/CC', 'FAIL REPORT ACCIDENT', 'FAIL REPORT ACCIDENT/CC', 'FAIL TO DIM HEADLIGHTS', 'FAIL TO LEAVE PREM', 'FAIL TO REG VEH', 'FAIL TO REGISTER AS A SEX OFFENDER', 'FAIL TO SIGNAL', 'FAIL TO TRANSFER TITLE', 'FAIL TRANS REG', 'FAIL/SIGNAL', 'FAIL/STOP EMERGING FROM ALLEY/CC', 'FAIL/YIELD EMERGENCY VEH/CC', 'FAIL/YIELD INTERSECTION/CC', 'FAIL/YIELD LEFT TURN/CC', 'FAIL/YIELD PED IN CROSSWALK/CC', 'FAIL/YIELD PRIVATE DRIVE/CC', 'FAIL/YIELD THROUGH STREET/CC', 'FAIL/YIELD TO TRAIN/CC', 'FAILURE TO COMPLY AS A SECOND-HAND DEALER', 'FAILURE TO REG DANGEROUS DOG/CC', 'FAILURE TO REGISTER DANGEROUS DOGS', 'FAILURE TO YIELD AFTER STOP', 'FAKE EXPLOSIVE DEVICE', 'FALSE ACCOUNTING', 'FALSE CERTIFICATES', 'FALSE IMP W/DANG WEA', 'FALSE IMPRISONMENT', 'FALSE IMPRISONMENT/CC', 'FALSE OR ALTERED LOTTERY TICKETS', 'FALSE PERSONATION', 'FALSE REPORTS/CC', 'FALSE SWEARING FOR VIOL/ PUBLIC/HEALTH OR SAFETY', 'FELON IN POSS F/ARM', 'FETICIDE,1ST DEGREE', 'FETICIDE,2ND DEGREE', 'FETICIDE,3RD DEGREE', 'FILING FASLE PUBLIC RECORDS', 'FIRE PREVENTION INTERFERENCE', 'FIREARM W/ALCOHOL SOLD/CONSUM', 'FIREARM/ALT SERIAL NUMBER', 'FIREARM/REGISTRATION', 'FIRST DEGREE VEHICULAR NEGLIGENT INJURING', 'FLEE TO ELUDE POLICE/CC', 'FLIGHT FROM OFFICER', 'FOLLOWING TOO CLOSE', 'FOLLOWING TOO CLOSE/CC', 'FORGERY', 'FORGERY CERTIFICATE OF INSURANCE OR INS ID CARD', 'FORGERY MOTOR VEHICLE INSPECTION CERTIFICATE', 'FRAUD', 'FRAUD IN OBT ACCOM', 'FRAUD, HOME IMPROVEMENT', 'FRAUDULENT ACQUISITION OF  A CREDIT CARD', 'FUGITIVE', 'GAMBLING', 'GAMBLING IN PUBLIC', 'GAMBLING IN PUBLIC/CC', 'GAMBLING/CC', 'GLUE/USE/SALE PROH', 'GROSS LITTERING PROHIBITED', 'HANDBILLS/PLACING ON VEHICLES', 'HANDICAPPED PARKING', 'HATE CRIMES', 'HEADLIGHTS REQUIRED', 'HEADLIGHTS REQUIRED/CC', 'HELMET REQUIRED', 'HELMET REQUIRED/CC', 'HIT &amp; RUN', 'HIT &amp; RUN/CC', 'HOME INVASION', 'HOMICIDE/NEGLIGENT', 'HOMICIDE/VEHICULAR', 'HOTEL/MOTEL REGISTER REQUIRED', 'HOUSE/HOUSE PEDDLING', 'HUMAN TRAFFICKING', 'HUNT/DISCHARGE FIREARMS ROADWY', 'IGNITION INTERLOCK/DEVICE OFF', 'ILL CARRYING WEAPON', 'ILL CARRYING WEAPON/CC', 'ILL POSS OF STOLEN FIREARMS', 'ILL POSS STLN THINGS', 'ILL POSS STLN THINGS/CC', 'ILL SUPPLYING A FELON WITH A FIREARM', 'ILL USE COUNTERFEIT TRADEMARK', 'ILL USE OF 911/CC', 'ILL USE OF A WEAPON', 'ILL USE OF A WEAPON/CC', 'ILL/POSS OF HANDGUN BY JUV', 'IMPERSONATING POL OFF/CC', 'IMPERSONATING POLICE OFF', 'IMPROPER BACKING', 'IMPROPER L/R TURNS/CC', 'IMPROPER LANE USAGE', 'IMPROPER LANE USAGE /CC', 'IMPROPER LANE USAGE/CC', 'IMPROPER SUPERVISION/JUV', 'IMPROPER TELEPHONE COMM', 'IMPROPER TELEPHONE COMMUNICATIONS', 'IMPROPER WINDOW TINT/CC', 'INCEST', 'INCEST/AGGRAVATED', 'INCITING A FELONY', 'INCITING TO RIOT', 'IND BEHAVIOR W/JUV', 'INJ/KILL POLICE DOG', 'INJURING PUBLIC RECORDS', 'INSPECTION STICKER', 'INSPECTION STICKER SWITCHED', 'INSURANCE FRAUD', 'INSURANCE FRAUD - AUTOMOBILE/FELONY', 'INSURANCE FRAUD - HEALTH CARE', 'INSURANCE REQUIRED', 'INSURANCE REQUIRED/CC', 'INT EXPOSURE TO AIDS VIRUS', 'INT W/CHILD CUSTODY', 'INTER WITH OFFICER', 'INTERFER W/LAW ENFORCEMENT INVESTIGATION', 'INTERFER W/MEDICAL TREATMENT', 'INTERFERE W/OFFICER/CC', 'INTERFERENCE W/ AC ENFORCEMENT', 'INTIM WITNESS', 'INTIM/PUBLIC', 'ISS WORTHLESS CHECKS', 'ISS WORTHLESS CHECKS/CC', 'JUSTIFIABLE HOMICIDE', 'JUVENILE CURFEW VIOL/CUSTODIAN', 'JUVENILE CURFEW VIOLATION/CC', 'KEEPING DISORD PLACE', 'KEEPING DISORD PLACE/CC', 'KIDNAPPING/2ND DEGREE', 'KIDNAPPING/AGG', 'KIDNAPPING/AGG/CHILD', 'KIDNAPPING/SIMPLE', 'LAMPS AND OTHER EQUIP ON BICYCLES', 'LARGE MATERIAL TO BE REMOVED BY CONTRACTOR', 'LEASED MOVEABLE/FAILURE TO RETURN', 'LEASED MOVEABLES FALSE REPRES', 'LEASED VEH,FAILURE TO RETURN', 'LET PREM FOR PROST/CC', 'LETTING DISORD PLACE', 'LETTING DISORD PLACE/CC', 'LIC PLATE REQUIRED', 'LIC PLATE REQUIRED/CC', 'LIC PLATE REQUIRED/STATE', 'LIC PLATE SWITCHED', 'LITTER FROM VEHICLE/CC', 'LITTER ON VACANT LOT', 'LITTER/OCCUPIED PROVATE PROPERTY', 'LITTER/THROWN FROM VEHICLE', 'LITTERING (CC)', 'LITTERING IN PUBLIC PLACES', 'LITTERING PROHIBITED', 'LIVESTOCK AT LARGE PROHIBITED', 'LOITTERING', 'LOOTING', 'LOUD MUSIC FROM VEHICLE', 'MALFEASANCE IN OFFICE', 'MALFEASANCE/EVIDENCE TAMPERING', 'MALFEASANCE/SEX W/INMATES', 'MANSLAUGHTER', 'MANUF/POSS INCED DEV', 'MANUFACTURE/CREATE FALSE ID', 'MAXIMUM SPEED LIMIT - SPEEDING', 'MEDICAID FRAUD', 'MINGLING HARMFUL SUBSTANCES', 'MINORS/USE CDS IN PRESENCE', 'MIRRORS REQ ON VEH', 'MISREP DUR BOOKING', 'MISREP DUR BOOKING/CC', 'MISREP OF AGE TO OBTAIN ALCOHOLIC BEV', 'MISREP TO PURCHASE/ENTER ALCOH', 'MISREP/AGE TO ACCESS CASINO/CC', 'MISREP/ISSUANCE/SUMMONS/CUSTOD', 'MISREPRESENTATION DURING BOOKING', 'MOLESTATION OF JUV', 'MONETARY INSTRUMENT ABUSE', 'MONEY LAUNDERING', 'MURDER/1ST DEGREE POLICE OFF', 'MURDER/ARSON 1ST DEGREE', 'MURDER/BODILY FORCE 1ST DEGREE', 'MURDER/GUN 1ST DEGREE', 'MURDER/GUN 2ND DEGREE', 'MURDER/GUN POLICE OFFICER', 'MURDER/KNIFE 1ST DEGREE', 'MURDER/KNIFE 2ND DEGREE', 'MURDER/KNIFE POLICE OFFICER', 'MURDER/OTHER 1ST DEGREE', 'MURDER/OTHER 2ND DEGREE', 'MURDER/RAZOR 1ST DEGREE', 'MURDER/RAZOR 2ND DEGREE', 'MVI CERTIFICATES/FALSE', 'MVI REQUIRED/CC', 'MVI REQUIRED/EXPIRED', 'NARC/2ND/SUBSEQUENT OFFENSE', 'NARC/DIST OVER 25 TO UNDER 18', 'NARC/DIST TO SCHOOL STUDENT', 'NARC/USE/POS/DIST RUSH', 'NEGLIGENT INJURING', 'NEGLIGENT INJURING/CC', 'NEGLIGENT/VEH INJURING', 'NO PASSING ZONE/CC', 'NOISE ORDINANCE/CC', 'OBEDIENCE TO/REQUIRED TRAFFIC-CONTROL DEVICES', 'OBSCENITY', 'OBSOLETE - STALKING/CC', 'OBSOLETE - THEFT OF UTILITIES/CC', 'OBST DRIVERS VIEW', 'OBST FIREMAN', 'OBST JUSTICE', 'OBST OF COURT ORDERS', 'OBST OF PUB PASSAGE', 'OBST OF PUBLIC HWY/SIMPLE', 'OBST PUBLIC HWY/AGG', 'OBST/INTER EDUCA FACILI', 'OBSTRUCTION HWY/SIMPLE/CC', 'OBSTRUCTION OF DRIVERS VISION', 'OBTAINING CDS BY FRAUD/FORGERY', 'OBTAINING CDS FROM DR. WHILE IN POSS. OF RX', 'OBTAINING LEGEND DRUG BY FRAUD', 'OBTAINING LEGEND DRUGS BY MISREP OR FRAUD', 'OFF AGAINST E-MAIL SERVICE PROVIDER', 'OFF AGAINST INTELL PROPERTY', 'OFF-ROAD VEHICLES - USE ON INTERSTATE', 'OFF-ROAD VEHICLES - USE ON SHOULDER OF ROADWAY', 'ONE WAY ROADWAYS/CC', 'ONE WAY STREET', 'ONE WAY STREET/CC', 'ONLINE IMPERSONATION', 'OPEN BURNING PROHIBITED', 'OPEN CONTAINER VIOL/CC', 'OPER VEH W/O LAW PRESENCE', 'OPERATING VEHICLE WHILE D/L SUSPENDED, PRIOR OFF.', 'OTHER LAWS OF THE ROAD/CC', 'OTHER/UNLISTED STATUTE', 'OWNERS RESPONSIBILITY', 'PANDERING', 'PARK ON LEVEE PROH/CC', 'PARKING OF SEMI TRAILER PROHIBITED', 'PARKING PROHIBITED - FACING WRONG DIRECTION', 'PARKING WHERE PROHIBITED', 'PARKING WHERE PROHIBITED/CC', 'PASS ON THE LEFT/CC', 'PASS ON THE RIGHT/CC', 'PASS SCHOOL BUS/CC', 'PAWN RECORD SH-GOODS PURCH REQ/CC', 'PAWNSHOP DAILY REPORT REQ/CC', 'PED. CROSSING AT OTHER THAN CROSS WALKS', 'PEDESTRIANS ON HIGHWAYS OR INTERSTATE', 'PEDESTRIANS SOLICITING RIDES OR BUSINESS', 'PEDESTRIANS/NON-MOTORIZED VEH PROHIBITED', 'PEEPING TOM', 'PEEPING TOM/CC', 'PERP CERTAIN CRIMES AGAINST VICTIM 65 OR OLDER', 'PICTURE ID REQUIRED ENTRANCE TO LIC ALCOHOLIC OUTLET', 'PORNO INVOLVING JUV', 'POSS  MARIJUANA', 'POSS ALC/BREC PARKS/CC', 'POSS BURGLAR TOOLS', 'POSS F/ARM/BREC PARK/CC', 'POSS HYPO SYRINGE/CC', 'POSS MARIJUANA/CC', 'POSS OF DRUG PARAPHERNALIA', 'POSS OF DRUG PARAPHERNALIA (old)', 'POSS OF FIREARM W/ DRUGS', 'POSS OF SCHEDULE 2 DRUGS', 'POSS SCH 1 DRUGS', 'POSS SCH 3 DRUGS', 'POSS SCH 4 DRUGS', 'POSS SCH 5 DRUGS', 'POSS WPN WHERE ALCOHOL SOLD/CC', 'POSS/DEAL FIREARM OBLITERATED#', 'POSS/DIST MANF COUNTERFEIT DRG', 'POSS/DIST MANF CULT SCHED I', 'POSS/DIST MANF SCH III', 'POSS/DIST MANF SCH IV', 'POSS/DIST MANF SCH V', 'POSS/DIST MANUF SCHED II', 'POSS/MANF/DIST COUNTERFEIT DRG', 'POSS/MANUFAC OF BOMB', 'POSS/SALE FIREWORKS/CC', 'POSSESSION ALCOHOL IN VEHICLE', 'POSSESSION DRUG PARAPHERNELIA', 'POSSESSION OF UNIDENTIABLE FIREARM', 'PRINCIPAL(Code Modifier)', 'PRISONER/SELF MUTILATION', 'PRIVATE COLLECTION /COMMERCIAL GARBAGE AND TRASH', 'PRODUCE/POSS COUNTERFEIT LABEL', 'PROFANITY PROHIBITED/CC', 'PROMOTION/SALE OBSCEN MATERIAL', 'PROOF OF INSURANCE REQ', 'PROSTITUTION', 'PROSTITUTION BY MASSAGE/CC', 'PROSTITUTION UNDER 17', 'PROSTITUTION/CC', 'PROSTITUTION/ENTICING/JUVENILE', 'PROSTITUTION/INCITING', 'PROSTITUTION/MASSAGE', 'PROSTITUTION/PROMOTION', 'PUBLIC BRIBERY', 'PUBLIC DRINKING PROHIBITED (OPEN CONTAINER) /CC', 'PUBLIC MASKING', 'PUBLIC PAYROLL FRAUD', 'PURCH/POSS ALC PERS UNDER 21/CC', 'PURCH/POSS ALCOHOL FOR MINOR/CC', 'PURCHASE/POSS ALCOHOL PUBLIC', 'PURSE SNATCHING', 'RAPE/AGG (ANAL)', 'RAPE/AGG (ORAL)', 'RAPE/AGG (VAGINAL)', 'RAPE/ATT FORCIBLE', 'RAPE/FORCABLE (ANAL)', 'RAPE/FORCIBLE (ORAL)', 'RAPE/FORCIBLE (VAGINAL)', 'RAPE/FORCIBLE SIMPLE', 'RAPE/SIMPLE (ANAL)', 'RAPE/SIMPLE (ORAL)', 'RAPE/SIMPLE (VAGINAL)', 'RECEIPTS AND UPC LABELS; UNLAWFUL ACTS', 'RECK OPER OF VEHICLE', 'RECK OPER OF VEHICLE/CC', 'RED LIGHT/DISOBEY', 'RED LIGHT/DISOBEY/CC', 'REFUND FRAUD', 'REG REQ IN VEHICLE', 'REGISTRATION REQUIRED', 'REGISTRATION TAGS REQUIRED', 'REGISTRATION; COMMERCIAL VEHICLES; EXEMPTION', 'REPEALED - RESPONSIBILITIES/RETAIL DEALER', 'REQ TAIL LAMPS', 'REQUIRED METHOD OF TURNING AT INTERSECTIONS', 'REQUIREMENTS FOR POSSESSION', 'RESISTING A OFFICER  FORCE OR VIOLENCE', 'RESISTING AN OFFICER', 'RESISTING AN OFFICER/CC', 'RESTRICTED ACCESS', 'RIDING BICYCLE ON ROADWAY', 'RIGHT OF WAY/FAIL TO YIELD', 'RIGHT TURN ON RED PROH', 'RIOT', 'RIOT/FAIL TO DISPERSE', 'ROBB/1ST DEGREE', 'ROBB/AGGRAVATED', 'ROBB/BLADE BANK', 'ROBB/BLADE COMMON HOUSE', 'ROBB/BLADE CONVENIENCE STORE', 'ROBB/BLADE GAS SERVICE STATION', 'ROBB/BLADE HWY STREETS ALLEYS', 'ROBB/BLADE MISCELLANEOUS', 'ROBB/BLADE RESIDENCE', 'ROBB/FIREARM BANK', 'ROBB/FIREARM COMMON HOUSE', 'ROBB/FIREARM CONVENIENCE STORE', 'ROBB/FIREARM GAS SERV STATION', 'ROBB/FIREARM MISCELLANEOUS', 'ROBB/FIREARM RESIDENCE', 'ROBB/FIREARM/HWY STREET ALLEYS', 'ROBB/O.D.W. COMMON HOUSE', 'ROBB/O.D.W. CONVENIENCE STORE', 'ROBB/O.D.W. GAS SERV STATION', 'ROBB/O.D.W. HWY STREETS ALLEYS', 'ROBB/O.D.W. MISCELLANEOUS', 'ROBB/O.D.W. RESIDENCE', 'ROBB/SIMPLE', 'ROBB/STRONG ARM BANK', 'ROBB/STRONG ARM COMMON HOUSE', 'ROBB/STRONG ARM CONVEN STORE', 'ROBB/STRONG ARM GAS SE STATION', 'ROBB/STRONG ARM HWY STR ALLEYS', 'ROBB/STRONG ARM MISCELLANEOUS', 'ROBB/STRONG ARM RESIDENCE', 'ROBBERY/2ND DEGREE', 'ROBBERY/FIREARM - ADDITIONAL PENALTIES', 'ROLLING VENDORS - LICENSE REQUIRED', 'SALE EXHIB DIST SEX MATL TO MI', 'SALE/POSSESSION OF LEGEND DRUG', 'SEAT BELT VIOL', 'SEAT BELT VIOL/CC', 'SEC HAND DAILY REPORTS REQ', 'SEC HAND DEALER LIC REQUIRED', 'SEC HAND PURCHASE RECORDS REQ', 'SECONDHAND DEALER/BUS LIC REQ/CC', 'SECONDHAND DEALER/DISP PROH 30DA/CC', 'SECONDHAND DEALER/LIC REQ', 'SELLING GOODS FROM PRIVATE PROP W/O OWNER CONSENT', 'SERVE/ALC TO PERSON UNDER 21/CC', 'SEX BATT BASED  (AGE OF VICTIM)', 'SEX BATT BASED (AGE OF VICTIM)', 'SEX OFFENDER REGISTRATION REQ', 'SEX OFFENDER, KNOWLINGLY W/IN 300 FT OF VICTIM', 'SEXTING', 'SEXUAL ACTS PROHIBITED IN PUBLIC', 'SEXUAL BATTERY OF THE INFIRMED', 'SIMPLE ESCAPE', 'SLOW VEH IN LEFT LANE/CC', 'SMOKING PROHIBITED', 'SOLIC MINORS DISTR CONTR SUBS', 'SOLICIT FOR MURDER', 'SOLICITATION FROM ROADWAY', 'SOLICITATION ON AN INTERSTATE HIGHWAY', 'SOLICITING FOR PROSTITUTES', 'SOLICITING FOR PROSTITUTION/CC', 'SPEED UNREASONABLE/CC', 'SPEEDING/CC', 'SPEEDING/SCHOOL ZONE/CC', 'SPITTING IN PUBLIC/CC', 'STALKING', 'STATE OF EMER PROCLAIM/VIOL', 'STATE OF EMER PROCLAM/VIOL', 'STOP SIGN/YIELD SIGN', 'STOP SIGN/YIELD SIGN/CC', 'STOPPING VEH IN ROADWAY', 'STOPPING, STANDING OR PARKING PROHIBITED', 'TAIL LAMP/LICENSE PLATE', 'TATTOOING MINORS', 'TEEN CLUB LICENSE REQUIRED', 'TELECOMMUNICATIONS/AVOID PAY', 'TERRORIZING', 'TERRORIZING/CC', 'TEXT MESSAGING PROHIBITED', 'THEFT $50-$200 ALL OTHER', 'THEFT $50-$200 AUTO PARTS ACC', 'THEFT $50-$200 COIN-OP MACHINE', 'THEFT $50-$200 FROM AUTO', 'THEFT $50-$200 FROM BLDG', 'THEFT $50-$200 POCKET PICKING', 'THEFT $50-$200 PURSE SNATCHING', 'THEFT $50-$200 SHOPLIFTING', 'THEFT $50-200 BICYCLES', 'THEFT AUTO/RECOVERY ONLY', 'THEFT BY EMBEZZLEMENT', 'THEFT COUNTERFEITING', 'THEFT FRAUD ACQU RENTAL AUTO', 'THEFT OF A BUSINESS RECORD', 'THEFT OF A FIREARM', 'THEFT OF ANIMALS', 'THEFT OF ASSETS FROM AGED / DISABLED PERSON', 'THEFT OF CABLE TV SERVICES/CC', 'THEFT OF COPPER OR OTHER METALS', 'THEFT OF DOGS', 'THEFT OF GOODS', 'THEFT OF LIVESTOCK', 'THEFT OF MOTOR VEHICLE', 'THEFT OF PETROLEUM PRODUCTS', 'THEFT OF TRAILER', 'THEFT OF USED BUILDING COMPONENT', 'THEFT OF UTILITIES', 'THEFT OF UTILITY PROPERTY', 'THEFT OF UTILITY SERVICE/CC', 'THEFT OF VEHICLE FUEL', 'THEFT OIL &amp; GAS EQUIPMENT', 'THEFT OTHER MOTOR VEHICLE', 'THEFT OVER $200 ALL OTHER', 'THEFT OVER $200 AUTO PARTS ACC', 'THEFT OVER $200 BICYCLES', 'THEFT OVER $200 COIN-OP MACHIN', 'THEFT OVER $200 FROM AUTO', 'THEFT OVER $200 FROM BLDG', 'THEFT OVER $200 POCKET PICKING', 'THEFT OVER $200 PURSE SNATCH', 'THEFT OVER $200 SHOPLIFTING', 'THEFT PIGEON DROP $50-$200', 'THEFT PIGEON DROP OVER $200', 'THEFT UNDER $50 ALL OTHERS', 'THEFT UNDER $50 AUTO PARTS ACC', 'THEFT UNDER $50 BICYCLES', 'THEFT UNDER $50 COINOP MACHINE', 'THEFT UNDER $50 FROM AUTO', 'THEFT UNDER $50 FROM BLDG', 'THEFT UNDER $50 FROM MOTOR VEH', 'THEFT UNDER $50 POCKET PICKING', 'THEFT UNDER $50 PURSE SNATCHIN', 'THEFT UNDER $50 SHOPLIFTING', 'THEFT UU ACCESS CARD', 'THEFT UU ACCESS CARD $50-$200', 'THEFT UU ACCESS CARD OVER $200', 'THEFT UU ACCESS CARD UNDER $50', 'THEFT/IDENTITY', 'THEFT/MISD/CC', 'THEFT/MISD/SHOPLIFTING/CC', 'THREATENING PUBLIC OFFICIAL', 'TOBACCO/SALE OF TO A MINOR/CC', 'TRAFFIC LAWS APPLY TO PERSONS ON BICYCLES', 'TRAFFICKING CHILDREN FOR SEXUAL PURPOSES', 'TRANSACTIONS INVOLVING PROCEEDS FROM DRUG OFFENSES', 'TRESPASS/SCHOOL GRND', 'TRESPASSING', 'TRESPASSING ON BREC PARKS', 'TRUANCY BY SCHOOL AGE CHILD', 'TRUANCY/GUARDIAN DUTY/PROHIBIT', 'TRUENTS/CC', 'TURN R/L REQUIRED/CC', 'TURNS NOT ALLOWED/CC', 'U TURN LIMITATIONS/CC', 'UNATTENDED MOTOR VEHICLES', 'UNATTENDED VEHICLE/CC', 'UNAU ENTRY BUSINESS', 'UNAU ENTRY CRIT INFRASTRUCTURE', 'UNAU ENTRY INHAB DWELLING', 'UNAU INTERCEP CABLE TV', 'UNAU ORDERING OF GOODS/SERVICE', 'UNAU POSS/ALCOHOL PUB SCHOOL', 'UNAU REMOVAL OF A MV', 'UNAU REMOVAL OF SHOPPING CARTS', 'UNAU REMOVAL SHOP CART', 'UNAU USE OF FOOD STAMPS', 'UNAU USE OF MOTOR VEHICLE', 'UNAU USE/MOVEABLE/CC', 'UNAUTH ENTRY OF DWELLING DURING EMERGENCY', 'UNAUTH ENTRY UPON RAILROAD PROPERTY', 'UNAUTH USE/MOVABLE', 'UNLAW USE PICT ID TO ENTER ALC/CC', 'UNLAWFUL CONSUMPTION OF ALC BY PERSON UNDER 21', 'UNLAWFUL ENTRY INTO BAR/LOUNGE/CC', 'UNLAWFUL ENTRY OF CASINO PERSONS UNDER 21', 'UNLAWFUL ENTRY/PREM/CC', 'UNLAWFUL OWNERSHIP OF DOGS', 'UNLAWFUL PRESENCE OF SEXUALLY VIOLENT PREDATOR', 'UNLAWFUL PROD,MAN,DIST,POSS, OF FRAUD DOCS, IDENT', 'UNLAWFUL PURCHASE ALCO BEV', 'UNLAWFUL REFUSAL TO SUBMIT TO CHEMICAL TEST', 'UNLAWFUL SALE/TOBACCO UNDER 18', 'UNLAWFUL USE OF BODY ARMOR', 'UNLAWFUL USE STATE ISSUED ID TO GAMBLE', 'UNLAWFUL/USE/LASER/ON POLICE', 'UNLAWFULLY PRESCRIBING/DISPENSING CDS', 'UNNECESSARY NOISE/VEHICLE/CC', 'UNREGISTERED FIREARM DEALING', 'UNSECURED LOAD/CC', 'URINATING IN PUBLIC/CC', 'USE OF FORGED ACADEMIC RECORDS', 'USE OF LASER POINTER', 'VAGRANCY', 'VAGRANCY/CC', 'VANDALISM/INSTITUTION', 'VEH NEG INJURING/CC', 'VEH TRESPASS', 'VEHICLE ENTERING HIGHWAY FROM PRIVATE ROAD', 'VIDEO VOYEURISM', 'VIOL CDS LAW NEAR SCHOOL', 'VIOL FIREARM FREE ZONE', 'VIOL OF PROTECTIVE ORDERS', 'VIOL WINE, BEER, LIQUOR ORDINANCE', 'VIOLATION OF PROB &amp; PAROLE', 'WARRANT/BENCH WARRANT', 'WINDOW TINT / OBSCURING VIEW PROHIBITED', 'WRONGFUL USE OF PUB PROPERTY', 'YIELD/PASSING EMERGENCY VEHICLE']</t>
         </is>
@@ -998,18 +1059,22 @@
       <c r="P9" t="n">
         <v>3796</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>YELLOWWOOD</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>4392521</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>54056</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t xml:space="preserve">['1   DALRYMPLE', '1  DAIRYMPLE DR', '1  DAIRYMPLE ST', '1  DALRYMPLE', '1  DALRYMPLE DR', '1  DARLYMPLE DR', '1  DARYMPLE', '1  RUE SORBONNE', '1  RUE SORBONNE ST', '1 S AMITE DR', '1 W FRATERNITY DR', '1 W LAKESHORE DR', '10   DALRYMPLE DR', '10  DALRYMPLE DR', '10  GOVERNMENT ST', '10  RUE TOULOUSE ST', '100   LEE', '100   RIVER RD', '100   SHARP RD', '100   SKIP BERTMAN DR', '100   STANFORD AV', '100   TAFT', '100   TOWER', '100   TOWER DR', '100  12TH ST', '100  22ND AV', '100  3RD ST', '100  AMHERST AV', '100  APARTMENT COURT DR', '100  ASTER ST', '100  BEDFORD ST', '100  BELLEWOOD DR', '100  BOB PETIT BL', '100  BRICE ST', '100  BROADMOOR AV', '100  CAMPUS LAKE RD', '100  CHATSWORTH ST', '100  CHOCTAW DR', '100  CLOUD DR', '100  COMMUNITY COLLEGE DR', '100  CONVENTION', '100  CONVENTION ST', '100  COURSEY BL', '100  CYPRESS DR', '100  DALRYMPLE', '100  DALRYMPLE DR', '100  DARYMPLE', '100  DELPHINE ST', '100  DOROTHY DIX DR', '100  E BOYD ST', '100  EAST BL', '100  EAST BOYD ST', '100  EAST DR', '100  EAST I-10 HW', '100  EAST I-12', '100  EAST I-12 HW', '100  EDDIE ROBINSON', '100  EDDIE ROBINSON DR', '100  EDDIE ROBINSON SR DR', '100  ELLWOOD ST', '100  ELMER AV', '100  ELTON C HARRISON DR', '100  EVERGREEN DR', '100  EVERGREEN ST', '100  FIELD HOUSE DR', '100  FLORIDA', '100  FLORIDA BL', '100  FLORIDA ST', '100  FRANCE ST', '100  G LEON NETTERVILLE DR', '100  GARDERE LN', '100  GOTTLIEB ST', '100  GOVERNMENT ST', '100  GRETA ST', '100  HAZEL ST', '100  HEARTHSTONE AV', '100  HEATHERWOOD DR', '100  HELEN BARRON ST', '100  HENRY E COBB ST', '100  HOLMES DR', '100  I-10', '100  I-110 HW', '100  JASMINE BL', '100  JENNIFER JEAN AV', '100  JULIA ST', '100  KENILWORTH DR', '100  KENILWORTH PK', '100  LAFAYETTE ST', '100  LAFEYETTE ST', '100  LAUREL', '100  LAUREL ST', '100  LEE', '100  LEE DR', '100  LITTLE JOHN DR', '100  LOBDELL AV', '100  LONGBOW DR', '100  LOUISE ST', '100  LSU AV', '100  MAIN ST', '100  MAXIMILIAN ST', '100  MAXIMILLIAN ST', '100  MAYFLOWER', '100  MAYFLOWER ST', '100  MCDONALD DR', '100  MCGEHEE DR', '100  N 4TH ST', '100  N. 21ST ST', '100  N3RD', '100  NAPOLEON ST', '100  NORTH BL', '100  NORTH BT', '100  NORTH ST', '100  NORTH STADIUM DR', '100  OGDEN DR', '100  OKLAHOMA ST', '100  RIVER RD', '100  S. STADIUM DR', '100  SECURITY LN', '100  SHADOWS BEND DR', '100  SHARP BL', '100  SHARP LN', '100  SHARP RD', '100  SHERWOOD FOREST BL', '100  SKIP BERTMAN', '100  SKIP BERTMAN DR', '100  SOUTH BL', '100  SOUTH I-110 HW', '100  SPANISH TOWN RD', '100  ST FERDINAND ST', '100  ST LOUIS ST', '100  ST VINCENT DE PAUL PL', '100  ST. CHARLES ST', '100  STANFORD AV', '100  STARING LN', '100  STEELE RD', '100  SUNSET BL', '100  TAFT ST', '100  TAYLOR ST', '100  THIRD ST', '100  THOMAS RD', '100  TOWER', '100  TOWER DR', '100  VAN BUREN ST', '100  VETA ST', '100  W POLK ST', '100  WEST I-10 HW', '100  WEST I-12 HW', '100  WESTMORELAND DR', '100  WOODDALE BL', '100 E AIRPORT DR', '100 E BOYD', '100 E BOYD AV', '100 E BOYD DR', '100 E BOYD HW', '100 E BOYD ST', '100 E BUCHANAN ST', '100 E CHIMES', '100 E CHIMES ST', '100 E FRATERNITY LN', '100 E GARFIELD ST', '100 E GRANT DR', '100 E GRANT ST', '100 E HARDING ST', '100 E HARRISON ST', '100 E I-10', '100 E I-10 HW', '100 E I-12', '100 E I-12 HW', '100 E I10', '100 E I10 HW', '100 E I10 ST', '100 E I12', '100 E JOHNSON ST', '100 E MCKINLEY ST', '100 E PARKER BL', '100 E POLK AV', '100 E POLK ST', '100 E RIVER OAKS DR', '100 E ROOSEVELT RD', '100 E ROOSEVELT ST', '100 E STATE ST', '100 E WASHINGTON ST', '100 N 10TH ST', '100 N 11TH ST', '100 N 12TH ST', '100 N 13TH ST', '100 N 14 ST', '100 N 14TH ST', '100 N 15TH ST', '100 N 17TH ST', '100 N 18TH ST', '100 N 19TH ST', '100 N 20TH ST', '100 N 21ST CT', '100 N 21ST ST', '100 N 22ND ST', '100 N 23 RD ST', '100 N 23RD ST', '100 N 25 ST', '100 N 25TH ST', '100 N 26TH ST', '100 N 27TH ST', '100 N 3RD ST', '100 N 4TH ST', '100 N 5TH ST', '100 N 6TH ST', '100 N 8 ST', '100 N 8TH ST', '100 N 9TH ST', '100 N ACADIAN ST', '100 N ACADIAN TH', '100 N ARDENWOD DR', '100 N ARDENWOOD DR', '100 N BAXTER ST', '100 N DONMOOR AV', '100 N DONMOOR DR', '100 N EUGENE ST', '100 N FOSTER DR', '100 N I-110', '100 N I110', '100 N LAFAYETTE ST', '100 N LOBDELL AV', '100 N LOBDELL BL', '100 N RIVER RD', '100 N RIVER ROAD', '100 N STADIUM', '100 N STADIUM DR', '100 N STADIUM RD', '100 N STEVENDALE AV', '100 N THIRD ST', '100 S 10TH ST', '100 S 11TH ST', '100 S 12TH ST', '100 S 13TH', '100 S 13TH ST RD', '100 S 14TH ST', '100 S 15TH ST', '100 S 16TH ST', '100 S 17TH', '100 S 18TH ST', '100 S 20TH ST', '100 S 21ST ST', '100 S 22ND ST', '100 S ACADIAN TH', '100 S ARDENWOOD DR', '100 S DONMOORE AV', '100 S EUGENE ST', '100 S FAIRFAX DR', '100 S FLANNERY DR', '100 S FLANNERY RD', '100 S FOSTER DR', '100 S I-110', '100 S I-110 HW', '100 S I110', '100 S I110 HW', '100 S RIVER  RD', '100 S RIVER RD', '100 S SHERWOOD FOREST BL', '100 S STADIUM', '100 S STADIUM DR', '100 S STADIUM RD', '100 S TOWER', '100 S TOWER DR', '100 S WOODDALE AV', '100 S WOODDALE BL', '100 W BUCHANAN ST', '100 W CHIMES', '100 W CHIMES ST', '100 W FRAT LN', '100 W GARFIELD ST', '100 W GRANT ST', '100 W HARDING BL', '100 W HARDING ST', '100 W HARRISON ST', '100 W I-10 AV', '100 W I-12', '100 W I10', '100 W I12', '100 W I12 HW', '100 W INTERSTATE 12 HW', '100 W JOHNSON', '100 W JOHNSON ST', '100 W LAKESHORE DR', '100 W LEE DR', '100 W LEE ST', '100 W MCKINLEY ST', '100 W PARKER', '100 W PARKER BL', '100 W PARKER RD', '100 W POLK ST', '100 W ROOSEVELT ST', '100 W STATE ST', '100 W WASHINGTON ST', '1000   BOB PETTIT BL', '1000   BOB PETTIT DR', '1000   PROGRESS ST', '1000  37TH ST', '1000  38TH ST', '1000  48TH ST', '1000  AIRLINE HW', '1000  ASTER ST', '1000  AVE B ST', '1000  BAIRD AV', '1000  BARANCO DR', '1000  BARANCO ST', '1000  BOB PETIT', '1000  BOB PETIT DR', '1000  BOB PETIT ST', '1000  BOB PETTIT AV', '1000  BOB PETTIT BL', '1000  BOB PETTIT DR', '1000  BOB PETTIT ST', '1000  BOB PETTITE AV', '1000  BOB PETTITE DR', '1000  BOB PRTTIT BL', '1000  BOB PTTTIT BL', '1000  BRIGHTSIDE', '1000  BRIGHTSIDE DR', '1000  BRIGHTSIDE LN', '1000  CAMELIA ST', '1000  CAPITOL ACCESS RD', '1000  CARDINAL ST', '1000  CENTRAL RD', '1000  CHARLES T SMITH DR', '1000  CHEVELLE DR', '1000  CHIPPEWA ST', '1000  CHOCTAW DR', '1000  COLUMBUS DUNN DR', '1000  COLUMBUS DUNN ST', '1000  CONVENTION ST', '1000  COURSEY BL', '1000  EAST BL', '1000  EAST I-10 HW', '1000  EUROPE ST', '1000  FIG ST', '1000  FLORIDA', '1000  FLORIDA BL', '1000  FLORIDA ST', '1000  FOREST OAK DR', '1000  GOVERNMENT', '1000  GOVERNMENT ST', '1000  HARDING BL', '1000  HASTINGS ST', '1000  HIGHLAND RD', '1000  I-10 EAST BL', '1000  I-110', '1000  IRIS ST', '1000  JENNIFER JEAN AV', '1000  JENNIFER JEAN DR', '1000  JENNIFER JEAN ST', '1000  JULIA ST', '1000  LAUREL AV', '1000  LAUREL ST', '1000  LEE DR', '1000  LEE DRIVE ST', '1000  LETTSWORTH ST', '1000  LOUISE ST', '1000  LOUISIANA AV', '1000  MAIN', '1000  MAIN ST', '1000  MARILYN BL', '1000  MARSH ST', '1000  MAXIMILLIAN ST', '1000  MCCLUNG ST', '1000  MONET DR', '1000  MONET ST', '1000  MYRTLE', '1000  MYRTLE ST', '1000  N 23 ST', '1000  N DONMOOR DR', '1000  N/B I-110 @ WELLER AVE', '1000  NICHOLSON', '1000  NICHOLSON DR', '1000  NICHOLSON ST', '1000  NORTH BL', '1000  NORTH I-110 HW', '1000  NORTH ST', '1000  OSPREY AV', '1000  OWL AV', '1000  OWL ST', '1000  PARK BL', '1000  PITTSBURG', '1000  PITTSBURG AV', '1000  PROGRESS RD', '1000  PROGRESS ST', '1000  RIVER RD', '1000  RODIN DR', '1000  ROSENWALD RD', '1000  SCENIC HW', '1000  SEYBURN DR', '1000  SHARP LN', '1000  SHARP RD', '1000  SHERWOOD FOREST BL', '1000  SIMMS ST', '1000  SOUTH BL', '1000  SOUTH I-110 HW', '1000  SPANISH TOWN RD', '1000  SPARROW ST', '1000  ST CHARLES ST', '1000  ST ROSE AV', '1000  STANFORD AV', '1000  STARING LN', '1000  SWAN AV', '1000  TERRACE', '1000  TERRACE ST', '1000  THOMAS H DELPIT DR', '1000  TOWNSLEY ST', '1000  VALCOUR DR', '1000  WAVERLY DR', '1000  WEST I-10 HW', '1000 E BOYD DR', '1000 E BUCHANAN ST', '1000 E HARRISON ST', '1000 E I-10', '1000 E I10', '1000 E I10 HW', '1000 E JOHNSON ST', '1000 E POLK ST', '1000 E WASHINGTON ST', '1000 N 19TH ST', '1000 N 20TH ST', '1000 N 222ND ST', '1000 N 22ND ST', '1000 N 23 ST', '1000 N 23RD ST', '1000 N 25TH ST', '1000 N 28 ST', '1000 N 28TH ST', '1000 N 29TH ST', '1000 N 30TH ST', '1000 N 32ND ST', '1000 N 35TH ST', '1000 N 36TH ST', '1000 N 37TH ST', '1000 N 38TH', '1000 N 38TH ST', '1000 N 39TH', '1000 N 39TH ST', '1000 N 40TH ST', '1000 N 44TH ST', '1000 N 46TH ST', '1000 N 47TH ST', '1000 N 48TH ST', '1000 N DONMOOR AV', '1000 N DONMOOR BL', '1000 N DONMOOR DR', '1000 N FOSTER DR', '1000 N I-110 HW', '1000 N I-110 OT', '1000 N I110 OT', '1000 N LITTLE JOHN DR', '1000 N SABINE DR', '1000 S 15TH', '1000 S 15TH ST', '1000 S 16TH ST', '1000 S ACADIAN TH', '1000 S FOSTER', '1000 S FOSTER DR', '1000 S FOSTER ST', '1000 S I 110', '1000 S I-110', '1000 S I-110 OT', '1000 S I110', '1000 S RIVER RD', '1000 S SHERWOOD FOREST BL', '1000 S TAMARI', '1000 W GARFIELD ST', '1000 W I - 10', '1000 W I 10', '1000 W I-10', '1000 W I-10 HW', '1000 W I-10 OT', '1000 W I10', '1000 W LEE DR', '1000 W MOUNT PLEASANT RD', '1000 W ROOSEVELT ST', '10000  AIRLINE', '10000  AIRLINE BL', '10000  AIRLINE HIGHWAY', '10000  AIRLINE HW', '10000  AVE A ST', '10000  AVE B AV', '10000  AVE F AV', '10000  AVE H', '10000  AVE. J ST', '10000  AVENUE B ST', '10000  AVENUE C ST', '10000  AVENUE D AV', '10000  AVENUE D ST', '10000  AVENUE E ST', '10000  AVENUE F ST', '10000  AVENUE G ST', '10000  AVENUE H ST', '10000  AVENUE I', '10000  AVENUE I ST', '10000  AVENUE J ST', '10000  AVENUE K ST', '10000  AVENUE L', '10000  AVENUE L ST', '10000  AVENUE M ST', '10000  BETA DR', '10000  CASHEL AV', '10000  CELTIC DR', '10000  CHOCTAW DR', '10000  COURSEY BL', '10000  DAVID DR', '10000  DAWNADALE AV', '10000  DAWNADELE AV', '10000  ELM GROVE GARDEN DR', '10000  FLORIDA BL', '10000  FLORIDA BOULEVARD', '10000  GOODWOOD BL', '10000  GWENADELE AV', '10000  HWY 19', '10000  HYACINTH', '10000  MERGANZER AV', '10000  MERGANZER ST', '10000  MOLLYLEA DR', '10000  OLD HAMMOND HW', '10000  RED OAK', '10000  RED OAK DR', '10000  SCENIC HW', '10000  SCOTLAND AV', '10000  TAMS', '10000  TAMS DR', '10000 E POMONA DR', '10000 N MAGNA CARTA AV', '10000 S CHOCTAW DR', '10000 S PERDUE DR', '10001  AIRLINE HW', '10001  AVENUE F ST', '10001  FLORIDA BL', '10002  AVE I ST', '10002  AVENUE I ST', '10002  BOOKERLINE AV', '10002  FLORIDA BL', '10002  GOODWOOD BL', '10003  AVENUE H ST', '10004  CHANADIA DR', '10004  MAGNA CARTA PL', '10005  AVENUE E ST', '10005  AVENUE H ST', '10006  AVENUE I ST', '10008  AVE K', '10008  AVE L', '10008  AVE L AV', '10008  AVE L ST', '10008  AVENUE I ST', '10008  AVENUE L', '10008  AVENUE L AV', '10008  AVENUE L ST', '10008  AVENUE M ST', '10008  L AV', '10009  AVE H ST', '10009  AVENUE H ST', '1001  31ST ST', '1001  ASTER ST', '1001  CAMELIA AV', '1001  CAMELLIA AV', '1001  CAMELLIA ST', '1001  COLUMBUS DUNN AV', '1001  CONVENTION ST', '1001  DREHR AV', '1001  FUQUA ST', '1001  N.23RD ST', '1001  NORTH BL', '1001  PARK BL', '1001  PROGRESS ST', '1001  SCENIC HW', '1001 N 22ND ST', '1001 N 23 ST', '1001 N 23RD', '1001 N 23RD ST', '1001 N 29TH ST', '1001 N 31ST', '1001 N 31ST ST', '10010  AVENUE F ST', '10010  COURSEY BL', '10010  DAVID DR', '10010  KAREN DR', '10010  SOMBRERO AV', '10010 N MAGNA CARTA PL', '10012  AVE H AV', '10012  EL CAMINO AV', '10012 N MAGNA CARTA BL', '10013  EL CAMINO AV', '10013  MAMMOTH AV', '10019 S PERDUE AV', '1002  BROMLEY DR', '1002  JULIA ST', '1002  PARKER ST', '1002  TIMBERSIDE DR', '1002 N 31ST ST', '1002 S 16TH ST', '10020  A AV', '10020  AVE E ST', '10020  AVE H ST', '10020  AVENUE H ST', '10020  FLORIDA BL', '10020  GAMMA DR', '10020  MAMMOTH AV', '10021  ALPHA DR', '10021  CUYHANGA ST', '10021 W TAMS DR', '10022  CUYHANGA PK', '10022  FLORIDA', '10022 E TAMPA DR', '10022 N MAGNA CARTA PL', '10023  FLORIDA BL', '10023  MAMMOTH AV', '10024  AVENUE B ST', '10024 N PARKVIEW DR', '10025  AVE H', '10025  AVE H AV', '10025  AVENUE H ST', '10025  AVENUE I ST', '10025  EL CAMINO AV', '10027  BOOKERLINE DR', '10027  CAROLINA ST', '10027 E POMONA DR', '10027 W DARRYL PK', '1003  AVE L ST', '1003  BOB PETIT', '1003  BOB PETIT BL', '1003  BOB PETIT DR', '1003  BOB PETITE ST', '1003  BOB PETTIE', '1003  BOB PETTIT', '1003  BOB PETTIT AV', '1003  BOB PETTIT BL', '1003  BOB PETTIT DR', '1003  RITTNER DR', '1003 N 30TH ST', '1003 N 32ND ST', '10030  DAVID DR', '10030  KAREN DR', '10030 E POMONA DR', '10031  RHINE AV', '10032  AVE I', '10032  AVE I AV', '10032  AVE I ST', '10032  AVENUE H ST', '10032  AVENUE I', '10032  AVENUE I ST', '10032  KENLEE DR', '10033  AVE J ST', '10033  AVENUE J ST', '10033 E POMONA DR', '10034  AVE B AV', '10034  AVENUE E ST', '10034  CUYHANGA PK', '10035  GREAT SMOKEY AV', '10036  AVENUE H ST', '10037  AVE H', '10037  AVE H AV', '10037  AVENUE D ST', '10037  AVENUE H', '10037  AVENUE H AV', '10037  AVENUE H ST', '10038  AVE K AV', '10038  AVE K ST', '10038  AVENUE K AV', '10038  AVENUE K ST', '10038  BOOKERLINE AV', '10038  FLORIDA BL', '10038  KINGLET DR', '10038 S CHOCTAW', '10039  BOOKERLINE AV', '10039  FLORIDA BL', '1004  CHANADIA DR', '1004  COTTON ST', '1004  DEAN LEE DR', '1004  JULIA ST', '1004  PATRICIA ST', '1004  RITTINER DR', '1004 N 30TH ST', '1004 N 32ND ST', '1004 N 35TH ST', '1004 N 47TH ST', '10040 S CHOCTAW DR', '10041  AVE J AV', '10041  AVENUE J ST', '10041  FLORIDA BL', '10041  RHINE AV', '10042  BETA DR', '10043  MAMMOTH AV', '10043  MAMMOTH DR', '10043  SUNNY CLINE DR', '10043 E CORONADO DR', '10044  ALPHA DR', '10044  AVENUE A ST', '10044  AVENUE I ST', '10044 W TAMS DR', '10045  AVENUE G AV', '10045  AVENUE G ST', '10045  FLORIDA', '10045  FLORIDA BL', '10045  GWENADALE', '10045  GWENADALE AV', '10045  GWENADALE DR', '10045  GWENADELE', '10045  GWENADELE AV', '10045  GWENADELE DR', '10045  GWENADELLE', '10045  GWENADELLE DR', '10045  GWENEDALE AV', '10045  GWENEDALE DR', '10046 E POMONA DR', '10047  CHANADIA DR', '10047  FLORIDA BL', '10049  AVE H ST', '10049  EL CAMINO AV', '10049  FLORIDA BL', '10049 S PERDUE AV', '1005  ARCADIA DR', '1005  CHOCTAW DR', '1005  OSPREY AV', '1005  PROGRESS RD', '1005  PROGRESS ST', '1005  RITTNER DR', '1005 E POLK ST', '1005 N 30TH ST', '1005 N 32ND ST', '1005 N 39TH ST', '10050  ELM GROVE GARDEN DR', '10050  GREAT SMOKEY AV', '10050  HYACINTH AV', '10051  FLORIDA BL', '10053  BETA DR', '10055  AVENUE F', '10055  AVENUE F ST', '10055  DAVID DR', '10058  AVE K', '10058  AVE K ST', '10058  AVENUE K AV', '10058  AVENUE K ST', '10058 S CHOCTAW', '10058 S CHOCTAW DR', '10059  AVENUE M ST', '1006  CAMELIA AV', '1006  WAVERLY DR', '1006 N 46TH ST', '1006 S 16TH ST', '10060  DAVID DR', '10060  FLORIDA BL', '10064  ELM GROVE GARDEN', '10064  ELM GROVE GARDEN DR', '10064  ELM GROVE GARDEN ST', '10064  ELMGROVE ST', '10064  RED OAK  DR', '10064  RED OAK DR', '10065  AVENUE G ST', '10065  OLD HAMMOND HW', '10065 W TAMS BL', '10066 E CORONADO DR', '10066 S CHOCTAW DR', '10066 W TAMS', '10066 W TAMS DR', '10067  AVENUE E ST', '10067  EL CAMINO AV', '10067  ELM GROVE GARDEN DR', '10067 W TAMS DR', '10068  GREAT SMOKEY AV', '10068  GREENWELL SPRINGS RD', '10069  AVENUE A ST', '1007  KENILWORTH PK', '1007  PARK BL', '1007  PROGRESS ST', '1007 E JOHNSON ST', '1007 N 32ND ST', '1007 N 47TH ST', '10070  AVE K ST', '10070  AVENUE D AV', '10070  FLORIDA BL', '10073  AVENUE A ST', '10073  MAMMOTH AV', '10074 S CHOCTAW HW', '10075  AVE J', '10075  AVE J AV', '10075  AVENUE J AV', '10075  AVENUE J ST', '10076  BOWMAN AV', '10076  BOWMAN ST', '10077  AVE D AV', '10077  AVENUE D ST', '10078 S CHOCTAW DR', '1008  AVE L ST', '1008  CAMELIA AV', '1008  CAMELLIA AV', '1008  WINDINGWAY DR', '10080  AVENUE F DR', '10080  KAREN DR', '10081  AVENUE F ST', '10081  RUNNYMEDE AV', '10082  FLORIDA BL', '10082 E POMONA DR', '10083  OLD HAMMOND HW', '10083 W DARRYL PK', '10084  AVENUE K ST', '10084  GREAT SMOKEY AV', '10085  AVENUE E ST', '10085  GREAT SMOKEY AV', '10085  GREAT SMOKEY DR', '10086  CUYHANGA PK', '10086  FLORIDA BL', '10087  ALPHA DR', '10087  AVENUE B ST', '10087  BETA DR', '10088  AVE G ST', '10088  AVENUE G', '10088  AVENUE G ST', '10088  GAMMA DR', '1009 N 32ND ST', '10090  BIG BEND AV', '10090  FLORIDA', '10090  FLORIDA BL', '10091  AVE B AV', '10091  AVENUE B ST', '10092  AVENUE M ST', '10094  AVENUE B ST', '10095  AVE A ST', '10095  AVE.  A', '10095  AVENUE A ST', '10097  AVE L', '10097  AVE L AV', '10097  AVENUE L AV', '10097  AVENUE L ST', '101  BEVERLY DR', '101  FLORIDA ST', '101  FRANCE ST', '101  GOVERNMENT ST', '101  NORTH BL', '101  NORTH ST', '101  ST FERDINAND ST', '101 S FOSTER DR', '101 W STATE ST', '1010  BAYBERRY ST', '1010  BOB PETTIT BL', '1010  FLORIDA ST', '1010  JULIA ST', '1010  SPANISH TOWN RD', '1010 S ACADIAN TH', '10100  AVE C AV', '10100  AVE E AV', '10100  AVENUE H ST', '10100  AVENUE I', '10100  AVENUE I AV', '10100  AVENUE I ST', '10100  AVENUE J', '10100  AVENUE K ST', '10100  AVENUE M ST', '10100  BLACK OAK DR', '10100  COURSEY BL', '10100  DARADELL AV', '10100  DARRYL DR', '10100  DAVID DR', '10100  FLETCHER WILLIAMS DR', '10100  FLETCHER WILLIAMS RD', '10100  FLORIDA BL', '10100  GOODWOOD', '10100  GOODWOOD AV', '10100  GOODWOOD BL', '10100  GREENWELL SPRINGS RD', '10100  HYACINTH AV', '10100  JANICE ST', '10100  MERGANZER AV', '10100  MOLLYLEA DR', '10100  OLD HAMMOND HW', '10100  SUNNY CLINE DR', '10100 N HARVEY DR', '10100 S CHOCTAW DR', '10101  COURSEY BL', '10101  RUNNYMEDE AV', '10101  SEIGAN LN', '10106  AMBROSE CT', '10106  AVE. I', '10106  AVENUE I ST', '10107  AVE F AV', '10107  AVENUE F ST', '10108  AVENUE G ST', '10108  AVENUE K ST', '10108  G AV', '10109  AVENUE B AV', '10109  AVENUE B ST', '10109  AVENUE J ST', '10109  AVENUE M ST', '1011  ELIZABETH DR', '1011  MARWEDE AV', '1011 N 32ND ST', '1011 N 46TH ST', '1011 N BON MARCHE', '1011 N BON MARCHE DR', '1011 W ROOSEVELT ST', '10110  AVENUE F ST', '10110  COURSEY BL', '10111  AVENUE J AV', '10111  AVENUE J ST', '10111  FLORIDA BL', '10111  GWENADALE AV', '10111  GWENADELE', '10111  GWENADELE AV', '10111  GWENADELLE DR', "10111  KNIGHT'S BRIDGE CT", '10113  AVENUE I ST', '10113  MOLLYLEA DR', '10114  MOLLYLEA DR', '10114 S RIVER OAKS DR', '10115  AVEJ ST', '10115  AVENUE J ST', '10115  BALLINA AV', '10115  MERGANZER AV', '10116  MERGANZER AV', '10116 N MAGNA CARTA PL', '1012  PROGRESS ST', '1012  TIMBERSIDE DR', '1012  WESTMORELAND DR', '1012 N 48TH ST', '1012 S ACADIAN TH', '10120  AVE I', '10120  AVENUE I ST', '10120  AVENUE J ST', '10120  AVENUE L ST', '10120  BOWMAN AV', '10120  DARADELE AV', '10120  FLORIDA BL', '10120  RED OAK DR', '10120  WHITE OAK', '10120  WHITE OAK DR', '10121  CHANADIA DR', '10122  AVE C ST', '10122  AVENUE C ST', '10122  AVENUE F', '10122  AVENUE F AV', '10122  AVENUE F ST', '10122  KNIGHTS BRIDGE CT', '10122  MAMMOTH AV', '10122 N MAGNA CARTA PL', '10123  AVE F', '10123  AVE F AV', '10123  AVEENUE F ST', '10123  AVENUE E ST', '10123  AVENUE F', '10123  AVENUE F ST', '10123  BLACK OAK DR', '10123  GRANDEAUR DR', '10123  GRANDEUR DR', '10124  CLETUS DR', '10124  RHAPSODY', '10125  AVE C ST', '10125  BALLINA AV', '10125  BOWMAN AV', '10125  DARRYL DR', '10125  GOODWOOD BL', '10125  MAMMOTH AV', '10125  MOLLYLEA DR', '10125  RUNNYMEDE AV', '10126  AVENUE I ST', '10126  GERANDEUR DR', '10127  CASHEL AV', '10127  FLORIDA BL', '10127  RUNNYMEDE AV', '10128  FLORIDA BL', '10129  AVENUE H ST', '1013  BECKENHAM DR', '1013  BOB PETIT BL', '1013  GRANDEUR DR', '1013 N 44TH ST', '10130  AVE J AV', '10130  AVE J ST', '10130  AVENUE J AV', '10130  AVENUE J ST', '10130  BOWMAN AV', '10130  COURSEY', '10130  COURSEY BL', '10130  GREENWELL SPRINGS RD', '10130  RUNNYMEDE AV', '10131  GRANDEUR DR', '10131  GRANDUER DR', '10131  KNIGHTS BRIDGE CT', '10132  AVENUE H AV', '10132  AVENUE H ST', '10133  BOWMAN AV', '10134  AVE I ST', '10134  AVENUE I ST', '10134  DARRYL DR', '10134  FLORIDA BL', '10134 W DARRYL PK', '10135  AVENUE G ST', '10135  BALLINA AV', '10135  MOLLYLEA DR', '10135 S RIVER OAKS DR', '10136  FLORIDA BL', '10136  MOLLYLEA DR', '10139  AIRLINE HW', '1014  FOX LANE DR', '1014  FOXLANE DR', '1014  PROGRESS', '1014  PROGRESS ST', '1014  SENETTE ST', '1014  SPARROW ST', '1014  TARA BL', '1014  WINDINGWAY DR', '1014 S 18TH ST', '10140  JANICE ST', '10140  WHITE OAK DR', '10142  MOLLYLEA DR', '10143  GRANDEUR DR', '10144  AVE M AV', '10144  AVENUE M ST', '10144  GERALD DR', '10145  AVENUE E ST', '10145  BALLINA', '10145  BALLINA AV', '10145  DARRYL DR', '10145  FLORIDA BL', '10145  MAMMOTH AV', '10145  RED OAK DR', '10148  AVE J AV', '10148  AVENUE J ST', '10148  AVENUE K ST', '10148  GREENWELL SPRINGS RD', '10148 N HARVEY DR', '10149  AVE G', '10149  AVENUE G ST', '1015  BAYBERRY AV', '1015  COLUMBUS DUNN DR', '1015  OSPREY AV', '1015  RICHLAND AV', '1015  SEYBURN DR', '1015 E POLK ST', '1015 W LEE DR', '10150  AIRLINE DR', '10150  AIRLINE HW', '10152  PLAZA AMERICANA DR', '10154  BOWMAN AV', '10154  BOWMAN ST', '10154 S CHOCTAW DR', '10155  AMBROSE CT', '10155  AVE E ST', '10155  BLACK OAK DR', '10155  GOODWOOD BL', '10155  MAMMOTH AV', '10155  TAMS DR', '10155  TAMS ST', '10157  CASHEL AV', '1016  COLUMBUS DUNN DR', '1016 W GARFIELD ST', '10160  AIRLINE HW', '10160  BAYNARD ST', '10160  BIG BEND AV', '10160  DARRYL DR', '10164  DEVONSHIRE DR', '10164  RHAPSODY DR', '10165  BLACK OAK DR', '10165  DARRYL DR', '10165  GERALD DR', '10168  AVENUE K AV', '10168  AVENUE M ST', '1017  SILVERWOOD DR', '1017 E POLK ST', '10172  AVE M ST', '10172  MAMMOTH AV', '10172  PATRIOT DR', '10174  AIRLINE HW', '10174  AVENUE F ST', '10175  AVENUE D ST', '10175  MAMMOTH AV', '10178  AVENUE H ST', '10179  AVE H ST', '1018  BOB PETIT BL', '1018  GREBE ST', '1018  TRAMMEL DR', '10180  PARKVIEW DR', '10185  FLORIDA BL', '10186 S CHOCTAW DR', '10188  AVE E', '10188  AVENUE E ST', '10188  FLORIDA BL', '10188  HYACINTH AV', '1019  CRESCENT DR', '1019  OSPREY AV', '1019  OSPREY ST', '1019 W GARFIELD ST', '10196  TWIN CEDARS', '10196  TWIN CEDARS ST', '10197  AVENUE H ST', '10198  AVENUE D ST', '10198  AVENUE F ST', '102   FRANCE ST', '102  FRANCE', '102  FRANCE ST', '102  MAYFLOWER ST', '102 S ACADIAN', '102 S ACADIAN TH', '1020  ABERDEEN AV', '1020  ARCADIA DR', '1020  MAIN ST', '1020  MALBROOK DR', '1020  MARLBROOK DR', '1020  MARSH ST', '1020 N 46TH ST', '1020 N 48TH ST', '1020 N ARDENWOOD DR', '1020 S FOSTER DR', '1020 S TINLEY DR', '10200  AIRLINE', '10200  AIRLINE HW', '10200  ALMOND ST', '10200  AVE D', '10200  AVE E ST', '10200  AVE J ST', '10200  AVENUE C ST', '10200  AVENUE D ST', '10200  AVENUE E', '10200  AVENUE E ST', '10200  AVENUE F AV', '10200  AVENUE H ST', '10200  AVENUE J ST', '10200  AVENUE L ST', '10200  BARBARA ST', '10200  CLETUS DR', '10200  COURSEY BL', '10200  DARRYL DR', '10200  ELAIN DR', '10200  FLETCHER WILLIAMS DR', '10200  FLETCHER WILLIAMS RD', '10200  GREENWELL SPRINGS RD', '10200  HWY 19 HW', '10200  JANICE ST', '10200  MERGANZER AV', '10200  MOLLYLEA DR', '10200  OLD HAMMOND HW', '10200  SCENIC HW', '10200  SCOTLAND AV', '10200  VETERANS MEMORIAL', '10200 N HARVEY DR', '10200 S CHOCTAW', '10201  AVE C', '10201  AVE K ST', '10201  AVENUE B ST', '10201  AVENUE C ST', '10201  AVENUE L ST', '10201  CASHEL DR', '10201  FLORIDA BL', '10201 E POMONA DR', '10203  BALLINA AV', '10204  AVENUE J ST', '10207  AVE J ST', '10207  AVENUE J ST', '10207  MAMMOTH AV', '10209  AVE M', '10209  AVE M AV', '10209  AVE M ST', '10209  AVENUE M', '10209  AVENUE M ST', '1021  BRAEBURN DR', '1021  OAKLEY DR', '1021  SHERWOOD FOREST BL', '1021  WOODHILL DR', '1021 N 36TH ST', '1021 N 37TH ST', '1021 N 44TH ST', '1021 S 15TH ST', '1021 W ROOSEVELT ST', '10210  AVE K', '10210  AVE K ST', '10210  AVE L', '10210  AVE L AV', '10210  AVE L ST', '10210  AVE. L ST', '10210  AVENUE K ST', '10210  AVENUE L', '10210  AVENUE L AV', '10210  AVENUE L ST', '10210  CANADA ST', '10210  L AV', '10212  AVENUE H ST', '10212  RHAPSODY DR', '10213  AVENUE G ST', '10213  BALLINA AV', '10213  BALLINA CT', '10215  RUNNYMEDE AV', '10216  AVENUE I ST', '10217  AVENUE I ST', '10217 N HARVEY DR', '10218  AVENUE I ST', '10219  CASHEL AV', '1022  BAIRD DR', '1022  PROGRESS ST', '1022  RODNEY DR', '1022  STEELE BL', '1022  SWAN AV', '1022  TIMBER SIDE', '1022  WODDALE BL', '1022  WOODDALE BL', '1022 S FOSTER DR', '10220  AV A AV', '10220  AVE J ST', '10220  AVENUE J ST', '10220  CANADA ST', '10220  FLORIDA BL', '10220  JANICE ST', '10221  ALMOND ST', '10221  PATRIOT DR', '10222 S PERDUE AV', '10223  BALLINA', '10223  CASHEL AV', '10224  AVE G AV', '10224  BARBARA ST', '10224  BLACK OAK DR', '10224  DARRYL DR', '10224  FLORIDA', '10224  FLORIDA BL', '10224  FLORIDA RD', '10224  GERALD DR', '10225  AVENUE H ST', '10225  DARRYL DR', '10225  FLORIDA BL', '10225  GERALD DR', '10225 W DARRYL DR', '10226  FLORIDA BL', '10227  CASHEL AV', '10228  FLORIDA BL', '10229  AVENUE L ST', '1023  ELM GROVE GARDEN DR', '1023  LAUREL ST', '1023  PARK BL', '1023  TIMBERSIDE', '1023  WOODSTONE DR', '1023  WOODVINE DR', '1023 N LOBDELL', '1023 N LOBDELL BL', '10230  MOLLYLEA DR', '10231  CASHEL AV', '10233  BALLINA AV', '10233  MOLLYLEA DR', '10234  FLORIDA BL', '10235  AVENUE J ST', '10235  BARBARA ST', '10235  BROWNING DR', '10236  AVE H AV', '10236  AVE H ST', '10236  AVE K AV', '10236  AVENUE H ST', '10236  AVENUE K ST', '10238  CANADA ST', '10238  TWIN CEDARS ST', '10239  CASHEL AV', '1024  EXECUTIVE PARK AV', '1024  FOXLANE DR', '1024  MAGNOLIA WOOD AV', '1024  MONET DR', '1024  PROGRESS RD', '1024  PROGRESS ST', '1024 N 28TH ST', '1024 N FOSTER DR', '1024 W GARFIELD ST', '1024 W ROOSEVELT ST', '10240  AVE E ST', '10240  AVE J ST', '10240  BARBARA ST', '10240  JANICE ST', '10241  AVENUE M ST', '10241  CASHEL AV', '10241  COURSEY BL', '10241 N HARVEY DR', '10243  BALLINA AV', '10244  FLORIDA BL', '10245  AIRLIINE HW', '10245  AIRLINE HW', '10245  AVE E ST', '10245  AVENUE B ST', '10245  AVENUE L ST', '10245  BLACK OAK DR', '10245  DARADELLE', '10245  GERALD DR', '10245  SUNNY CLINE DR', '10247  AVENUE D ST', '10247  MAMMOTH AV', '10247  MAMMOTH DR', '10248  BIG BEND AV', '10248  FLORIDA BL', '10249  CASHEL AV', '1025  AUDUBON DR', '1025  AUDUBON ST', '1025  CORA DR', '1025  EXECUTIVE PARK AV', '1025  GLENMORE AV', '1025  HIGHLAND PARK DR', '1025  LAUREL ST', '1025  LOUISIANA AV', '1025  LOUISIANA ST', '1025  MAGNOLIA WOOD AV', '1025  MAGNOLIA WOODS DR', '1025  MARILYN DR', '1025  PROGRESS RD', '1025  PROGRESS ST', '1025  RICHLAND AV', '1025  SEYBURN DR', '1025  TARA BL', '1025  WYLIE DR', '1025 N 30TH ST', '1025 N 31 ST', '1025 N 31ST ST', '1025 S ALAMEDA DR', '1025 W GARFIELD ST', '10250  AIRLINE HW', '10250  AVENUE G ST', '10250  GOODWOOD BL', '10250  PLAZA AMERICANA', '10250  PLAZA AMERICANA DR', '10250  PLAZA AMERICANO DR', '10251  AVE E AV', '10251  AVENUE E AV', '10251  AVENUE E ST', '10252  AVE H ST', '10252  FLORIDA BL', '10254  GERALD DR', '10254  TWIN CEDARS ST', '10255  AVENUE G ST', '10255  MOLLYLEA DR', '10256  AVENUE F ST', '10256 S CHOCTAW DR', '10259  AIRLINE HW', '10259  RED OAK DR', '1026 E RIVER OAKS', '1026 E WASHINGTON AV', '1026 E WASHINGTON ST', '1026 N CARROLLTON AV', '10261  TWIN CEDARS ST', '10264  CLETUS DR', '10265  AV', '10265  AVE E', '10265  AVE E AV', '10265  AVE E HW', '10265  AVENUE E', '10265  AVENUE E ST', '10266 S CHOCTAW DR', '10268  AVENUE M ST', '10269  AIRLINE HW', '1027  ROUNDHILL DR', '1027 N 36TH ST', '1027 N 46TH ST', '1027 S TAMARI', '1027 W LEE DR', '10270  AIRLINE HW', '10271 N HARVEY DR', '10274  NEWCASTLE AV', '10275  AVE I AV', '10275  TAMS DR', '10276  AVENUE I ST', '10276  FLEMING ST', '10276  TAMS DR', '10276 S HAMPTON ST', '10278  GOODWOOD BL', '10278  TWIN CEDARS ST', '1028  CAMELIA AV', '1028  CAMELLIA AV', '1028 N 46TH ST', '1028 N SABINE DR', '10280  AVE I AV', '10280  AVENUE F ST', '10280  AVENUE I AV', '10280  AVENUE I ST', '10280  BROWNING DR', '10280  JANICE ST', '10288  JANICE ST', '10288  WHITE OAK DR', '10289  AIRLINE HW', '10289  PARKVIEW DR', '1029  BROMLEY DR', '1029 N 47TH ST', '1029 N SABINE DR', '10294  AVE D', '10294  AVENUE D', '10294  AVENUE D ST', '10296 S CHOCTAW DR', '103   FRANCE ST', '103  3RD ST', '103  BOB PETTIT AV', '103  FM 1571 OLD MILL ST', '103  FRANCE', '103  FRANCE ST', '103  MAYFLOWER DR', '1030  BALSAM AV', '1030  CENTRAL RD', '1030  OAKLEY DR', '1030  PARK BL', '1030 S EUGENE ST', '10300  AIRLINE HW', '10300  AVE G', '10300  AVE J ST', '10300  AVENUE E ST', '10300  AVENUE J ST', '10300  COURSEY BL', '10300  ELM GROVE GARDEN DR', '10300  GOODWOOD BL', '10300  LA HWY 61 (SCENIC)', '10300  MOLLYLEA DR', '10300  OLD HAMMOND HW', '10300  PARKVIEW DR', '10300  SCOTLAND AV', '10300 S CHOCTAW DR', '10300 S GIBBENS DR', '10301  COURSEY BL', '10305  AIRLINE HW', '10307 N MALL DR', '10309  MAMMOTH AV', '1031  COLUMBUS DUNN', '1031  COLUMBUS DUNN DR', '1031  KEED AV', '1031  SEYBURN DR', '1031  WOODHILL DR', '1031 N 47TH ST', '1031 S 16TH ST', '1031 W LEE DR', '10310  ELM GROVE GARDEN DR', '10311  PLAZA AMERICANA', '10311  PLAZA AMERICANA BL', '10311  PLAZA AMERICANA DR', '10311 S RIVER OAKS DR', '10313  AIRLINE HW', '10315  WHITE OAK DR', '10315 S PERDUE AV', '10315 S PURDUE DR', '10319  MAMMOTH AV', '10319  OLD HAMMOND HW', '10319  ZERLEE ST', '10319 N HARVEY DR', '1032  CENTRAL RD', '1032  COLUMBUS DUNN', '1032  TIMBERSIDE DR', '1032  TIMBERSIDE ST', '1032 N 30TH ST', '1032 N 46TH ST', '1032 S ACADIAN TH', '10320  BIRCHWOOD DR', '10320  MOLLYLEA DR', '10321  AIRLINE HW', '10322  CEDAR LN', '10322  CEDARLANE DR', '10322  CLETUS DR', '10322  LEBANON ST', '10322  TAMS DR', '10323 S RIVER OAKS DR', '10324  WHITE OAK DR', '10325  DARRYL DR', '10327  GREENWELLSPRINGS RD', '10328  AVENUE G ST', '10328  CINQUEFOIL AV', '10328  GOODWOOD BL', '10329  CINQUEFOIL AV', '1033  FLORA LN', '1033  LEYCESTER DR', '1033  OSPREY AV', '1033  SWAN AV', '1033  SWAN ST', '1033 N LEIGHTON DR', '10330  AIRLINE', '10330  AIRLINE HW', '10330  COURSEY BL', '10330  FLORIDA', '10330  FLORIDA BL', '10331  AIRLINE HW', '10331 W ALMOND DR', '10331 W ALMOND ST', '10332  AIRLINE HW', '10332  PLAZA AMERICANA', '10332  PLAZA AMERICANA DR', '10333  AIRLINE HW', '10333  AVE K AV', '10333  PATRICIA DR', '10333 N HARVEY DR', '10334  CANADA ST', '10334  CANDA ST', '10334  CEDARLANE DR', '10334  LEBANON ST', '10334 S CHOCTAW DR', '10335  AIRLINE HW', '10335  AVE C AV', '10335  BROWNING DR', '10335  LEBANON', '10335 W DARRYL DR', '10336  BIG BEND AV', '10337  ELM GROVE GARDEN DR', '10338  MAMMOTH AV', '10338  NELWYN DR', '10339  MAMMOTH AV', '10339  MAMMOTH DR', '1034  COLUMBUS DUNN DR', '1034  FOXLANE DR', '1034  LEYCESTER DR', '1034  MAGNOLIA WOOD AV', '1034 N DONMOOR AV', '10340  BIRCHWOOD ST', '10340  CELTIC DR', '10340  WHITE OAK DR', '10341 W ALMOND DR', '10341 W ALMOND ST', '10342  GERALD DR', '10344  BLACK OAK DR', '10344  CINQUEFOIL AV', '10344  OLD HAMMOND HW', '10344  RED OAK DR', '10344  REDOAK DR', '10345  BARBARA ST', '10345  CYPRUS CEDAR DR', '10345  DARRYL DR', '10345  PATRICIA DR', '10345  RED OAK DR', '10345 S RIVEROAKS DR', '10346  PATRICIA DR', '10346  RHAPSODY DR', '10348  CYPRUS CEDAR ST', '1035  ARCADIA DR', '1035  BAYBERRY AV', '1035  CARDINAL ST', '1035  EXECUTIVE PARK AV', '1035  RITTNER DR', '1035  ROSEDALE ST', '1035  SAVANNA VIEW DR', '1035  WYLIE DR', '1035 N 35TH ST', '1035 N 48TH ST', '10350  FLORIDA BL', '10350  HWY 19', '10350  REIGER RD', '10350  SCOTLAND AV', '10351  PLAZA AMERICANA DR', '10352  GERALD DR', '10354  BRONZEBUSH AV', '10354  CYPRUS CEDAR ST', '10354  DARRYL DR', '10354  OLD HAMMOND HW', '10354 N HARVEY DR', '10355  AVE C ST', '10355  CEDARLANE DR', '10355  CYPRUS CEDAR ST', '10355  PARKVIEW DR', '10355  TAMS', '10355  TAMS DR', '10357  LEBANON ST', '10357  OLD HAMMOND HW', '10358  CEDARLANE DR', '1036  BARANCO ST', '1036  CHIPPENHAM DR', '1036  LANDWOOD DR', '1036 N 31ST ST', '1036 N 36TH ST', '1036 N CARROLLTON AV', '1036 W GARFIELD ST', '10360  AVE C DR', '10360  AVENUE H ST', '10360  AVENUE I ST', '10361  CINQUEFOIL AV', '10362  AVENUE D ST', '10362  BRONZEBUSH AV', '10362  GREENWELL SPRINGS RD', '10363  GERALD DR', '10364  DARRYL DR', '10364  OLD HAMMOND HW', '10364 S PERDUE AV', '10365  AVENUE C ST', '10365  CATHERINE ST', '10365  CLETUS DR', '10365  DARRYL', '10365 S PERDUE AV', '10365 S PERDUE DR', '10366  BROWNING DR', '10366  CLETUS DR', '10366  FIRELIGHT AV', '10367  RED OAK DR', '10368  AVENUE F ST', '10369  PATRICIA DR', '1037  CASTLE KIRK DR', '1037  LAUREL ST', '1037  MAIN ST', '1037  RITTINER DR', '1037  RITTNER DR', '1037 N 36TH ST', '10372  BLACK OAK DR', '10374 N HARVEY DR', '10375  AVENUE C ST', '10379  MAMMOTH AV', '1038  RICHLAND AV', '1038 N 44TH ST', '10383  GREENWELL SPRINGS RD', '10384  ELM GROVE GARDEN DR', '10384 S CHOCTAW', '10384 S CHOCTAW DR', '10386  CINQUEFOIL AV', '10386  ELM GROVE GARDEN', '10386  ELM GROVE GARDEN DR', '10388 </t>
         </is>
@@ -1068,18 +1133,22 @@
       <c r="P10" t="n">
         <v>4245</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>1037557</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>10388</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10008', '10009', '1001', '10010', '10012', '10013', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10027', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10049', '1005', '10050', '10051', '10053', '10055', '10058', '10059', '1006', '10060', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10073', '10074', '10075', '10076', '10077', '10078', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '1009', '10090', '10091', '10092', '10094', '10095', '10097', '101', '1010', '10100', '10101', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10113', '10114', '10115', '10116', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10139', '1014', '10140', '10142', '10143', '10144', '10145', '10148', '10149', '1015', '10150', '10152', '10154', '10155', '10157', '1016', '10160', '10164', '10165', '10168', '1017', '10172', '10174', '10175', '10178', '10179', '1018', '10180', '10185', '10186', '10188', '1019', '10196', '10197', '10198', '102', '1020', '10200', '10201', '10203', '10204', '10207', '10209', '1021', '10210', '10212', '10213', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10233', '10234', '10235', '10236', '10238', '10239', '1024', '10240', '10241', '10243', '10244', '10245', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10254', '10255', '10256', '10259', '1026', '10261', '10264', '10265', '10266', '10268', '10269', '1027', '10270', '10271', '10274', '10275', '10276', '10278', '1028', '10280', '10288', '10289', '1029', '10294', '10296', '103', '1030', '10300', '10301', '10305', '10307', '10309', '1031', '10310', '10311', '10313', '10315', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10344', '10345', '10346', '10348', '1035', '10350', '10351', '10352', '10354', '10355', '10357', '10358', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10372', '10374', '10375', '10379', '1038', '10383', '10384', '10386', '10388', '10389', '1039', '10391', '10392', '10399', '104', '1040', '10400', '10401', '10402', '10407', '10408', '1041', '10410', '10411', '10412', '10414', '10415', '10416', '10417', '10418', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '1044', '10440', '10442', '10443', '10444', '10445', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '1048', '10480', '10481', '10484', '10485', '10488', '1049', '10490', '10492', '10496', '10499', '105', '1050', '10500', '10501', '10502', '10505', '10509', '1051', '10510', '10511', '10514', '10515', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10529', '1053', '10530', '10531', '10532', '10534', '10535', '10536', '10538', '1054', '10540', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10557', '10558', '1056', '10562', '10563', '10565', '10566', '10567', '10569', '1057', '10570', '10571', '10575', '10577', '10578', '1058', '10580', '10584', '10587', '10588', '10589', '10595', '10596', '10599', '106', '1060', '10600', '10604', '10605', '10606', '10609', '1061', '10610', '10611', '10615', '10619', '1062', '10620', '10621', '10622', '10624', '10625', '10626', '10627', '10628', '1063', '10631', '10632', '10634', '10635', '10637', '1064', '10641', '10642', '10644', '10645', '10646', '10647', '10648', '1065', '10650', '10651', '10652', '10654', '10655', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10665', '10666', '1067', '10674', '10675', '10678', '10679', '1068', '10680', '10683', '10686', '10687', '10689', '1069', '10695', '10697', '107', '1070', '10700', '10701', '10702', '10705', '10706', '10710', '10711', '10713', '10715', '10717', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '1073', '10730', '10731', '10732', '10734', '10736', '10737', '10738', '10739', '1074', '10740', '10743', '10745', '10746', '10747', '1075', '10750', '10752', '10755', '10756', '1076', '10760', '10763', '10764', '10765', '10766', '10767', '10768', '1077', '10770', '10772', '10775', '10776', '10777', '10779', '1078', '10780', '10781', '10782', '10785', '10786', '10787', '1079', '10790', '10795', '10798', '108', '1080', '10800', '10801', '10802', '10805', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10817', '10818', '1082', '10820', '10821', '10822', '10823', '10825', '10827', '10828', '1083', '10832', '10833', '10835', '10836', '10838', '1084', '10841', '10842', '10843', '10844', '10845', '10847', '10848', '1085', '10850', '10855', '1086', '10860', '10862', '10863', '10865', '10869', '1087', '10870', '10877', '1088', '10881', '10884', '10887', '10888', '10889', '1089', '10891', '109', '1090', '10900', '10901', '10904', '10905', '10906', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10932', '10934', '10935', '10936', '10938', '1094', '10940', '10942', '10943', '10944', '10945', '10946', '10948', '10950', '10951', '10953', '10954', '10955', '10956', '10959', '1096', '10960', '10962', '10963', '10966', '10967', '10968', '1097', '10970', '10974', '10975', '10976', '10977', '10978', '10979', '10982', '10988', '10989', '10993', '10996', '11', '110', '1100', '11000', '11001', '11005', '11007', '11008', '1101', '11010', '11011', '11014', '11015', '11016', '11017', '1102', '11021', '11022', '11023', '11024', '11025', '11026', '11028', '1103', '11030', '11031', '11032', '11034', '11035', '11036', '1104', '11040', '11041', '11043', '11044', '11045', '11046', '11047', '1105', '11050', '11051', '11052', '11054', '11055', '11056', '1106', '11060', '11061', '11062', '11063', '11064', '11066', '11069', '1107', '11070', '11071', '11072', '11074', '1108', '11080', '11085', '11087', '1109', '11091', '11094', '11095', '11096', '111', '1110', '11100', '11101', '11105', '11108', '11109', '1111', '11110', '11111', '11112', '11116', '11117', '11119', '1112', '11120', '11122', '11123', '11124', '11125', '11126', '1113', '11130', '11132', '11134', '11135', '11136', '11137', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '1115', '11150', '11151', '11152', '11153', '11154', '11157', '11158', '1116', '11160', '11162', '11165', '11166', '11167', '11169', '1117', '11171', '11172', '11173', '11174', '11175', '11178', '11179', '1118', '11180', '11182', '11186', '11187', '11188', '1119', '11191', '11196', '11198', '112', '1120', '11200', '11201', '11203', '11205', '11209', '1121', '11210', '11211', '11214', '11215', '11219', '1122', '11220', '11222', '11224', '11225', '11227', '11229', '1123', '11230', '11231', '11232', '11234', '11235', '11236', '11239', '1124', '11244', '11245', '11246', '11247', '11248', '1125', '11250', '11251', '11252', '11254', '11255', '11256', '1126', '11262', '11263', '11268', '1127', '11271', '11275', '11277', '1128', '11281', '11283', '11284', '11288', '1129', '11290', '11294', '11297', '113', '1130', '11300', '11301', '11302', '11304', '11307', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11317', '1132', '11320', '11321', '11322', '11324', '1133', '11330', '11331', '11333', '11334', '11335', '11336', '1134', '11340', '11341', '11342', '11343', '1135', '11350', '11352', '11354', '11355', '11356', '11359', '1136', '11360', '11363', '11364', '11368', '11369', '1137', '11371', '11372', '11373', '11375', '11376', '11378', '1138', '11383', '11384', '11385', '11386', '1139', '11390', '11394', '11395', '11396', '11398', '1140', '11400', '11401', '11402', '11404', '1141', '11410', '11411', '11413', '11414', '11415', '11416', '11417', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11427', '11428', '1143', '11430', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '1145', '11450', '11452', '11453', '11455', '11456', '11457', '1146', '11460', '11461', '11463', '11464', '11465', '11467', '11468', '1147', '11470', '11472', '11473', '11475', '11476', '11478', '11479', '1148', '11480', '11481', '11486', '1149', '11496', '115', '1150', '11500', '11501', '1151', '11510', '11512', '11515', '11516', '11519', '1152', '11520', '11521', '11522', '11524', '11525', '11528', '1153', '11530', '11531', '11534', '11535', '11536', '11537', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11555', '11556', '11558', '1156', '11561', '11562', '11567', '11569', '1157', '11570', '11571', '11572', '11574', '11575', '11576', '11577', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '1159', '11590', '11591', '11595', '116', '1160', '11600', '11602', '11603', '11605', '11606', '1161', '11610', '11612', '11613', '11614', '11615', '11617', '11618', '1162', '11620', '11621', '11623', '11624', '11625', '11627', '11628', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11638', '11639', '1164', '11640', '11641', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11654', '11655', '11656', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11665', '11666', '11668', '11669', '1167', '11671', '11672', '11673', '11674', '11675', '11677', '11678', '1168', '11680', '11683', '11685', '11686', '11687', '11688', '1169', '11690', '11692', '11693', '11698', '117', '1170', '11700', '11701', '11702', '11703', '11705', '1171', '11712', '11713', '11715', '11716', '11718', '1172', '11721', '11722', '11724', '11725', '11726', '1173', '11730', '11731', '11732', '11733', '11735', '11736', '11737', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '1175', '11750', '11752', '11753', '11754', '11755', '11756', '11757', '11759', '1176', '11760', '11761', '11762', '11764', '11765', '11766', '11767', '11768', '1177', '11774', '11775', '11776', '11777', '11778', '1178', '11781', '11784', '11786', '11795', '118', '1180', '11800', '11801', '11802', '11804', '11805', '11806', '11809', '1181', '11810', '11811', '11813', '11814', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11848', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11857', '11859', '1186', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '1187', '11870', '11872', '11873', '11875', '11876', '1188', '11881', '11882', '11884', '11888', '11892', '119', '1190', '11900', '11901', '11903', '11904', '11906', '11908', '1191', '11910', '11911', '11913', '11914', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11934', '11936', '11937', '11938', '11939', '1194', '11941', '11942', '11944', '11945', '11947', '11948', '1195', '11950', '11954', '11955', '11958', '11959', '11960', '11962', '11963', '11965', '11967', '11969', '1197', '11970', '11975', '11976', '1198', '11983', '11984', '11986', '11988', '11990', '11994', '11996', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12006', '12009', '1201', '12010', '12011', '12012', '12013', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12026', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12038', '1204', '12041', '12042', '12045', '12047', '12048', '1205', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '1206', '12061', '12065', '12068', '1207', '12071', '12072', '12074', '12076', '12077', '1208', '12080', '12081', '12086', '12087', '1209', '12095', '12097', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12128', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12137', '1214', '12141', '12142', '12143', '12144', '12145', '12148', '1215', '12150', '12151', '12152', '12153', '12155', '12158', '12159', '1216', '12162', '1217', '12173', '12174', '12175', '12177', '1218', '12186', '12187', '12188', '1219', '12191', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12232', '12233', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '1226', '12260', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12271', '12272', '12273', '12274', '12276', '1228', '12281', '12282', '12283', '12284', '12285', '12288', '12289', '1229', '12291', '12294', '12299', '123', '1230', '12300', '12301', '12302', '12304', '12305', '12307', '1231', '12310', '12311', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '1236', '12360', '12361', '12362', '12363', '12365', '12366', '12367', '12368', '12369', '1237', '12371', '12373', '12374', '12375', '12376', '12379', '1238', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12397', '124', '1240', '12400', '12401', '12402', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12471', '12473', '12474', '12475', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12491', '12493', '12494', '12495', '12497', '125', '1250', '12500', '12501', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12547', '12548', '12549', '1255', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12559', '1256', '12561', '12562', '12564', '12565', '12566', '12567', '1257', '12570', '12573', '12575', '12576', '1258', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '126', '1260', '12600', '12605', '12606', '12607', '1261', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12645', '12646', '12647', '12648', '1265', '12651', '12652', '12654', '12655', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12672', '12674', '12679', '1268', '12684', '12685', '12686', '12689', '1269', '12691', '12694', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12706', '12709', '12710', '12711', '12712', '12713', '12714', '12716', '12717', '12719', '1272', '12720', '12722', '12723', '12724', '12727', '12730', '12731', '12732', '12734', '12736', '12737', '12738', '1274', '12740', '12741', '12745', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12755', '12756', '12757', '12758', '1276', '12762', '12763', '12764', '12765', '12767', '1277', '12770', '12772', '12773', '12776', '12777', '1278', '12784', '12789', '1279', '12792', '128', '1280', '12800', '12808', '1281', '12812', '12815', '12816', '12819', '1282', '12823', '12824', '12825', '12826', '12827', '1283', '12831', '12834', '12835', '12836', '12837', '12838', '1284', '12840', '12842', '12844', '12845', '12848', '1285', '12850', '12853', '12854', '12855', '1286', '12860', '12867', '1287', '12878', '1288', '12888', '12891', '12895', '12897', '129', '1290', '12900', '12901', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '1292', '12923', '12924', '12925', '1293', '12932', '12936', '12942', '12944', '12945', '1295', '12952', '12954', '12955', '1296', '12962', '12964', '12974', '1299', '13', '130', '1300', '13000', '13001', '13002', '1301', '13011', '13012', '13014', '1302', '13024', '13028', '1303', '13030', '13033', '13036', '1304', '13040', '13045', '13047', '1305', '13059', '1306', '1307', '13071', '13074', '1308', '13089', '1309', '131', '1310', '13100', '13101', '1311', '13112', '13115', '1312', '13121', '13122', '13123', '13125', '13126', '1313', '13136', '1314', '13146', '13147', '1315', '13151', '13156', '13157', '13159', '1316', '13169', '1317', '1318', '13185', '1319', '13194', '132', '1320', '13200', '13201', '13202', '13203', '13205', '13206', '1321', '13211', '13212', '13213', '13215', '13217', '13218', '1322', '13222', '13224', '13225', '13227', '13228', '1323', '13231', '13232', '13234', '13235', '1324', '13242', '13243', '13244', '13246', '1325', '13250', '1326', '1327', '13279', '1328', '13289', '1329', '13291', '133', '1330', '13300', '13301', '13303', '1331', '13314', '13315', '13316', '13317', '13319', '1332', '13320', '13321', '13324', '13325', '13326', '1333', '13332', '13334', '1334', '13341', '1335', '13350', '13351', '13354', '1336', '13367', '1337', '1338', '13381', '1339', '13398', '13399', '134', '1340', '13400', '13405', '13407', '13408', '1341', '13411', '13416', '13417', '13418', '13419', '1342', '13420', '13424', '13425', '13426', '1343', '13431', '13435', '1344', '13447', '1345', '13451', '13455', '1346', '13465', '1347', '13475', '1348', '1349', '13499', '135', '1350', '13500', '13501', '13503', '1351', '13511', '1352', '13521', '13522', '13526', '1353', '13534', '1354', '13542', '13544', '1355', '13555', '1356', '13566', '13567', '13568', '13569', '1357', '1358', '13585', '1359', '136', '1360', '13600', '13601', '13602', '13603', '13604', '13605', '1361', '13611', '13614', '13615', '1362', '13620', '13621', '13624', '13625', '13626', '13629', '1363', '13631', '13632', '13633', '13634', '1364', '13641', '13645', '13646', '13647', '13648', '1365', '13650', '13651', '13654', '13657', '1366', '13664', '13667', '13668', '13669', '1367', '13672', '13674', '13675', '1368', '1369', '137', '1370', '13700', '13706', '13707', '13708', '1371', '13712', '13714', '1372', '13722', '13723', '13726', '13728', '1373', '13733', '13734', '13736', '13737', '13738', '1374', '13742', '13743', '13744', '13748', '13749', '1375', '13758', '1376', '1377', '13774', '1378', '1379', '138', '1380', '13801', '13802', '13804', '13805', '13807', '1381', '13811', '13814', '13815', '13816', '13819', '1382', '13820', '13822', '13824', '13825', '13828', '1383', '13834', '13835', '13836', '13838', '13839', '1384', '13842', '13844', '13847', '13849', '1385', '13850', '1386', '13860', '13863', '13865', '13869', '1387', '1388', '13880', '1389', '1390', '13900', '13902', '13903', '13904', '13906', '13907', '1391', '13912', '13914', '13916', '13923', '13926', '1393', '13931', '13934', '13936', '13939', '1394', '13941', '13944', '13946', '1395', '13950', '13959', '1396', '13969', '1397', '13970', '13982', '1399', '13999', '140', '1400', '14000', '14001', '14004', '14009', '1401', '14011', '14012', '14013', '14014', '14015', '1402', '14029', '1403', '14031', '14032', '14039', '1404', '14041', '1405', '14059', '1406', '14062', '1407', '14071', '1408', '1409', '141', '1410', '14100', '14104', '1411', '14115', '1412', '14123', '1413', '14135', '1414', '14140', '1415', '1416', '14163', '1417', '14174', '1418', '14188', '1419', '142', '1420', '14200', '14201', '14208', '1421', '14211', '14212', '14213', '14215', '14217', '14218', '1422', '14220', '14221', '14222', '14224', '1423', '14230', '14232', '14233', '14238', '1424', '1425', '14250', '14252', '14253', '14257', '14258', '1426', '14267', '1427', '1428', '1429', '143', '1430', '14300', '1431', '14310', '14312', '14313', '14315', '14316', '14317', '1432', '14322', '14324', '14325', '14327', '14328', '1433', '14333', '14334', '14339', '1434', '14340', '14344', '14345', '14347', '14349', '1435', '14352', '14355', '14357', '14358', '14359', '1436', '14360', '14369', '1437', '14370', '1438', '1439', '14395', '144', '1440', '14400', '1441', '14413', '14416', '1442', '14422', '14424', '14425', '14426', '14428', '1443', '14433', '14434', '14435', '14436', '14437', '14438', '1444', '14443', '14444', '14445', '14446', '1445', '14453', '14455', '14456', '1446', '1447', '1448', '14482', '14485', '1449', '145', '1450', '14500', '14507', '1451', '14517', '14518', '1452', '14521', '14522', '14527', '14528', '14529', '1453', '14531', '14532', '1454', '14541', '14542', '14545', '14546', '1455', '14555', '14557', '1456', '1457', '1458', '1459', '146', '1460', '14600', '1461', '14613', '1462', '14624', '1463', '14635', '1464', '14643', '1465', '1466', '1467', '14675', '1468', '1469', '147', '1470', '1471', '1472', '14721', '14722', '14728', '1473', '14733', '14734', '14736', '1474', '1475', '14755', '1476', '14763', '1477', '1478', '1479', '148', '1480', '14800', '14808', '1481', '14815', '14817', '1482', '14822', '14825', '14828', '1483', '14836', '14845', '14848', '1485', '14857', '1486', '1487', '1488', '14882', '1489', '149', '1490', '14900', '14901', '14909', '1491', '14914', '14917', '14918', '1492', '14924', '14927', '14928', '14934', '14937', '14938', '1494', '14948', '1495', '1496', '1498', '15', '150', '1500', '15000', '15001', '15006', '1501', '15015', '15016', '1502', '1503', '15036', '1504', '15049', '1505', '15059', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '15151', '1516', '15165', '1517', '15171', '1518', '1519', '152', '1520', '15200', '15201', '15202', '1521', '15212', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '15300', '1531', '1532', '1533', '15336', '1534', '15344', '15346', '1535', '15351', '1536', '15363', '1537', '1538', '1539', '154', '1540', '15407', '1541', '15411', '15417', '1542', '15420', '15421', '15422', '1543', '15431', '1544', '15444', '1545', '15453', '1546', '1547', '1548', '1549', '155', '1550', '15500', '15501', '15502', '1551', '1552', '15522', '1553', '15530', '15532', '1554', '15543', '1555', '15555', '15559', '1556', '1557', '1558', '1559', '156', '1560', '15600', '15604', '1561', '15612', '15615', '1562', '15621', '15622', '1563', '15631', '1564', '15641', '1565', '1566', '1567', '1568', '15687', '1569', '157', '1570', '15700', '15706', '15707', '1571', '1572', '15721', '15723', '1573', '15731', '15735', '1574', '15745', '1575', '1576', '1577', '1578', '1579', '158', '1580', '15800', '15801', '15805', '1582', '15823', '15825', '1583', '15835', '1584', '15842', '15843', '15845', '1585', '15852', '1586', '1587', '1588', '1589', '159', '1590', '15900', '1591', '15910', '15915', '1592', '15920', '15925', '15927', '15929', '1594', '15941', '1595', '15959', '1596', '1597', '15999', '16', '160', '1600', '16000', '16001', '1601', '16010', '16011', '16012', '1602', '16021', '1603', '16030', '16031', '1604', '16040', '16041', '1605', '16050', '16051', '1606', '16060', '16061', '1607', '16071', '1608', '1609', '161', '1610', '16100', '1611', '1612', '16125', '16127', '1613', '1614', '1615', '1616', '1617', '16175', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '16273', '1628', '1629', '163', '1630', '16300', '1631', '1632', '1633', '16339', '1634', '16347', '1635', '16352', '1636', '16364', '16366', '1637', '16373', '1638', '16386', '1639', '164', '1640', '16400', '1641', '16410', '16412', '16415', '1642', '16420', '16422', '16424', '16426', '16429', '1643', '16431', '16434', '1644', '16441', '16442', '16445', '16446', '16447', '16448', '1645', '16456', '16458', '16459', '1646', '16465', '1647', '16470', '16479', '1648', '1649', '16490', '165', '1650', '16506', '1651', '16510', '16511', '16516', '16517', '1652', '16524', '16525', '16526', '1653', '16536', '16537', '1654', '16541', '16545', '16547', '16548', '1655', '16550', '16551', '16553', '1656', '16565', '16566', '16567', '1657', '16570', '16579', '1658', '1659', '16591', '16595', '166', '1660', '16600', '16601', '16606', '1661', '16611', '16613', '16618', '1662', '16621', '16622', '16624', '16625', '16626', '1663', '16632', '16633', '16634', '16636', '16637', '1664', '16641', '16646', '1665', '16651', '1666', '16666', '1667', '16678', '1668', '1669', '167', '1670', '16700', '16705', '16707', '16708', '16710', '16711', '16712', '1672', '16726', '16727', '1673', '16731', '16735', '1674', '16741', '16745', '16746', '16747', '1675', '16753', '1676', '1677', '16778', '1678', '16788', '1679', '168', '1680', '16800', '16801', '16804', '16805', '1681', '16813', '16815', '1682', '16822', '1683', '1684', '16844', '1685', '16855', '1686', '16866', '1688', '16888', '1689', '169', '1690', '16900', '16901', '1692', '1693', '16947', '1695', '1698', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '17232', '1724', '1725', '17253', '1726', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '17400', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '1760', '17601', '17605', '1761', '1762', '1763', '1764', '1765', '1766', '1767', '1768', '1769', '177', '1770', '1771', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '1780', '17801', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '1790', '17900', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '180', '1800', '18000', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '18130', '1814', '18149', '1815', '18155', '1816', '1817', '1818', '1819', '182', '1820', '18200', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1873', '1874', '1875', '1876', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '190', '1900', '1901', '1902', '1903', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '19364', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '19555', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1963', '1964', '1965', '1966', '1967', '1968', '1969', '1970', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '1979', '1980', '19801', '1981', '1982', '1984', '1985', '1986', '1987', '1988', '1989', '1990', '1991', '1992', '1993', '1994', '1995', '19950', '2', '200', '2000', '20000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2066', '2067', '2068', '2069', '207', '2070', '2071', '2072', '2073', '2074', '2075', '2076', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2088', '2089', '209', '2090', '2097', '2098', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2183', '2185', '2186', '2187', '2188', '219', '2191', '2192', '2195', '2196', '2199', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2268', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '22813', '2282', '2283', '2284', '2285', '2286', '2287', '2288', '2289', '229', '2290', '2291', '2292', '2293', '2295', '2296', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '23340', '2335', '2336', '2337', '2338', '2339', '234', '2340',</t>
         </is>
@@ -1138,18 +1207,22 @@
       <c r="P11" t="n">
         <v>223270</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>44503</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>4</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['E', 'N', 'S', 'W']</t>
         </is>
@@ -1208,18 +1281,26 @@
       <c r="P12" t="n">
         <v>3796</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>ZION</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>FLORIDA</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>2020259</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>3957</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['0NEAL', '0SAGE', '1-Oct', '10', '10600 CHOCTAW', '10TH', '11TH', '11TH STREET', '12', '12000 SOUTH CHOCTAW', '12TH', '13', '13TH', '13TH ST', '14', '14TH', '15', '157TH', '15TH', '16', '16TH', '17', '17TH', '17THST', '18TH', '19', '19TH', '20', '20TH', '21', '21 ST', '21ST', '22', '2200 KENTUCKY STREET', '222ND', '22ND', '22NDST', '23', '23 RD', '2300 COLLEGE', '23041/2 GRACIE', '233 ST. LOUIS', '23RD', '23TH', '24', '24TH', '25', '25TH', '26', '26H', '26TH', '27 TH', '27TH', '28', '28TH', '29', '29TH', '30', '300 N. 22ND ST.', '30TH', '31', '31ST', '3210 BARTLETT', '32ND', '33RD', '35', '35 TH', '35TH', '36', '36TH', '37', '37TH', '38', '3800 ELM', '38TH', '39', '39TH', '3ND', '3OTH', '3RD', '3RD STREET', '3TH', '40', '40TH', '41', '41ST', '42ND', '4343 DENHAM', '43RD', '44TH', '45TH', '46', '46TH', '47', '47 TH', '47TH', '48', '48TH', '49', '49TH', '4OTH', '4TH', '5746 LINDEN ST', '5TH', '68TH', '69 TH', '69TH', '69TH. AVE', '69TH. AVE.', '6TH', '70TH', '70TH. AVE.', '71', '71 ST', '71ST', '71ST AVENUE', '72', '72 ND', '72ND', '72ND. AVE.', '73RD', '73RD AVE', '74', '74TH', '74TH AVE', '75', '75TH', '75TH AVE', '75TH. AVE.', '76TH', '77T', '77TH', '78TH', '78TH AVE', '78TH AVENUE', '79TH', '7OTH', '7TH', '8', '8TH', '9', '9000 GREENWELL SPRINGS', '9TH', 'A', 'ABEL', 'ABELIA', 'ABERDEEN', 'ACADAIN', 'ACADIA', 'ACADIA W.', 'ACADIAN', 'ACADIAN  EAST', 'ACADIAN  W', 'ACADIAN  W.', 'ACADIAN E', 'ACADIAN E.', 'ACADIAN EAST', 'ACADIAN THRUWAY', 'ACADIAN THRUWAY E', 'ACADIAN THRUWAY WEST', 'ACADIAN THWY', 'ACADIAN THWY  W.', 'ACADIAN THWY E', 'ACADIAN THWY W', 'ACADIAN THWY W.', 'ACADIAN THWY WEST', 'ACADIAN THWY. W', 'ACADIAN TWY W', 'ACADIAN W', 'ACADIAN W.', 'ACADIAN WEST', 'ACADIANA', 'ACCARDO', 'ACHORD', 'ACORN', 'ADAMS', 'ADDINGTON', 'ADDISON', 'ADELLA', 'ADRICHS', 'AFTON', 'AFTON PARKWAY', 'AIRINE', 'AIRLIEN', 'AIRLIINE', 'AIRLINE', 'AIRLINE HIGHWAY', 'AIRLINE HW', 'AIRLINE HWY', 'AIRLINE HWY.', 'AIRLINEGURLIE', 'AIRLLINE', 'AIRPORT', 'AIRTLINE', 'AIRWAY', 'ALABAMA', 'ALAMDEA', 'ALAMEDA', 'ALAMEDIA', 'ALAMONSTER', 'ALASKA', 'ALBATROS', 'ALBATROSS', 'ALBERT', 'ALBERT HART', 'ALBERTA', 'ALCO', 'ALDEN', 'ALDRICH', 'ALELLO', 'ALETHA', 'ALEXANDER', 'ALICE', 'ALICE`', 'ALIQUIPPA', 'ALIRLINE', 'ALIVIN DARK', 'ALLAN', 'ALLELO', 'ALLEN', 'ALLIPPA', 'ALLIPUIPPA', 'ALLIQUIPA', 'ALLIQUIPPA', 'ALLIQUPPA', 'ALLYSON', 'ALMA', 'ALMOND', 'ALPHA', 'ALRICH', 'ALVIN 0DARK', 'ALVIN DARK', 'AMARILLO', 'AMARILLO CT', 'AMARILLO ST', 'AMARILLO ST.', 'AMBERALYNN', 'AMBERLYNN', 'AMBROSE', 'AMERCICA', 'AMERICA', 'AMERICAN', 'AMERICAN PLAZA', 'AMERILLO', 'AMESBURY', 'AMHERST', 'AMIR', 'AMITE', 'AMOS', 'AMRILLO', 'ANDOVER', 'ANGLO', 'ANI', 'ANITA', 'ANN', 'ANNA', 'ANNABELLE', 'ANNETTE', 'ANNETTE ST', 'ANNETTE ST.', 'ANNETTTE', 'ANSELMO', 'ANTIOCH', 'ANTRIM', 'APARTMENT', 'APARTMENT COURT', 'APARTMENT CT', 'APPERSON', 'APPLE', 'APPLETON', 'APPLEWOOD', 'APPLKE', 'APRIL', 'APT COURT', 'ARBOR  VITAE', 'ARBOR VITA', 'ARBOR VITAE', 'ARBOR VITEA', 'ARBUTUS', 'ARCADIA', 'ARCHERY', 'ARD', 'ARDEN', 'ARDENWOD', 'ARDENWOOD', 'AREDENWOOD', 'ARGOSY', 'ARIALO', 'ARILINE', 'ARIZONA', 'ARKANSAS', 'ARLINGFORD', 'ARLINGTON', 'ARMSTRONG', 'ARROWHEAD', 'ASBOURNE', 'ASCENSION PARISH PRISON', 'ASH', 'ASHBOURNE', 'ASHLAND', 'ASHODEL', 'ASPENWOOD', 'ASPHODEL', 'ASTER', 'ASTOLAT', 'ATHENS', 'ATKINSON', 'AUBIN', 'AUBINWOOD', 'AUBURN', 'AUDREY', 'AUDUBON', 'AUGUSTUS', 'AURORA', 'AUTOMN BLOSSOM', 'AUTUMN  BLOSSOM', 'AUTUMN BLOSSOM', 'AUVENUE B', 'AV', 'AV A', 'AVANTIS', 'AVANTS', 'AVE', 'AVE  A', 'AVE A', 'AVE B', 'AVE C', 'AVE D', 'AVE E', 'AVE F', 'AVE G', 'AVE H', 'AVE I', 'AVE J', 'AVE K', 'AVE L', 'AVE M', 'AVE.  A', 'AVE. E', 'AVE. I', 'AVE. J', 'AVE. L', 'AVE. M', 'AVEENUE F', 'AVEENUE K', 'AVEJ', 'AVENUE A', 'AVENUE B', 'AVENUE C', 'AVENUE D', 'AVENUE E', 'AVENUE F', 'AVENUE G', 'AVENUE H', 'AVENUE I', 'AVENUE J', 'AVENUE K', 'AVENUE L', 'AVENUE M', 'AVEUNE F', 'AVIS', 'AVOCET', 'AVONDALE', 'AZALEA', 'AZALEA PARK', 'AZELA PARK', 'AZTEC', 'B', 'B A LITTLE', 'B NEHRU', 'B-HOLLYWOOD', 'BADLEY', 'BADLEY RD.', 'BAHIN', 'BAHM', 'BAIRD', 'BALBOA', 'BALIS', 'BALLINA', 'BALSAM', 'BALSAWOOD', 'BANCROFT', 'BANCROFT WAY', 'BANK', 'BANKERS', 'BANKS', 'BANYAN', 'BANYAN TRACE', 'BANYANWOOD', 'BANYON TRACE', 'BARANCO', 'BARBAR', 'BARBARA', 'BARBER', 'BARBER STREET', 'BARD', 'BARDWELL', 'BARKLEY', 'BARKSDALE', 'BARLETT', 'BARON', 'BARROSA', 'BARROW', 'BARTLETT', 'BATEMAN', 'BATON ROUGE', 'BAWEL', 'BAWELL', 'BAXTER', 'BAXTON', 'BAY', 'BAYBERRY', 'BAYLOR', 'BAYNARD', 'BAYOU FOUNTAIN', 'BAYSIDE', 'BAYWELL', 'BAYWOOD', 'BBRIERWOOD', 'BEACH', 'BEACHGROVE', 'BEACHWOOD', 'BEAU PRE', 'BEAUMONT', 'BEAUREGARD', 'BEAUVERDE', 'BEAVER', 'BECHWOOD', 'BECK', 'BECKENHAM', 'BEDFORD', 'BEECH', 'BEECH ST', 'BEECHGROVE', 'BEECHST', 'BEECHWOOD', 'BEECHWOOD DR', 'BELARBOR', 'BELCARO', 'BELFAIR', 'BELHAVEN', 'BELHAVEN CI', 'BELHAVEN TRACE', 'BELL HELENE', 'BELLARBOR', 'BELLE CHERIE', 'BELLE FOUNTAINE', 'BELLE GROVE', 'BELLE HELENE', 'BELLE PIONTE', 'BELLE POINTE', 'BELLEMEADE', 'BELLEROSE', 'BELLEVIEW', 'BELLEWOOD', 'BELLFORT', 'BELLGLADE', 'BELLGLEN', 'BELLHAVEN', 'BELLHAVEN  TRACE', 'BELLHAVEN TRACE', 'BELLMEADE', 'BELLONIA', 'BELLRIDGE', 'BELLROSE', 'BELLVALE', 'BELLVIEW', 'BELMEADE', 'BELMONT', 'BELVEDERE', 'BEN', 'BEN HUR', 'BEN HURR', 'BENHUR', 'BENINGTON', 'BENNETT', 'BENNINGTON', 'BENSON', 'BENTLEY', 'BENTON', 'BERKELEY', 'BERKLEY', 'BERKLEY HILL', 'BERKSHIRE', 'BERLIN', 'BERMUDA', 'BERMUDA AV', 'BERN', 'BERNARDO', 'BERNWOOD', 'BERRYBROOK', 'BERTHA', 'BERWICK', 'BETA', 'BETH ANN', 'BETTY SMOTHERS', 'BEVERELY', 'BEVERLY', 'BICENTENNIAL', 'BIENVILLE', 'BIG BEND', 'BIIG. GEN. ISAAC SMITH', 'BILLIOPS', 'BILLOPS', 'BILLUPS', 'BIRCH', 'BIRCHWOOD', 'BIRGHTSIDE', 'BIRHGTSIDE', 'BISHOP  OTT', 'BISHOP OTT', 'BLACHE', 'BLACK', 'BLACK OAK', 'BLACKBERRY', 'BLACKWELL', 'BLAIRSTOWN', 'BLAKEMORE', 'BLAKERIDGE', 'BLANCHARD', 'BLANCHE', 'BLANCHU', 'BLENDON', 'BLES', 'BLOUIN', 'BLOUNT', 'BLOUNT RD.', 'BLUBONNET', 'BLUE BONNET', 'BLUE GLASS', 'BLUE GRASS', 'BLUEBELL', 'BLUEBERRY', 'BLUEBONET', 'BLUEBONNER', 'BLUEBONNET', 'BLUEBONNETT', 'BLUEGRASS', 'BLUERIDGE', 'BLUNT', 'BLVD', 'BLVD  DE PROVINCE', 'BLVD DE PROVANCE', 'BLVD DE PROVENCE', 'BLVD DE PROVIDENCE', 'BLVD DE PROVINCE', 'BLVD DE. PROVINCE', 'BLVD DEPROVINCE', 'BLVD. DE PROVINCE', 'BLVD. DE. PROVINCE', 'BLVDDEPROVINCE', 'BO0B PETIT', 'BOARD WALK', 'BOARDWALK', 'BOB  PETTIT', 'BOB PETIT', 'BOB PETITE', 'BOB PETITIE', 'BOB PETITT', 'BOB PETITTE', 'BOB PETTET', 'BOB PETTIE', 'BOB PETTIIT', 'BOB PETTIT', 'BOB PETTITE', 'BOB PETTITT', 'BOB PRTTIT', 'BOB PTTTIT', 'BOBB PETTIT', 'BOBPETTIT', 'BOCAGE', 'BOCAGE LAKE', 'BOCAGE LAKES', 'BOGAN', 'BOGAN BOGAN', 'BOGAN WALK', 'BOGANWALK', 'BOMER', 'BON CREST', 'BON DURANT', 'BON MARCHE', 'BON SEJOUR', 'BONABRIDGE', 'BONARBRIDGE', 'BONCREST', 'BOND', 'BONN', 'BONTURA', 'BOOKER', 'BOOKERLINE', 'BOONE', 'BOOSIE', 'BOOTSIE', 'BOREAS', 'BOSTON', 'BOULEVARD DE PROVINCE', 'BOULEVARDE DE PROVINCE', 'BOUNT', 'BOURBON', 'BOURGEOIS', 'BOURGOIS', 'BOWMAN', 'BOXELDER', 'BOYCE', 'BOYD', 'BOYED', 'BRACEWELL', 'BRADDOCK', 'BRADDROCK', 'BRADFIELD', 'BRADLEY', 'BRADY', 'BRADY ST', 'BRAEBURN', 'BRAEWOOD', 'BRAKLEY', 'BRAME', 'BRANDON', 'BRANDON LYNN', 'BRANDYWINE', 'BRASHEARS', 'BREC-SCOTLANDVILLE PARK', 'BRECKENRIDGE', 'BRECKENRIDGE AVE.', 'BRECKINRIDGE', 'BREEDEN', 'BRENT', 'BRENTWOOD', 'BRIARCLIFF', 'BRIARWOOD', 'BRICE', 'BRICKSOME', 'BRICKYARD', 'BRID. GEN. ISSAC SMITH', 'BRIERWOOD', 'BRIG GEN ISAAC SMITH', 'BRIG GEN ISSAC SMITH', 'BRIG GENERAL ISAAC SIMTH', 'BRIG GENERAL ISAAC SMITH', 'BRIG GENERAL ISSAC SMITH', 'BRIG. GEN. ISAAC SMITH', 'BRIG. GEN. ISACC SMITH', 'BRIG. GEN. ISSAC SMITH', 'BRIG. GENERAL ISAAC SMITH', 'BRIGADERE GENERAL ISSAC SMIT', 'BRIGHSIDE', 'BRIGHTSDIE', 'BRIGHTSIDE', 'BRIGHTSIDE VEIW', 'BRIGHTSIDE VIEW', 'BRIGHTSIDE VIEW DR', 'BRIGHTSITE', 'BRIGTHSIDE', 'BRINWOOD', 'BRISTOL', 'BRITTANY', 'BROAD', 'BROADMOOR', 'BROADMOORE', 'BROADWALK', 'BROADWAY', 'BROARDMOOR', 'BROCADE', 'BROCATO', 'BROCK', 'BROGDEN', 'BROGDON', 'BROMLEY', 'BRONZEBUSH', 'BROODMOOR', 'BROOKESTOWN', 'BROOKHAVEN', 'BROOKISTOWN', 'BROOKLINE', 'BROOKSHIRE', 'BROOKSTON', 'BROOKSTOWN', 'BROOKSTWON', 'BROOKTOWN', 'BROOKVIEW', 'BROOKWOOD', 'BRORDWALK', 'BROUSSARD', 'BROWNING', 'BROWNLEE', 'BROWNSFIELD', 'BRROKSTOWN', 'BRUCE', 'BRUCE AL', 'BRUCE ALL', 'BRUCE ALLEY', 'BRUCE ALLY', 'BRUGHTSIDE', 'BRYON', 'BTECKENRIDGE', 'BUCHANAN', 'BUCHANNAN', 'BUCHANNON', 'BUCHANON', 'BUCKEY', 'BUCKEYE', 'BUCKINGHAM', 'BUCKLEY', 'BUENA VISTA', 'BULL RUN', 'BUNGALOW', 'BUNKER HILL', 'BUNKERHILL', 'BURBANK', 'BURBNANK', 'BURDEN', 'BURGESS', 'BURGIN', 'BURGUNDY', 'BURGUOIS', 'BURNS', 'BURTON', 'BUTTONWOOD', 'BYNUM', 'BYRD', 'BYRON', 'BYRON ST', 'BYRON ST.', 'BYWOOD', 'C', 'CABLE', 'CADALLIC', 'CADDO', 'CADILLAC', 'CADILLAC ST', 'CADILLC', 'CADILLIAC', 'CADILLLAC', 'CAEDEZA', 'CAIN', 'CALANNE', 'CALDWELL', 'CALIFORNIA', 'CALLAHAN', 'CALUMET', 'CAMBRIDGE', 'CAMEILLA', 'CAMELIA', 'CAMELLIA', 'CAMELLIA TRACE', 'CAMELLIA WAY', 'CAMELOT', 'CAMERON', 'CAMMY', 'CAMPUS', 'CAMPUS LAKE', 'CANADA', 'CANADA ST.', 'CANAL', 'CANDA', 'CANDACE', 'CANDLEWOOD', 'CANNIN', 'CANNON', 'CANNON ST', 'CANNON ST.', 'CANON', 'CANONICUS', 'CANONIUS', 'CANONUCUS', 'CANTERBURY SQUARE APARTMENTS', 'CANTREE', 'CANYONLAND', 'CANYONLANDS', 'CAPE HATTERAS', 'CAPITAL', 'CAPITAL ACCESS', 'CAPITAL HEIGHTS', 'CAPITAL PARK', 'CAPITOL', 'CAPITOL ACCESS', 'CAPITOL HEIGHTS', 'CAPITOL LAKE', 'CAPITOL PARK', 'CAPRI', 'CAPTIAL PARK', 'CARALINA', 'CARDEZA', 'CARDINAL', 'CARDINAL ST', 'CARIBOU', 'CARL', 'CARLETON', 'CARLOTA', 'CARLOTTA', 'CARLSBAD', 'CARLTON', 'CARMEN', 'CAROL', 'CAROL MARIE', 'CAROLINA', 'CAROLYN SUE', 'CARR', 'CARR ALLEY', 'CARRIAGE', 'CARRIAGE HOUSE', 'CARRIAGE WAY', 'CARROL', 'CARROLLTON', 'CARROLTON', 'CARTER', 'CARVER', 'CAS LOMA', 'CASA GRANDE', 'CASA LOMA', 'CASHEL', 'CASPER', 'CASPIANA', 'CASTILE', 'CASTLE KIRK', 'CASTLEBURY', 'CASTLEKIRK', 'CASTLEWOOD', 'CATALPA', 'CATE', 'CATHEDRAL', 'CATHERINE', 'CECARCREST', 'CEDAR', 'CEDAR BEND', 'CEDAR CREST', 'CEDAR LAKE', 'CEDAR LODGE', 'CEDAR WAY', 'CEDARCREAT', 'CEDARCREST', 'CEDARDALE', 'CEDARLAKE', 'CEDARLANE', 'CEFALU', 'CELTIC', 'CENTENARY', 'CENTERPOINTE', 'CENTRAL', 'CENTRAL THWY', 'CENTURY', 'CEZANNE', 'CHALET', 'CHALICE', 'CHALMA', 'CHANADIA', 'CHANDADIA', 'CHANDLER', 'CHANEY', 'CHAPELVIEW', 'CHAPELWOOD', 'CHARINGTON', 'CHARLES', 'CHARLES STREET', 'CHARLES T SMITH', 'CHARLES T. SMITH', 'CHARLESTOWNE', 'CHARLEY WATTS', 'CHARLOTTE', 'CHARMAINE', 'CHAROLETTE', 'CHATAWA', 'CHATEAU', 'CHATFIELD', 'CHATSWORTH', 'CHENAGO', 'CHENANGO', 'CHEROKEE', 'CHERRY', 'CHERRYDALE', 'CHESNUT', 'CHESTERFIELD', 'CHESTNUT', 'CHETERFIELD', 'CHEVELLE', 'CHIMES', 'CHIMNEYWOOD', 'CHINN', 'CHIPENHAM', 'CHIPPEEWA', 'CHIPPENHAM', 'CHIPPEWA', 'CHIPPEWA ST.', 'CHIPPPEWA', 'CHIPPWA', 'CHOCKTAW', 'CHOCTAW', 'CHOCTAW EXT', 'CHOCYAW', 'CHOPIN', 'CHRISTIAN', 'CHRISTINA', 'CHRISTY', 'CHUCK YEAGER', 'CHURCHILL', 'CINQUEFOIL', 'CIRCLE', 'CIRSTY', 'CITADEL', 'CITI PLACE', 'CITIPLACE', 'CITY PARK', 'CITYPLACE', 'CLAIREWOOD', 'CLAIRMONT', 'CLARA', 'CLARET', 'CLARK', 'CLASSIQUE', 'CLAUMET', 'CLAYCUT', 'CLAYCUTT', 'CLAYTO0N', 'CLAYTON', 'CLEAR LAKE', 'CLEARLAKE', 'CLEMATIS', 'CLEMENTE', 'CLEO', 'CLETUS', 'CLIFTON', 'CLINTON', 'CLOUD', 'CLOVER', 'CLOVERDALE', 'CLOVERLAND', 'CLYTON', 'COBBLESTONE', 'COLDWATER CREEK', 'COLE', 'COLEGE', 'COLLAGE', 'COLLEEN', 'COLLEGE', 'COLLEGE HILL', 'COLLINS', 'COLLLEGE', 'COLONEL ALLEN', 'COLONEL GIBSON', 'COLONIAL', 'COLORADO', 'COLORODO', 'COLUMBINE', 'COLUMBUS DUNN', 'COMAL', 'COMISH', 'COMISH DR.', 'COMMERCE', 'COMMON', 'COMMUNITY COLLEGE', 'COMORANT', 'COMPTON', 'CONARD', 'CONCORD', 'CONCORDE', 'CONCORDIA', 'CONFIDENCE', 'CONGERSS', 'CONGRESS', 'CONLEY', 'CONNELL', 'CONNELL PARK', 'CONNELLS PARK', 'CONONICOUS', 'CONRAD', 'CONSITUTION', 'CONSTANCE', 'CONSTITUTION', 'CONTINENTAL', 'CONTOUR', 'CONVENTION', 'CONVENTIONS', 'CONWAY', 'COOT', 'COPORATE', 'COPPERFIELD', 'CORA', 'CORINTH', 'CORK', 'CORMORANT', 'CORNELL', 'CORONADO', 'CORPOATE', 'CORPORATE', 'CORPORATE BLVD', 'CORPORATE BOULEVARD', 'CORPORATE0808', 'CORPORTE', 'CORSICA', 'CORT', 'CORTAN', 'CORTANA', 'CORTANA MALL', 'CORTANA P', 'CORTANA PLACE', 'CORTNA', 'COSTELLO', 'COSTITUTION', 'COTANA', 'COTTAGE', 'COTTON', 'COTTONDALE', 'COTTONWOOD', 'COUNTRY CLUB', 'COUNTRY MEADOW', 'COUNTRY RIDGE', 'COURSEY', 'COURSEY BLVD', 'COURTLAND', 'COURTNEY CLUB', 'COUSEY', 'COVENTION', 'COVENTRY', 'COVINGTON', 'CPNGRESS', 'CRANE', 'CRATER LAKE', 'CREATVIEW', 'CREEKSIDE', 'CREEKWOOD', 'CRESCENT', 'CRESTAIRE', 'CRESTVIEW', 'CRESTWAY', 'CRESTWOOD', 'CRISTY', 'CROWN', 'CROWN OAKS', 'CROWN WAY', 'CROWNE', 'CROYDON', 'CRYODON', 'CUMBERLAND', 'CUNARD', 'CUNARD AVE.', 'CURLEW', 'CURTIS', 'CURTSI', 'CUYHANGA', 'CYNDAL', 'CYPRESS', 'CYPRESS  LAKE', 'CYPRESS DALE', 'CYPRESS GLEN', 'CYPRESS GLENN', 'CYPRESS HALL', 'CYPRESS HALL ALLEY', 'CYPRESS LAKE', 'CYPRESS MANOR', 'CYPRUS CEDAR', 'CYRIL', 'CYRUS', 'D', 'DABNEY', 'DABRY', 'DAGGET', 'DAGGETT', 'DAHLIA', 'DAIRYMPLE', 'DAKIN', 'DALARK', 'DALLAS', 'DALRYMPLE', 'DALRYMPLY', 'DALTON', 'DAMON', 'DAMUTH', 'DAN', 'DANIEL', 'DANIEL WEBSTER', 'DARADELE', 'DARADELL', 'DARADELLE', 'DARBY', 'DARCI LYNN', 'DARE', 'DARILYN', 'DARIUS', 'DARLYMPLE', 'DARRL', 'DARRYL', 'DARRYL DR', 'DARRYLE', 'DARTMOOR', 'DARWIN', 'DARYLMBLE', 'DARYLPLE', 'DARYLRPLE', 'DARYMPLE', 'DARYRPLE', 'DAUGHTERY', 'DAVENPORT', 'DAVENTRY', 'DAVID', 'DAWN', 'DAWNADALE', 'DAWNADELE', 'DAWSON', 'DAWSON DR', 'DAWSON DR.', "DAWSON'S CREEK", 'DAYTON', 'DAYTON CT', 'DE', 'DE SOTO', 'DEAN LEE', 'DEER', 'DEERFIELD', 'DEERPATH', 'DEERPATH WAY', 'DEERPATH WY', 'DEERWOOD', 'DEHNAM', 'DEL PLAZA', 'DELAWARE', 'DELCOURT', 'DELEWARE', 'DELGADO', 'DELL', 'DELMAR', 'DELPHINE', 'DELPLAZA', 'DELTA', 'DEMBO', 'DENA LYNN', 'DENAHM', 'DENBO', 'DENHAM', 'DENHAM ST', 'DENHAM ST.', 'DENHAMS', 'DENHAN', 'DENTATION', 'DEPLAZA', 'DERBY', 'DESOTO', 'DESTRAHAN', 'DESTREHAN', 'DEVALL', 'DEVONSHIRE', 'DIANE', 'DIDESSE', 'DIJON', 'DIUGHERTY', 'DIVINCENTI', 'DIXON', 'DODGE', 'DODSON', 'DOGWOOD', 'DOLLAR GENERAL-GOVERNMENT', 'DON REDDEN', 'DONALD', 'DONALDSON', 'DONCASTER', 'DONMOOR', 'DONMOORE', 'DONMOR', 'DONMORE', 'DONNA', 'DONOVAN', 'DONRAY', 'DOOLEY', 'DOOLITTLE', 'DORAL', 'DORCHESTER', 'DORIE MILLER', 'DOROTHY DIX', 'DOT', 'DOUGHERTY', 'DOUGHRETY', 'DOUGHTERY', 'DOUGLAS', 'DOUGLAS  AVE', 'DOUGLAS AVE', 'DOUGLAS AVE.', 'DOVE', 'DOVE HAVEN', 'DOVE HOLLOW', 'DOVERWOOD', 'DREHR', 'DREW', 'DRUCILLA', 'DRUID CIRCLE', 'DRUSILLA', 'DUAL', 'DUANE', 'DUBLIN', 'DUBOIS', 'DUCHESS', 'DUCHESS ST.', 'DUCK', 'DUCROS', 'DUKE', 'DULCITO', 'DUMONT', 'DUNBAR', 'DUNCAN', 'DUNCAN KENNER', 'DUNSTAN', 'DUPLANTIER', 'DURANDE', 'DURHAM', 'DUTCH HIGHLAND', 'DUTCHESS', 'DUTON', 'DUTTON', 'DUTTON AVE', 'DWAINE', 'E BOYD', 'E FAIROAKS', 'E GRAND', 'E MASON', 'E-I12', 'E.  BROCKSTOWN', 'E. 110', 'E. BOYD', 'E. BROOKSTOWN', 'E. BROOKSTOWN DR.', 'E. MASON', 'E. WASHINGTON', 'EAGLE', 'EARL GROS', 'EARL GROSS', 'EARLGROS', 'EAST', 'EAST BOYD', 'EAST BROOKSTOWN', 'EAST DAYTON', 'EAST END', 'EAST GATE', 'EAST I 10 ON RAMP', 'EAST I 12', 'EAST I-10', 'EAST I-12', 'EAST VAN', 'EASTBANK', 'EASTBAY', 'EASTGATE', 'EASTLAND', 'EASTWOOD', 'EATON', 'EATON ST', 'EBONY', 'EDDIE ROBINGSON', 'EDDIE ROBINSON', 'EDDIE ROBINSON SR', 'EDDIE ROBINSON SR.', 'EDDISON', 'EDEGEMONT', 'EDEN', 'EDGEMONT', 'EDGEWOOD', 'EDGMONT', 'EDGWOOD', 'EDINBURG', 'EDINBURGH', 'EDISON', 'EDUCATION', 'EDWARD', 'EDWARDS', 'EDWIN', 'EDWIN ST.', 'EFFRINGHAM', 'EGRET', 'EILEEN', 'EL CAJON', 'EL CAMINO', 'EL MARRO', 'EL MONTE', 'EL MORRO', 'ELAIN', 'ELAINE', 'ELANOR', 'ELDERWOOD', 'ELEANDOR', 'ELEANOR', 'ELEARNOR', 'ELERSLIE', 'ELGIN', 'ELISE', 'ELISSALDE', 'ELIZABETH', 'ELIZEBETH', 'ELJIN', 'ELKWOOD', 'ELLERSLIE', 'ELLWOOD', 'ELM', 'ELM  GROVE GARDEN', 'ELM GARDEN GROVE', 'ELM GROOVE GARDEN', 'ELM GROVE', 'ELM GROVE GARBEN', 'ELM GROVE GARDEN', 'ELM GROVE GARDEN DRIVE', 'ELM GROVE GARDENS', 'ELM GROVE GARRDEN', 'ELM GROVEN GARDEN', 'ELM PARK', 'ELMBRIDGE', 'ELMCREST', 'ELMER', 'ELMER AV', 'ELMGROVE', 'ELMGROVE GARDEN', 'ELTON C HARRISON', 'ELVA', 'ELWICK', 'ELYSIAM', 'ELYSIAN', 'EMERALD', 'EMILE', 'EMMALINE', 'EMMETT BOURGEOIS', 'EMORY', 'ENERGY', 'ENTERGY', 'ENTERPISE', 'ENTERPRISE', 'ENTERPRISEST', 'ENTERPRIST', 'EOLA', 'ERIE', 'ERLANGER', 'ESPLANADE', 'ESPLANDE', 'ESSEN', 'ESSEN COVE', 'ESSEN HEIGHTS', 'ESSEN PARK', 'ESTATES', 'ETTA', 'EUGENE', 'EUROPE', 'EVAGELINE', 'EVAN BROOK', 'EVAN BROOKS', 'EVANGELINE', 'EVANGELINE ST', 'EVANGELINE ST.', 'EVANGLINE', 'EVANS', 'EVEANGELINE', 'EVEN BROOKS', 'EVERGLADE', 'EVERGLADES', 'EVERGREEN', 'EXCALIBUR', 'EXCHANGE', 'EXCHANGE PLACE', 'EXECUTIVE  PARK', 'EXECUTIVE PAARK', 'EXECUTIVE PARK', 'EXHANGE', 'F', 'FAICHILD', 'FAIIRCHILD', 'FAIR FILEDS', 'FAIR OAK', 'FAIR OAKS', 'FAIRCHILD', 'FAIRCHILD ST', 'FAIRCREST', 'FAIRFAX', 'FAIRFEILDS', 'FAIRFIELD', 'FAIRFIELDS', 'FAIRGATE', 'FAIRGREEN', 'FAIRHAM', 'FAIRHAVEN', 'FAIRHOPE', 'FAIRMONT', 'FAIRMOUNT', 'FAIROAK', 'FAIRWAY', 'FAIRWOOD', 'FAIRWOODS', 'FAITH COURT', 'FALL RIVER', 'FANNIE', 'FARIFIELDS', 'FARIWOOD', 'FARRAR', 'FARRINGTON', 'FARRINTON', 'FELICITY', 'FELLSWAY', 'FELONY THEFT', 'FENWAY', 'FERDINAND', 'FERNCLIFF', 'FERNDALE', 'FERNWOOD', 'FERRET', 'FERRETT', 'FIARFIELDS', 'FIELD HOUSE', 'FIELDGATE', 'FIELDHOUSE', 'FIERO', 'FIESTA', 'FIFTH', 'FIG', 'FINCH', 'FINCH ST.', 'FINCHLEY', 'FIRELIGHT', 'FIREWOOD', 'FLA', 'FLAG', 'FLANDERS', 'FLANERY', 'FLANNERY', 'FLATSWAY', 'FLEET', 'FLEMING', 'FLETCHER WILLIAMS', 'FLICKER', 'FLOIDA', 'FLOIRDA', 'FLOORLINE', 'FLOR', 'FLORA', 'FLORDA', 'FLORDIA', 'FLORENCE', 'FLORID', 'FLORIDA', 'FLORIDA BLVD', 'FLORIDA BLVD S. SERVICE', 'FLORIDA BLVD.', 'FLORIDA BOLEVARD', 'FLORIDA BOULEVARD', 'FLORIDA ST', 'FLORIDA.', 'FLORIDIA', 'FLORIIDA', 'FLORLINE', 'FLOYD', 'FLROIDA', 'FM 1571 OLD MILL', 'FORD', 'FORD ST', 'FOREST', 'FOREST OAK', 'FOREST OAKS', 'FOREST PARK', 'FORGE', 'FORIDA', 'FORSTER', 'FORSYTHIA', 'FOSS', 'FOSTER', 'FOSTER/GOVERNMENT', 'FOUNTAIN', 'FOURTH', 'FOX CROFT', 'FOX LANE', 'FOX RUN', 'FOXCROFT', 'FOXLANE', 'FOXRUN', 'FOXSHIRE', 'FOXTON', 'FOXWOOD', 'FRAIRTUCK', 'FRANCE', 'FRANCES HARRIET', 'FRANCIS HARRIET', 'FRANKFURT', 'FRANKLIN', 'FRANWOOD', 'FRAT', 'FRATERNITY', 'FRATERNITY DR', 'FREY', 'FRIAR TUCK', 'FRISCO', 'FRITCHIE', 'FRY', 'FULTON', 'FUQUA', 'G', 'G LEON NETTERVILLE', 'GABRIEL OAKS', 'GALAHAD', 'GALERIA', 'GALLERIA', 'GALVEZ', 'GAMMA', 'GARCO', 'GARDERE', 'GARFIELD', 'GARIG', 'GARNER', 'GARNET', 'GARY', 'GASSIE', 'GASSIE ST', 'GATES', 'GATES CIRCLE', 'GAWAIN', 'GAY', 'GAYASA', 'GAYOSA', 'GAYSOA', 'GEBELIN', 'GEBHART', 'GEN CHENNAULT', 'GEN ISAAC SMITH', 'GEN ISSAC SMITH', 'GENERAL CHENAULT', 'GENERAL CHENNAULT', 'GENERAL ISAAC SMITH', 'GENERAL ISAC SMITH', 'GENERAL ISSAC SMITH', 'GENERAL LEE', 'GENERAL PRENTISS', 'GEOGIA', 'GEORGE', 'GEORGE ONEAL', 'GEORGETOWN', 'GEORGIA', 'GERALD', 'GERANDEUR', 'GERANIUM', 'GERLANDO', 'GERMANTOWN', 'GERONIMO', 'GIBBENS', 'GIBBINS', 'GIBBONS', 'GIBSON', 'GILBERT', 'GLADDEN', 'GLADEWOOD', 'GLADIOLA', 'GLASGOW', 'GLEN', 'GLEN OAKS', 'GLEN OAKS DR', 'GLENBURIE', 'GLENBURNIE', 'GLENDA', 'GLENDALE', 'GLENDWILD', 'GLENHAVEN', 'GLENMORE', 'GLENN OAKS', 'GLENNOAKS', 'GLENNSADE', 'GLENOAKS', 'GLENWAY', 'GLENWILD', 'GLENWOOD', 'GODFREY', 'GODWOOD', 'GOLD CUP', 'GOLDENROD', 'GONERNMENT', 'GOODE', 'GOODWOOD', 'GOOSE', 'GOOVERNMENT', 'GORDON', 'GORE', 'GOTILEB', 'GOTLIEB', 'GOTTLEIB', 'GOTTLIEB', 'GOUDCHAUX', 'GOUDCHAUX ST.', 'GOUDCHEAUX', 'GOURRIER', 'GOURRIER AVE', 'GOV', 'GOVENRMENT', 'GOVERMENT', 'GOVERMNENT', 'GOVERMNET', 'GOVERNEMENT', 'GOVERNENT', 'GOVERNMEMT', 'GOVERNMENT', 'GOVERNMENT ST', 'GOVERNMENT STREET', 'GOVERNMNET', 'GOVERNOR BLANCHARD', 'GOVERNTMENT', 'GOYA', 'GR', 'GRACIE', 'GRAHAM', 'GRANADA', 'GRAND', 'GRAND TETON', 'GRANDEAUR', 'GRANDEUR', 'GRANDPRE', 'GRANDUER', 'GRANT', 'GREAT  SMOKEY', 'GREAT SMOKEY', 'GREAT SMOKY', 'GREBE', 'GREEN OAK', 'GREEN OAKS', 'GREENBRIAR', 'GREENCASTLE', 'GREENMOSS', 'GREENOAK', 'GREENSIDE', 'GREENTREE', 'GREENWAY', 'GREENWEEL SPRINGS', 'GREENWELL', 'GREENWELL PRRINGS', 'GREENWELL SPINGS', 'GREENWELL SPRIINGS', 'GREENWELL SPRING', 'GREENWELL SPRINGS', 'GREENWELL SPRINGS RD', 'GREENWELL SPRINGS RD.', 'GREENWELL SPRINGS ROAD', 'GREENWELL ST', 'GREENWELL ST.', 'GREENWELLS SPRINGS', 'GREENWELLSPRINGS', 'GREENWICH', 'GREENWOOD', 'GREENWWLL', 'GREGWORTH', 'GRETA', 'GRONER', 'GROOM', 'GSRI', 'GUAVA', 'GUM', 'GURLIE', 'GURNEY', 'GURNEY ST.', 'GUS  YOUNG', 'GUS YOUND', 'GUS YOUNG', 'GUS YOUNG AVE.', 'GWEB', 'GWEN', 'GWENADADELE', 'GWENADALE', 'GWENADALLE', 'GWENADELE', 'GWENADELLE', 'GWENADLE', 'GWENDALE', 'GWENDELE', 'GWENEDALE', 'GWENEDELE', 'HADRING', 'HAIG', 'HALEY', 'HALFWAY TREE', 'HALLMARK', 'HAMILTON', 'HAMMOD', 'HAMMOND', 'HAMMOND ST', 'HAMPTON', 'HAMPTON WAY', 'HANKS', 'HARCO', 'HARDING', 'HARDING BLVD', 'HARDING BLVD.', 'HARDWICK', 'HARELLS FERRY', 'HARELSON', 'HARLESON', "HARRELL'S FERREY", "HARRELL'S FERRY", 'HARRELLS FERRY', 'HARRELLS FERRY Q', 'HARRELLS FERY', "HARRELLS'S FERRY", 'HARRELLSFERRY', 'HARRELS FERRY', 'HARRIET', 'HARRIS', 'HARRISON', "HARRLL'S FERRY", 'HARRY', 'HARRY DR', 'HARRY DRIVE', "HART'S MILL", 'HARVARD', 'HARVEY', 'HARWICH', 'HARWICK', 'HASTINGS', 'HATCHER', 'HATERAS', 'HATERASS', 'HATTERAS', 'HATTERS', 'HAVANA', 'HAVENPARK', 'HAVENWOOD', 'HAYMARKET', 'HAZEL', 'HAZELWOOD', 'HAZEWOOD', 'HEARTHSTONE', 'HEARTSMILL', 'HEARTSTONE', 'HEATH', 'HEATHER', 'HEATHERSTONE', 'HEATHERVIEW', 'HEATHERWOOD', 'HEBERT', 'HEDGEWOOD', 'HEIDEL', 'HELEN BARRON', 'HELENE', 'HELVETIA', 'HEMLOCK', 'HENAGEN', 'HENAGGEN', 'HENAGON', 'HENDERSON', 'HENDRICKS', 'HENDRSON', 'HENESSEY', 'HENESSY', 'HENNAGEN', 'HENNESEE', 'HENNESEY', 'HENNESSBOARDWALKEY', 'HENNESSEY', 'HENNESSY', 'HENNESSY BL', 'HENNSSEY', 'HENRY E COBB', 'HERITAGE', 'HERMADEL', 'HERMITAGE', 'HERMOSA', 'HERON', 'HERWOOD FOREST', 'HEWWOOD', 'HGHLAND', 'HIAWATHA', 'HIBISCUS', 'HICKORY', 'HIDDEN GARDEN', 'HIDDEN GARDENS', 'HIDDEN GATE', 'HIDDEN GATES', 'HIDDEN RIDGE', 'HIDDENRIDGE', 'HIDEAWAY', 'HIDEWAY', 'HIGGINS', 'HIGH MEADOW', 'HIGH POINT', 'HIGHALND', 'HIGHLABND', 'HIGHLAD', 'HIGHLAND', 'HIGHLAND CREEK', 'HIGHLAND PARK', 'HIGHLAND RD', 'HIGHLANDIA', 'HIGHLND', 'HIGHMEADOW', 'HIGHWAY', 'HIGHWAY 19', 'HIGLAND', 'HIHGLAND', 'HIIGHLAND', 'HILL TRACE', 'HILLCREAST', 'HILLCREST', 'HILLCRESTA', 'HILLMONT', 'HILLSDALE', 'HILLTOP', 'HILLTRACE', 'HILTON', 'HILTON GARDEN INN', 'HITCHCOCK', 'HOLLEYWOOD', 'HOLLOWAY', 'HOLLOYWOOD', 'HOLLY', 'HOLLYDALE', 'HOLLYSTONE', 'HOLLYWOOD', 'HOLLYWOOD CROSSOVER', 'HOLLYWOOD ST', 'HOLLYWOOD ST.', 'HOLMES', 'HOLT', 'HOMER', 'HOMEWOOD', 'HONEYSUCKLE', 'HOO SHOO TOO', 'HOOD', 'HOOLYWOOD', 'HOOPER', 'HOOPER RD', 'HOOTSELL', 'HOPE ESTATE', 'HOPPER', 'HORACE', 'HOWARD', 'HOWELL', 'HOWELL  RANGE', 'HOWELL BLVD', 'HOWELL PA', 'HOWELL PARK', 'HOWELL PLACE', 'HOWELL RANGE', "HUDSON'S", 'HUGHLAND', 'HUMPHREYS', 'HUNDRED OAK', 'HUNDRED OAKS', 'HUNDRED OAKS AVENUE', 'HUNT', 'HURON', 'HURST', 'HWY  19', 'HWY 19', 'HWY 19 (SCOTLAND AVE)', 'HWY 19TH', 'HWY 61', 'HWY, 19', 'HWY.19', 'HWY19', 'HYACINTH', 'HYANCINTH', 'I - 10', 'I - 10   /    ACADIAN THWY', 'I - 10   /   ACADIAN THWY', 'I - 10 / ACADIAN THWY', 'I - 10 / COLLEGE DR', 'I - 10 / COLLEGE DR.', 'I - 10 / WASHINGTON ST.', 'I - 110', 'I - 12', "I - 12   /   O'NEAL LANE", "I - 12  /  O'NEAL LANE", 'I - 12  /  SHERWOOD FOREST', 'I - 12 / AIRLINE HWY', 'I - 12 / DRUSILLA', 'I - 12 / ESSEN LN', 'I - 12 / MILLERVILLE', 'I - 12 / OVER JEFFERSON HWY', 'I - 12 / SHERWOOD FOREST', 'I -10 / ACADIAN THWY ON RAMP', 'I -110', 'I -12', 'I 10', 'I 110', 'I 12', 'I--10', 'I-10', 'I-10 / ACADIAN THWY', 'I-10 / COLLEGE DR', 'I-10 @ HWY 73', 'I-10 EAST', 'I-10 EAST ON RAMP', 'I-10 EAST ON RAMP LAFFY.', 'I-10 FRONTAGE', 'I-10 S. BOUND @ N. NINETH EX', 'I-10 SERVICE', 'I-10 WEST @ DALRYMPLE', 'I-110', 'I-110 / HARDING', 'I-110 N. B. @ CAPITAL ACCESS', 'I-110 S/B @ AIRLINE', 'I-110 SOUTH @ WELLER', 'I-12', 'I-12  /  ESSEN LANE', 'I-12  WESTBOUND', 'I-12 / AIRLINE HWY', 'I-12 / MILLERVILLE', 'I-12 / SHERWOOD FOREST', 'I-12 EAST', 'I10', 'I110', 'I110 ENTRANCE', 'I12', 'IBERIA', 'IBERIA ST', 'IBERIA ST.', 'IBERIEA', 'IBERVILLE', 'IBEVILLE', 'IDLE OAKS', 'ILLINOIS', 'INCHBROOK', 'INDEPENCE', 'INDEPENDANCE', 'INDEPENDECE', 'INDEPENDENCE', 'INDIANA', 'INDIUSTRIAL', 'INDUSTRIAL', 'INGE', 'INGLESIDE', 'INNISWOLD', 'INTERLINE', 'INTERSTATE', 'INTERSTATE 10', 'INTERSTATE 110', 'INTERSTATE 110 (N/B)', 'INTERSTATE 12', 'INTERSTATE110', 'INTERTSATE 10', 'INTERTSTATE 12', 'INVERRARY', 'IOWA', 'IRA', 'IRIQUIOS', 'IRIQUOIS', 'IRIS', 'IROQOUIS', 'IROQUIOS', 'IROQUOIS', 'IRVINE', 'IVANHOE', 'J H COONEY', 'J. H. COONEY', 'J.H. COONEY', 'J.H.COONEY', 'JACKIE COCHRAN', 'JACKSON', 'JADE', 'JAMAICA', 'JAMESTOWN', 'JAMIACA', 'JAMICA', 'JANET', 'JANICE', 'JAPONICA', 'JASMINE', 'JASPER', 'JASSAMINE', 'JAY', 'JAY HEBERT', 'JEAN', 'JEFF DAVIS', 'JEFFERSON', 'JEFFERSON DAVIS', 'JEFFERSON HIGHWAY', 'JEFFERSON HWY', 'JEFFERSON WOODS DR', 'JEFFESON', 'JEFFRSON', 'JENNIFER JEAN', 'JENNIFER LYNN', 'JENNIFER LYNNE', 'JESSAMINE', 'JEWEL', 'JH COOHNEY', 'JH COONEY', 'JIM TAYLOR', 'JO ANNE', 'JO ANNNE', 'JOCKEY CLUB', 'JOE LOUIS', 'JOHNSNO', 'JOHNSON', 'JOHNSTON', 'JOHSON', 'JOILET', 'JOLIET', 'JOLLY', 'JOLSEN', 'JOLSON', 'JONAH', 'JONES', 'JONES CREEK', 'JOOR', 'JOPLIN', 'JORDAN', 'JOSEPH', 'JOSPEH', 'JOYCE', 'JPLANK', 'JRFFERSON', 'JUBAN', 'JUDI', 'JULIA', 'JULIA ST', 'JULY', 'JUNE', 'JUNIPER PARK', 'JURA', 'JUSTICE', 'KALURAH', 'KANAS', 'KANSAS', 'KAREN', 'KATHERINE', 'KAUFMAN', 'KAUFMAN ST.', 'KAY', 'KEANLAND', 'KEATY', 'KEED', 'KEEL', 'KEKOUK', 'KELVIN', 'KELWOOD', 'KENDALWOOD', 'KENILWORTH', 'KENILWORTH PARKWAY', 'KENIWORTH', 'KENLEE', 'KENMORE', 'KENNY', 'KENSINGTON', 'KENTUCKY', 'KENWOOD', 'KEOKUK', 'KERNAN', 'KERR', 'KEUKUK', 'KEVEL', 'KEY', 'KILDEER', 'KILKENNY', 'KILT', 'KILT PLACE', 'KIMBERLY', 'KIMBERLY WAY', 'KIMBRO', 'KIMMERIDGE', 'KINCAID', 'KING', 'KING ARTHUR', 'KING CREST', 'KING JOHN', 'KING RICHARD', "KING'S CANYON", "KING'S HILL", 'KINGCREST', 'KINGCREST PARKWAY', 'KINGFISHER', 'KINGLET', 'KINGS CANYON', 'KINGS CAYON', 'KINGS HILL', 'KINGSCREST', 'KINGSTON', 'KIOWA', 'KIRKLEY', 'KIRLKLEY', 'KISSEL', 'KISSELL', 'KISSELL ST', 'KITTY', 'KLEINART', 'KLEINERT', 'KLEINPETER', "KNIGHT'S BRIDGE", 'KNIGHTS BRIDGE', 'KNOLLWOOD', 'KODIAK', 'KOLIN', 'KORNMEYER PLAZA', 'KRISTA', 'L', "L'AUBERGE", 'LA 19', 'LA 19TH', 'LA AINNIE', 'LA ANNIE', 'LA BELLE', 'LA HWY 19', 'LA HWY 61 (SCENIC)', 'LA MARGIE', 'LA. HWY. 19', 'LAANNIE', 'LAC CACE', 'LAC CACHE', 'LACA', 'LACEY', 'LAFASO', 'LAFAYEETE', 'LAFAYETTA', 'LAFAYETTE', 'LAFETTE', 'LAFEYETTE', 'LAFOURCHE', 'LAJESHORE', 'LAKE', 'LAKE  CALAIS', 'LAKE BEAU PRE', "LAKE BEAU PRE'", 'LAKE CALAIS', 'LAKE CALIS', 'LAKE FOREST PARK', 'LAKE HILLS', 'LAKE LA BELLE', 'LAKE LA DARE', 'LAKE LABELLE', 'LAKE LABERGE', 'LAKE LADARE', 'LAKE LAMOND', 'LAKE LAROUGE', 'LAKE LATANIA', 'LAKE LAWFORD', 'LAKE LAWRENCE', 'LAKE LEBERGE', 'LAKE LERY', 'LAKE LILY', 'LAKE LIMESTONE', 'LAKE LINGHAM', 'LAKE LIVINGSTON', 'LAKE LORA', 'LAKE SHERWOOD', 'LAKE SHERWOOD EAST', 'LAKE SHERWOOD FOREST', 'LAKE SHERWWOD', 'LAKE SHORE', 'LAKE WORTH', 'LAKECREST', 'LAKELAND', 'LAKERIDGE', 'LAKES', 'LAKESHORE', 'LAKESHORRE', 'LAKEWOOD', 'LAMARGIE', 'LAMBERT', 'LANCASTER', 'LANCELOT', 'LANDING', 'LANDWOOD', 'LANIER', 'LANINGSTON', 'LANSWOOD', 'LARCHWOOD', 'LARK', 'LARKSPUR', 'LARKST', 'LAS COLINAS', 'LASALLE', 'LASSEN', 'LAUBERGE', 'LAUREL', 'LAUREL LAKES', 'LAUREL PLANTATION', 'LAURELLAKES', 'LAURELWOOD', 'LAURYNWOOD', 'LAVA BEDS', 'LAVINA', 'LAVINIA', 'LAWN', 'LAYTON', 'LE ANNIE', 'LEA ANN', 'LEBANON', 'LEE', 'LEE ANNE', 'LEE DRIVE', 'LEEANNE', 'LEESVILLE', 'LEEWARD', 'LEGACY', 'LEHMAN', 'LEHMANN', 'LEIGHTON', 'LEIGHWOOD', 'LEMOMWOOD', 'LEMONWOOD', 'LENOARD', 'LEO', 'LEONARD', 'LEONIDAS', 'LESSMAN', 'LETITIA', 'LETTSWORTH', 'LEVERA', 'LEWIS', 'LEXINGTON', 'LEYCASTER', 'LEYCESTER', 'LEYLAND', 'LI ROCCHI', 'LI ROCCI', 'LIDEN', 'LIL JOHN', 'LILA', 'LILS', 'LIMEWOOD', 'LINDA', 'LINDALE', 'LINDEN', 'LINWOOD', 'LIROCCHI', 'LITTLE  JOHN', 'LITTLE JOHN', 'LITTLEWOOD', 'LITTLEWOODS', 'LIVE OAK', 'LIVE OAKS', 'LIVESTOCK', 'LLAKE LADERE', 'LOAN OAK', 'LOBDELL', 'LOBDELLL', 'LOBELIA', 'LOBELLIA', 'LOBWOOD', 'LOCATION UNKNOWN', 'LOCATIONS UNKNOWN', 'LOCHNESS', 'LOCKEFIELD', 'LOCKHAVEN', 'LOCKSLEY', 'LOCKWOOD', 'LODBDELL', 'LODDELL', 'LODELL', 'LOFASO', 'LONE OAK', 'LONE OAKS', 'LONEOAK', 'LONG OAK', 'LONGBOW', 'LONGFELLLOW', 'LONGFELLOW', 'LONGFELLOW DR', 'LONGFELOW', 'LONGRIDGE', 'LONGVIEW', 'LONGWOOD', 'LONITA', 'LORNA', 'LORRAINE', 'LORRAINE ST', 'LORRAINE ST.', 'LORRANNE', 'LORRRAINE', 'LOTUS', 'LOUISE', 'LOUISIANA', 'LOURAY', 'LOUSIANA', 'LOVERS', 'LOWER JOHNSON', 'LOYOLA', 'LSU', 'LSU PLACE', 'LT GEN BENJAMIN DAVIS JR', 'LT GENERAL BENJAMIN DAVIS', 'LUCILLA', 'LULA', 'LUPINE', 'LYDIA', 'LYNBROOK', 'LYNELL', 'LYNN', 'MACEDONIA', 'MACRELLIOUS', 'MADEIRA', 'MADELINE', 'MADISIN', 'MADISON', 'MADRAS', 'MADRID', 'MAESTRI', 'MAGEE', 'MAGNA CARTA', 'MAGNOLIA', 'MAGNOLIA LEAF', 'MAGNOLIA WOOD', 'MAGNOLIA WOODS', 'MAIN', 'MAIN STREET', 'MAIN2', 'MAISON DEVILLE', 'MAJOR OAK', 'MAJOR OAKS', 'MALBROOK', 'MALL', 'MALL LOUISIANA', 'MALL OF LOUISIANA', 'MALLARD', 'MALLORY', 'MALMAISON', 'MAMMOTH', 'MAMOTH', 'MANCUSO', 'MANHANTTAN', 'MANORWOOD', 'MANSON', 'MAPLE', 'MAPLE DR', 'MAPLEWOOD', 'MAR', 'MARCEL', 'MARCELLIOUS', 'MARCELLLIOUS', 'MARCH', 'MARCI', 'MARCIA', 'MARGARET', 'MARGARET ANN', 'MARGEBROOK', 'MARGUE ANN', 'MARIBEL', 'MARICA', 'MARIE', 'MARIGOLD', 'MARILYN', 'MARILYNN', 'MARION', 'MARKET', 'MARKET PLACE', 'MARKETPLACE', 'MARLBROOK', 'MARQUE  ANN', 'MARQUE ANN', 'MARQUE ANNE', 'MARQUEANN', 'MARQUETTE', 'MARSH', 'MARSHALL', 'MARTIN', 'MARWEDE', 'MARWOOD', 'MARY', 'MARY ANN', 'MARY ELLEN', 'MARY EVERS', 'MARY LOU', 'MARY RUTH', 'MARY SUE', 'MARYDON', 'MARYLAN', 'MARYLAND', 'MARYLIN', 'MARYLNN', 'MARYLOU', 'MASON', 'MASON AVE', 'MASON AVE.', 'MATILDA', 'MATTHEWS', 'MAXAMILLION', 'MAXIMILIAN', 'MAXIMILLAIN', 'MAXIMILLIAN', 'MAXIMILLION', 'MAXINE', 'MAXMILIAN', 'MAY', 'MAY BELLE', 'MAYAN', 'MAYFAIR HILL', 'MAYFLOWER', 'MAYHAW', 'MAYWOOD', 'MC BAN', 'MC CLELLAND', 'MC CLUNG', 'MC CONNELL', 'MC DONALD', 'MCCALOP', 'MCCALUP', 'MCCARROLL', 'MCCELLAND', 'MCCLEALLAND', 'MCCLELAND', 'MCCLELANND', 'MCCLELLAND', 'MCCLELLAND DR', 'MCCLELLAND DR.', 'MCCLELLEND', 'MCCLLEAND DR.', 'MCCLLELAND', 'MCCLUNG', 'MCCONNELL', 'MCCULAND', 'MCDONALD', 'MCGEHEE', 'MCGRATH', 'MCILHENNY', 'MCKINLEY', 'MCKINOEY', 'MCLELLAND', 'MCMICHAEL', 'MEAD', 'MEADE', 'MEADOW LEA', 'MEADOW PARK', 'MEADOW WOOD', 'MEADOWBROOKS', 'MEADOWOOD', 'MEEKER', 'MEGEL', 'MELANIE', 'MELON', 'MELROSE', 'MENGEL', 'MENLO', 'MENSIA', 'MEREDITH', 'MERGANZER', 'MERLE GUSTAFSON', 'MERLIN', 'MERRYDALE', 'MESA VERDE', 'MESAVERDE', 'MIAN', 'MICHELLI', 'MIDDLESEX', 'MIDWAY', 'MIKE', 'MILBURN', 'MILL LANE', 'MILLBURN', 'MILLDALE', 'MILLER DORMITORY - LSU', 'MILLERVILLE', 'MILLGATE', 'MILLS', 'MILLS AVE', 'MILLS AVE.', 'MILLSTLONE', 'MILLSTONE', 'MILLWOOD', 'MILNOR', 'MILS', 'MIMOSA', 'MINDEN', 'MINMESOTA', 'MINNESOTA', 'MIRAFLORES', 'MISSION', 'MISSISSIPPI', 'MISSISSIPPO', 'MISSON', 'MISSOURI', 'MISTY CREEK', 'MISTYBROOK', 'MITCHELL', 'MOCHICAN', 'MOCKINGBIRD', 'MOHAWK', 'MOHICAN', 'MOHICAN / N. FOSTER', 'MOHICAN PRESCOTT', 'MOHICAN PRESCOTT CROSS', 'MOHICAN PRESCOTT CROSS OVER', 'MOHICAN PRESCOTT CROSSOVER', 'MOHICAN-PRESCOTT', 'MOHICAN-PRESCOTT CROSSOVER', 'MOHICAN/PRECCOTT CROSSOVER', 'MOHICAN/PRESCOTT', 'MOHICAN/PRESCOTT CROSSOVER', 'MOHICAN/PRESOCTT', 'MOHICANPRESCOTT CROSSOVER', 'MOHICHAN PRESCOTT XOVER', 'MOHINCAN', 'MOHNICAN PRESCOTT', 'MOLLY LEA', 'MOLLYLEA', 'MONACO', 'MONARCH', 'MONARCH AVE', 'MONARCH AVE.', 'MONET', 'MONEY', 'MONITEAU', 'MONMOUTH', 'MONROE', 'MONTA SANO', 'MONTE SANO', 'MONTE SANO AVE', 'MONTECELLO', 'MONTEREY', 'MONTERRAY', 'MONTERREY', 'MONTERRY', 'MONTESANO', 'MONTGOMERY', 'MONTROSE', 'MOON', 'MOORE', 'MOORSTONE', 'MORELAND', 'MORGAN BEND', 'MORGANBEND', 'MORLAIX', 'MORMING GLORY', 'MORNING GLORY', 'MORNINGBROOK', 'MORNINGSIDE', 'MORVANT', 'MOSS SIDE', 'MOTERREY', 'MOUNT CARMEL', 'MOUNT HOPE', 'MOUNT HOPE ALLEY', 'MOUNT PLEASANT', 'MOUTON', 'MRYTLE WALK', 'MT HOPE', 'MULBERRY', 'MULBERRY HILL', 'MUMFORD', 'MURIAL', 'MURIEL', 'MURPHY', 'MUSE', 'MYRTLE', 'MYRTLE WALK', 'MYRTLEDALE', 'MYRTLELAWN', 'MYRTLEWALK', 'N 23', 'N 23RD', 'N 26', 'N 29TH', 'N 35TH', 'N 38TH', 'N 3RD', 'N 46TH', 'N 48TH', 'N 4TH', 'N ACADIAN', 'N ACADIAN WEST', 'N FOSTER', 'N LOBDELL', 'N ROTHMER', 'N SHERWOOD FOREST', 'N. 13TH', 'N. 14TH ST', 'N. 18TH', 'N. 21ST', 'N. 29TH', 'N. 35TH', 'N. 36TH', 'N. 37TH', 'N. 38TH', 'N. 39TH', 'N. 3RD', 'N. 40TH', 'N. 43RD', 'N. 44', 'N. 44TH', 'N. 46TH', 'N. 47TH', 'N. 48TH', 'N. ACADIAN', 'N. ACADIAN AT MADISON', 'N. ARDENWOOD', 'N. BAXTER', 'N. BLVD', 'N. BOURGEOIS', 'N. BOURGIOS', 'N. EUGENE', 'N. FLANNERY', 'N. FOSTER', 'N. HOWELL', 'N. I-110', 'N. LOBDELL', 'N.15TH', 'N.16TH', 'N.17', 'N.17TH', 'N.19TH', 'N.20TH', 'N.22ND', 'N.23RD', 'N.24TH', 'N.25TH', 'N.26TH', 'N.28TH', 'N.29TH', 'N.30TH', 'N.31ST', 'N.32ND', 'N.35TH', 'N.37TH', 'N.38TH', 'N.39TH', 'N.3RD', 'N.44TH', 'N.46TH'</t>
         </is>
@@ -1278,18 +1359,26 @@
       <c r="P13" t="n">
         <v>14081</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>WY</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>507384</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>15</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>['AV', 'BL', 'BT', 'CR', 'CT', 'DR', 'HW', 'LN', 'OT', 'PK', 'PL', 'RD', 'ST', 'TH', 'WY']</t>
         </is>
@@ -1348,18 +1437,26 @@
       <c r="P14" t="n">
         <v>3796</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>BATON ROUGE</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>2903747</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>1</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>['BATON ROUGE']</t>
         </is>
@@ -1418,18 +1515,26 @@
       <c r="P15" t="n">
         <v>3796</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>527954</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>1</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>['LA']</t>
         </is>
@@ -1488,18 +1593,22 @@
       <c r="P16" t="n">
         <v>121010</v>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>`70816</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>733670</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>304</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>['0.613194444', '1', '11', '2012', '20802', '2092', '2C3', '3063', '39402', '56082', '60473', '60715', '60816', '7', '7-0805', '7-802', '7-815', '7/08/2005', '7/08/2006', '70', '70/802', '70002', '70005', '7002', '7005', '70058', '7006', '70062', '7007', '70070', '7008', '700802', '700805', '700806', '700807', '700815', '700816', '700817', '70082', '70085', '701', '70114', '70123', '70125', '7014', '7015', '7016', '7018', '701815', '701816', '70184', '70185', '70186', '70302', '7036', '70380', '70420', '70422', '70433', '70447', '70460', '70502', '70503', '70505', '70508', '70515', '705815', '70602', '70615', '70616', '70669', '707', '70701', '70702', '70705', '70706', '7070616', '70707', '70708', '70709', '70710', '707114', '70712', '70714', '70715', '70716', '70718', '70720', '70726', '70730', '70737', '70739', '70748', '70752', '70756', '70764', '70767', '70769', '70770', '70777', '70780', '707807', '707808', '707816', '70785', '70786', '70791', '708', '708 02', '7080', '7080 5', '70800', '708001', '708002', '708005', '708006', '708007', '708008', '70801', '708010', '708011', '708012', '708013', '708014', '708015', '708016', '708017', '70802', '70802-', '708020', '7080201', '708022', '708025', '70802A', '70802C', '70802L', '70802NAT', '70802PN', '70803', '70804', '708045', '70805', '708051', '708054', '70805C', '70805CC', '70805IN', '70805LA', '70805NAT', '70805P', '70805PN', '70805QQ', '70805`', '70806', '7080601', '708061', '708065', '70806PN', '70807', '708070', '7080715', '708078', '70807C', '70807PN', '70807Q', '70808', '708080', '708082', '708085', '708086', '708088', '70808C', '70808NAT', '70808Q', '70809', '70809PN', '7080=10', '7080F', '7081', '70810', '70811', '708111', '7081113', '708112', '708115', '708117', '70812', '70813', '70814', '708144', '70814C', '70815', '708151', '70815P', '70815PN', '70815`', '70816', '708160000', '70816=5', '70816C', '70816N', '70817', '70818', '70819', '708196', '7082', '70820', '70820C', '70821', '70823', '70824', '70825', '70826', '7082=02', '70836', '70839', '7085', '70850', '7086', '7087', '708702', '708715', '70873', '7088', '708802', '708805', '708811', '708814', '708816', '708906', '70891', '70892', '70895', '708`5', '708`6', '70905', '70906', '70907', '70909', '70914', '70915', '70916', '709816', '71037', '71129', '71203', '71373', '71403', '75039', '750807', '75453', '760805', '760816', '770808', '77803', '78002', '78005', '7801', '78014', '78016', '7802', '78020', '7805', '7808', '780802', '7815', '7816', '79', '798', '79802', '79808', '79815', '79816', '79898', '7O819', '7P0805', '7U0806', '802', '805', '806', '80802', '80805', '80806', '80807', '80808', '80816', '80912', '811', '815', '870802', '902', 'AA', 'L70815', 'LA', 'P10402', 'PN', 'Q70802', 'SD70820', ']70805', '`', '`70805', '`70808', '`70815', '`70816']</t>
         </is>
@@ -1558,18 +1667,26 @@
       <c r="P17" t="n">
         <v>13573</v>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
         <v>254200</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>5</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', 'O']</t>
         </is>
@@ -1628,18 +1745,26 @@
       <c r="P18" t="n">
         <v>13573</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
         <v>254200</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>8</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>['A', 'B', 'C', 'D', 'E', 'F', 'G', 'T']</t>
         </is>
@@ -1698,18 +1823,26 @@
       <c r="P19" t="n">
         <v>13573</v>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>254200</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>6</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', '5', 'H']</t>
         </is>
@@ -1768,18 +1901,22 @@
       <c r="P20" t="n">
         <v>13573</v>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>912455</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>77</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>['1.00E+01', '1.00E+02', '1A1', '1A2', '1A3', '1A4', '1B1', '1B2', '1B3', '1B4', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '2.00E+01', '2.00E+02', '2.00E+03', '2.00E+04', '2.00E+05', '2A1', '2A2', '2A3', '2A4', '2B1', '2B2', '2B3', '2B4', '2B5', '2C1', '2C2', '2C3', '2D1', '2D2', '2D3', '2F1', '2F2', '3.00E+01', '3.00E+02', '3.00E+03', '3.00E+04', '3.00E+05', '3A1', '3A2', '3A3', '3B1', '3B2', '3C1', '3C2', '3C3', '3D1', '3D2', '3D3', '3F1', '3F2', '3F3', '3G1', '3G2', '3G3', '4.00E+01', '4.00E+02', '4A1', '4A2', '4B1', '4B2', '4B3', '4C1', '4C2', '4D1', '4D2', '4D3', '4F1', '4F2', 'OTH']</t>
         </is>
@@ -1838,18 +1975,22 @@
       <c r="P21" t="n">
         <v>1662</v>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>`70816</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
         <v>14912566</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>90543</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>['1 DAIRYMPLE DR\nBATON ROUGE, LA 70802', '1 DAIRYMPLE ST\nBATON ROUGE, LA 70802', '1 DALRYMPLE\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE\nBATON ROUGE, LA 70808', '1 DALRYMPLE\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70802\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70803\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DARLYMPLE DR\nBATON ROUGE, LA', '1 DARYMPLE\nBATON ROUGE, LA 70820', '1 RUE SORBONNE\nBATON ROUGE, LA 70808\n(30.406303, -91.171551)', '1 RUE SORBONNE ST\nBATON ROUGE, LA 70808\n(30.406384, -91.171672)', '1 S AMITE DR\nBATON ROUGE, LA', '1 W FRATERNITY DR\nBATON ROUGE, LA', '1 W LAKESHORE DR\nBATON ROUGE, LA', '10 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415757, -91.175315)', '10 GOVERNMENT ST\nBATON ROUGE, LA 70808', '10 RUE TOULOUSE ST\nBATON ROUGE, LA 70802\n(30.405535, -91.171963)', '100 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 22ND AV\nBATON ROUGE, LA 70802', '100 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 AMHERST AV\nBATON ROUGE, LA\n(30.403615, -91.172333)', '100 AMHERST AV\nBATON ROUGE, LA 70808\n(30.403615, -91.172333)', '100 APARTMENT COURT DR\nBATON ROUGE, LA\n(30.446683, -91.123122)', '100 APARTMENT COURT DR\nBATON ROUGE, LA 70805\n(30.446683, -91.123122)', '100 ASTER ST\nBATON ROUGE, LA\n(30.419875, -91.177346)', '100 ASTER ST\nBATON ROUGE, LA 70802\n(30.419875, -91.177346)', '100 BEDFORD ST\nBATON ROUGE, LA 70806\n(30.448119, -91.157638)', '100 BELLEWOOD DR\nBATON ROUGE, LA 70802\n(30.451043, -91.12217)', '100 BOB PETIT BL\nBATON ROUGE, LA 70810', '100 BRICE ST\nBATON ROUGE, LA\n(30.447708, -91.171056)', '100 BRICE ST\nBATON ROUGE, LA 70802\n(30.447708, -91.171056)', '100 BROADMOOR AV\nBATON ROUGE, LA 70815\n(30.452889, -91.091776)', '100 CAMPUS LAKE RD\nBATON ROUGE, LA 70820', '100 CHATSWORTH ST\nBATON ROUGE, LA\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70802\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70806\n(30.433567, -91.183508)', '100 CHOCTAW DR\nBATON ROUGE, LA', '100 CHOCTAW DR\nBATON ROUGE, LA 70805', '100 CLOUD DR\nBATON ROUGE, LA\n(30.450733, -91.132157)', '100 CLOUD DR\nBATON ROUGE, LA 70806\n(30.450733, -91.132157)', '100 COMMUNITY COLLEGE DR\nBATON ROUGE, LA 70806\n(30.450858, -91.136046)', '100 CONVENTION\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.448174, -91.190353)', '100 COURSEY BL\nBATON ROUGE, LA', '100 CYPRESS DR\nBATON ROUGE, LA 70802', '100 DALRYMPLE\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA 70810', '100 DALRYMPLE DR\nBATON ROUGE, LA 70820', '100 DARYMPLE\nBATON ROUGE, LA 70820', '100 DELPHINE ST\nBATON ROUGE, LA 70802\n(30.447929, -91.164181)', '100 DOROTHY DIX DR\nBATON ROUGE, LA', '100 DOROTHY DIX DR\nBATON ROUGE, LA 70820', '100 E AIRPORT DR\nBATON ROUGE, LA', '100 E BOYD\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70806\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70805\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD HW\nBATON ROUGE, LA', '100 E BOYD HW\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BUCHANAN ST\nBATON ROUGE, LA\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70805\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70808\n(30.424951, -91.179661)', '100 E CHIMES\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70820\n(30.417243, -91.176423)', '100 E FRATERNITY LN\nBATON ROUGE, LA', '100 E FRATERNITY LN\nBATON ROUGE, LA 70802', '100 E GARFIELD ST\nBATON ROUGE, LA\n(30.422449, -91.178505)', '100 E GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 E GRANT DR\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E HARDING ST\nBATON ROUGE, LA\n(30.425906, -91.180094)', '100 E HARDING ST\nBATON ROUGE, LA 70802\n(30.425906, -91.180094)', '100 E HARRISON ST\nBATON ROUGE, LA\n(30.42891, -91.181483)', '100 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.42891, -91.181483)', '100 E I-10\nBATON ROUGE, LA 70802', '100 E I-10 HW\nBATON ROUGE, LA', '100 E I-10 HW\nBATON ROUGE, LA 70802', '100 E I-12\nBATON ROUGE, LA', '100 E I-12\nBATON ROUGE, LA 70802', '100 E I-12 HW\nBATON ROUGE, LA 70816', '100 E I10\nBATON ROUGE, LA', '100 E I10\nBATON ROUGE, LA 70802', '100 E I10\nBATON ROUGE, LA 70808', '100 E I10 HW\nBATON ROUGE, LA', '100 E I10 HW\nBATON ROUGE, LA 70802', '100 E I10 ST\nBATON ROUGE, LA', '100 E I10 ST\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA', '100 E I12\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA 70809', '100 E JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 E MCKINLEY ST\nBATON ROUGE, LA\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70820\n(30.423786, -91.178895)', '100 E PARKER BL\nBATON ROUGE, LA\n(30.404542, -91.173557)', '100 E POLK AV\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70802\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70814\n(30.426906, -91.180554)', '100 E RIVER OAKS DR\nBATON ROUGE, LA 70816\n(30.453918, -91.087749)', '100 E ROOSEVELT RD\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70806\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70805\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70808\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70820\n(30.418207, -91.176576)', '100 E WASHINGTON ST\nBATON ROUGE, LA\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70805\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70806\n(30.430951, -91.182693)', '100 EAST BL\nBATON ROUGE, LA\n(30.448377, -91.149567)', '100 EAST BL\nBATON ROUGE, LA 70805\n(30.448377, -91.149567)', '100 EAST BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 EAST DR\nBATON ROUGE, LA 70806\n(30.448377, -91.149567)', '100 EAST I-10 HW\nBATON ROUGE, LA', '100 EAST I-10 HW\nBATON ROUGE, LA 70802', '100 EAST I-10 HW\nBATON ROUGE, LA 70808', '100 EAST I-12\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA 700802', '100 EAST I-12 HW\nBATON ROUGE, LA 70802', '100 EAST I-12 HW\nBATON ROUGE, LA 70812', '100 EAST I-12 HW\nBATON ROUGE, LA 70816', '100 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON\nBATON ROUGE, LA 70808\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 ELLWOOD ST\nBATON ROUGE, LA 70802\n(30.434149, -91.184439)', '100 ELMER AV\nBATON ROUGE, LA\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70805\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70807\n(30.537841, -91.20159)', '100 ELTON C HARRISON DR\nBATON ROUGE, LA', '100 ELTON C HARRISON DR\nBATON ROUGE, LA 70807', '100 EVERGREEN DR\nBATON ROUGE, LA\n(30.447945, -91.163126)', '100 EVERGREEN ST\nBATON ROUGE, LA 70802\n(30.447945, -91.163126)', '100 FIELD HOUSE DR\nBATON ROUGE, LA 70820', '100 FLORIDA\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA\nBATON ROUGE, LA 70802', '100 FLORIDA BL\nBATON ROUGE, LA', '100 FLORIDA BL\nBATON ROUGE, LA 70802', '100 FLORIDA ST\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70801\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449273, -91.190404)', '100 FRANCE ST\nBATON ROUGE, LA\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70802\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70805\n(30.442734, -91.190016)', '100 G LEON NETTERVILLE DR\nBATON ROUGE, LA 70807', '100 GARDERE LN\nBATON ROUGE, LA\n(30.365905, -91.119651)', '100 GOTTLIEB ST\nBATON ROUGE, LA\n(30.44809, -91.158998)', '100 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70708\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70805\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70806\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70808\n(30.443968, -91.189906)', '100 GRETA ST\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HAZEL ST\nBATON ROUGE, LA\n(30.434841, -91.184341)', '100 HEARTHSTONE AV\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HEARTHSTONE AV\nBATON ROUGE, LA 70806\n(30.448157, -91.156764)', '100 HEATHERWOOD DR\nBATON ROUGE, LA\n(30.367748, -91.121399)', '100 HELEN BARRON ST\nBATON ROUGE, LA 70811', '100 HENRY E COBB ST\nBATON ROUGE, LA 70807', '100 HOLMES DR\nBATON ROUGE, LA\n(30.451617, -91.11696)', '100 I-10\nBATON ROUGE, LA', '100 I-110 HW\nBATON ROUGE, LA', '100 JASMINE BL\nBATON ROUGE, LA 70808\n(30.448365, -91.150086)', '100 JENNIFER JEAN AV\nBATON ROUGE, LA', '100 JENNIFER JEAN AV\nBATON ROUGE, LA 70820', '100 JULIA ST\nBATON ROUGE, LA', '100 JULIA ST\nBATON ROUGE, LA 70802', '100 JULIA ST\nBATON ROUGE, LA 70806', '100 JULIA ST\nBATON ROUGE, LA 70820', '100 KENILWORTH DR\nBATON ROUGE, LA 70802\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA 70808\n(30.377923, -91.137912)', '100 LAFAYETTE ST\nBATON ROUGE, LA\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70802\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70805\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70808\n(30.447098, -91.189332)', '100 LAFEYETTE ST\nBATON ROUGE, LA 70802', '100 LAUREL\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450299, -91.190465)', '100 LEE\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 LEE DR\nBATON ROUGE, LA\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70802\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70808\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70810\n(30.394183, -91.159427)', '100 LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.459855, -91.051272)', '100 LOBDELL AV\nBATON ROUGE, LA\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70802\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70805\n(30.451651, -91.112061)', '100 LONGBOW DR\nBATON ROUGE, LA\n(30.46088, -91.044769)', '100 LOUISE ST\nBATON ROUGE, LA\n(30.433923, -91.183234)', '100 LOUISE ST\nBATON ROUGE, LA 70802\n(30.433923, -91.183234)', '100 LSU AV\nBATON ROUGE, LA\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70802\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70808\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70810\n(30.402155, -91.170463)', '100 MAIN ST\nBATON ROUGE, LA 70802\n(30.451376, -91.190522)', '100 MAIN ST\nBATON ROUGE, LA 70816\n(30.451376, -91.190522)', '100 MAXIMILIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAXIMILLIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAYFLOWER\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70805\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MCDONALD DR\nBATON ROUGE, LA\n(30.392237, -91.157654)', '100 MCGEHEE DR\nBATON ROUGE, LA\n(30.457735, -91.064563)', '100 MCGEHEE DR\nBATON ROUGE, LA 70815\n(30.457735, -91.064563)', '100 N 10TH ST\nBATON ROUGE, LA 70802\n(30.447454, -91.179693)', '100 N 10TH ST\nBATON ROUGE, LA 70805\n(30.447454, -91.179693)', '100 N 11TH ST\nBATON ROUGE, LA\n(30.447461, -91.178582)', '100 N 11TH ST\nBATON ROUGE, LA 70805\n(30.447461, -91.178582)', '100 N 12TH ST\nBATON ROUGE, LA\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70802\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70805\n(30.447488, -91.177411)', '100 N 13TH ST\nBATON ROUGE, LA\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 700802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70805\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70808\n(30.447539, -91.176222)', '100 N 14 ST\nBATON ROUGE, LA\n(30.447585, -91.175028)', '100 N 14TH ST\nBATON ROUGE, LA\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70802\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70808\n(30.447585, -91.175028)', '100 N 15TH ST\nBATON ROUGE, LA 70802', '100 N 17TH ST\nBATON ROUGE, LA\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70808\n(30.448073, -91.171473)', '100 N 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 N 19TH ST\nBATON ROUGE, LA\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70802\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70806\n(30.447616, -91.169199)', '100 N 20TH ST\nBATON ROUGE, LA\n(30.447808, -91.167896)', '100 N 21ST CT\nBATON ROUGE, LA\n(30.447847, -91.166711)', '100 N 21ST CT\nBATON ROUGE, LA 70820\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70808\n(30.447847, -91.166711)', '100 N 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70805\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70808\n(30.44787, -91.165892)', '100 N 23 RD ST\nBATON ROUGE, LA', '100 N 23 RD ST\nBATON ROUGE, LA 70805', '100 N 23RD ST\nBATON ROUGE, LA\n(30.447929, -91.164181)', '100 N 25 ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70802\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70808\n(30.447979, -91.162635)', '100 N 26TH ST\nBATON ROUGE, LA\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70802\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70806\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70808\n(30.447997, -91.161936)', '100 N 27TH ST\nBATON ROUGE, LA 70808', '100 N 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 N 4TH ST\nBATON ROUGE, LA\n(30.447199, -91.186916)', '100 N 4TH ST\nBATON ROUGE, LA 70802\n(30.447199, -91.186916)', '100 N 5TH ST\nBATON ROUGE, LA\n(30.447253, -91.185465)', '100 N 5TH ST\nBATON ROUGE, LA 70802\n(30.447253, -91.185465)', '100 N 6TH ST\nBATON ROUGE, LA 70802\n(30.447276, -91.184665)', '100 N 6TH ST\nBATON ROUGE, LA 70806\n(30.447276, -91.184665)', '100 N 8 ST\nBATON ROUGE, LA 70802\n(30.447335, -91.182694)', '100 N 8TH ST\nBATON ROUGE, LA\n(30.447335, -91.182694)', '100 N 9TH ST\nBATON ROUGE, LA\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70802\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70812\n(30.447375, -91.181512)', '100 N ACADIAN ST\nBATON ROUGE, LA\n(30.448489, -91.154603)', '100 N ACADIAN ST\nBATON ROUGE, LA 70802\n(30.448489, -91.154603)', '100 N ACADIAN TH\nBATON ROUGE, LA', '100 N ACADIAN TH\nBATON ROUGE, LA 70802', '100 N ARDENWOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70802\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N BAXTER ST\nBATON ROUGE, LA\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70802\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70805\n(30.447896, -91.164911)', '100 N DONMOOR AV\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70802\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N EUGENE ST\nBATON ROUGE, LA 70802\n(30.448041, -91.160442)', '100 N FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 N I-110\nBATON ROUGE, LA', '100 N I110\nBATON ROUGE, LA 70805', '100 N LAFAYETTE ST\nBATON ROUGE, LA 70801\n(30.447098, -91.189332)', '100 N LOBDELL AV\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL AV\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA 70805', '100 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 N RIVER ROAD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 N STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 N STADIUM RD\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM RD\nBATON ROUGE, LA 70810\n(30.415671, -91.182361)', '100 N STEVENDALE AV\nBATON ROUGE, LA\n(30.467741, -91.002952)', '100 N THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N. 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N3RD\nBATON ROUGE, LA 70802', '100 NAPOLEON ST\nBATON ROUGE, LA\n(30.44687, -91.183852)', '100 NAPOLEON ST\nBATON ROUGE, LA 70802\n(30.44687, -91.183852)', '100 NORTH BL\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70802\n(30.45243, -91.190428)', '100 NORTH BL\nBATON ROUGE, LA 70803\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 NORTH BT\nBATON ROUGE, LA', '100 NORTH BT\nBATON ROUGE, LA 70802', '100 NORTH ST\nBATON ROUGE, LA\n(30.45243, -91.190428)', '100 NORTH ST\nBATON ROUGE, LA 70802\n(30.45242687800004, -91.190291939999952)', '100 NORTH ST\nBATON ROUGE, LA 70805\n(30.45243, -91.190428)', '100 NORTH STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 OGDEN DR\nBATON ROUGE, LA 70806\n(30.448096, -91.158524)', '100 OKLAHOMA ST\nBATON ROUGE, LA 70802\n(30.434981, -91.184911)', '100 RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70810', '100 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447285, -91.179598)', '100 S 11TH ST\nBATON ROUGE, LA\n(30.447191, -91.178186)', '100 S 11TH ST\nBATON ROUGE, LA 70802\n(30.447191, -91.178186)', '100 S 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 S 12TH ST\nBATON ROUGE, LA 70802\n(30.447231, -91.177142)', '100 S 13TH\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 S 13TH ST RD\nBATON ROUGE, LA', '100 S 13TH ST RD\nBATON ROUGE, LA 70802', '100 S 14TH ST\nBATON ROUGE, LA\n(30.447587, -91.17486)', '100 S 15TH ST\nBATON ROUGE, LA 70802\n(30.447615, -91.173536)', '100 S 15TH ST\nBATON ROUGE, LA 70806\n(30.447615, -91.173536)', '100 S 16TH ST\nBATON ROUGE, LA\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70802\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70807\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70808\n(30.447633, -91.172878)', '100 S 17TH\nBATON ROUGE, LA\n(30.447691, -91.17169)', '100 S 18TH ST\nBATON ROUGE, LA\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70808\n(30.447868, -91.170289)', '100 S 20TH ST\nBATON ROUGE, LA\n(30.447802, -91.168077)', '100 S 21ST ST\nBATON ROUGE, LA 70802\n(30.447838, -91.166981)', '100 S 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 S 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 S ACADIAN TH\nBATON ROUGE, LA', '100 S ACADIAN TH\nBATON ROUGE, LA 70802', '100 S ACADIAN TH\nBATON ROUGE, LA 70805', '100 S ACADIAN TH\nBATON ROUGE, LA 70808', '100 S ACADIAN TH\nBATON ROUGE, LA 70810', '100 S ARDENWOOD DR\nBATON ROUGE, LA\n(30.450721, -91.127448)', '100 S DONMOORE AV\nBATON ROUGE, LA\n(30.450534, -91.118338)', '100 S DONMOORE AV\nBATON ROUGE, LA 70802\n(30.450534, -91.118338)', '100 S EUGENE ST\nBATON ROUGE, LA\n(30.448041, -91.160442)', '100 S FAIRFAX DR\nBATON ROUGE, LA\n(30.450786, -91.133045)', '100 S FAIRFAX DR\nBATON ROUGE, LA 70808\n(30.450786, -91.133045)', '100 S FLANNERY DR\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY DR\nBATON ROUGE, LA 70802\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.462254, -91.0352)', '100 S FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.448699, -91.138913)', '100 S I-110\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA 70802', '100 S I110\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA 70802', '100 S RIVER RD\nBATON ROUGE, LA\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70802\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 S STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70808\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 S STADIUM DR\nBATON ROUGE, LA', '100 S STADIUM DR\nBATON ROUGE, LA 70802', '100 S STADIUM RD\nBATON ROUGE, LA 70802\n(30.415671, -91.182361)', '100 S TOWER\nBATON ROUGE, LA 70802', '100 S TOWER DR\nBATON ROUGE, LA 70820', '100 S WOODDALE AV\nBATON ROUGE, LA 70806\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA 70815\n(30.451912, -91.104154)', '100 S. STADIUM DR\nBATON ROUGE, LA', '100 SECURITY LN\nBATON ROUGE, LA', '100 SHADOWS BEND DR\nBATON ROUGE, LA 70802\n(30.364681, -91.116408)', '100 SHARP BL\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP LN\nBATON ROUGE, LA', '100 SHARP RD\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70815\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70816\n(30.456398, -91.072071)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 SKIP BERTMAN\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA 70820', '100 SOUTH BL\nBATON ROUGE, LA\n(30.439528, -91.189945)', '100 SOUTH BL\nBATON ROUGE, LA 70802\n(30.439528, -91.189945)', '100 SOUTH I-110 HW\nBATON ROUGE, LA', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70802', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70806', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70808', '100 SPANISH TOWN RD\nBATON ROUGE, LA', '100 ST FERDINAND ST\nBATON ROUGE, LA\n(30.446962, -91.186679)', '100 ST FERDINAND ST\nBATON ROUGE, LA 70802\n(30.446962, -91.186679)', '100 ST LOUIS ST\nBATON ROUGE, LA\n(30.446927, -91.187744)', '100 ST LOUIS ST\nBATON ROUGE, LA 70802\n(30.446927, -91.187744)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70802\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70805\n(30.447807, -91.172792)', '100 ST. CHARLES ST\nBATON ROUGE, LA 70802\n(30.446993, -91.185463)', '100 STANFORD AV\nBATON ROUGE, LA\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70708\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70802\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70806\n(30.402862, -91.169846)', '100 STARING LN\nBATON ROUGE, LA 70808\n(30.368961, -91.122942)', '100 STARING LN\nBATON ROUGE, LA 70809\n(30.368961, -91.122942)', '100 STEELE RD\nBATON ROUGE, LA\n(30.448344, -91.150735)', '100 SUNSET BL\nBATON ROUGE, LA\n(30.388406, -91.152395)', '100 TAFT\nBATON ROUGE, LA 79802\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA 70802\n(30.425327, -91.17983)', '100 TAYLOR ST\nBATON ROUGE, LA\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70802\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70808\n(30.426469, -91.180352)', '100 THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 708001\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70805\n(30.447266, -91.188164)', '100 THOMAS RD\nBATON ROUGE, LA 70807\n(30.550222, -91.203688)', '100 TOWER\nBATON ROUGE, LA', '100 TOWER\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA', '100 TOWER DR\nBATON ROUGE, LA 70005', '100 TOWER DR\nBATON ROUGE, LA 70802', '100 TOWER DR\nBATON ROUGE, LA 70803', '100 TOWER DR\nBATON ROUGE, LA 70805', '100 TOWER DR\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA 70820', '100 VAN BUREN ST\nBATON ROUGE, LA\n(30.430266, -91.181444)', '100 VAN BUREN ST\nBATON ROUGE, LA 70802\n(30.430266, -91.181444)', '100 VETA ST\nBATON ROUGE, LA\n(30.43549, -91.184767)', '100 VETA ST\nBATON ROUGE, LA 70802\n(30.43549, -91.184767)', '100 W BUCHANAN ST\nBATON ROUGE, LA\n(30.425571, -91.17994)', '100 W BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425571, -91.17994)', '100 W CHIMES\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES\nBATON ROUGE, LA 70808\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 W FRAT LN\nBATON ROUGE, LA', '100 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 W GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 W HARDING BL\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARRISON ST\nBATON ROUGE, LA\n(30.429202, -91.181618)', '100 W HARRISON ST\nBATON ROUGE, LA 70802\n(30.429202, -91.181618)', '100 W I-10 AV\nBATON ROUGE, LA 70809', '100 W I-12\nBATON ROUGE, LA', '100 W I-12\nBATON ROUGE, LA 70802', '100 W I-12\nBATON ROUGE, LA 70808', '100 W I10\nBATON ROUGE, LA', '100 W I10\nBATON ROUGE, LA 70812', '100 W I12\nBATON ROUGE, LA', '100 W I12\nBATON ROUGE, LA 70808', '100 W I12\nBATON ROUGE, LA 70810', '100 W I12 HW\nBATON ROUGE, LA', '100 W I12 HW\nBATON ROUGE, LA 70808', '100 W I12 HW\nBATON ROUGE, LA 70809', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA 70802', '100 W JOHNSON\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70816\n(30.424472, -91.179439)', '100 W LAKESHORE DR\nBATON ROUGE, LA 70808', '100 W LEE DR\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70808\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W MCKINLEY ST\nBATON ROUGE, LA\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70802\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423791, -91.179136)', '100 W PARKER\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA 70802\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W POLK ST\nBATON ROUGE, LA\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70802\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70806\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70808\n(30.427399, -91.180777)', '100 W ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70808\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70810\n(30.421799, -91.178198)', '100 W STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 W STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 W WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 WEST I-10 HW\nBATON ROUGE, LA', '100 WEST I-10 HW\nBATON ROUGE, LA 70802', '100 WEST I-10 HW\nBATON ROUGE, LA 70808', '100 WEST I-12 HW\nBATON ROUGE, LA', '100 WEST I-12 HW\nBATON ROUGE, LA 70806', '100 WEST I-12 HW\nBATON ROUGE, LA 70809', '100 WESTMORELAND DR\nBATON ROUGE, LA\n(30.448246, -91.15382)', '100 WOODDALE BL\nBATON ROUGE, LA 70805', '100 WOODDALE BL\nBATON ROUGE, LA 70806\n(30.452025, -91.104022)', '1000 37TH ST\nBATON ROUGE, LA\n(30.457379, -91.152732)', '1000 37TH ST\nBATON ROUGE, LA 70802\n(30.457379, -91.152732)', '1000 38TH ST\nBATON ROUGE, LA\n(30.457367, -91.151964)', '1000 48TH ST\nBATON ROUGE, LA 70808\n(30.457514, -91.141865)', '1000 AIRLINE HW\nBATON ROUGE, LA 70816', '1000 ASTER ST\nBATON ROUGE, LA\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70802\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70806\n(30.419522, -91.188438)', '1000 AVE B ST\nBATON ROUGE, LA 70807', '1000 BAIRD AV\nBATON ROUGE, LA\n(30.385341, -91.120205)', '1000 BAIRD AV\nBATON ROUGE, LA 70808\n(30.385341, -91.120205)', '1000 BARANCO DR\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70807\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70808\n(30.529472, -91.183748)', '1000 BOB PETIT\nBATON ROUGE, LA', '1000 BOB PETIT\nBATON ROUGE, LA 70802', '1000 BOB PETIT DR\nBATO</t>
         </is>

--- a/examples/USA OGD/Baton_rouge/profile.xlsx
+++ b/examples/USA OGD/Baton_rouge/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -527,12 +537,18 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
+        <v>3797</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>2639760</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>179954</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['1000000543', '1000002035', '1000002377', '1000002595', '1000002691', '1000002749', '1000003034', '1000004444', '1000004524', '1000005075', '1000005346', '1000005862', '1000006014', '1000006054', '1000006108', '1000006192', '1000006236', '1000006463', '1000006649', '1000007030', '1000007295', '1000007298', '1000008540', '1000009461', '1000009624', '1000010305', '1000010649', '1000010765', '1000010884', '1000011333', '1000011517', '1000011735', '1000012300', '1000013084', '1000013310', '1000013653', '1000014173', '1000014871', '1000014923', '1000016020', '1000016810', '1000016970', '1000017485', '1000017523', '1000018019', '1000018753', '1000020044', '1000020228', '1000020345', '1000020448', '1000021444', '1000021792', '1000021881', '1000022435', '1000023408', '1000023603', '1000024192', '1000024526', '1000024869', '1000026069', '1000026316', '1000027076', '1000027697', '1000028011', '1000028399', '1000028445', '1000028715', '1000029126', '1000029772', '1000030240', '1000030283', '1000030290', '1000030910', '1000031082', '1000031810', '1000032871', '1000032910', '1000033305', '1000033587', '1000034820', '1000035071', '1000035104', '1000035450', '1000036000', '1000036064', '1000036214', '1000036218', '1000036597', '1000037560', '1000037627', '1000037711', '1000037738', '1000037766', '1000038029', '1000038281', '1000038733', '1000038866', '1000038951', '1000039320', '1000041296', '1000041859', '1000041949', '1000041972', '1000042223', '1000042479', '1000043467', '1000043493', '1000043658', '1000043822', '1000043962', '1000044123', '1000044290', '1000044881', '1000045647', '1000045702', '1000045776', '1000047396', '1000047542', '1000047864', '1000048143', '1000048185', '1000048914', '1000049336', '1000050473', '1000051048', '1000051134', '1000051355', '1000051369', '1000051831', '1000052159', '1000052257', '1000052555', '1000052559', '1000052620', '1000053492', '1000053620', '1000053794', '1000053930', '1000053991', '1000054087', '1000054101', '1000054179', '1000054668', '1000055174', '1000055596', '1000056502', '1000057350', '1000057572', '1000057666', '1000058016', '1000058303', '1000058607', '1000058630', '1000058759', '1000059163', '1000059509', '1000059647', '1000059659', '1000059904', '1000059978', '1000061459', '1000061697', '1000062277', '1000062456', '1000062583', '1000062667', '1000063098', '1000063461', '1000063518', '1000063753', '1000064414', '1000064892', '1000065144', '1000065188', '1000065440', '1000065543', '1000065913', '1000067151', '1000067382', '1000067446', '1000067721', '1000067743', '1000067745', '1000067804', '1000067819', '1000067829', '1000067843', '1000067906', '1000068144', '1000068333', '1000068868', '1000069954', '1000071754', '1000071819', '1000071870', '1000072135', '1000072235', '1000073034', '1000073042', '1000073686', '1000074244', '1000074316', '1000074390', '1000074401', '1000074415', '1000074494', '1000074527', '1000074725', '1000075459', '1000076518', '1000076523', '1000076753', '1000076935', '1000077271', '1000077396', '1000077539', '1000077540', '1000077598', '1000077690', '1000077747', '1000077946', '1000077966', '1000077981', '1000078360', '1000078416', '1000078682', '1000078740', '1000078842', '1000078899', '1000079243', '1000079682', '1000079753', '1000080003', '1000080145', '1000080203', '1000080617', '1000080698', '1000080702', '1000080767', '1000080923', '1000081108', '1000081288', '1000081290', '1000081355', '1000081389', '1000081420', '1000081521', '1000082174', '1000082249', '1000082416', '1000082635', '1000082975', '1000083334', '1000083447', '1000083759', '1000083772', '1000083870', '1000083914', '1000084226', '1000084648', '1000084924', '1000085113', '1000085170', '1000085366', '1000085418', '1000085527', '1000085774', '1000085797', '1000086171', '1000086481', '1000086951', '1000086959', '1000086994', '1000087270', '1000087320', '1000088036', '1000088184', '1000088194', '1000088289', '1000088501', '1000088534', '1000088635', '1000088894', '1000088953', '1000089783', '1000090732', '1000090927', '1000091289', '1000091311', '1000091391', '1000091708', '1000092224', '1000092795', '1000092952', '1000092969', '1000093096', '1000093121', '1000093200', '1000093237', '1000093567', '1000093678', '1000093804', '1000093884', '1000093927', '1000094125', '1000094205', '1000094568', '1000094592', '1000094644', '1000094919', '1000095032', '1000095359', '1000095448', '1000095502', '1000095846', '1000096034', '1000096279', '1000096430', '1000096486', '1000096782', '1000096806', '1000096857', '1000097102', '1000097212', '1000097474', '1000097501', '1000097585', '1000098118', '1000098201', '1000098458', '1000098464', '1000099312', '1000099333', '1000099525', '1000099593', '1000099734', '1000100613', '1000102084', '1000102085', '1000102086', '1000102088', '1000102109', '1000102452', '1000102532', '1000102656', '1000102697', '1000103103', '1000103275', '1000103325', '1000103460', '1000103627', '1000103694', '1000104307', '1000104447', '1000104699', '1000104812', '1000105027', '1000105160', '1000105168', '1000105626', '1000105729', '1000105973', '1000106041', '1000106062', '1000106124', '1000106160', '1000106751', '1000106948', '1000107258', '1000107453', '1000108100', '1000108276', '1000108511', '1000108552', '1000108987', '1000109136', '1000109494', '1000109735', '1000109784', '1000110129', '1000110137', '1000110189', '1000111116', '1000111158', '1000111193', '1000111367', '1000111705', '1000111744', '1000111908', '1000112041', '1000112409', '1000112508', '1000112538', '1000112901', '1000112942', '1000113183', '1000113471', '1000113743', '1000113873', '1000113909', '1000113913', '1000114069', '1000114102', '1000114144', '1000114163', '1000114478', '1000114521', '1000114573', '1000114965', '1000114974', '1000115519', '1000116021', '1000116101', '1000116108', '1000116131', '1000116275', '1000116374', '1000116712', '1000117634', '1000118338', '1000118390', '1000118483', '1000118672', '1000118770', '1000118776', '1000118821', '1000119028', '1000119163', '1000119176', '1000119281', '1000119304', '1000119331', '1000119488', '1000119520', '1000119576', '1000119625', '1000119969', '1000120185', '1000120204', '1000120422', '1000120535', '1000120574', '1000120597', '1000121025', '1000121440', '1000121443', '1000121546', '1000121658', '1000121682', '1000121918', '1000122086', '1000122221', '1000122266', '1000122577', '1000122664', '1000123083', '1000123195', '1000123226', '1000123901', '1000124065', '1000124180', '1000124263', '1000124300', '1000124359', '1000124453', '1000124486', '1000124723', '1000124729', '1000124765', '1000124836', '1000124940', '1000125108', '1000125147', '1000125706', '1000125744', '1000126090', '1000126230', '1000126409', '1000126544', '1000126557', '1000126734', '1000127645', '1000127781', '1000128304', '1000128314', '1000128724', '1000129066', '1000129084', '1000129191', '1000129281', '1000129355', '1000129537', '1000129568', '1000129678', '1000130010', '1000130701', '1000130766', '1000131040', '1000131104', '1000131410', '1000131713', '1000131762', '1000132105', '1000132146', '1000132166', '1000132259', '1000132445', '1000492027', '1100000013', '1100000024', '1100000030', '1100000034', '1100000037', '1100000038', '1100000043', '1100000048', '1100000050', '1100000052', '1100000056', '1100000057', '1100000059', '1100000060', '1100000061', '1100000063', '1100000065', '1100000070', '1100000071', '1100000072', '1100000075', '1100000077', '1100000093', '1100000094', '1100000106', '1100000123', '1100000126', '1100000131', '1100000137', '1100000138', '1100000140', '1100000141', '1100000143', '1100000144', '1100000151', '1100000157', '1100000159', '1100000160', '1100000161', '1100000163', '1100000166', '1100000167', '1100000169', '1100000173', '1100000174', '1100000178', '1100000180', '1100000186', '1100000196', '1100000198', '1100000200', '1100000207', '1100000214', '1100000221', '1100000223', '1100000224', '1100000225', '1100000226', '1100000230', '1100000232', '1100000234', '1100000237', '1100000240', '1100000241', '1100000243', '1100000251', '1100000255', '1100000258', '1100000260', '1100000261', '1100000262', '1100000263', '1100000266', '1100000267', '1100000270', '1100000277', '1100000282', '1100000284', '1100000285', '1100000287', '1100000289', '1100000290', '1100000301', '1100000305', '1100000307', '1100000311', '1100000319', '1100000322', '1100000324', '1100000325', '1100000326', '1100000333', '1100000336', '1100000337', '1100000339', '1100000353', '1100000362', '1100000376', '1100000378', '1100000384', '1100000386', '1100000387', '1100000390', '1100000392', '1100000393', '1100000394', '1100000395', '1100000400', '1100000404', '1100000406', '1100000407', '1100000408', '1100000409', '1100000412', '1100000415', '1100000424', '1100000431', '1100000436', '1100000442', '1100000444', '1100000449', '1100000450', '1100000451', '1100000457', '1100000458', '1100000459', '1100000473', '1100000477', '1100000479', '1100000487', '1100000490', '1100000498', '1100000505', '1100000509', '1100000513', '1100000515', '1100000517', '1100000519', '1100000522', '1100000527', '1100000531', '1100000534', '1100000538', '1100000540', '1100000549', '1100000550', '1100000551', '1100000552', '1100000553', '1100000555', '1100000559', '1100000561', '1100000562', '1100000563', '1100000564', '1100000565', '1100000578', '1100000581', '1100000587', '1100000588', '1100000589', '1100000590', '1100000598', '1100000600', '1100000603', '1100000606', '1100000609', '1100000611', '1100000618', '1100000622', '1100000623', '1100000629', '1100000632', '1100000633', '1100000634', '1100000635', '1100000637', '1100000640', '1100000648', '1100000654', '1100000657', '1100000658', '1100000659', '1100000666', '1100000667', '1100000670', '1100000672', '1100000673', '1100000678', '1100000686', '1100000690', '1100000691', '1100000693', '1100000697', '1100000709', '1100000710', '1100000714', '1100000719', '1100000722', '1100000728', '1100000732', '1100000734', '1100000736', '1100000739', '1100000740', '1100000743', '1100000750', '1100000751', '1100000752', '1100000767', '1100000773', '1100000774', '1100000778', '1100000782', '1100000788', '1100000791', '1100000793', '1100000797', '1100000798', '1100000804', '1100000807', '1100000808', '1100000810', '1100000813', '1100000818', '1100000824', '1100000825', '1100000827', '1100000832', '1100000833', '1100000834', '1100000836', '1100000838', '1100000853', '1100000857', '1100000861', '1100000866', '1100000867', '1100000868', '1100000870', '1100000876', '1100000878', '1100000880', '1100000882', '1100000885', '1100000887', '1100000890', '1100000893', '1100000894', '1100000897', '1100000900', '1100000902', '1100000909', '1100000914', '1100000915', '1100000916', '1100000917', '1100000925', '1100000931', '1100000934', '1100000935', '1100000938', '1100000942', '1100000943', '1100000950', '1100000952', '1100000956', '1100000959', '1100000963', '1100000966', '1100000972', '1100000975', '1100000976', '1100000977', '1100000978', '1100000979', '1100000982', '1100000984', '1100000986', '1100000990', '1100000993', '1100000997', '1100001003', '1100001005', '1100001008', '1100001013', '1100001019', '1100001021', '1100001048', '1100001049', '1100001052', '1100001053', '1100001063', '1100001068', '1100001073', '1100001078', '1100001079', '1100001082', '1100001084', '1100001086', '1100001093', '1100001097', '1100001101', '1100001103', '1100001106', '1100001109', '1100001112', '1100001114', '1100001115', '1100001126', '1100001129', '1100001130', '1100001132', '1100001136', '1100001137', '1100001139', '1100001140', '1100001141', '1100001142', '1100001143', '1100001144', '1100001146', '1100001147', '1100001149', '1100001150', '1100001153', '1100001156', '1100001159', '1100001166', '1100001167', '1100001170', '1100001175', '1100001190', '1100001194', '1100001196', '1100001199', '1100001200', '1100001201', '1100001202', '1100001205', '1100001212', '1100001213', '1100001218', '1100001220', '1100001221', '1100001224', '1100001225', '1100001226', '1100001230', '1100001232', '1100001235', '1100001242', '1100001248', '1100001250', '1100001251', '1100001255', '1100001256', '1100001260', '1100001278', '1100001279', '1100001284', '1100001285', '1100001288', '1100001290', '1100001297', '1100001313', '1100001320', '1100001321', '1100001323', '1100001324', '1100001327', '1100001328', '1100001335', '1100001338', '1100001339', '1100001342', '1100001356', '1100001362', '1100001363', '1100001364', '1100001367', '1100001371', '1100001378', '1100001382', '1100001383', '1100001385', '1100001387', '1100001388', '1100001390', '1100001391', '1100001393', '1100001395', '1100001397', '1100001401', '1100001418', '1100001435', '1100001437', '1100001439', '1100001441', '1100001442', '1100001448', '1100001450', '1100001458', '1100001460', '1100001471', '1100001472', '1100001474', '1100001475', '1100001486', '1100001487', '1100001491', '1100001494', '1100001498', '1100001500', '1100001513', '1100001514', '1100001516', '1100001519', '1100001521', '1100001523', '1100001524', '1100001525', '1100001528', '1100001529', '1100001530', '1100001535', '1100001545', '1100001551', '1100001554', '1100001555', '1100001559', '1100001565', '1100001567', '1100001568', '1100001573', '1100001577', '1100001581', '1100001582', '1100001587', '1100001588', '1100001590', '1100001597', '1100001601', '1100001604', '1100001607', '1100001608', '1100001615', '1100001617', '1100001620', '1100001622', '1100001623', '1100001636', '1100001638', '1100001640', '1100001645', '1100001652', '1100001658', '1100001660', '1100001662', '1100001664', '1100001671', '1100001677', '1100001678', '1100001683', '1100001684', '1100001689', '1100001690', '1100001691', '1100001694', '1100001697', '1100001699', '1100001700', '1100001701', '1100001702', '1100001704', '1100001712', '1100001713', '1100001715', '1100001720', '1100001721', '1100001723', '1100001724', '1100001726', '1100001729', '1100001734', '1100001735', '1100001736', '1100001738', '1100001739', '1100001743', '1100001747', '1100001749', '1100001751', '1100001758', '1100001760', '1100001769', '1100001774', '1100001775', '1100001779', '1100001780', '1100001781', '1100001783', '1100001785', '1100001788', '1100001795', '1100001796', '1100001798', '1100001804', '1100001807', '1100001808', '1100001809', '1100001811', '1100001812', '1100001817', '1100001821', '1100001824', '1100001825', '1100001831', '1100001836', '1100001839', '1100001842', '1100001843', '1100001844', '1100001846', '1100001854', '1100001855', '1100001862', '1100001866', '1100001870', '1100001875', '1100001878', '1100001880', '1100001881', '1100001886', '1100001887', '1100001889', '1100001891', '1100001897', '1100001904', '1100001906', '1100001907', '1100001910', '1100001912', '1100001914', '1100001915', '1100001922', '1100001924', '1100001927', '1100001928', '1100001930', '1100001931', '1100001938', '1100001939', '1100001940', '1100001941', '1100001943', '1100001949', '1100001950', '1100001951', '1100001954', '1100001963', '1100001970', '1100001975', '1100001979', '1100001983', '1100001985', '1100001989', '1100001995', '1100001997', '1100002000', '1100002005', '1100002018', '1100002022', '1100002028', '1100002036', '1100002038', '1100002048', '1100002049', '1100002052', '1100002054', '1100002058', '1100002062', '1100002063', '1100002064', '1100002065', '1100002066', '1100002067', '1100002069', '1100002070', '1100002074', '1100002076', '1100002077', '1100002079', '1100002080', '1100002082', '1100002083', '1100002085', '1100002086', '1100002089', '1100002090', '1100002095', '1100002096', '1100002106', '1100002109', '1100002111', '1100002121', '1100002131', '1100002140', '1100002142', '1100002143', '1100002144', '1100002146', '1100002148', '1100002150', '1100002151', '1100002155', '1100002156', '1100002158', '1100002159', '1100002170', '1100002175', '1100002176', '1100002178', '1100002181', '1100002193', '1100002197', '1100002201', '1100002203', '1100002209', '1100002211', '1100002212', '1100002215', '1100002219', '1100002230', '1100002232', '1100002235', '1100002240', '1100002245', '1100002249', '1100002251', '1100002254', '1100002255', '1100002256', '1100002258', '1100002261', '1100002272', '1100002276', '1100002284', '1100002285', '1100002290', '1100002293', '1100002294', '1100002297', '1100002298', '1100002299', '1100002301', '1100002303', '1100002308', '1100002309', '1100002310', '1100002314', '1100002315', '1100002316', '1100002318', '1100002319', '1100002321', '1100002322', '1100002324', '1100002327', '1100002328', '1100002330', '1100002340', '1100002346', '1100002349', '1100002350', '1100002352', '1100002354', '1100002358', '1100002367', '1100002368', '1100002375', '1100002377', '1100002378', '1100002382', '1100002389', '1100002392', '1100002397', '1100002401', '1100002403', '1100002404', '1100002407', '1100002409', '1100002411', '1100002416', '1100002418', '1100002421', '1100002422', '1100002428', '1100002429', '1100002430', '1100002431', '1100002432', '1100002436', '1100002438', '1100002439', '1100002441', '1100002442', '1100002445', '1100002447', '1100002455', '1100002465', '1100002469', '1100002471', '1100002472', '1100002479', '1100002484', '1100002487', '1100002489', '1100002490', '1100002491', '1100002494', '1100002495', '1100002496', '1100002497', '1100002500', '1100002502', '1100002503', '1100002504', '1100002507', '1100002508', '1100002509', '1100002510', '1100002511', '1100002516', '1100002520', '1100002521', '1100002522', '1100002524', '1100002526', '1100002527', '1100002532', '1100002534', '1100002535', '1100002543', '1100002548', '1100002549', '1100002550', '1100002551', '1100002557', '1100002567', '1100002569', '1100002570', '1100002573', '1100002585', '1100002591', '1100002600', '1100002601', '1100002602', '1100002608', '1100002612', '1100002614', '1100002615', '1100002625', '1100002628', '1100002633', '1100002637', '1100002638', '1100002640', '1100002641', '1100002644', '1100002649', '1100002652', '1100002653', '1100002655', '1100002656', '1100002663', '1100002664', '1100002665', '1100002667', '1100002674', '1100002677', '1100002678', '1100002679', '1100002681', '1100002685', '1100002686', '1100002689', '1100002693', '1100002700', '1100002701', '1100002702', '1100002703', '1100002705', '1100002706', '1100002707', '1100002725', '1100002729', '1100002741', '1100002742', '1100002747', '1100002750', '1100002752', '1100002753', '1100002757', '1100002760', '1100002761', '1100002762', '1100002766', '1100002771', '1100002776', '1100002780', '1100002786', '1100002787', '1100002789', '1100002791', '1100002798', '1100002799', '1100002802', '1100002803', '1100002806', '1100002810', '1100002811', '1100002818', '1100002823', '1100002826', '1100002832', '1100002833', '1100002834', '1100002835', '1100002842', '1100002844', '1100002845', '1100002846', '1100002848', '1100002855', '1100002858', '1100002859', '1100002860', '1100002861', '1100002864', '1100002865', '1100002867', '1100002870', '1100002879', '1100002883', '1100002884', '1100002887', '1100002892', '1100002893', '1100002900', '1100002902', '1100002904', '1100002905', '1100002908', '1100002911', '1100002915', '1100002918', '1100002919', '1100002921', '1100002922', '1100002924', '1100002925', '1100002932', '1100002933', '1100002936', '1100002940', '1100002944', '1100002946', '1100002947', '1100002948', '1100002952', '1100002953', '1100002957', '1100002958', '1100002960', '1100002970', '1100002981', '1100002987', '1100002993', '1100003000', '1100003002', '1100003003', '1100003017', '1100003019', '1100003020', '1100003021', '1100003022', '1100003026', '1100003030', '1100003032', '1100003035', '1100003037', '1100003038', '1100003040', '1100003043', '1100003048', '1100003052', '1100003055', '1100003063', '1100003068', '1100003070', '1100003073', '1100003078', '1100003083', '1100003086', '1100003090', '1100003093', '1100003094', '1100003096', '1100003098', '1100003100', '1100003122', '1100003127', '1100003128', '1100003136', '1100003143', '1100003144', '1100003147', '1100003149', '1100003150', '1100003166', '1100003170', '1100003172', '1100003175', '1100003176', '1100003179', '1100003188', '1100003190', '1100003193', '1100003199', '1100003213', '1100003220', '1100003238', '1100003244', '1100003248', '1100003252', '1100003253', '1100003254', '1100003260', '1100003261', '1100003262', '1100003267', '1100003270', '1100003271', '1100003272', '1100003273', '1100003274', '1100003275', '1100003277', '1100003278', '1100003280', '1100003283', '1100003287', '1100003288', '1100003290', '1100003291', '1100003294', '1100003299', '1100003300', '1100003303', '1100003305', '1100003311', '1100003315', '1100003316', '1100003318', '1100003319', '1100003320', '1100003323', '1100003325', '1100003327', '1100003328', '1100003330', '1100003331', '1100003333', '1100003334', '1100003335', '1100003338', '1100003341', '1100003342', '1100003343', '1100003346', '1100003351', '1100003352', '1100003355', '1100003356', '1100003357', '1100003364', '1100003369', '1100003370', '1100003378', '1100003384', '1100003386', '1100003387', '1100003388', '1100003393', '1100003394', '1100003399', '1100003401', '1100003403', '1100003412', '1100003414', '1100003420', '1100003422', '1100003427', '1100003428', '1100003440', '1100003449', '1100003453', '1100003455', '1100003456', '1100003459', '1100003463', '1100003468', '1100003482', '1100003489', '1100003490', '1100003493', '1100003494', '1100003497', '1100003500', '1100003512', '1100003513', '1100003521', '1100003523', '1100003530', '1100003549', '1100003554', '1100003555', '1100003556', '1100003561', '1100003564', '1100003567', '1100003571', '1100003572', '1100003573', '1100003575', '1100003580', '1100003582', '1100003590', '1100003593', '1100003596', '1100003603', '1100003604', '1100003605', '1100003608', '1100003611', '1100003615', '1100003617', '1100003620', '1100003623', '1100003624', '1100003627', '1100003628', '1100003630', '1100003632', '1100003633', '1100003639', '1100003642', '1100003648', '1100003656', '1100003659', '1100003660', '1100003663', '1100003664', '1100003667', '1100003670', '1100003672', '1100003674', '1100003680', '1100003681', '1100003685', '1100003688', '1100003689', '1100003691', '1100003695', '1100003697', '1100003699', '1100003709', '1100003710', '1100003711', '1100003713', '1100003714', '1100003716', '1100003720', '1100003721', '1100003725', '1100003726', '1100003729', '1100003732', '1100003740', '1100003743', '1100003744', '1100003747', '1100003750', '1100003753', '1100003755', '1100003756', '1100003760', '1100003763', '1100003764', '1100003765', '1100003768', '1100003771', '1100003779', '1100003783', '1100003787', '1100003789', '1100003790', '1100003791', '1100003797', '1100003804', '1100003807', '1100003808', '1100003814', '1100003815', '1100003819', '1100003821', '1100003826', '1100003828', '1100003830', '1100003831', '1100003836', '1100003846', '1100003850', '1100003852', '1100003854', '1100003855', '1100003860', '1100003866', '1100003867', '1100003874', '1100003877', '1100003885', '1100003890', '1100003891', '1100003893', '1100003901', '1100003903', '1100003904', '1100003912', '1100003917', '1100003922', '1100003927', '1100003931', '1100003932', '1100003935', '1100003939', '1100003944', '1100003951', '1100003955', '1100003969', '1100003972', '1100003973', '1100003974', '1100003976', '1100003977', '1100003979', '1100003981', '1100003983', '1100003987', '1100003993', '1100003997', '1100004005', '1100004007', '1100004025', '1100004029', '1100004032', '1100004033', '1100004039', '1100004040', '1100004041', '1100004042', '1100004044', '1100004047', '1100004051', '1100004055', '1100004056', '1100004064', '1100004073', '1100004075', '1100004078', '1100004080', '1100004082', '1100004084', '1100004088', '1100004090', '1100004097', '1100004102', '1100004108', '1100004110', '1100004111', '1100004115', '1100004119', '1100004125', '1100004126', '1100004140', '1100004143', '1100004154', '1100004161', '1100004164', '1100004177', '1100004178', '1100004179', '1100004181', '1100004182', '1100004184', '1100004186', '1100004187', '1100004188', '1100004189', '1100004191', '1100004197', '1100004199', '1100004209', '1100004210', '1100004211', '1100004212', '1100004213', '1100004214', '1100004215', '1100004216', '1100004217', '1100004218', '1100004219', '1100004220', '1100004225', '1100004227', '1100004228', '1100004232', '1100004237', '1100004241', '1100004243', '1100004248', '1100004256', '1100004260', '1100004261', '1100004263', '1100004268', '1100004271', '1100004272', '1100004278', '1100004283', '1100004285', '1100004290', '1100004291', '1100004293', '1100004297', '1100004298', '1100004300', '1100004301', '1100004303', '1100004305', '1100004306', '1100004309', '1100004313', '1100004316', '1100004320', '1100004321', '1100004322', '1100004323', '1100004329', '1100004331', '1100004333', '1100004339', '1100004343', '1100004349', '1100004352', '1100004355', '1100004357', '1100004359', '1100004361', '1100004364', '1100004365', '1100004367', '1100004371', '1100004382', '1100004394', '1100004396', '1100004398', '1100004402', '1100004405', '1100004407', '1100004420', '1100004422', '1100004424', '1100004425', '1100004426', '1100004430', '1100004432', '1100004435', '1100004436', '1100004440', '1100004442', '1100004445', '1100004446', '1100004451', '1100004452', '1100004454', '1100004455', '1100004456', '1100004457', '1100004459', '1100004461', '1100004462', '1100004463', '1100004464', '1100004466', '1100004468', '1100004470', '1100004471', '1100004475', '1100004477', '1100004478', '1100004484', '1100004485', '1100004487', '1100004488', '1100004490', '1100004492', '1100004495', '1100004496', '1100004497', '1100004498', '1100004500', '1100004507', '1100004509', '1100004511', '1100004513', '1100004516', '1100004517', '1100004519', '1100004521', '1100004523', '1100004526', '1100004527', '1100004528', '1100004529', '1100004530', '1100004532', '1100004534', '1100004540', '1100004543', '1100004545', '1100004548', '1100004550', '1100004551', '1100004553', '1100004557', '1100004566', '1100004567', '1100004571', '1100004576', '1100004577', '1100004586', '1100004587', '1100004589', '1100004590', '1100004592', '1100004593', '1100004608', '1100004617', '1100004619', '1100004620', '1100004624', '1100004626', '1100004632', '1100004634', '1100004639', '1100004642', '1100004643', '1100004645', '1100004648', '1100004653', '1100004657', '1100004658', '1100004662', '1100004663', '1100004664', '1100004667', '1100004678', '1100004683', '1100004692', '1100004693', '1100004694', '1100004696', '1100004699', '1100004700', '1100004703', '1100004707', '1100004709', '1100004710', '1100004712', '1100004713', '1100004715', '1100004718', '1100004719', '1100004720', '1100004721', '1100004723', '1100004724', '1100004726', '1100004727', '1100004729', '1100004733', '1100004734', '1100004736', '1100004739', '1100004740', '1100004741', '1100004745', '1100004751', '1100004752', '1100004754', '1100004757', '1100004761', '1100004763', '1100004765', '1100004768', '1100004769', '1100004770', '1100004774', '1100004782', '1100004784', '1100004786', '1100004787', '1100004793', '1100004794', '1100004795', '1100004796', '1100004797', '1100004798', '1100004799', '1100004801', '1100004805', '1100004806', '1100004808', '1100004810', '1100004811', '1100004815', '1100004816', '1100004817', '1100004822', '1100004823', '1100004825', '1100004826', '1100004828', '1100004830', '1100004832', '1100004835', '1100004836', '1100004838', '1100004839', '1100004840', '1100004843', '1100004849', '1100004853', '1100004856', '1100004862', '1100004863', '1100004864', '1100004865', '1100004872', '1100004873', '1100004874', '1100004875', '1100004876', '1100004878', '1100004881', '1100004884', '1100004888', '1100004895', '1100004897', '1100004898', '1100004902', '1100004905', '1100004906', '1100004907', '1100004910', '1100004915', '1100004919', '1100004922', '1100004923', '1100004928', '1100004933', '1100004939', '1100004941', '1100004942', '1100004946', '1100004947', '1100004948', '1100004961', '1100004962', '1100004967', '1100004971', '1100004972', '1100004985', '1100004987', '1100004988', '1100004995', '1100004997', '1100004999', '1100005000', '1100005006', '1100005011', '1100005012', '1100005013', '1100005014', '1100005015', '1100005018', '1100005024', '1100005025', '1100005029', '1100005030', '1100005031', '1100005032', '1100005034', '1100005036', '1100005039', '1100005042', '1100005043', '1100005045', '1100005048', '1100005052', '1100005053', '1100005057', '1100005058', '1100005062', '1100005065', '1100005068', '1100005070', '1100005071', '1100005074', '1100005075', '1100005079', '1100005081', '1100005086', '1100005087', '1100005090', '1100005091', '1100005092', '1100005097', '1100005099', '1100005100', '1100005106', '1100005112', '1100005115', '1100005116', '1100005118', '1100005120', '1100005122', '1100005125', '1100005129', '1100005130', '1100005137', '1100005155', '1100005158', '1100005161', '1100005163', '1100005165', '1100005166', '1100005168', '1100005169', '1100005171', '1100005173', '1100005174', '1100005175', '1100005178', '1100005180', '1100005182', '1100005183', '1100005184', '1100005186', '1100005189', '1100005190', '1100005191', '1100005194', '1100005197', '1100005198', '1100005204', '1100005206', '1100005207', '1100005209', '1100005210', '1100005212', '1100005214', '1100005215', '1100005216', '1100005218', '1100005219', '1100005221', '1100005222', '1100005223', '1100005224', '1100005225', '1100005228', '1100005233', '1100005234', '1100005239', '1100005240', '1100005245', '1100005246', '1100005248', '1100005253', '1100005255', '1100005262', '1100005264', '1100005270', '1100005271', '1100005272', '1100005275', '1100005282', '1100005287', '1100005288', '1100005289', '1100005291', '1100005296', '1100005299', '1100005300', '1100005302', '1100005303', '1100005304', '1100005306', '1100005310', '1100005322', '1100005325', '1100005334', '1100005335', '1100005338', '1100005340', '1100005341', '1100005342', '1100005347', '1100005350', '1100005352', '1100005353', '1100005356', '1100005358', '1100005361', '1100005368', '1100005373', '1100005376', '1100005377', '1100005379', '1100005380', '1100005382', '1100005386', '1100005388', '1100005392', '1100005394', '1100005396', '1100005398', '1100005399', '1100005406', '1100005408', '1100005409', '1100005411', '1100005412', '1100005414', '1100005416', '1100005417', '1100005421', '1100005423', '1100005428', '1100005429', '1100005434', '1100005436', '1100005437', '1100005439', '1100005443', '1100005445', '1100005450', '1100005451', '1100005452', '1100005457', '1100005465', '1100005467', '1100005476', '1100005477', '1100005478', '1100005480', '1100005481', '1100005482', '1100005483', '1100005493', '1100005494', '1100005495', '1100005503', '1100005504', '1100005507', '1100005508', '1100005513', '1100005516', '1100005520', '1100005528', '1100005529', '1100005536', '1100005545', '1100005550', '1100005551', '1100005562', '1100005576', '1100005581', '1100005584', '1100005585', '1100005589', '1100005591', '1100005597', '1100005600', '1100005603', '1100005604', '1100005605', '1100005606', '1100005607', '1100005610', '1100005612', '1100005615', '1100005616', '1100005619', '1100005623', '1100005626', '1100005630', '1100005632', '1100005634', '1100005639', '1100005641', '1100005642', '1100005646', '1100005653', '1100005656', '1100005661', '1100005662', '1100005666', '1100005676', '1100005678', '1100005682', '1100005685', '1100005687', '1100005693', '1100005694', '1100005696', '1100005697', '1100005698', '1100005700', '1100005701', '1100005704', '1100005706', '1100005707', '1100005708', '1100005709', '1100005710', '1100005713', '1100005717', '1100005718', '1100005722', '1100005729', '1100005733', '1100005734', '1100005735', '1100005737', '1100005738', '1100005739', '1100005744', '1100005748', '1100005752', '1100005761', '1100005765', '1100005770', '1100005771', '1100005772', '1100005774', '1100005775', '1100005776', '1100005777', '1100005778', '1100005781', '1100005788', '1100005791', '1100005793', '1100005796', '1100005797', '1100005798', '1100005801', '1100005805', '1100005808', '1100005813', '1100005818', '1100005822', '1100005826', '1100005830', '1100005831', '1100005852', '1100005858', '1100005860', '1100005863', '1100005866', '1100005867', '1100005873', '1100005874', '1100005875', '1100005877', '1100005882', '1100005883', '1100005884', '1100005891', '1100005892', '1100005893', '1100005897', '1100005899', '1100005900', '1100005904', '1100005908', '1100005909', '1100005911', '1100005913', '1100005916', '1100005922', '1100005923', '1100005924', '1100005927', '1100005928', '1100005935', '1100005936', '1100005937', '1100005948', '1100005951', '1100005954', '1100005962', '1100005963', '1100005964', '1100005966', '1100005969', '1100005970', '11000</t>
         </is>
@@ -605,12 +621,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>287</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>2597274</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>1864</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['01/13/2011', '01/13/2012', '01/13/2013', '01/13/2014', '01/13/2015', '01/13/2016', '01/14/2011', '01/14/2012', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2011', '01/15/2012', '01/15/2013', '01/15/2014', '01/15/2015', '01/15/2016', '01/16/2011', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/16/2016', '01/17/2011', '01/17/2012', '01/17/2013', '01/17/2014', '01/17/2015', '01/17/2016', '01/18/2011', '01/18/2012', '01/18/2013', '01/18/2014', '01/18/2015', '01/18/2016', '01/19/2011', '01/19/2012', '01/19/2013', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2011', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2011', '01/21/2012', '01/21/2013', '01/21/2014', '01/21/2015', '01/21/2016', '01/22/2011', '01/22/2012', '01/22/2013', '01/22/2014', '01/22/2015', '01/22/2016', '01/23/2011', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/23/2016', '01/24/2011', '01/24/2012', '01/24/2013', '01/24/2014', '01/24/2015', '01/24/2016', '01/25/2011', '01/25/2012', '01/25/2013', '01/25/2014', '01/25/2015', '01/25/2016', '01/26/2011', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2011', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2011', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2015', '01/28/2016', '01/29/2011', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2011', '01/30/2012', '01/30/2013', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2011', '01/31/2012', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/13/2011', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/14/2011', '02/14/2012', '02/14/2013', '02/14/2014', '02/14/2015', '02/15/2011', '02/15/2012', '02/15/2013', '02/15/2014', '02/15/2015', '02/16/2011', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2011', '02/17/2012', '02/17/2013', '02/17/2014', '02/17/2015', '02/18/2011', '02/18/2012', '02/18/2013', '02/18/2014', '02/18/2015', '02/19/2011', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2011', '02/20/2012', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2011', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2011', '02/22/2012', '02/22/2013', '02/22/2014', '02/22/2015', '02/23/2011', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2011', '02/24/2012', '02/24/2013', '02/24/2014', '02/24/2015', '02/25/2011', '02/25/2012', '02/25/2013', '02/25/2014', '02/25/2015', '02/26/2011', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2011', '02/27/2012', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2011', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/13/2011', '03/13/2012', '03/13/2013', '03/13/2014', '03/13/2015', '03/14/2011', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2011', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2011', '03/16/2012', '03/16/2013', '03/16/2014', '03/16/2015', '03/17/2011', '03/17/2012', '03/17/2013', '03/17/2014', '03/17/2015', '03/18/2011', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2011', '03/19/2012', '03/19/2013', '03/19/2014', '03/19/2015', '03/20/2011', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2011', '03/21/2012', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2011', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2011', '03/23/2012', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2011', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2011', '03/25/2012', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2011', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2011', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2011', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2011', '03/29/2012', '03/29/2013', '03/29/2014', '03/29/2015', '03/30/2011', '03/30/2012', '03/30/2013', '03/30/2014', '03/30/2015', '03/31/2011', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/13/2011', '04/13/2012', '04/13/2013', '04/13/2014', '04/13/2015', '04/14/2011', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2011', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2011', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2011', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2011', '04/18/2012', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2011', '04/19/2012', '04/19/2013', '04/19/2014', '04/19/2015', '04/20/2011', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2011', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2011', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2011', '04/23/2012', '04/23/2013', '04/23/2014', '04/23/2015', '04/24/2011', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2011', '04/25/2012', '04/25/2013', '04/25/2014', '04/25/2015', '04/26/2011', '04/26/2012', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2011', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2011', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2011', '04/29/2012', '04/29/2013', '04/29/2014', '04/29/2015', '04/30/2011', '04/30/2012', '04/30/2013', '04/30/2014', '04/30/2015', '05/13/2011', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2011', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2011', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2011', '05/16/2012', '05/16/2013', '05/16/2014', '05/16/2015', '05/17/2011', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2011', '05/18/2012', '05/18/2013', '05/18/2014', '05/18/2015', '05/19/2011', '05/19/2012', '05/19/2013', '05/19/2014', '05/19/2015', '05/20/2011', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2011', '05/21/2012', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2011', '05/22/2012', '05/22/2013', '05/22/2014', '05/22/2015', '05/23/2011', '05/23/2012', '05/23/2013', '05/23/2014', '05/23/2015', '05/24/2011', '05/24/2012', '05/24/2013', '05/24/2014', '05/24/2015', '05/25/2011', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2011', '05/26/2012', '05/26/2013', '05/26/2014', '05/26/2015', '05/27/2011', '05/27/2012', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2011', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2011', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2011', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2011', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/13/2011', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2011', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2011', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2011', '06/16/2012', '06/16/2013', '06/16/2014', '06/16/2015', '06/17/2011', '06/17/2012', '06/17/2013', '06/17/2014', '06/17/2015', '06/18/2011', '06/18/2012', '06/18/2013', '06/18/2014', '06/18/2015', '06/19/2011', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2011', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2011', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2011', '06/22/2012', '06/22/2013', '06/22/2014', '06/22/2015', '06/23/2011', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2011', '06/24/2012', '06/24/2013', '06/24/2014', '06/24/2015', '06/25/2011', '06/25/2012', '06/25/2013', '06/25/2014', '06/25/2015', '06/26/2011', '06/26/2012', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2011', '06/27/2012', '06/27/2013', '06/27/2014', '06/27/2015', '06/28/2011', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2011', '06/29/2012', '06/29/2013', '06/29/2014', '06/29/2015', '06/30/2011', '06/30/2012', '06/30/2013', '06/30/2014', '06/30/2015', '07/13/2011', '07/13/2012', '07/13/2013', '07/13/2014', '07/13/2015', '07/14/2011', '07/14/2012', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2011', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2011', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2011', '07/17/2012', '07/17/2013', '07/17/2014', '07/17/2015', '07/18/2011', '07/18/2012', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2011', '07/19/2012', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2011', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2011', '07/21/2012', '07/21/2013', '07/21/2014', '07/21/2015', '07/22/2011', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2011', '07/23/2012', '07/23/2013', '07/23/2014', '07/23/2015', '07/24/2011', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2011', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2011', '07/26/2012', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2011', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2011', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2011', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2011', '07/30/2012', '07/30/2013', '07/30/2014', '07/30/2015', '07/31/2011', '07/31/2012', '07/31/2013', '07/31/2014', '07/31/2015', '08/13/2011', '08/13/2012', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2011', '08/14/2012', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2011', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2011', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2011', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2011', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2011', '08/19/2012', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2011', '08/20/2012', '08/20/2013', '08/20/2014', '08/20/2015', '08/21/2011', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2011', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2011', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2011', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2011', '08/25/2012', '08/25/2013', '08/25/2014', '08/25/2015', '08/26/2011', '08/26/2012', '08/26/2013', '08/26/2014', '08/26/2015', '08/27/2011', '08/27/2012', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2011', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2011', '08/29/2012', '08/29/2013', '08/29/2014', '08/29/2015', '08/30/2011', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2011', '08/31/2012', '08/31/2013', '08/31/2014', '08/31/2015', '09/13/2011', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2011', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2011', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2011', '09/16/2012', '09/16/2013', '09/16/2014', '09/16/2015', '09/17/2011', '09/17/2012', '09/17/2013', '09/17/2014', '09/17/2015', '09/18/2011', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2011', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2011', '09/20/2012', '09/20/2013', '09/20/2014', '09/20/2015', '09/21/2011', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2011', '09/22/2012', '09/22/2013', '09/22/2014', '09/22/2015', '09/23/2011', '09/23/2012', '09/23/2013', '09/23/2014', '09/23/2015', '09/24/2011', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2011', '09/25/2012', '09/25/2013', '09/25/2014', '09/25/2015', '09/26/2011', '09/26/2012', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2011', '09/27/2012', '09/27/2013', '09/27/2014', '09/27/2015', '09/28/2011', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2011', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2011', '09/30/2012', '09/30/2013', '09/30/2014', '09/30/2015', '1/01/2011', '1/01/2012', '1/01/2013', '1/01/2014', '1/01/2015', '1/01/2016', '1/02/2011', '1/02/2012', '1/02/2013', '1/02/2014', '1/02/2015', '1/02/2016', '1/03/2011', '1/03/2012', '1/03/2013', '1/03/2014', '1/03/2015', '1/03/2016', '1/04/2011', '1/04/2012', '1/04/2013', '1/04/2014', '1/04/2015', '1/04/2016', '1/05/2011', '1/05/2012', '1/05/2013', '1/05/2014', '1/05/2015', '1/05/2016', '1/06/2011', '1/06/2012', '1/06/2013', '1/06/2014', '1/06/2015', '1/06/2016', '1/07/2011', '1/07/2012', '1/07/2013', '1/07/2014', '1/07/2015', '1/07/2016', '1/08/2011', '1/08/2012', '1/08/2013', '1/08/2014', '1/08/2015', '1/08/2016', '1/09/2011', '1/09/2012', '1/09/2013', '1/09/2014', '1/09/2015', '1/09/2016', '1/10/2011', '1/10/2012', '1/10/2013', '1/10/2014', '1/10/2015', '1/10/2016', '1/11/2011', '1/11/2012', '1/11/2013', '1/11/2014', '1/11/2015', '1/11/2016', '1/12/2011', '1/12/2012', '1/12/2013', '1/12/2014', '1/12/2015', '1/12/2016', '10/01/2011', '10/01/2012', '10/01/2013', '10/01/2014', '10/01/2015', '10/02/2011', '10/02/2012', '10/02/2013', '10/02/2014', '10/02/2015', '10/03/2011', '10/03/2012', '10/03/2013', '10/03/2014', '10/03/2015', '10/04/2011', '10/04/2012', '10/04/2013', '10/04/2014', '10/04/2015', '10/05/2011', '10/05/2012', '10/05/2013', '10/05/2014', '10/05/2015', '10/06/2011', '10/06/2012', '10/06/2013', '10/06/2014', '10/06/2015', '10/07/2011', '10/07/2012', '10/07/2013', '10/07/2014', '10/07/2015', '10/08/2011', '10/08/2012', '10/08/2013', '10/08/2014', '10/08/2015', '10/09/2011', '10/09/2012', '10/09/2013', '10/09/2014', '10/09/2015', '10/10/2011', '10/10/2012', '10/10/2013', '10/10/2014', '10/10/2015', '10/11/2011', '10/11/2012', '10/11/2013', '10/11/2014', '10/11/2015', '10/12/2011', '10/12/2012', '10/12/2013', '10/12/2014', '10/12/2015', '10/13/2011', '10/13/2012', '10/13/2013', '10/13/2014', '10/13/2015', '10/14/2011', '10/14/2012', '10/14/2013', '10/14/2014', '10/14/2015', '10/15/2011', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2011', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2011', '10/17/2012', '10/17/2013', '10/17/2014', '10/17/2015', '10/18/2011', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2011', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2011', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2011', '10/21/2012', '10/21/2013', '10/21/2014', '10/21/2015', '10/22/2011', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2011', '10/23/2012', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2011', '10/24/2012', '10/24/2013', '10/24/2014', '10/24/2015', '10/25/2011', '10/25/2012', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2011', '10/26/2012', '10/26/2013', '10/26/2014', '10/26/2015', '10/27/2011', '10/27/2012', '10/27/2013', '10/27/2014', '10/27/2015', '10/28/2011', '10/28/2012', '10/28/2013', '10/28/2014', '10/28/2015', '10/29/2011', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2011', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2011', '10/31/2012', '10/31/2013', '10/31/2014', '10/31/2015', '11/01/2011', '11/01/2012', '11/01/2013', '11/01/2014', '11/01/2015', '11/02/2011', '11/02/2012', '11/02/2013', '11/02/2014', '11/02/2015', '11/03/2011', '11/03/2012', '11/03/2013', '11/03/2014', '11/03/2015', '11/04/2011', '11/04/2012', '11/04/2013', '11/04/2014', '11/04/2015', '11/05/2011', '11/05/2012', '11/05/2013', '11/05/2014', '11/05/2015', '11/06/2011', '11/06/2012', '11/06/2013', '11/06/2014', '11/06/2015', '11/07/2011', '11/07/2012', '11/07/2013', '11/07/2014', '11/07/2015', '11/08/2011', '11/08/2012', '11/08/2013', '11/08/2014', '11/08/2015', '11/09/2011', '11/09/2012', '11/09/2013', '11/09/2014', '11/09/2015', '11/10/2011', '11/10/2012', '11/10/2013', '11/10/2014', '11/10/2015', '11/11/2011', '11/11/2012', '11/11/2013', '11/11/2014', '11/11/2015', '11/12/2011', '11/12/2012', '11/12/2013', '11/12/2014', '11/12/2015', '11/13/2011', '11/13/2012', '11/13/2013', '11/13/2014', '11/13/2015', '11/14/2011', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2011', '11/15/2012', '11/15/2013', '11/15/2014', '11/15/2015', '11/16/2011', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2011', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2011', '11/18/2012', '11/18/2013', '11/18/2014', '11/18/2015', '11/19/2011', '11/19/2012', '11/19/2013', '11/19/2014', '11/19/2015', '11/20/2011', '11/20/2012', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2011', '11/21/2012', '11/21/2013', '11/21/2014', '11/21/2015', '11/22/2011', '11/22/2012', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2011', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2011', '11/24/2012', '11/24/2013', '11/24/2014', '11/24/2015', '11/25/2011', '11/25/2012', '11/25/2013', '11/25/2014', '11/25/2015', '11/26/2011', '11/26/2012', '11/26/2013', '11/26/2014', '11/26/2015', '11/27/2011', '11/27/2012', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2011', '11/28/2012', '11/28/2013', '11/28/2014', '11/28/2015', '11/29/2011', '11/29/2012', '11/29/2013', '11/29/2014', '11/29/2015', '11/30/2011', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '12/01/2011', '12/01/2012', '12/01/2013', '12/01/2014', '12/01/2015', '12/02/2011', '12/02/2012', '12/02/2013', '12/02/2014', '12/02/2015', '12/03/2011', '12/03/2012', '12/03/2013', '12/03/2014', '12/03/2015', '12/04/2011', '12/04/2012', '12/04/2013', '12/04/2014', '12/04/2015', '12/05/2011', '12/05/2012', '12/05/2013', '12/05/2014', '12/05/2015', '12/06/2011', '12/06/2012', '12/06/2013', '12/06/2014', '12/06/2015', '12/07/2011', '12/07/2012', '12/07/2013', '12/07/2014', '12/07/2015', '12/08/2011', '12/08/2012', '12/08/2013', '12/08/2014', '12/08/2015', '12/09/2011', '12/09/2012', '12/09/2013', '12/09/2014', '12/09/2015', '12/10/2011', '12/10/2012', '12/10/2013', '12/10/2014', '12/10/2015', '12/11/2011', '12/11/2012', '12/11/2013', '12/11/2014', '12/11/2015', '12/12/2011', '12/12/2012', '12/12/2013', '12/12/2014', '12/12/2015', '12/13/2011', '12/13/2012', '12/13/2013', '12/13/2014', '12/13/2015', '12/14/2011', '12/14/2012', '12/14/2013', '12/14/2014', '12/14/2015', '12/15/2011', '12/15/2012', '12/15/2013', '12/15/2014', '12/15/2015', '12/16/2011', '12/16/2012', '12/16/2013', '12/16/2014', '12/16/2015', '12/17/2011', '12/17/2012', '12/17/2013', '12/17/2014', '12/17/2015', '12/18/2011', '12/18/2012', '12/18/2013', '12/18/2014', '12/18/2015', '12/19/2011', '12/19/2012', '12/19/2013', '12/19/2014', '12/19/2015', '12/20/2011', '12/20/2012', '12/20/2013', '12/20/2014', '12/20/2015', '12/21/2011', '12/21/2012', '12/21/2013', '12/21/2014', '12/21/2015', '12/22/2011', '12/22/2012', '12/22/2013', '12/22/2014', '12/22/2015', '12/23/2011', '12/23/2012', '12/23/2013', '12/23/2014', '12/23/2015', '12/24/2011', '12/24/2012', '12/24/2013', '12/24/2014', '12/24/2015', '12/25/2011', '12/25/2012', '12/25/2013', '12/25/2014', '12/25/2015', '12/26/2011', '12/26/2012', '12/26/2013', '12/26/2014', '12/26/2015', '12/27/2011', '12/27/2012', '12/27/2013', '12/27/2014', '12/27/2015', '12/28/2011', '12/28/2012', '12/28/2013', '12/28/2014', '12/28/2015', '12/29/2011', '12/29/2012', '12/29/2013', '12/29/2014', '12/29/2015', '12/30/2011', '12/30/2012', '12/30/2013', '12/30/2014', '12/30/2015', '12/31/2011', '12/31/2012', '12/31/2013', '12/31/2014', '12/31/2015', '2/01/2011', '2/01/2012', '2/01/2013', '2/01/2014', '2/01/2015', '2/01/2016', '2/02/2011', '2/02/2012', '2/02/2013', '2/02/2014', '2/02/2015', '2/02/2016', '2/03/2011', '2/03/2012', '2/03/2013', '2/03/2014', '2/03/2015', '2/03/2016', '2/04/2011', '2/04/2012', '2/04/2013', '2/04/2014', '2/04/2015', '2/04/2016', '2/05/2011', '2/05/2012', '2/05/2013', '2/05/2014', '2/05/2015', '2/05/2016', '2/06/2011', '2/06/2012', '2/06/2013', '2/06/2014', '2/06/2015', '2/06/2016', '2/07/2011', '2/07/2012', '2/07/2013', '2/07/2014', '2/07/2015', '2/07/2016', '2/08/2011', '2/08/2012', '2/08/2013', '2/08/2014', '2/08/2015', '2/09/2011', '2/09/2012', '2/09/2013', '2/09/2014', '2/09/2015', '2/10/2011', '2/10/2012', '2/10/2013', '2/10/2014', '2/10/2015', '2/11/2011', '2/11/2012', '2/11/2013', '2/11/2014', '2/11/2015', '2/12/2011', '2/12/2012', '2/12/2013', '2/12/2014', '2/12/2015', '3/01/2011', '3/01/2012', '3/01/2013', '3/01/2014', '3/01/2015', '3/02/2011', '3/02/2012', '3/02/2013', '3/02/2014', '3/02/2015', '3/03/2011', '3/03/2012', '3/03/2013', '3/03/2014', '3/03/2015', '3/04/2011', '3/04/2012', '3/04/2013', '3/04/2014', '3/04/2015', '3/05/2011', '3/05/2012', '3/05/2013', '3/05/2014', '3/05/2015', '3/06/2011', '3/06/2012', '3/06/2013', '3/06/2014', '3/06/2015', '3/07/2011', '3/07/2012', '3/07/2013', '3/07/2014', '3/07/2015', '3/08/2011', '3/08/2012', '3/08/2013', '3/08/2014', '3/08/2015', '3/09/2011', '3/09/2012', '3/09/2013', '3/09/2014', '3/09/2015', '3/10/2011', '3/10/2012', '3/10/2013', '3/10/2014', '3/10/2015', '3/11/2011', '3/11/2012', '3/11/2013', '3/11/2014', '3/11/2015', '3/12/2011', '3/12/2012', '3/12/2013', '3/12/2014', '3/12/2015', '4/01/2011', '4/01/2012', '4/01/2013', '4/01/2014', '4/01/2015', '4/02/2011', '4/02/2012', '4/02/2013', '4/02/2014', '4/02/2015', '4/03/2011', '4/03/2012', '4/03/2013', '4/03/2014', '4/03/2015', '4/04/2011', '4/04/2012', '4/04/2013', '4/04/2014', '4/04/2015', '4/05/2011', '4/05/2012', '4/05/2013', '4/05/2014', '4/05/2015', '4/06/2011', '4/06/2012', '4/06/2013', '4/06/2014', '4/06/2015', '4/07/2011', '4/07/2012', '4/07/2013', '4/07/2014', '4/07/2015', '4/08/2011', '4/08/2012', '4/08/2013', '4/08/2014', '4/08/2015', '4/09/2011', '4/09/2012', '4/09/2013', '4/09/2014', '4/09/2015', '4/10/2011', '4/10/2012', '4/10/2013', '4/10/2014', '4/10/2015', '4/11/2011', '4/11/2012', '4/11/2013', '4/11/2014', '4/11/2015', '4/12/2011', '4/12/2012', '4/12/2013', '4/12/2014', '4/12/2015', '5/01/2011', '5/01/2012', '5/01/2013', '5/01/2014', '5/01/2015', '5/02/2011', '5/02/2012', '5/02/2013', '5/02/2014', '5/02/2015', '5/03/2011', '5/03/2012', '5/03/2013', '5/03/2014', '5/03/2015', '5/04/2011', '5/04/2012', '5/04/2013', '5/04/2014', '5/04/2015', '5/05/2011', '5/05/2012', '5/05/2013', '5/05/2014', '5/05/2015', '5/06/2011', '5/06/2012', '5/06/2013', '5/06/2014', '5/06/2015', '5/07/2011', '5/07/2012', '5/07/2013', '5/07/2014', '5/07/2015', '5/08/2011', '5/08/2012', '5/08/2013', '5/08/2014', '5/08/2015', '5/09/2011', '5/09/2012', '5/09/2013', '5/09/2014', '5/09/2015', '5/10/2011', '5/10/2012', '5/10/2013', '5/10/2014', '5/10/2015', '5/11/2011', '5/11/2012', '5/11/2013', '5/11/2014', '5/11/2015', '5/12/2011', '5/12/2012', '5/12/2013', '5/12/2014', '5/12/2015', '6/01/2011', '6/01/2012', '6/01/2013', '6/01/2014', '6/01/2015', '6/02/2011', '6/02/2012', '6/02/2013', '6/02/2014', '6/02/2015', '6/03/2011', '6/03/2012', '6/03/2013', '6/03/2014', '6/03/2015', '6/04/2011', '6/04/2012', '6/04/2013', '6/04/2014', '6/04/2015', '6/05/2011', '6/05/2012', '6/05/2013', '6/05/2014', '6/05/2015', '6/06/2011', '6/06/2012', '6/06/2013', '6/06/2014', '6/06/2015', '6/07/2011', '6/07/2012', '6/07/2013', '6/07/2014', '6/07/2015', '6/08/2011', '6/08/2012', '6/08/2013', '6/08/2014', '6/08/2015', '6/09/2011', '6/09/2012', '6/09/2013', '6/09/2014', '6/09/2015', '6/10/2011', '6/10/2012', '6/10/2013', '6/10/2014', '6/10/2015', '6/11/2011', '6/11/2012', '6/11/2013', '6/11/2014', '6/11/2015', '6/12/2011', '6/12/2012', '6/12/2013', '6/12/2014', '6/12/2015', '7/01/2011', '7/01/2012', '7/01/2013', '7/01/2014', '7/01/2015', '7/02/2011', '7/02/2012', '7/02/2013', '7/02/2014', '7/02/2015', '7/03/2011', '7/03/2012', '7/03/2013', '7/03/2014', '7/03/2015', '7/04/2011', '7/04/2012', '7/04/2013', '7/04/2014', '7/04/2015', '7/05/2011', '7/05/2012', '7/05/2013', '7/05/2014', '7/05/2015', '7/06/2011', '7/06/2012', '7/06/2013', '7/06/2014', '7/06/2015', '7/07/2011', '7/07/2012', '7/07/2013', '7/07/2014', '7/07/2015', '7/08/2011', '7/08/2012', '7/08/2013', '7/08/2014', '7/08/2015', '7/09/2011', '7/09/2012', '7/09/2013', '7/09/2014', '7/09/2015', '7/10/2011', '7/10/2012', '7/10/2013', '7/10/2014', '7/10/2015', '7/11/2011', '7/11/2012', '7/11/2013', '7/11/2014', '7/11/2015', '7/12/2011', '7/12/2012', '7/12/2013', '7/12/2014', '7/12/2015', '8/01/2011', '8/01/2012', '8/01/2013', '8/01/2014', '8/01/2015', '8/02/2011', '8/02/2012', '8/02/2013', '8/02/2014', '8/02/2015', '8/03/2011', '8/03/2012', '8/03/2013', '8/03/2014', '8/03/2015', '8/04/2011', '8/04/2012', '8/04/2013', '8/04/2014', '8/04/2015', '8/05/2011', '8/05/2012', '8/05/2013', '8/05/2014', '8/05/2015', '8/06/2011', '8/06/2012', '8/06/2013', '8/06/2014', '8/06/2015', '8/07/2011', '8/07/2012', '8/07/2013', '8/07/2014', '8/07/2015', '8/08/2011', '8/08/2012', '8/08/2013', '8/08/2014', '8/08/2015', '8/09/2011', '8/09/2012', '8/09/2013', '8/09/2014', '8/09/2015', '8/10/2011', '8/10/2012', '8/10/2013', '8/10/2014', '8/10/2015', '8/11/2011', '8/11/2012', '8/11/2013', '8/11/2014', '8/11/2015', '8/12/2011', '8/12/2012', '8/12/2013', '8/12/2014', '8/12/2015', '9/01/2011', '9/01/2012', '9/01/2013', '9/01/2014', '9/01/2015', '9/02/2011', '9/02/2012', '9/02/2013', '9/02/2014', '9/02/2015', '9/03/2011', '9/03/2012', '9/03/2013', '9/03/2014', '9/03/2015', '9/04/2011', '9/04/2012', '9/04/2013', '9/04/2014', '9/04/2015', '9/05/2011', '9/05/2012', '9/05/2013', '9/05/2014', '9/05/2015', '9/06/2011', '9/06/2012', '9/06/2013', '9/06/2014', '9/06/2015', '9/07/2011', '9/07/2012', '9/07/2013', '9/07/2014', '9/07/2015', '9/08/2011', '9/08/2012', '9/08/2013', '9/08/2014', '9/08/2015', '9/09/2011', '9/09/2012', '9/09/2013', '9/09/2014', '9/09/2015', '9/10/2011', '9/10/2012', '9/10/2013', '9/10/2014', '9/10/2015', '9/11/2011', '9/11/2012', '9/11/2013', '9/11/2014', '9/11/2015', '9/12/2011', '9/12/2012', '9/12/2013', '9/12/2014', '9/12/2015']</t>
         </is>
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>4729</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>950325</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>1448</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['0', '082-', '090O', '1', '10', '100', '1000', '1001', '1002', '1003', '1004', '1005', '1006', '1007', '1008', '1009', '101', '1010', '1011', '1012', '1013', '1014', '1015', '1016', '1017', '1018', '1019', '102', '1020', '1021', '1022', '1023', '1024', '1025', '1026', '1027', '1028', '1029', '103', '1030', '1031', '1032', '1033', '1034', '1035', '1036', '1037', '1038', '1039', '103O', '104', '1040', '1041', '1042', '1043', '1044', '1045', '1046', '1047', '1048', '1049', '105', '1050', '1051', '1052', '1053', '1054', '1055', '1056', '1057', '1058', '1059', '106', '107', '108', '109', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '1129', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1137', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '117', '118', '119', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1210', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '127', '128', '129', '13', '130', '1300', '1301', '1302', '1303', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1323', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1343', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '137', '138', '139', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1418', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1427', '1428', '1429', '143', '1430', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '1439', '144', '1440', '1441', '1442', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1452', '1453', '1454', '1455', '1456', '1457', '1458', '1459', '146', '147', '148', '149', '15', '150', '1500', '1501', '1502', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1551', '1552', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '157', '158', '159', '16', '1600', '1601', '1602', '1603', '1604', '1605', '1606', '1607', '1608', '1609', '1610', '1611', '1612', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '1628', '1629', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '1640', '1641', '1642', '1643', '1644', '1645', '1646', '1647', '1648', '1649', '1650', '1651', '1652', '1653', '1654', '1655', '1656', '1657', '1658', '1659', '17', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '1720', '1721', '1722', '1723', '1724', '1725', '1726', '1727', '1728', '1729', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '174:00:00', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '18', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1817', '1818', '1819', '1820', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '19', '1900', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193-', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '202O', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '207', '208', '209', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '210:00:00', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '217', '218', '219', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '227', '228', '229', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '237', '238', '239', '24', '240', '241', '242', '243', '244', '245', '246', '247', '248', '249', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '26', '27', '28', '29', '3', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '32', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '330', '331', '332', '333', '334', '335', '336', '337', '338', '339', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '35', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '37', '38', '39', '4', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '41', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '47', '48', '49', '5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '54', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '56', '57', '58', '59', '6', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '620', '621', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651', '652', '653', '654', '655', '656', '657', '658', '659', '7', '700', '701', '702', '703', '704', '705', '706', '707', '708', '709', '710', '711', '712', '713', '714', '715', '716', '717', '718', '719', '720', '721', '722', '723', '724', '725', '726', '727', '728', '729', '730', '731', '732', '733', '734', '735', '736', '737', '738', '739', '740', '741', '742', '743', '744', '745', '746', '747', '748', '749', '750', '751', '752', '753', '754', '755', '756', '757', '758', '759', '8', '800', '801', '802', '803', '804', '805', '806', '807', '808', '809', '810', '811', '812', '813', '814', '815', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '827', '828', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '844', '845', '846', '847', '848', '849', '850', '851', '852', '853', '854', '855', '856', '857', '858', '859', '9', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916', '917', '918', '919', '920', '921', '922', '923', '924', '925', '926', '927', '928', '929', '930', '931', '932', '933', '934', '935', '936', '937', '938', '939', '940', '941', '942', '943', '944', '945', '946', '947', '948', '949', '950', '951', '952', '953', '954', '955', '956', '957', '958', '959', 'Jan-35']</t>
         </is>
@@ -761,12 +789,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>80094</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>2526035</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>17</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['ASSAULT', 'BATTERY', 'BUSINESS ROBBERY', 'CRIMINAL DAMAGE TO PROPERTY', 'FIREARM', 'HOMICIDE', 'INDIVIDUAL ROBBERY', 'JUVENILE', 'NARCOTICS', 'NON-RESIDENTIAL BURGLARY', 'NUISANCE', 'OTHER', 'RESIDENTIAL BURGLARY', 'SEXUAL ASSAULT', 'THEFT', 'VEHICLE BURGLARY', 'VICE']</t>
         </is>
@@ -839,12 +873,18 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>262054</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
         <v>2409957</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>2</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['ATTEMPTED', 'COMMITTED']</t>
         </is>
@@ -917,12 +957,18 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>12400</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>2183116</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>754</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['0.275', '0.501388889', '0.502083333', '0.504166667', '0.504861111', '0.505555556', '0.50625', '0.506944444', '0.507638889', '0.508333333', '0.509027778', '0.513888889', '0.514583333', '0.515277778', '0.515972222', '0.516666667', '0.517361111', '0.520833333', '0.522222222', '0.525', '0.527777778', '0.529861111', '0.531944444', '0.532638889', '0.533333333', '0.534722222', '0.536805556', '0.5375', '0.538194444', '0.542361111', '0.547222222', '0.548611111', '0.55', '0.553472222', '0.555555556', '0.55625', '0.556944444', '0.557638889', '0.558333333', '0.559027778', '0.561111111', '0.569444444', '0.588194444', '0.588888889', '0.589583333', '0.590972222', '0.598611111', '0.599305556', '0.600694444', '0.604166667', '0.604861111', '0.605555556', '0.60625', '0.606944444', '0.607638889', '0.611805556', '0.6125', '0.613194444', '0.613888889', '0.614583333', '0.615972222', '0.616666667', '0.61875', '0.619444444', '0.625694444', '0.626388889', '0.627083333', '0.628472222', '0.629166667', '0.630555556', '0.63125', '0.631944444', '0.632638889', '0.633333333', '0.634027778', '0.634722222', '0.635416667', '0.6375', '0.638194444', '0.638888889', '0.639583333', '0.640277778', '0.640972222', '0.641666667', '0.643055556', '0.644444444', '0.645138889', '0.645833333', '0.647222222', '0.647916667', '0.648611111', '0.649305556', '0.65', '0.650694444', '0.651388889', '0.652083333', '0.652777778', '0.653472222', '0.654166667', '0.654861111', '0.655555556', '0.65625', '0.656944444', '0.657638889', '0.658333333', '0.660416667', '0.661111111', '0.663888889', '0.664583333', '0.665277778', '0.666666667', '0.668055556', '0.673611111', '0.674305556', '0.675', '0.675694444', '0.676388889', '0.679166667', '0.6875', '0.722916667', '0.723611111', '0.726388889', '0.727083333', '0.733333333', '0.736111111', '0.736805556', '0.738888889', '0.739583333', '0.742361111', '0.743055556', '0.755555556', '0.764583333', '0.779861111', '0.780555556', '0.78125', '0.800694444', '0.810416667', '0.811111111', '0.811805556', '0.813888889', '0.814583333', '0.815277778', '0.847222222', '0.8625', '0.863194444', '0.863888889', '0.890277778', '0.916666667', '0.923611111', '00:38.1', '00:38.3', '1.001388889', '1.042361111', '1.105555556', '1.108333333', '1.111805556', '1.113194444', '1.113888889', '1.2125', '1.236805556', '1.239583333', '1.241666667', '1.243055556', '1.24375', '1.244444444', '1.245138889', '1.245833333', '1.246527778', '1.247916667', '1.248611111', '1.249305556', '1.274305556', '1.279861111', '1.563194444', '1.779861111', '10771/13.7(A)', '11:131A', '11:131C', '11:140-G', '11:22', '11:245A', '11:245B', '11:27', '11:281A', '11:30', '11:33', '11:34', '11:415-14', '11:42', '11:45', '11:45.3', '11:53B', '11:60B', '11:60C', '11:91A', '12:11.1', '12:26.1', '13:1018 D', '13:1018.1B', '13:103(1)', '13:103(2)', '13:103(3)', '13:103(4)', '13:103(5)', '13:103(6)', '13:1056.2.A', '13:1056.2.B', '13:1058.A', '13:1058.B', '13:1062A', '13:12.1', '13:27', '13:35', '13:35.1', '13:35.3', '13:37', '13:38', '13:39', '13:39.1', '13:40.1', '13:40.2', '13:41.3', '13:46', '13:56', '13:56.1', '13:59', '13:92.A', '14:03.3', '14:03.5', '14:03.6', '14:03.7', '14:07.1', '14:07.2', '14:07.6', '14:08.1', '14:08.3', '14:103A(1)', '14:103A(2)', '14:103A(3)', '14:103A(4)', '14:103A.1', '14:110A', '14:110C', '14:20', '14:220.1A(2)', '14:23.3', '14:24', '14:25', '14:26', '14:27', '14:28', '14:28.1', '14:30.1/G', '14:30.1/K', '14:30.1/O', '14:30.1/R', '14:30.2', '14:30.2/G', '14:30.2/K', '14:30/AR', '14:30/BF', '14:30/G', '14:30/K', '14:30/O', '14:30/R', '14:31', '14:31.1', '14:31.2', '14:31.3', '14:31.4', '14:31.5', '14:31.6', '14:31.7', '14:31.8', '14:31.9', '14:32', '14:32.1', '14:32.6', '14:32.7', '14:32.8', '14:34.1', '14:34.2', '14:34.3', '14:34.4', '14:34.6', '14:34.7', '14:34.8', '14:34/G', '14:34/HFF', '14:34/K', '14:34/ODW', '14:35', '14:35.1', '14:35.2', '14:35.3', '14:35/J', '14:37', '14:37.1', '14:37.2', '14:37.3', '14:37.4/A', '14:37.4A', '14:37.6', '14:37.7', '14:37/B', '14:37/C', '14:37/D', '14:37B', '14:37C', '14:37D', '14:38', '14:38.1', '14:38.2', '14:38.3', '14:38/J', '14:39', '14:39.1', '14:39.2', '14:40.1', '14:40.2', '14:40.3', '14:40.7', '14:42.1/A', '14:42.1/B', '14:42.1/O', '14:42.1/V', '14:42/A', '14:42/O', '14:42/V', '14:43', '14:43.1', '14:43.1/N', '14:43.2', '14:43.3', '14:43.3/N', '14:43.4/N', '14:43.5', '14:43/A', '14:43/O', '14:43/V', '14:44', '14:44.1', '14:44.2', '14:45', '14:45.1', '14:46', '14:46.1', '14:46.2', '14:46.3', '14:47', '14:48.2', '14:50.1', '14:50.2', '14:51', '14:52', '14:53', '14:54', '14:54.1', '14:54.2', '14:54.3', '14:54.3.1', '14:54.5', '14:55', '14:56', '14:56.1', '14:56.2', '14:56.4', '14:56/V', '14:57', '14:57/A', '14:59', '14:60/NRDF', '14:60/NRDNF', '14:60/NRNF', '14:60/NRNNF', '14:60/NRUF', '14:60/NRUNF', '14:60/RDF', '14:60/RDNF', '14:60/RNF', '14:60/RNNF', '14:60/RUF', '14:60/RUNF', '14:62.2/RDF', '14:62.2/RDNF', '14:62.2/RNF', '14:62.2/RNNF', '14:62.2/RUF', '14:62.2/RUNF', '14:62/AD', '14:62/BD', '14:62/CD', '14:62/NRDF', '14:62/NRDNF', '14:62/NRNF', '14:62/NRNNF', '14:62/NRUF', '14:62/NRUNF', '14:62/RDF', '14:62/RDNF', '14:62/RNF', '14:62/RNNF', '14:62/RUF', '14:62/RUNF', '14:64/AA', '14:64/AB', '14:64/AC', '14:64/AD', '14:64/AE', '14:64/AF', '14:64/AG', '14:64/BA', '14:64/BB', '14:64/BC', '14:64/BD', '14:64/BE', '14:64/BF', '14:64/BG', '14:64/CA', '14:64/CB', '14:64/CC', '14:64/CD', '14:64/CE', '14:64/CG', '14:64/DA', '14:64/DB', '14:64/DC', '14:64/DD', '14:64/DE', '14:64/DF', '14:64/DG', '14:67.3/A', '14:67.3/B', '14:67.3/C', '14:67/AA', '14:67/AB', '14:67/AC', '14:67/AD', '14:67/AE', '14:67/AF', '14:67/AG', '14:67/AH', '14:67/AI', '14:67/AJ', '14:67/AR', '14:67/BA', '14:67/BB', '14:67/BC', '14:67/BD', '14:67/BE', '14:67/BF', '14:67/BG', '14:67/BH', '14:67/BI', '14:67/BJ', '14:67/C', '14:67/CA', '14:67/CB', '14:67/CC', '14:67/CD', '14:67/CE', '14:67/CF', '14:67/CG', '14:67/CH', '14:67/CI', '14:67/DD', '14:67/E', '14:67/O', '14:67/T', '14:72.1.1', '14:81.1.1', '14:90.5(B)', '14:91.9 A (2)', '14:93.2.1', '14:93.2.3', '14:93/NF', '14:95.1.1', '14:95.A(3)', '14:95E', '14:98J', '15:02.1', '15:02.2', '15:02.3', '15:02.4', '15:02.5', '15:02.6', '15:02.7', '15:02.8', '15:03.3', '15:03.4', '15:04', '15:04.1', '15:04.2', '15:04.3', '15:04.4', '15:05.1', '15:05.2', '15:07.1', '15:07.2', '15:07.3', '15:07.6', '15:07.7', '15:07.9', '15:08.1', '15:08.2', '15:08.3', '15:08.4', '15:08.6', '15:08.7', '15:09.1', '15:10.1', '15:10.2', '15:10.4', '15:10.7', '15:11.1', '15:12.1', '15:12.2', '15:12.6', '15:13.1', '15:13.2', '15:13.3', '15:13.5', '15:13.6', '15:13.7', '15:18.1', '15:19.1', '15:20.1', '15:21.1', '15:21.2', '15:21.3', '15:22.1', '15:23.1', '15:23.2', '15:23.3', '15:29.1', '15:30.2', '15:31.1', '15:31.4', '15:31.7', '15:31.8', '15:32.1', '15:32.2', '15:33.1', '15:33.2', '15:33.3', '15:33.4', '15:33.5', '15:35.1', '15:35.2', '15:35.3', '15:35.5', '15:35.6', '15:35.7', '15:35.8', '15:37.1', '15:38.1', '15:38.2', '15:38.3', '15:40.1', '15:41.1', '15:42.1', '15:42.2', '15:42.5', '15:42.8', '15:43.1', '15:43.2', '15:46.1', '15:46.2', '15:47.1', '15:47.2', '15:47.3', '15:47.7', '15:48.1', '15:48.2', '15:52.1', '16:02.2', '16:06.1', '16:09.1', '16:10.1', '16:13.1', '16:13.2', '16:13.4', '16:14.1', '16:14.2', '16:35.1', '17:22.1', '17:40.1', '17:42.1', '17:43.7', '17:55.1', '19:29.1', '19:29.2', '19:29.3', '19:29.4', '19:29.6', '2.252777778', '20:43.2', '21:21', '22:1925/F', '24:02.1', '27:30.1', '29:58.1', '30:18.2', '30:2531', '30:36.4', '32:101', '32:101.C', '32:104', '32:122', '32:123', '32:123.D', '32:124', '32:125', '32:1304', '32:1308.A', '32:1308B', '32:141', '32:143', '32:143:14', '32:145', '32:190', '32:194', '32:197', '32:213B', '32:216', '32:218', '32:231', '32:232', '32:237', '32:263C', '32:281', '32:282', '32:289', '32:292', '32:295', '32:299', '32:300', '32:303', '32:304', '32:304.C', '32:319A', '32:320', '32:322', '32:329A', '32:341', '32:354', '32:398', '32:402', '32:406', '32:408C', '32:411', '32:412', '32:415', '32:421', '32:423', '32:51:00', '32:52:00', '32:53:00', '32:53D', '32:56A', '32:58:00', '32:61', '32:64', '32:64/A', '32:64B', '32:65', '32:707', '32:71', '32:726', '32:78', '32:79', '32:81', '32:82', '32:861', '32:863', '34:23.1', '35:10.1', '36:55.1', '36:59.3', '37:00.5', '37:1862', '37:1864', '37:1866', '37:1870', '38:01.1', '38:54.1', '40:1023', '40:1031', '40:1041', '40:1049', '40:1379.3 I (1)', '40:1379.3 I (2)', '40:1390', '40:1742', '40:1783', '40:1785', '40:1788', '40:1792', '40:966', '40:966A', '40:966C', '40:966E', '40:967', '40:967(2)', '40:967A', '40:967C', '40:968', '40:968A', '40:968C', '40:969', '40:969A', '40:969C', '40:970', '40:970A', '40:970C', '40:971', '40:971B', '40:971B.1.B', '40:971B.1.I', '40:979', '40:981', '40:982', '40:983', '40:989', '47:501', '47:506A', '47:507', '47:508', '47:509A', '47:536', '47:9071', '56:11.1', '56:11.2', '56:21.1', '56:21.2', '56:21.3', '56:21.4', '5:35', '8:43', '9:422A', 'C.CR.P. ART 202', 'C.CR.P. ART 21', 'C.CR.P. ART 575', 'C.CR.P. ART 900', 'CC14:200', 'CC14:201', 'CC14:202', 'CC14:204', 'CC14:208', 'CC14:217', 'CC14:222', 'CC14:501', 'CC14:501.3', 'OTHER']</t>
         </is>
@@ -995,12 +1041,18 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>12400</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>5570084</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>807</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['ABAND/INOPERATIVE VEHICLE/CC', 'ABET ENT/REM ON PREM', 'ABUSE/NEG OF ADULTS', 'ACC AFTER FACT(Code Modifier)', 'ACCESS DEVICE FRAUD', 'ADD LIGHTING EQUIP', 'ADDRESS NUMBERS REQUIRED', 'AGG ASSAULT UPON A PEACE OFFICER', 'AGG ASSAULT W/MOTOR VEHICLE UPON A PEACE OFFICER', 'AGG ESCAPE', 'AGG ORAL SEX BATT (AGE OF VIC)', 'AIDING TO REMAIN ON PREMISES/CC', 'ALARM PERMIT REQUIRED', 'ALCOHOL/SALE TO A MINOR', 'ALTER/REMOVE VEH VIN #', 'AMPLIFIED DEVICES IN PUBLIC', 'ANIMALS PROHIBITED AT FESTIVALS', 'ANIMALS RUNNING AT LARGE', 'ARSON W/INTENT TO DEFRAUD', 'ARSON/AGG', 'ARSON/COMMUNICATE FALSE INFO', 'ARSON/PLACE COMB MAT', 'ARSON/SIMPLE', 'ASSAULT/ AGG FIREARM', 'ASSAULT/ AGG INJURY', 'ASSAULT/ AGG KNIFE CUTTING INST', 'ASSAULT/ AGG ODW', 'ASSAULT/AGG', 'ASSAULT/AGG DOMESTIC ABUSE', 'ASSAULT/AGG FIREARM', 'ASSAULT/AGG INJURY', 'ASSAULT/AGG KNIFE CUTTING INST', 'ASSAULT/AGG ODW', 'ASSAULT/AGG/CC', 'ASSAULT/CHILD WELFARE WORKER', 'ASSAULT/DRIVE-BY SHOOTING', 'ASSAULT/SCHOOL TEACHER', 'ASSAULT/SIMPLE', 'ASSAULT/SIMPLE ON A JUVENILE', 'ASSAULT/SIMPLE/CC', 'ATT OR CONSPIRACY:DRUGS', 'ATTEMPT', 'ATTEMPTED (Code Modifier)', 'BACKING UNSAFELY', 'BANK FRAUD', 'BARRICADES', 'BARRICADES/CC', 'BATHING NUDE', 'BATT/2ND DEGREE', 'BATT/AGG 2ND DEGREE', 'BATT/AGG GUN', 'BATT/AGG HANDS', 'BATT/AGG KNIFE', 'BATT/AGG OTHER DANGER WEAPON', 'BATT/ORAL SEXUAL', 'BATT/POLICE OFF', 'BATT/POLICE OFF/CC', 'BATT/SCHOOL ATHLETEC OFFICIAL', 'BATT/SCHOOL TEACHER', 'BATT/SEXUAL', 'BATT/SEXUAL AGG', 'BATT/SIM CHILD WELFARE AGT', 'BATT/SIM OF THE INFIRM', 'BATT/SIMPLE', 'BATT/SIMPLE/CC', 'BATT/SIMPLE/OF JUVENILE', 'BATTERY OF EMERGENCY ROOM PERSONNEL, EMERGENCY SER', 'BICYCLE/FRONT LAMP/SIDE/REAR REFLECTORS REQ', 'BICYCLIST CARRYING ARTICLES', 'BICYCLIST MUST OBEY TRAFFIC CONTROLS', 'BIKE REGISTRATION REQUIRED/CC', 'BLOCK INTERSECTION', 'BLOCK INTERSECTION/CC', 'BLOCKING PRIVATE DRIVEWAY', 'BRAKE LIGHTS REQ', 'BRAKES REQUIRED', 'BURG/AG NON RES NIGHT NO FORCE', 'BURG/AGG NON RES DAY FORCE', 'BURG/AGG NON RES DAY NO FORCE', 'BURG/AGG NON RES NIGHT FORCE', 'BURG/AGG NON RES UNK FORCE', 'BURG/AGG NON RES UNK NO FORCE', 'BURG/AGG RES DAY FORCE', 'BURG/AGG RES DAY NO FORCE', 'BURG/AGG RES NIGHT FORCE', 'BURG/AGG RES NIGHT NO FORCE', 'BURG/AGG RES UNK FORCE', 'BURG/AGG RES UNK NO FORCE', 'BURG/AUTO $50 - $200', 'BURG/AUTO OVER $200', 'BURG/AUTO UNDER $50', 'BURG/S NON RES DAY FORCE', 'BURG/S NON RES DAY NO FORCE', 'BURG/S NON RES NIGHT FORCE', 'BURG/S NON RES NIGHT NO FORCE', 'BURG/S NON RES UNK FORCE', 'BURG/S NON RES UNK NO FORCE', 'BURG/S RES DAY FORCE', 'BURG/S RES DAY NO FORCE', 'BURG/S RES NIGHT FORCE', 'BURG/S RES NIGHT NO FORCE', 'BURG/S RES UNK FORCE', 'BURG/S RES UNK NO FORCE', 'BURG/S/IN DWE RES UNK NO FORCE', 'BURG/S/IN/DWEL/RES DAY NOFORCE', 'BURG/S/IN/DWEL/RES NIGHT FORCE', 'BURG/S/INH DWEL RES DAY FORCE', 'BURG/S/INH DWEL RES UNK FORCE', 'BURG/SID/ RES NIGHT NO FORCE', 'BURGLARY OF A RELIGIOUS BUILDING', 'BURGLARY OF PHARMACY/S', 'BURGLARY/S INHAB DWELLING', 'BURGLARY/SIMPLE', 'BURNING TRASH', 'CARELESS DRIVING', 'CARJACKING', 'CARNAL KNOW OF JUV', 'CARNAL KNOWLEDGE OF JUV(MISD)', 'CARRYING FIREARM/DANGEROUS WEAPON ON SCHOOL PROP', 'CELL/RADIO USE BY BUS PROHIB', 'CHEATING AND SWINDLING', 'CHILD ABUSE', 'CHILD DESERTION', 'CHILD RESTRAINT REQ', 'CHILD RESTRAINTS', 'CITY CHAUFFEUR LICENSE REQUIRE/CC', 'CLEAN INDOOR AIR ACT', 'CLOSING HOURS FOR ENTERTAINMENT ESTAB', 'COLLATERAL SECURITY UU WITHDRA', 'COMM FALSE INFO BOMB AT SCHOOL', 'COMPOUNDING A FELONY', 'COMPUTER AIDED SOLITICITATION OF MINOR', 'COMPUTER FRAUD', 'COMPUTER TAMPERING', 'CONCEALED CARRY WHILE UNDER INFLUENCE', 'CONCEALED CARRY/FAILURE TO NOTIFY LEO', 'CONDUCT W/IN COURTROOM AREAS', 'CONSPIRACY (Code Modifier)', 'CONT DEL OF A JUV', 'CONTEMPT OF COURT', 'CONTRACTORS MISAPLIC PAY', 'CORRUPT INFLUENCING', 'CREATE/DIST/POSS/COUNTERFIEIT CDS', 'CREATION/OPERATION OF DRUG LAB', 'CREDIT CARD FRAUD', 'CRIM ABANDONMENT', 'CRIM DAM COIN-OP DEV', 'CRIM DAM OF A PIPELINE', 'CRIM DAM TO PROP/AGG', 'CRIM DAM TO PROP/SIMPLE', 'CRIM DAM TO PROP/SIMPLE/CC', 'CRIM MISCHIEF/CC', 'CRIM NEGLECT OF FAMILY', 'CRIM TRESPASS', 'CRIME AGAINST ELDERLY', 'CRIME AGAINST NATURE', 'CRIME AGAINST NATURE/AGG', 'CRIMINAL BLIGHTING OF PROPERTY', 'CRIMINAL DAMAGE TO PROPERTY (GRAFFITI)', 'CRIMINAL MISCHIEF', 'CROSSING AT OTHER THAN SIDEWALK', 'CROSSING FIRE HOSE/CC', 'CRUELTY TO ANIMALS', 'CRUELTY TO ANIMALS/CC', 'CRUELTY TO ANIMALS/PROPER CARE', 'CRUELTY TO INFIRM', 'CRUELTY TO JUV (NOT FAMILY)', 'CRUELTY TO JUVENILES', 'CRUELTY TO JUVENILES/2ND DEG', 'CURFEW VIOL/JUVENILE/CC', 'CUT ACROSS PRIV PROP', 'CYBERBULLYING', 'CYBERSTALKING', 'Contraband Penal Institution', 'D W I', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE (CC)', 'D W I /CC', 'D/L 2 VALID LICENSES', 'D/L CLASS RESTRICTION', 'D/L EXPIRED', 'D/L FAIL CHG ADDRESS', 'D/L FAIL CHG ADDRESS /CC', 'D/L ILLEGAL USE', 'D/L M/C ENDORSEMENT REQD', 'D/L NOT IN POSS/CC', 'D/L NOT ON PERSON', 'D/L REQUIRED (STATE)', 'D/L RESTRICTION VIOL', 'D/L SUSP/REV', 'DAM PROP TO DEFRAUD', 'DAM TO PROP BY VANDALISM', 'DAM TO PROP/PUBLIC OR PRIVATE', 'DEFACING BUILDINGS/CC', 'DEFAMATION', 'DEFINITIONS CURELTY TO ANIMALS', 'DESECRATION OF FLAG', 'DESECRATION OF GRAVE', 'DESECRATION OF GRAVES', 'DESTROY OR ALTER VIN', 'DISARMING OF A POLICE OFFICER', 'DISCHARGE FIREARMS/CC', 'DISOBEY CONTROL DEV/CC', 'DISOBEY POLICE OFF', 'DISOBEY POLICE OFF/CC', 'DIST THE PEACE/CC', 'DIST/MANF SCH 2 DRUG', 'DIST/MANF SCH 3 DRUG', 'DIST/MANF SCH 4 DRUG', 'DIST/MANF SCH 5 DRUG', 'DIST/MANF SCH1 DRUG', 'DIST/PEACE', 'DIST/PEACE/FISTIC ENCOUNTER', 'DIST/PEACE/FISTIC ENCOUNTER/CC', 'DIST/PEACE/INTER LAWFUL ASSEM/CC', 'DIST/PEACE/INTOXICATED', 'DIST/PEACE/INTOXICATION/CC', 'DIST/PEACE/OFFENSIVE NOISES/CC', 'DIST/PEACE/OFFENSIVE WORDS', 'DIST/PEACE/TUMULTUOUS MANNER', 'DIST/PEACE/TUMULTUOUS MANNR/CC', 'DIST/PEACE/UNLAWFUL ASSEMBL/CC', 'DOGFIGHTING', 'DOMESTIC ABUSE BATT', 'DOMESTIC ABUSE BATTERY/CC', 'DRAG RACING/PUB ROAD', 'DRAG RACING/PUB ROAD/CC', 'DRINKING IN A MOTOR VEHICLE/CC', 'DRINKING IN PUBLIC/CC', 'DRINKING/ MOTOR VEHICLE (OPEN CONTAINER) /CC', 'DRIV IN PARKING LANE/CC', 'DRIV LEFT OF CENTER', 'DRIV LEFT OF CENTER/CC', 'DRIV ON SIDEWALK/CC', 'DRIV OVER MEDIAN', 'DRIV OVER MEDIAN/CC', 'DRIV TOO SLOW', 'DRIVING OVER PRIVATE PROPERTY', 'DRIVING TOO FAST FOR ROAD CONDITIONS', 'DRIVING TOO SLOW', 'DRUG MONEY TRANSACTION', 'DRUG RACKETEERING', 'DRUG TRAFFIC LOITERING', 'DRUG-TRAFFIC LOITERING/CC', 'DUMPING', 'DWI (CC) CHILD ENDANGERMENT LAW', 'DWI-CHILD ENDANGEMENT LAW', 'EMANATION OF EXCESSIVE SOUND OR NOISE', 'ENCOURAGE/CONT/DEL JUV', 'ENT/REM AFTER FORB', 'ENT/REM AFTER FORB/CC', 'EQUIPMENT VIOL', 'EQUIPMENT VIOL/CC', 'ESCAPE', 'EXPLOITATION OF THE INFIRMED', 'EXTORTION', 'EYE PROTECT REQ', 'EYE PROTECT REQ/CC', 'FAIL MAIN CONTROL (CARELESS OPERATION)', 'FAIL MAIN CONTROL/CC', 'FAIL REPORT ACCIDENT', 'FAIL REPORT ACCIDENT/CC', 'FAIL TO DIM HEADLIGHTS', 'FAIL TO LEAVE PREM', 'FAIL TO REG VEH', 'FAIL TO REGISTER AS A SEX OFFENDER', 'FAIL TO SIGNAL', 'FAIL TO TRANSFER TITLE', 'FAIL TRANS REG', 'FAIL/SIGNAL', 'FAIL/STOP EMERGING FROM ALLEY/CC', 'FAIL/YIELD EMERGENCY VEH/CC', 'FAIL/YIELD INTERSECTION/CC', 'FAIL/YIELD LEFT TURN/CC', 'FAIL/YIELD PED IN CROSSWALK/CC', 'FAIL/YIELD PRIVATE DRIVE/CC', 'FAIL/YIELD THROUGH STREET/CC', 'FAIL/YIELD TO TRAIN/CC', 'FAILURE TO COMPLY AS A SECOND-HAND DEALER', 'FAILURE TO REG DANGEROUS DOG/CC', 'FAILURE TO REGISTER DANGEROUS DOGS', 'FAILURE TO YIELD AFTER STOP', 'FAKE EXPLOSIVE DEVICE', 'FALSE ACCOUNTING', 'FALSE CERTIFICATES', 'FALSE IMP W/DANG WEA', 'FALSE IMPRISONMENT', 'FALSE IMPRISONMENT/CC', 'FALSE OR ALTERED LOTTERY TICKETS', 'FALSE PERSONATION', 'FALSE REPORTS/CC', 'FALSE SWEARING FOR VIOL/ PUBLIC/HEALTH OR SAFETY', 'FELON IN POSS F/ARM', 'FETICIDE,1ST DEGREE', 'FETICIDE,2ND DEGREE', 'FETICIDE,3RD DEGREE', 'FILING FASLE PUBLIC RECORDS', 'FIRE PREVENTION INTERFERENCE', 'FIREARM W/ALCOHOL SOLD/CONSUM', 'FIREARM/ALT SERIAL NUMBER', 'FIREARM/REGISTRATION', 'FIRST DEGREE VEHICULAR NEGLIGENT INJURING', 'FLEE TO ELUDE POLICE/CC', 'FLIGHT FROM OFFICER', 'FOLLOWING TOO CLOSE', 'FOLLOWING TOO CLOSE/CC', 'FORGERY', 'FORGERY CERTIFICATE OF INSURANCE OR INS ID CARD', 'FORGERY MOTOR VEHICLE INSPECTION CERTIFICATE', 'FRAUD', 'FRAUD IN OBT ACCOM', 'FRAUD, HOME IMPROVEMENT', 'FRAUDULENT ACQUISITION OF  A CREDIT CARD', 'FUGITIVE', 'GAMBLING', 'GAMBLING IN PUBLIC', 'GAMBLING IN PUBLIC/CC', 'GAMBLING/CC', 'GLUE/USE/SALE PROH', 'GROSS LITTERING PROHIBITED', 'HANDBILLS/PLACING ON VEHICLES', 'HANDICAPPED PARKING', 'HATE CRIMES', 'HEADLIGHTS REQUIRED', 'HEADLIGHTS REQUIRED/CC', 'HELMET REQUIRED', 'HELMET REQUIRED/CC', 'HIT &amp; RUN', 'HIT &amp; RUN/CC', 'HOME INVASION', 'HOMICIDE/NEGLIGENT', 'HOMICIDE/VEHICULAR', 'HOTEL/MOTEL REGISTER REQUIRED', 'HOUSE/HOUSE PEDDLING', 'HUMAN TRAFFICKING', 'HUNT/DISCHARGE FIREARMS ROADWY', 'IGNITION INTERLOCK/DEVICE OFF', 'ILL CARRYING WEAPON', 'ILL CARRYING WEAPON/CC', 'ILL POSS OF STOLEN FIREARMS', 'ILL POSS STLN THINGS', 'ILL POSS STLN THINGS/CC', 'ILL SUPPLYING A FELON WITH A FIREARM', 'ILL USE COUNTERFEIT TRADEMARK', 'ILL USE OF 911/CC', 'ILL USE OF A WEAPON', 'ILL USE OF A WEAPON/CC', 'ILL/POSS OF HANDGUN BY JUV', 'IMPERSONATING POL OFF/CC', 'IMPERSONATING POLICE OFF', 'IMPROPER BACKING', 'IMPROPER L/R TURNS/CC', 'IMPROPER LANE USAGE', 'IMPROPER LANE USAGE /CC', 'IMPROPER LANE USAGE/CC', 'IMPROPER SUPERVISION/JUV', 'IMPROPER TELEPHONE COMM', 'IMPROPER TELEPHONE COMMUNICATIONS', 'IMPROPER WINDOW TINT/CC', 'INCEST', 'INCEST/AGGRAVATED', 'INCITING A FELONY', 'INCITING TO RIOT', 'IND BEHAVIOR W/JUV', 'INJ/KILL POLICE DOG', 'INJURING PUBLIC RECORDS', 'INSPECTION STICKER', 'INSPECTION STICKER SWITCHED', 'INSURANCE FRAUD', 'INSURANCE FRAUD - AUTOMOBILE/FELONY', 'INSURANCE FRAUD - HEALTH CARE', 'INSURANCE REQUIRED', 'INSURANCE REQUIRED/CC', 'INT EXPOSURE TO AIDS VIRUS', 'INT W/CHILD CUSTODY', 'INTER WITH OFFICER', 'INTERFER W/LAW ENFORCEMENT INVESTIGATION', 'INTERFER W/MEDICAL TREATMENT', 'INTERFERE W/OFFICER/CC', 'INTERFERENCE W/ AC ENFORCEMENT', 'INTIM WITNESS', 'INTIM/PUBLIC', 'ISS WORTHLESS CHECKS', 'ISS WORTHLESS CHECKS/CC', 'JUSTIFIABLE HOMICIDE', 'JUVENILE CURFEW VIOL/CUSTODIAN', 'JUVENILE CURFEW VIOLATION/CC', 'KEEPING DISORD PLACE', 'KEEPING DISORD PLACE/CC', 'KIDNAPPING/2ND DEGREE', 'KIDNAPPING/AGG', 'KIDNAPPING/AGG/CHILD', 'KIDNAPPING/SIMPLE', 'LAMPS AND OTHER EQUIP ON BICYCLES', 'LARGE MATERIAL TO BE REMOVED BY CONTRACTOR', 'LEASED MOVEABLE/FAILURE TO RETURN', 'LEASED MOVEABLES FALSE REPRES', 'LEASED VEH,FAILURE TO RETURN', 'LET PREM FOR PROST/CC', 'LETTING DISORD PLACE', 'LETTING DISORD PLACE/CC', 'LIC PLATE REQUIRED', 'LIC PLATE REQUIRED/CC', 'LIC PLATE REQUIRED/STATE', 'LIC PLATE SWITCHED', 'LITTER FROM VEHICLE/CC', 'LITTER ON VACANT LOT', 'LITTER/OCCUPIED PROVATE PROPERTY', 'LITTER/THROWN FROM VEHICLE', 'LITTERING (CC)', 'LITTERING IN PUBLIC PLACES', 'LITTERING PROHIBITED', 'LIVESTOCK AT LARGE PROHIBITED', 'LOITTERING', 'LOOTING', 'LOUD MUSIC FROM VEHICLE', 'MALFEASANCE IN OFFICE', 'MALFEASANCE/EVIDENCE TAMPERING', 'MALFEASANCE/SEX W/INMATES', 'MANSLAUGHTER', 'MANUF/POSS INCED DEV', 'MANUFACTURE/CREATE FALSE ID', 'MAXIMUM SPEED LIMIT - SPEEDING', 'MEDICAID FRAUD', 'MINGLING HARMFUL SUBSTANCES', 'MINORS/USE CDS IN PRESENCE', 'MIRRORS REQ ON VEH', 'MISREP DUR BOOKING', 'MISREP DUR BOOKING/CC', 'MISREP OF AGE TO OBTAIN ALCOHOLIC BEV', 'MISREP TO PURCHASE/ENTER ALCOH', 'MISREP/AGE TO ACCESS CASINO/CC', 'MISREP/ISSUANCE/SUMMONS/CUSTOD', 'MISREPRESENTATION DURING BOOKING', 'MOLESTATION OF JUV', 'MONETARY INSTRUMENT ABUSE', 'MONEY LAUNDERING', 'MURDER/1ST DEGREE POLICE OFF', 'MURDER/ARSON 1ST DEGREE', 'MURDER/BODILY FORCE 1ST DEGREE', 'MURDER/GUN 1ST DEGREE', 'MURDER/GUN 2ND DEGREE', 'MURDER/GUN POLICE OFFICER', 'MURDER/KNIFE 1ST DEGREE', 'MURDER/KNIFE 2ND DEGREE', 'MURDER/KNIFE POLICE OFFICER', 'MURDER/OTHER 1ST DEGREE', 'MURDER/OTHER 2ND DEGREE', 'MURDER/RAZOR 1ST DEGREE', 'MURDER/RAZOR 2ND DEGREE', 'MVI CERTIFICATES/FALSE', 'MVI REQUIRED/CC', 'MVI REQUIRED/EXPIRED', 'NARC/2ND/SUBSEQUENT OFFENSE', 'NARC/DIST OVER 25 TO UNDER 18', 'NARC/DIST TO SCHOOL STUDENT', 'NARC/USE/POS/DIST RUSH', 'NEGLIGENT INJURING', 'NEGLIGENT INJURING/CC', 'NEGLIGENT/VEH INJURING', 'NO PASSING ZONE/CC', 'NOISE ORDINANCE/CC', 'OBEDIENCE TO/REQUIRED TRAFFIC-CONTROL DEVICES', 'OBSCENITY', 'OBSOLETE - STALKING/CC', 'OBSOLETE - THEFT OF UTILITIES/CC', 'OBST DRIVERS VIEW', 'OBST FIREMAN', 'OBST JUSTICE', 'OBST OF COURT ORDERS', 'OBST OF PUB PASSAGE', 'OBST OF PUBLIC HWY/SIMPLE', 'OBST PUBLIC HWY/AGG', 'OBST/INTER EDUCA FACILI', 'OBSTRUCTION HWY/SIMPLE/CC', 'OBSTRUCTION OF DRIVERS VISION', 'OBTAINING CDS BY FRAUD/FORGERY', 'OBTAINING CDS FROM DR. WHILE IN POSS. OF RX', 'OBTAINING LEGEND DRUG BY FRAUD', 'OBTAINING LEGEND DRUGS BY MISREP OR FRAUD', 'OFF AGAINST E-MAIL SERVICE PROVIDER', 'OFF AGAINST INTELL PROPERTY', 'OFF-ROAD VEHICLES - USE ON INTERSTATE', 'OFF-ROAD VEHICLES - USE ON SHOULDER OF ROADWAY', 'ONE WAY ROADWAYS/CC', 'ONE WAY STREET', 'ONE WAY STREET/CC', 'ONLINE IMPERSONATION', 'OPEN BURNING PROHIBITED', 'OPEN CONTAINER VIOL/CC', 'OPER VEH W/O LAW PRESENCE', 'OPERATING VEHICLE WHILE D/L SUSPENDED, PRIOR OFF.', 'OTHER LAWS OF THE ROAD/CC', 'OTHER/UNLISTED STATUTE', 'OWNERS RESPONSIBILITY', 'PANDERING', 'PARK ON LEVEE PROH/CC', 'PARKING OF SEMI TRAILER PROHIBITED', 'PARKING PROHIBITED - FACING WRONG DIRECTION', 'PARKING WHERE PROHIBITED', 'PARKING WHERE PROHIBITED/CC', 'PASS ON THE LEFT/CC', 'PASS ON THE RIGHT/CC', 'PASS SCHOOL BUS/CC', 'PAWN RECORD SH-GOODS PURCH REQ/CC', 'PAWNSHOP DAILY REPORT REQ/CC', 'PED. CROSSING AT OTHER THAN CROSS WALKS', 'PEDESTRIANS ON HIGHWAYS OR INTERSTATE', 'PEDESTRIANS SOLICITING RIDES OR BUSINESS', 'PEDESTRIANS/NON-MOTORIZED VEH PROHIBITED', 'PEEPING TOM', 'PEEPING TOM/CC', 'PERP CERTAIN CRIMES AGAINST VICTIM 65 OR OLDER', 'PICTURE ID REQUIRED ENTRANCE TO LIC ALCOHOLIC OUTLET', 'PORNO INVOLVING JUV', 'POSS  MARIJUANA', 'POSS ALC/BREC PARKS/CC', 'POSS BURGLAR TOOLS', 'POSS F/ARM/BREC PARK/CC', 'POSS HYPO SYRINGE/CC', 'POSS MARIJUANA/CC', 'POSS OF DRUG PARAPHERNALIA', 'POSS OF DRUG PARAPHERNALIA (old)', 'POSS OF FIREARM W/ DRUGS', 'POSS OF SCHEDULE 2 DRUGS', 'POSS SCH 1 DRUGS', 'POSS SCH 3 DRUGS', 'POSS SCH 4 DRUGS', 'POSS SCH 5 DRUGS', 'POSS WPN WHERE ALCOHOL SOLD/CC', 'POSS/DEAL FIREARM OBLITERATED#', 'POSS/DIST MANF COUNTERFEIT DRG', 'POSS/DIST MANF CULT SCHED I', 'POSS/DIST MANF SCH III', 'POSS/DIST MANF SCH IV', 'POSS/DIST MANF SCH V', 'POSS/DIST MANUF SCHED II', 'POSS/MANF/DIST COUNTERFEIT DRG', 'POSS/MANUFAC OF BOMB', 'POSS/SALE FIREWORKS/CC', 'POSSESSION ALCOHOL IN VEHICLE', 'POSSESSION DRUG PARAPHERNELIA', 'POSSESSION OF UNIDENTIABLE FIREARM', 'PRINCIPAL(Code Modifier)', 'PRISONER/SELF MUTILATION', 'PRIVATE COLLECTION /COMMERCIAL GARBAGE AND TRASH', 'PRODUCE/POSS COUNTERFEIT LABEL', 'PROFANITY PROHIBITED/CC', 'PROMOTION/SALE OBSCEN MATERIAL', 'PROOF OF INSURANCE REQ', 'PROSTITUTION', 'PROSTITUTION BY MASSAGE/CC', 'PROSTITUTION UNDER 17', 'PROSTITUTION/CC', 'PROSTITUTION/ENTICING/JUVENILE', 'PROSTITUTION/INCITING', 'PROSTITUTION/MASSAGE', 'PROSTITUTION/PROMOTION', 'PUBLIC BRIBERY', 'PUBLIC DRINKING PROHIBITED (OPEN CONTAINER) /CC', 'PUBLIC MASKING', 'PUBLIC PAYROLL FRAUD', 'PURCH/POSS ALC PERS UNDER 21/CC', 'PURCH/POSS ALCOHOL FOR MINOR/CC', 'PURCHASE/POSS ALCOHOL PUBLIC', 'PURSE SNATCHING', 'RAPE/AGG (ANAL)', 'RAPE/AGG (ORAL)', 'RAPE/AGG (VAGINAL)', 'RAPE/ATT FORCIBLE', 'RAPE/FORCABLE (ANAL)', 'RAPE/FORCIBLE (ORAL)', 'RAPE/FORCIBLE (VAGINAL)', 'RAPE/FORCIBLE SIMPLE', 'RAPE/SIMPLE (ANAL)', 'RAPE/SIMPLE (ORAL)', 'RAPE/SIMPLE (VAGINAL)', 'RECEIPTS AND UPC LABELS; UNLAWFUL ACTS', 'RECK OPER OF VEHICLE', 'RECK OPER OF VEHICLE/CC', 'RED LIGHT/DISOBEY', 'RED LIGHT/DISOBEY/CC', 'REFUND FRAUD', 'REG REQ IN VEHICLE', 'REGISTRATION REQUIRED', 'REGISTRATION TAGS REQUIRED', 'REGISTRATION; COMMERCIAL VEHICLES; EXEMPTION', 'REPEALED - RESPONSIBILITIES/RETAIL DEALER', 'REQ TAIL LAMPS', 'REQUIRED METHOD OF TURNING AT INTERSECTIONS', 'REQUIREMENTS FOR POSSESSION', 'RESISTING A OFFICER  FORCE OR VIOLENCE', 'RESISTING AN OFFICER', 'RESISTING AN OFFICER/CC', 'RESTRICTED ACCESS', 'RIDING BICYCLE ON ROADWAY', 'RIGHT OF WAY/FAIL TO YIELD', 'RIGHT TURN ON RED PROH', 'RIOT', 'RIOT/FAIL TO DISPERSE', 'ROBB/1ST DEGREE', 'ROBB/AGGRAVATED', 'ROBB/BLADE BANK', 'ROBB/BLADE COMMON HOUSE', 'ROBB/BLADE CONVENIENCE STORE', 'ROBB/BLADE GAS SERVICE STATION', 'ROBB/BLADE HWY STREETS ALLEYS', 'ROBB/BLADE MISCELLANEOUS', 'ROBB/BLADE RESIDENCE', 'ROBB/FIREARM BANK', 'ROBB/FIREARM COMMON HOUSE', 'ROBB/FIREARM CONVENIENCE STORE', 'ROBB/FIREARM GAS SERV STATION', 'ROBB/FIREARM MISCELLANEOUS', 'ROBB/FIREARM RESIDENCE', 'ROBB/FIREARM/HWY STREET ALLEYS', 'ROBB/O.D.W. COMMON HOUSE', 'ROBB/O.D.W. CONVENIENCE STORE', 'ROBB/O.D.W. GAS SERV STATION', 'ROBB/O.D.W. HWY STREETS ALLEYS', 'ROBB/O.D.W. MISCELLANEOUS', 'ROBB/O.D.W. RESIDENCE', 'ROBB/SIMPLE', 'ROBB/STRONG ARM BANK', 'ROBB/STRONG ARM COMMON HOUSE', 'ROBB/STRONG ARM CONVEN STORE', 'ROBB/STRONG ARM GAS SE STATION', 'ROBB/STRONG ARM HWY STR ALLEYS', 'ROBB/STRONG ARM MISCELLANEOUS', 'ROBB/STRONG ARM RESIDENCE', 'ROBBERY/2ND DEGREE', 'ROBBERY/FIREARM - ADDITIONAL PENALTIES', 'ROLLING VENDORS - LICENSE REQUIRED', 'SALE EXHIB DIST SEX MATL TO MI', 'SALE/POSSESSION OF LEGEND DRUG', 'SEAT BELT VIOL', 'SEAT BELT VIOL/CC', 'SEC HAND DAILY REPORTS REQ', 'SEC HAND DEALER LIC REQUIRED', 'SEC HAND PURCHASE RECORDS REQ', 'SECONDHAND DEALER/BUS LIC REQ/CC', 'SECONDHAND DEALER/DISP PROH 30DA/CC', 'SECONDHAND DEALER/LIC REQ', 'SELLING GOODS FROM PRIVATE PROP W/O OWNER CONSENT', 'SERVE/ALC TO PERSON UNDER 21/CC', 'SEX BATT BASED  (AGE OF VICTIM)', 'SEX BATT BASED (AGE OF VICTIM)', 'SEX OFFENDER REGISTRATION REQ', 'SEX OFFENDER, KNOWLINGLY W/IN 300 FT OF VICTIM', 'SEXTING', 'SEXUAL ACTS PROHIBITED IN PUBLIC', 'SEXUAL BATTERY OF THE INFIRMED', 'SIMPLE ESCAPE', 'SLOW VEH IN LEFT LANE/CC', 'SMOKING PROHIBITED', 'SOLIC MINORS DISTR CONTR SUBS', 'SOLICIT FOR MURDER', 'SOLICITATION FROM ROADWAY', 'SOLICITATION ON AN INTERSTATE HIGHWAY', 'SOLICITING FOR PROSTITUTES', 'SOLICITING FOR PROSTITUTION/CC', 'SPEED UNREASONABLE/CC', 'SPEEDING/CC', 'SPEEDING/SCHOOL ZONE/CC', 'SPITTING IN PUBLIC/CC', 'STALKING', 'STATE OF EMER PROCLAIM/VIOL', 'STATE OF EMER PROCLAM/VIOL', 'STOP SIGN/YIELD SIGN', 'STOP SIGN/YIELD SIGN/CC', 'STOPPING VEH IN ROADWAY', 'STOPPING, STANDING OR PARKING PROHIBITED', 'TAIL LAMP/LICENSE PLATE', 'TATTOOING MINORS', 'TEEN CLUB LICENSE REQUIRED', 'TELECOMMUNICATIONS/AVOID PAY', 'TERRORIZING', 'TERRORIZING/CC', 'TEXT MESSAGING PROHIBITED', 'THEFT $50-$200 ALL OTHER', 'THEFT $50-$200 AUTO PARTS ACC', 'THEFT $50-$200 COIN-OP MACHINE', 'THEFT $50-$200 FROM AUTO', 'THEFT $50-$200 FROM BLDG', 'THEFT $50-$200 POCKET PICKING', 'THEFT $50-$200 PURSE SNATCHING', 'THEFT $50-$200 SHOPLIFTING', 'THEFT $50-200 BICYCLES', 'THEFT AUTO/RECOVERY ONLY', 'THEFT BY EMBEZZLEMENT', 'THEFT COUNTERFEITING', 'THEFT FRAUD ACQU RENTAL AUTO', 'THEFT OF A BUSINESS RECORD', 'THEFT OF A FIREARM', 'THEFT OF ANIMALS', 'THEFT OF ASSETS FROM AGED / DISABLED PERSON', 'THEFT OF CABLE TV SERVICES/CC', 'THEFT OF COPPER OR OTHER METALS', 'THEFT OF DOGS', 'THEFT OF GOODS', 'THEFT OF LIVESTOCK', 'THEFT OF MOTOR VEHICLE', 'THEFT OF PETROLEUM PRODUCTS', 'THEFT OF TRAILER', 'THEFT OF USED BUILDING COMPONENT', 'THEFT OF UTILITIES', 'THEFT OF UTILITY PROPERTY', 'THEFT OF UTILITY SERVICE/CC', 'THEFT OF VEHICLE FUEL', 'THEFT OIL &amp; GAS EQUIPMENT', 'THEFT OTHER MOTOR VEHICLE', 'THEFT OVER $200 ALL OTHER', 'THEFT OVER $200 AUTO PARTS ACC', 'THEFT OVER $200 BICYCLES', 'THEFT OVER $200 COIN-OP MACHIN', 'THEFT OVER $200 FROM AUTO', 'THEFT OVER $200 FROM BLDG', 'THEFT OVER $200 POCKET PICKING', 'THEFT OVER $200 PURSE SNATCH', 'THEFT OVER $200 SHOPLIFTING', 'THEFT PIGEON DROP $50-$200', 'THEFT PIGEON DROP OVER $200', 'THEFT UNDER $50 ALL OTHERS', 'THEFT UNDER $50 AUTO PARTS ACC', 'THEFT UNDER $50 BICYCLES', 'THEFT UNDER $50 COINOP MACHINE', 'THEFT UNDER $50 FROM AUTO', 'THEFT UNDER $50 FROM BLDG', 'THEFT UNDER $50 FROM MOTOR VEH', 'THEFT UNDER $50 POCKET PICKING', 'THEFT UNDER $50 PURSE SNATCHIN', 'THEFT UNDER $50 SHOPLIFTING', 'THEFT UU ACCESS CARD', 'THEFT UU ACCESS CARD $50-$200', 'THEFT UU ACCESS CARD OVER $200', 'THEFT UU ACCESS CARD UNDER $50', 'THEFT/IDENTITY', 'THEFT/MISD/CC', 'THEFT/MISD/SHOPLIFTING/CC', 'THREATENING PUBLIC OFFICIAL', 'TOBACCO/SALE OF TO A MINOR/CC', 'TRAFFIC LAWS APPLY TO PERSONS ON BICYCLES', 'TRAFFICKING CHILDREN FOR SEXUAL PURPOSES', 'TRANSACTIONS INVOLVING PROCEEDS FROM DRUG OFFENSES', 'TRESPASS/SCHOOL GRND', 'TRESPASSING', 'TRESPASSING ON BREC PARKS', 'TRUANCY BY SCHOOL AGE CHILD', 'TRUANCY/GUARDIAN DUTY/PROHIBIT', 'TRUENTS/CC', 'TURN R/L REQUIRED/CC', 'TURNS NOT ALLOWED/CC', 'U TURN LIMITATIONS/CC', 'UNATTENDED MOTOR VEHICLES', 'UNATTENDED VEHICLE/CC', 'UNAU ENTRY BUSINESS', 'UNAU ENTRY CRIT INFRASTRUCTURE', 'UNAU ENTRY INHAB DWELLING', 'UNAU INTERCEP CABLE TV', 'UNAU ORDERING OF GOODS/SERVICE', 'UNAU POSS/ALCOHOL PUB SCHOOL', 'UNAU REMOVAL OF A MV', 'UNAU REMOVAL OF SHOPPING CARTS', 'UNAU REMOVAL SHOP CART', 'UNAU USE OF FOOD STAMPS', 'UNAU USE OF MOTOR VEHICLE', 'UNAU USE/MOVEABLE/CC', 'UNAUTH ENTRY OF DWELLING DURING EMERGENCY', 'UNAUTH ENTRY UPON RAILROAD PROPERTY', 'UNAUTH USE/MOVABLE', 'UNLAW USE PICT ID TO ENTER ALC/CC', 'UNLAWFUL CONSUMPTION OF ALC BY PERSON UNDER 21', 'UNLAWFUL ENTRY INTO BAR/LOUNGE/CC', 'UNLAWFUL ENTRY OF CASINO PERSONS UNDER 21', 'UNLAWFUL ENTRY/PREM/CC', 'UNLAWFUL OWNERSHIP OF DOGS', 'UNLAWFUL PRESENCE OF SEXUALLY VIOLENT PREDATOR', 'UNLAWFUL PROD,MAN,DIST,POSS, OF FRAUD DOCS, IDENT', 'UNLAWFUL PURCHASE ALCO BEV', 'UNLAWFUL REFUSAL TO SUBMIT TO CHEMICAL TEST', 'UNLAWFUL SALE/TOBACCO UNDER 18', 'UNLAWFUL USE OF BODY ARMOR', 'UNLAWFUL USE STATE ISSUED ID TO GAMBLE', 'UNLAWFUL/USE/LASER/ON POLICE', 'UNLAWFULLY PRESCRIBING/DISPENSING CDS', 'UNNECESSARY NOISE/VEHICLE/CC', 'UNREGISTERED FIREARM DEALING', 'UNSECURED LOAD/CC', 'URINATING IN PUBLIC/CC', 'USE OF FORGED ACADEMIC RECORDS', 'USE OF LASER POINTER', 'VAGRANCY', 'VAGRANCY/CC', 'VANDALISM/INSTITUTION', 'VEH NEG INJURING/CC', 'VEH TRESPASS', 'VEHICLE ENTERING HIGHWAY FROM PRIVATE ROAD', 'VIDEO VOYEURISM', 'VIOL CDS LAW NEAR SCHOOL', 'VIOL FIREARM FREE ZONE', 'VIOL OF PROTECTIVE ORDERS', 'VIOL WINE, BEER, LIQUOR ORDINANCE', 'VIOLATION OF PROB &amp; PAROLE', 'WARRANT/BENCH WARRANT', 'WINDOW TINT / OBSCURING VIEW PROHIBITED', 'WRONGFUL USE OF PUB PROPERTY', 'YIELD/PASSING EMERGENCY VEHICLE']</t>
         </is>
@@ -1069,12 +1121,18 @@
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
+        <v>3796</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="V9" t="n">
         <v>4392521</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>54056</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t xml:space="preserve">['1   DALRYMPLE', '1  DAIRYMPLE DR', '1  DAIRYMPLE ST', '1  DALRYMPLE', '1  DALRYMPLE DR', '1  DARLYMPLE DR', '1  DARYMPLE', '1  RUE SORBONNE', '1  RUE SORBONNE ST', '1 S AMITE DR', '1 W FRATERNITY DR', '1 W LAKESHORE DR', '10   DALRYMPLE DR', '10  DALRYMPLE DR', '10  GOVERNMENT ST', '10  RUE TOULOUSE ST', '100   LEE', '100   RIVER RD', '100   SHARP RD', '100   SKIP BERTMAN DR', '100   STANFORD AV', '100   TAFT', '100   TOWER', '100   TOWER DR', '100  12TH ST', '100  22ND AV', '100  3RD ST', '100  AMHERST AV', '100  APARTMENT COURT DR', '100  ASTER ST', '100  BEDFORD ST', '100  BELLEWOOD DR', '100  BOB PETIT BL', '100  BRICE ST', '100  BROADMOOR AV', '100  CAMPUS LAKE RD', '100  CHATSWORTH ST', '100  CHOCTAW DR', '100  CLOUD DR', '100  COMMUNITY COLLEGE DR', '100  CONVENTION', '100  CONVENTION ST', '100  COURSEY BL', '100  CYPRESS DR', '100  DALRYMPLE', '100  DALRYMPLE DR', '100  DARYMPLE', '100  DELPHINE ST', '100  DOROTHY DIX DR', '100  E BOYD ST', '100  EAST BL', '100  EAST BOYD ST', '100  EAST DR', '100  EAST I-10 HW', '100  EAST I-12', '100  EAST I-12 HW', '100  EDDIE ROBINSON', '100  EDDIE ROBINSON DR', '100  EDDIE ROBINSON SR DR', '100  ELLWOOD ST', '100  ELMER AV', '100  ELTON C HARRISON DR', '100  EVERGREEN DR', '100  EVERGREEN ST', '100  FIELD HOUSE DR', '100  FLORIDA', '100  FLORIDA BL', '100  FLORIDA ST', '100  FRANCE ST', '100  G LEON NETTERVILLE DR', '100  GARDERE LN', '100  GOTTLIEB ST', '100  GOVERNMENT ST', '100  GRETA ST', '100  HAZEL ST', '100  HEARTHSTONE AV', '100  HEATHERWOOD DR', '100  HELEN BARRON ST', '100  HENRY E COBB ST', '100  HOLMES DR', '100  I-10', '100  I-110 HW', '100  JASMINE BL', '100  JENNIFER JEAN AV', '100  JULIA ST', '100  KENILWORTH DR', '100  KENILWORTH PK', '100  LAFAYETTE ST', '100  LAFEYETTE ST', '100  LAUREL', '100  LAUREL ST', '100  LEE', '100  LEE DR', '100  LITTLE JOHN DR', '100  LOBDELL AV', '100  LONGBOW DR', '100  LOUISE ST', '100  LSU AV', '100  MAIN ST', '100  MAXIMILIAN ST', '100  MAXIMILLIAN ST', '100  MAYFLOWER', '100  MAYFLOWER ST', '100  MCDONALD DR', '100  MCGEHEE DR', '100  N 4TH ST', '100  N. 21ST ST', '100  N3RD', '100  NAPOLEON ST', '100  NORTH BL', '100  NORTH BT', '100  NORTH ST', '100  NORTH STADIUM DR', '100  OGDEN DR', '100  OKLAHOMA ST', '100  RIVER RD', '100  S. STADIUM DR', '100  SECURITY LN', '100  SHADOWS BEND DR', '100  SHARP BL', '100  SHARP LN', '100  SHARP RD', '100  SHERWOOD FOREST BL', '100  SKIP BERTMAN', '100  SKIP BERTMAN DR', '100  SOUTH BL', '100  SOUTH I-110 HW', '100  SPANISH TOWN RD', '100  ST FERDINAND ST', '100  ST LOUIS ST', '100  ST VINCENT DE PAUL PL', '100  ST. CHARLES ST', '100  STANFORD AV', '100  STARING LN', '100  STEELE RD', '100  SUNSET BL', '100  TAFT ST', '100  TAYLOR ST', '100  THIRD ST', '100  THOMAS RD', '100  TOWER', '100  TOWER DR', '100  VAN BUREN ST', '100  VETA ST', '100  W POLK ST', '100  WEST I-10 HW', '100  WEST I-12 HW', '100  WESTMORELAND DR', '100  WOODDALE BL', '100 E AIRPORT DR', '100 E BOYD', '100 E BOYD AV', '100 E BOYD DR', '100 E BOYD HW', '100 E BOYD ST', '100 E BUCHANAN ST', '100 E CHIMES', '100 E CHIMES ST', '100 E FRATERNITY LN', '100 E GARFIELD ST', '100 E GRANT DR', '100 E GRANT ST', '100 E HARDING ST', '100 E HARRISON ST', '100 E I-10', '100 E I-10 HW', '100 E I-12', '100 E I-12 HW', '100 E I10', '100 E I10 HW', '100 E I10 ST', '100 E I12', '100 E JOHNSON ST', '100 E MCKINLEY ST', '100 E PARKER BL', '100 E POLK AV', '100 E POLK ST', '100 E RIVER OAKS DR', '100 E ROOSEVELT RD', '100 E ROOSEVELT ST', '100 E STATE ST', '100 E WASHINGTON ST', '100 N 10TH ST', '100 N 11TH ST', '100 N 12TH ST', '100 N 13TH ST', '100 N 14 ST', '100 N 14TH ST', '100 N 15TH ST', '100 N 17TH ST', '100 N 18TH ST', '100 N 19TH ST', '100 N 20TH ST', '100 N 21ST CT', '100 N 21ST ST', '100 N 22ND ST', '100 N 23 RD ST', '100 N 23RD ST', '100 N 25 ST', '100 N 25TH ST', '100 N 26TH ST', '100 N 27TH ST', '100 N 3RD ST', '100 N 4TH ST', '100 N 5TH ST', '100 N 6TH ST', '100 N 8 ST', '100 N 8TH ST', '100 N 9TH ST', '100 N ACADIAN ST', '100 N ACADIAN TH', '100 N ARDENWOD DR', '100 N ARDENWOOD DR', '100 N BAXTER ST', '100 N DONMOOR AV', '100 N DONMOOR DR', '100 N EUGENE ST', '100 N FOSTER DR', '100 N I-110', '100 N I110', '100 N LAFAYETTE ST', '100 N LOBDELL AV', '100 N LOBDELL BL', '100 N RIVER RD', '100 N RIVER ROAD', '100 N STADIUM', '100 N STADIUM DR', '100 N STADIUM RD', '100 N STEVENDALE AV', '100 N THIRD ST', '100 S 10TH ST', '100 S 11TH ST', '100 S 12TH ST', '100 S 13TH', '100 S 13TH ST RD', '100 S 14TH ST', '100 S 15TH ST', '100 S 16TH ST', '100 S 17TH', '100 S 18TH ST', '100 S 20TH ST', '100 S 21ST ST', '100 S 22ND ST', '100 S ACADIAN TH', '100 S ARDENWOOD DR', '100 S DONMOORE AV', '100 S EUGENE ST', '100 S FAIRFAX DR', '100 S FLANNERY DR', '100 S FLANNERY RD', '100 S FOSTER DR', '100 S I-110', '100 S I-110 HW', '100 S I110', '100 S I110 HW', '100 S RIVER  RD', '100 S RIVER RD', '100 S SHERWOOD FOREST BL', '100 S STADIUM', '100 S STADIUM DR', '100 S STADIUM RD', '100 S TOWER', '100 S TOWER DR', '100 S WOODDALE AV', '100 S WOODDALE BL', '100 W BUCHANAN ST', '100 W CHIMES', '100 W CHIMES ST', '100 W FRAT LN', '100 W GARFIELD ST', '100 W GRANT ST', '100 W HARDING BL', '100 W HARDING ST', '100 W HARRISON ST', '100 W I-10 AV', '100 W I-12', '100 W I10', '100 W I12', '100 W I12 HW', '100 W INTERSTATE 12 HW', '100 W JOHNSON', '100 W JOHNSON ST', '100 W LAKESHORE DR', '100 W LEE DR', '100 W LEE ST', '100 W MCKINLEY ST', '100 W PARKER', '100 W PARKER BL', '100 W PARKER RD', '100 W POLK ST', '100 W ROOSEVELT ST', '100 W STATE ST', '100 W WASHINGTON ST', '1000   BOB PETTIT BL', '1000   BOB PETTIT DR', '1000   PROGRESS ST', '1000  37TH ST', '1000  38TH ST', '1000  48TH ST', '1000  AIRLINE HW', '1000  ASTER ST', '1000  AVE B ST', '1000  BAIRD AV', '1000  BARANCO DR', '1000  BARANCO ST', '1000  BOB PETIT', '1000  BOB PETIT DR', '1000  BOB PETIT ST', '1000  BOB PETTIT AV', '1000  BOB PETTIT BL', '1000  BOB PETTIT DR', '1000  BOB PETTIT ST', '1000  BOB PETTITE AV', '1000  BOB PETTITE DR', '1000  BOB PRTTIT BL', '1000  BOB PTTTIT BL', '1000  BRIGHTSIDE', '1000  BRIGHTSIDE DR', '1000  BRIGHTSIDE LN', '1000  CAMELIA ST', '1000  CAPITOL ACCESS RD', '1000  CARDINAL ST', '1000  CENTRAL RD', '1000  CHARLES T SMITH DR', '1000  CHEVELLE DR', '1000  CHIPPEWA ST', '1000  CHOCTAW DR', '1000  COLUMBUS DUNN DR', '1000  COLUMBUS DUNN ST', '1000  CONVENTION ST', '1000  COURSEY BL', '1000  EAST BL', '1000  EAST I-10 HW', '1000  EUROPE ST', '1000  FIG ST', '1000  FLORIDA', '1000  FLORIDA BL', '1000  FLORIDA ST', '1000  FOREST OAK DR', '1000  GOVERNMENT', '1000  GOVERNMENT ST', '1000  HARDING BL', '1000  HASTINGS ST', '1000  HIGHLAND RD', '1000  I-10 EAST BL', '1000  I-110', '1000  IRIS ST', '1000  JENNIFER JEAN AV', '1000  JENNIFER JEAN DR', '1000  JENNIFER JEAN ST', '1000  JULIA ST', '1000  LAUREL AV', '1000  LAUREL ST', '1000  LEE DR', '1000  LEE DRIVE ST', '1000  LETTSWORTH ST', '1000  LOUISE ST', '1000  LOUISIANA AV', '1000  MAIN', '1000  MAIN ST', '1000  MARILYN BL', '1000  MARSH ST', '1000  MAXIMILLIAN ST', '1000  MCCLUNG ST', '1000  MONET DR', '1000  MONET ST', '1000  MYRTLE', '1000  MYRTLE ST', '1000  N 23 ST', '1000  N DONMOOR DR', '1000  N/B I-110 @ WELLER AVE', '1000  NICHOLSON', '1000  NICHOLSON DR', '1000  NICHOLSON ST', '1000  NORTH BL', '1000  NORTH I-110 HW', '1000  NORTH ST', '1000  OSPREY AV', '1000  OWL AV', '1000  OWL ST', '1000  PARK BL', '1000  PITTSBURG', '1000  PITTSBURG AV', '1000  PROGRESS RD', '1000  PROGRESS ST', '1000  RIVER RD', '1000  RODIN DR', '1000  ROSENWALD RD', '1000  SCENIC HW', '1000  SEYBURN DR', '1000  SHARP LN', '1000  SHARP RD', '1000  SHERWOOD FOREST BL', '1000  SIMMS ST', '1000  SOUTH BL', '1000  SOUTH I-110 HW', '1000  SPANISH TOWN RD', '1000  SPARROW ST', '1000  ST CHARLES ST', '1000  ST ROSE AV', '1000  STANFORD AV', '1000  STARING LN', '1000  SWAN AV', '1000  TERRACE', '1000  TERRACE ST', '1000  THOMAS H DELPIT DR', '1000  TOWNSLEY ST', '1000  VALCOUR DR', '1000  WAVERLY DR', '1000  WEST I-10 HW', '1000 E BOYD DR', '1000 E BUCHANAN ST', '1000 E HARRISON ST', '1000 E I-10', '1000 E I10', '1000 E I10 HW', '1000 E JOHNSON ST', '1000 E POLK ST', '1000 E WASHINGTON ST', '1000 N 19TH ST', '1000 N 20TH ST', '1000 N 222ND ST', '1000 N 22ND ST', '1000 N 23 ST', '1000 N 23RD ST', '1000 N 25TH ST', '1000 N 28 ST', '1000 N 28TH ST', '1000 N 29TH ST', '1000 N 30TH ST', '1000 N 32ND ST', '1000 N 35TH ST', '1000 N 36TH ST', '1000 N 37TH ST', '1000 N 38TH', '1000 N 38TH ST', '1000 N 39TH', '1000 N 39TH ST', '1000 N 40TH ST', '1000 N 44TH ST', '1000 N 46TH ST', '1000 N 47TH ST', '1000 N 48TH ST', '1000 N DONMOOR AV', '1000 N DONMOOR BL', '1000 N DONMOOR DR', '1000 N FOSTER DR', '1000 N I-110 HW', '1000 N I-110 OT', '1000 N I110 OT', '1000 N LITTLE JOHN DR', '1000 N SABINE DR', '1000 S 15TH', '1000 S 15TH ST', '1000 S 16TH ST', '1000 S ACADIAN TH', '1000 S FOSTER', '1000 S FOSTER DR', '1000 S FOSTER ST', '1000 S I 110', '1000 S I-110', '1000 S I-110 OT', '1000 S I110', '1000 S RIVER RD', '1000 S SHERWOOD FOREST BL', '1000 S TAMARI', '1000 W GARFIELD ST', '1000 W I - 10', '1000 W I 10', '1000 W I-10', '1000 W I-10 HW', '1000 W I-10 OT', '1000 W I10', '1000 W LEE DR', '1000 W MOUNT PLEASANT RD', '1000 W ROOSEVELT ST', '10000  AIRLINE', '10000  AIRLINE BL', '10000  AIRLINE HIGHWAY', '10000  AIRLINE HW', '10000  AVE A ST', '10000  AVE B AV', '10000  AVE F AV', '10000  AVE H', '10000  AVE. J ST', '10000  AVENUE B ST', '10000  AVENUE C ST', '10000  AVENUE D AV', '10000  AVENUE D ST', '10000  AVENUE E ST', '10000  AVENUE F ST', '10000  AVENUE G ST', '10000  AVENUE H ST', '10000  AVENUE I', '10000  AVENUE I ST', '10000  AVENUE J ST', '10000  AVENUE K ST', '10000  AVENUE L', '10000  AVENUE L ST', '10000  AVENUE M ST', '10000  BETA DR', '10000  CASHEL AV', '10000  CELTIC DR', '10000  CHOCTAW DR', '10000  COURSEY BL', '10000  DAVID DR', '10000  DAWNADALE AV', '10000  DAWNADELE AV', '10000  ELM GROVE GARDEN DR', '10000  FLORIDA BL', '10000  FLORIDA BOULEVARD', '10000  GOODWOOD BL', '10000  GWENADELE AV', '10000  HWY 19', '10000  HYACINTH', '10000  MERGANZER AV', '10000  MERGANZER ST', '10000  MOLLYLEA DR', '10000  OLD HAMMOND HW', '10000  RED OAK', '10000  RED OAK DR', '10000  SCENIC HW', '10000  SCOTLAND AV', '10000  TAMS', '10000  TAMS DR', '10000 E POMONA DR', '10000 N MAGNA CARTA AV', '10000 S CHOCTAW DR', '10000 S PERDUE DR', '10001  AIRLINE HW', '10001  AVENUE F ST', '10001  FLORIDA BL', '10002  AVE I ST', '10002  AVENUE I ST', '10002  BOOKERLINE AV', '10002  FLORIDA BL', '10002  GOODWOOD BL', '10003  AVENUE H ST', '10004  CHANADIA DR', '10004  MAGNA CARTA PL', '10005  AVENUE E ST', '10005  AVENUE H ST', '10006  AVENUE I ST', '10008  AVE K', '10008  AVE L', '10008  AVE L AV', '10008  AVE L ST', '10008  AVENUE I ST', '10008  AVENUE L', '10008  AVENUE L AV', '10008  AVENUE L ST', '10008  AVENUE M ST', '10008  L AV', '10009  AVE H ST', '10009  AVENUE H ST', '1001  31ST ST', '1001  ASTER ST', '1001  CAMELIA AV', '1001  CAMELLIA AV', '1001  CAMELLIA ST', '1001  COLUMBUS DUNN AV', '1001  CONVENTION ST', '1001  DREHR AV', '1001  FUQUA ST', '1001  N.23RD ST', '1001  NORTH BL', '1001  PARK BL', '1001  PROGRESS ST', '1001  SCENIC HW', '1001 N 22ND ST', '1001 N 23 ST', '1001 N 23RD', '1001 N 23RD ST', '1001 N 29TH ST', '1001 N 31ST', '1001 N 31ST ST', '10010  AVENUE F ST', '10010  COURSEY BL', '10010  DAVID DR', '10010  KAREN DR', '10010  SOMBRERO AV', '10010 N MAGNA CARTA PL', '10012  AVE H AV', '10012  EL CAMINO AV', '10012 N MAGNA CARTA BL', '10013  EL CAMINO AV', '10013  MAMMOTH AV', '10019 S PERDUE AV', '1002  BROMLEY DR', '1002  JULIA ST', '1002  PARKER ST', '1002  TIMBERSIDE DR', '1002 N 31ST ST', '1002 S 16TH ST', '10020  A AV', '10020  AVE E ST', '10020  AVE H ST', '10020  AVENUE H ST', '10020  FLORIDA BL', '10020  GAMMA DR', '10020  MAMMOTH AV', '10021  ALPHA DR', '10021  CUYHANGA ST', '10021 W TAMS DR', '10022  CUYHANGA PK', '10022  FLORIDA', '10022 E TAMPA DR', '10022 N MAGNA CARTA PL', '10023  FLORIDA BL', '10023  MAMMOTH AV', '10024  AVENUE B ST', '10024 N PARKVIEW DR', '10025  AVE H', '10025  AVE H AV', '10025  AVENUE H ST', '10025  AVENUE I ST', '10025  EL CAMINO AV', '10027  BOOKERLINE DR', '10027  CAROLINA ST', '10027 E POMONA DR', '10027 W DARRYL PK', '1003  AVE L ST', '1003  BOB PETIT', '1003  BOB PETIT BL', '1003  BOB PETIT DR', '1003  BOB PETITE ST', '1003  BOB PETTIE', '1003  BOB PETTIT', '1003  BOB PETTIT AV', '1003  BOB PETTIT BL', '1003  BOB PETTIT DR', '1003  RITTNER DR', '1003 N 30TH ST', '1003 N 32ND ST', '10030  DAVID DR', '10030  KAREN DR', '10030 E POMONA DR', '10031  RHINE AV', '10032  AVE I', '10032  AVE I AV', '10032  AVE I ST', '10032  AVENUE H ST', '10032  AVENUE I', '10032  AVENUE I ST', '10032  KENLEE DR', '10033  AVE J ST', '10033  AVENUE J ST', '10033 E POMONA DR', '10034  AVE B AV', '10034  AVENUE E ST', '10034  CUYHANGA PK', '10035  GREAT SMOKEY AV', '10036  AVENUE H ST', '10037  AVE H', '10037  AVE H AV', '10037  AVENUE D ST', '10037  AVENUE H', '10037  AVENUE H AV', '10037  AVENUE H ST', '10038  AVE K AV', '10038  AVE K ST', '10038  AVENUE K AV', '10038  AVENUE K ST', '10038  BOOKERLINE AV', '10038  FLORIDA BL', '10038  KINGLET DR', '10038 S CHOCTAW', '10039  BOOKERLINE AV', '10039  FLORIDA BL', '1004  CHANADIA DR', '1004  COTTON ST', '1004  DEAN LEE DR', '1004  JULIA ST', '1004  PATRICIA ST', '1004  RITTINER DR', '1004 N 30TH ST', '1004 N 32ND ST', '1004 N 35TH ST', '1004 N 47TH ST', '10040 S CHOCTAW DR', '10041  AVE J AV', '10041  AVENUE J ST', '10041  FLORIDA BL', '10041  RHINE AV', '10042  BETA DR', '10043  MAMMOTH AV', '10043  MAMMOTH DR', '10043  SUNNY CLINE DR', '10043 E CORONADO DR', '10044  ALPHA DR', '10044  AVENUE A ST', '10044  AVENUE I ST', '10044 W TAMS DR', '10045  AVENUE G AV', '10045  AVENUE G ST', '10045  FLORIDA', '10045  FLORIDA BL', '10045  GWENADALE', '10045  GWENADALE AV', '10045  GWENADALE DR', '10045  GWENADELE', '10045  GWENADELE AV', '10045  GWENADELE DR', '10045  GWENADELLE', '10045  GWENADELLE DR', '10045  GWENEDALE AV', '10045  GWENEDALE DR', '10046 E POMONA DR', '10047  CHANADIA DR', '10047  FLORIDA BL', '10049  AVE H ST', '10049  EL CAMINO AV', '10049  FLORIDA BL', '10049 S PERDUE AV', '1005  ARCADIA DR', '1005  CHOCTAW DR', '1005  OSPREY AV', '1005  PROGRESS RD', '1005  PROGRESS ST', '1005  RITTNER DR', '1005 E POLK ST', '1005 N 30TH ST', '1005 N 32ND ST', '1005 N 39TH ST', '10050  ELM GROVE GARDEN DR', '10050  GREAT SMOKEY AV', '10050  HYACINTH AV', '10051  FLORIDA BL', '10053  BETA DR', '10055  AVENUE F', '10055  AVENUE F ST', '10055  DAVID DR', '10058  AVE K', '10058  AVE K ST', '10058  AVENUE K AV', '10058  AVENUE K ST', '10058 S CHOCTAW', '10058 S CHOCTAW DR', '10059  AVENUE M ST', '1006  CAMELIA AV', '1006  WAVERLY DR', '1006 N 46TH ST', '1006 S 16TH ST', '10060  DAVID DR', '10060  FLORIDA BL', '10064  ELM GROVE GARDEN', '10064  ELM GROVE GARDEN DR', '10064  ELM GROVE GARDEN ST', '10064  ELMGROVE ST', '10064  RED OAK  DR', '10064  RED OAK DR', '10065  AVENUE G ST', '10065  OLD HAMMOND HW', '10065 W TAMS BL', '10066 E CORONADO DR', '10066 S CHOCTAW DR', '10066 W TAMS', '10066 W TAMS DR', '10067  AVENUE E ST', '10067  EL CAMINO AV', '10067  ELM GROVE GARDEN DR', '10067 W TAMS DR', '10068  GREAT SMOKEY AV', '10068  GREENWELL SPRINGS RD', '10069  AVENUE A ST', '1007  KENILWORTH PK', '1007  PARK BL', '1007  PROGRESS ST', '1007 E JOHNSON ST', '1007 N 32ND ST', '1007 N 47TH ST', '10070  AVE K ST', '10070  AVENUE D AV', '10070  FLORIDA BL', '10073  AVENUE A ST', '10073  MAMMOTH AV', '10074 S CHOCTAW HW', '10075  AVE J', '10075  AVE J AV', '10075  AVENUE J AV', '10075  AVENUE J ST', '10076  BOWMAN AV', '10076  BOWMAN ST', '10077  AVE D AV', '10077  AVENUE D ST', '10078 S CHOCTAW DR', '1008  AVE L ST', '1008  CAMELIA AV', '1008  CAMELLIA AV', '1008  WINDINGWAY DR', '10080  AVENUE F DR', '10080  KAREN DR', '10081  AVENUE F ST', '10081  RUNNYMEDE AV', '10082  FLORIDA BL', '10082 E POMONA DR', '10083  OLD HAMMOND HW', '10083 W DARRYL PK', '10084  AVENUE K ST', '10084  GREAT SMOKEY AV', '10085  AVENUE E ST', '10085  GREAT SMOKEY AV', '10085  GREAT SMOKEY DR', '10086  CUYHANGA PK', '10086  FLORIDA BL', '10087  ALPHA DR', '10087  AVENUE B ST', '10087  BETA DR', '10088  AVE G ST', '10088  AVENUE G', '10088  AVENUE G ST', '10088  GAMMA DR', '1009 N 32ND ST', '10090  BIG BEND AV', '10090  FLORIDA', '10090  FLORIDA BL', '10091  AVE B AV', '10091  AVENUE B ST', '10092  AVENUE M ST', '10094  AVENUE B ST', '10095  AVE A ST', '10095  AVE.  A', '10095  AVENUE A ST', '10097  AVE L', '10097  AVE L AV', '10097  AVENUE L AV', '10097  AVENUE L ST', '101  BEVERLY DR', '101  FLORIDA ST', '101  FRANCE ST', '101  GOVERNMENT ST', '101  NORTH BL', '101  NORTH ST', '101  ST FERDINAND ST', '101 S FOSTER DR', '101 W STATE ST', '1010  BAYBERRY ST', '1010  BOB PETTIT BL', '1010  FLORIDA ST', '1010  JULIA ST', '1010  SPANISH TOWN RD', '1010 S ACADIAN TH', '10100  AVE C AV', '10100  AVE E AV', '10100  AVENUE H ST', '10100  AVENUE I', '10100  AVENUE I AV', '10100  AVENUE I ST', '10100  AVENUE J', '10100  AVENUE K ST', '10100  AVENUE M ST', '10100  BLACK OAK DR', '10100  COURSEY BL', '10100  DARADELL AV', '10100  DARRYL DR', '10100  DAVID DR', '10100  FLETCHER WILLIAMS DR', '10100  FLETCHER WILLIAMS RD', '10100  FLORIDA BL', '10100  GOODWOOD', '10100  GOODWOOD AV', '10100  GOODWOOD BL', '10100  GREENWELL SPRINGS RD', '10100  HYACINTH AV', '10100  JANICE ST', '10100  MERGANZER AV', '10100  MOLLYLEA DR', '10100  OLD HAMMOND HW', '10100  SUNNY CLINE DR', '10100 N HARVEY DR', '10100 S CHOCTAW DR', '10101  COURSEY BL', '10101  RUNNYMEDE AV', '10101  SEIGAN LN', '10106  AMBROSE CT', '10106  AVE. I', '10106  AVENUE I ST', '10107  AVE F AV', '10107  AVENUE F ST', '10108  AVENUE G ST', '10108  AVENUE K ST', '10108  G AV', '10109  AVENUE B AV', '10109  AVENUE B ST', '10109  AVENUE J ST', '10109  AVENUE M ST', '1011  ELIZABETH DR', '1011  MARWEDE AV', '1011 N 32ND ST', '1011 N 46TH ST', '1011 N BON MARCHE', '1011 N BON MARCHE DR', '1011 W ROOSEVELT ST', '10110  AVENUE F ST', '10110  COURSEY BL', '10111  AVENUE J AV', '10111  AVENUE J ST', '10111  FLORIDA BL', '10111  GWENADALE AV', '10111  GWENADELE', '10111  GWENADELE AV', '10111  GWENADELLE DR', "10111  KNIGHT'S BRIDGE CT", '10113  AVENUE I ST', '10113  MOLLYLEA DR', '10114  MOLLYLEA DR', '10114 S RIVER OAKS DR', '10115  AVEJ ST', '10115  AVENUE J ST', '10115  BALLINA AV', '10115  MERGANZER AV', '10116  MERGANZER AV', '10116 N MAGNA CARTA PL', '1012  PROGRESS ST', '1012  TIMBERSIDE DR', '1012  WESTMORELAND DR', '1012 N 48TH ST', '1012 S ACADIAN TH', '10120  AVE I', '10120  AVENUE I ST', '10120  AVENUE J ST', '10120  AVENUE L ST', '10120  BOWMAN AV', '10120  DARADELE AV', '10120  FLORIDA BL', '10120  RED OAK DR', '10120  WHITE OAK', '10120  WHITE OAK DR', '10121  CHANADIA DR', '10122  AVE C ST', '10122  AVENUE C ST', '10122  AVENUE F', '10122  AVENUE F AV', '10122  AVENUE F ST', '10122  KNIGHTS BRIDGE CT', '10122  MAMMOTH AV', '10122 N MAGNA CARTA PL', '10123  AVE F', '10123  AVE F AV', '10123  AVEENUE F ST', '10123  AVENUE E ST', '10123  AVENUE F', '10123  AVENUE F ST', '10123  BLACK OAK DR', '10123  GRANDEAUR DR', '10123  GRANDEUR DR', '10124  CLETUS DR', '10124  RHAPSODY', '10125  AVE C ST', '10125  BALLINA AV', '10125  BOWMAN AV', '10125  DARRYL DR', '10125  GOODWOOD BL', '10125  MAMMOTH AV', '10125  MOLLYLEA DR', '10125  RUNNYMEDE AV', '10126  AVENUE I ST', '10126  GERANDEUR DR', '10127  CASHEL AV', '10127  FLORIDA BL', '10127  RUNNYMEDE AV', '10128  FLORIDA BL', '10129  AVENUE H ST', '1013  BECKENHAM DR', '1013  BOB PETIT BL', '1013  GRANDEUR DR', '1013 N 44TH ST', '10130  AVE J AV', '10130  AVE J ST', '10130  AVENUE J AV', '10130  AVENUE J ST', '10130  BOWMAN AV', '10130  COURSEY', '10130  COURSEY BL', '10130  GREENWELL SPRINGS RD', '10130  RUNNYMEDE AV', '10131  GRANDEUR DR', '10131  GRANDUER DR', '10131  KNIGHTS BRIDGE CT', '10132  AVENUE H AV', '10132  AVENUE H ST', '10133  BOWMAN AV', '10134  AVE I ST', '10134  AVENUE I ST', '10134  DARRYL DR', '10134  FLORIDA BL', '10134 W DARRYL PK', '10135  AVENUE G ST', '10135  BALLINA AV', '10135  MOLLYLEA DR', '10135 S RIVER OAKS DR', '10136  FLORIDA BL', '10136  MOLLYLEA DR', '10139  AIRLINE HW', '1014  FOX LANE DR', '1014  FOXLANE DR', '1014  PROGRESS', '1014  PROGRESS ST', '1014  SENETTE ST', '1014  SPARROW ST', '1014  TARA BL', '1014  WINDINGWAY DR', '1014 S 18TH ST', '10140  JANICE ST', '10140  WHITE OAK DR', '10142  MOLLYLEA DR', '10143  GRANDEUR DR', '10144  AVE M AV', '10144  AVENUE M ST', '10144  GERALD DR', '10145  AVENUE E ST', '10145  BALLINA', '10145  BALLINA AV', '10145  DARRYL DR', '10145  FLORIDA BL', '10145  MAMMOTH AV', '10145  RED OAK DR', '10148  AVE J AV', '10148  AVENUE J ST', '10148  AVENUE K ST', '10148  GREENWELL SPRINGS RD', '10148 N HARVEY DR', '10149  AVE G', '10149  AVENUE G ST', '1015  BAYBERRY AV', '1015  COLUMBUS DUNN DR', '1015  OSPREY AV', '1015  RICHLAND AV', '1015  SEYBURN DR', '1015 E POLK ST', '1015 W LEE DR', '10150  AIRLINE DR', '10150  AIRLINE HW', '10152  PLAZA AMERICANA DR', '10154  BOWMAN AV', '10154  BOWMAN ST', '10154 S CHOCTAW DR', '10155  AMBROSE CT', '10155  AVE E ST', '10155  BLACK OAK DR', '10155  GOODWOOD BL', '10155  MAMMOTH AV', '10155  TAMS DR', '10155  TAMS ST', '10157  CASHEL AV', '1016  COLUMBUS DUNN DR', '1016 W GARFIELD ST', '10160  AIRLINE HW', '10160  BAYNARD ST', '10160  BIG BEND AV', '10160  DARRYL DR', '10164  DEVONSHIRE DR', '10164  RHAPSODY DR', '10165  BLACK OAK DR', '10165  DARRYL DR', '10165  GERALD DR', '10168  AVENUE K AV', '10168  AVENUE M ST', '1017  SILVERWOOD DR', '1017 E POLK ST', '10172  AVE M ST', '10172  MAMMOTH AV', '10172  PATRIOT DR', '10174  AIRLINE HW', '10174  AVENUE F ST', '10175  AVENUE D ST', '10175  MAMMOTH AV', '10178  AVENUE H ST', '10179  AVE H ST', '1018  BOB PETIT BL', '1018  GREBE ST', '1018  TRAMMEL DR', '10180  PARKVIEW DR', '10185  FLORIDA BL', '10186 S CHOCTAW DR', '10188  AVE E', '10188  AVENUE E ST', '10188  FLORIDA BL', '10188  HYACINTH AV', '1019  CRESCENT DR', '1019  OSPREY AV', '1019  OSPREY ST', '1019 W GARFIELD ST', '10196  TWIN CEDARS', '10196  TWIN CEDARS ST', '10197  AVENUE H ST', '10198  AVENUE D ST', '10198  AVENUE F ST', '102   FRANCE ST', '102  FRANCE', '102  FRANCE ST', '102  MAYFLOWER ST', '102 S ACADIAN', '102 S ACADIAN TH', '1020  ABERDEEN AV', '1020  ARCADIA DR', '1020  MAIN ST', '1020  MALBROOK DR', '1020  MARLBROOK DR', '1020  MARSH ST', '1020 N 46TH ST', '1020 N 48TH ST', '1020 N ARDENWOOD DR', '1020 S FOSTER DR', '1020 S TINLEY DR', '10200  AIRLINE', '10200  AIRLINE HW', '10200  ALMOND ST', '10200  AVE D', '10200  AVE E ST', '10200  AVE J ST', '10200  AVENUE C ST', '10200  AVENUE D ST', '10200  AVENUE E', '10200  AVENUE E ST', '10200  AVENUE F AV', '10200  AVENUE H ST', '10200  AVENUE J ST', '10200  AVENUE L ST', '10200  BARBARA ST', '10200  CLETUS DR', '10200  COURSEY BL', '10200  DARRYL DR', '10200  ELAIN DR', '10200  FLETCHER WILLIAMS DR', '10200  FLETCHER WILLIAMS RD', '10200  GREENWELL SPRINGS RD', '10200  HWY 19 HW', '10200  JANICE ST', '10200  MERGANZER AV', '10200  MOLLYLEA DR', '10200  OLD HAMMOND HW', '10200  SCENIC HW', '10200  SCOTLAND AV', '10200  VETERANS MEMORIAL', '10200 N HARVEY DR', '10200 S CHOCTAW', '10201  AVE C', '10201  AVE K ST', '10201  AVENUE B ST', '10201  AVENUE C ST', '10201  AVENUE L ST', '10201  CASHEL DR', '10201  FLORIDA BL', '10201 E POMONA DR', '10203  BALLINA AV', '10204  AVENUE J ST', '10207  AVE J ST', '10207  AVENUE J ST', '10207  MAMMOTH AV', '10209  AVE M', '10209  AVE M AV', '10209  AVE M ST', '10209  AVENUE M', '10209  AVENUE M ST', '1021  BRAEBURN DR', '1021  OAKLEY DR', '1021  SHERWOOD FOREST BL', '1021  WOODHILL DR', '1021 N 36TH ST', '1021 N 37TH ST', '1021 N 44TH ST', '1021 S 15TH ST', '1021 W ROOSEVELT ST', '10210  AVE K', '10210  AVE K ST', '10210  AVE L', '10210  AVE L AV', '10210  AVE L ST', '10210  AVE. L ST', '10210  AVENUE K ST', '10210  AVENUE L', '10210  AVENUE L AV', '10210  AVENUE L ST', '10210  CANADA ST', '10210  L AV', '10212  AVENUE H ST', '10212  RHAPSODY DR', '10213  AVENUE G ST', '10213  BALLINA AV', '10213  BALLINA CT', '10215  RUNNYMEDE AV', '10216  AVENUE I ST', '10217  AVENUE I ST', '10217 N HARVEY DR', '10218  AVENUE I ST', '10219  CASHEL AV', '1022  BAIRD DR', '1022  PROGRESS ST', '1022  RODNEY DR', '1022  STEELE BL', '1022  SWAN AV', '1022  TIMBER SIDE', '1022  WODDALE BL', '1022  WOODDALE BL', '1022 S FOSTER DR', '10220  AV A AV', '10220  AVE J ST', '10220  AVENUE J ST', '10220  CANADA ST', '10220  FLORIDA BL', '10220  JANICE ST', '10221  ALMOND ST', '10221  PATRIOT DR', '10222 S PERDUE AV', '10223  BALLINA', '10223  CASHEL AV', '10224  AVE G AV', '10224  BARBARA ST', '10224  BLACK OAK DR', '10224  DARRYL DR', '10224  FLORIDA', '10224  FLORIDA BL', '10224  FLORIDA RD', '10224  GERALD DR', '10225  AVENUE H ST', '10225  DARRYL DR', '10225  FLORIDA BL', '10225  GERALD DR', '10225 W DARRYL DR', '10226  FLORIDA BL', '10227  CASHEL AV', '10228  FLORIDA BL', '10229  AVENUE L ST', '1023  ELM GROVE GARDEN DR', '1023  LAUREL ST', '1023  PARK BL', '1023  TIMBERSIDE', '1023  WOODSTONE DR', '1023  WOODVINE DR', '1023 N LOBDELL', '1023 N LOBDELL BL', '10230  MOLLYLEA DR', '10231  CASHEL AV', '10233  BALLINA AV', '10233  MOLLYLEA DR', '10234  FLORIDA BL', '10235  AVENUE J ST', '10235  BARBARA ST', '10235  BROWNING DR', '10236  AVE H AV', '10236  AVE H ST', '10236  AVE K AV', '10236  AVENUE H ST', '10236  AVENUE K ST', '10238  CANADA ST', '10238  TWIN CEDARS ST', '10239  CASHEL AV', '1024  EXECUTIVE PARK AV', '1024  FOXLANE DR', '1024  MAGNOLIA WOOD AV', '1024  MONET DR', '1024  PROGRESS RD', '1024  PROGRESS ST', '1024 N 28TH ST', '1024 N FOSTER DR', '1024 W GARFIELD ST', '1024 W ROOSEVELT ST', '10240  AVE E ST', '10240  AVE J ST', '10240  BARBARA ST', '10240  JANICE ST', '10241  AVENUE M ST', '10241  CASHEL AV', '10241  COURSEY BL', '10241 N HARVEY DR', '10243  BALLINA AV', '10244  FLORIDA BL', '10245  AIRLIINE HW', '10245  AIRLINE HW', '10245  AVE E ST', '10245  AVENUE B ST', '10245  AVENUE L ST', '10245  BLACK OAK DR', '10245  DARADELLE', '10245  GERALD DR', '10245  SUNNY CLINE DR', '10247  AVENUE D ST', '10247  MAMMOTH AV', '10247  MAMMOTH DR', '10248  BIG BEND AV', '10248  FLORIDA BL', '10249  CASHEL AV', '1025  AUDUBON DR', '1025  AUDUBON ST', '1025  CORA DR', '1025  EXECUTIVE PARK AV', '1025  GLENMORE AV', '1025  HIGHLAND PARK DR', '1025  LAUREL ST', '1025  LOUISIANA AV', '1025  LOUISIANA ST', '1025  MAGNOLIA WOOD AV', '1025  MAGNOLIA WOODS DR', '1025  MARILYN DR', '1025  PROGRESS RD', '1025  PROGRESS ST', '1025  RICHLAND AV', '1025  SEYBURN DR', '1025  TARA BL', '1025  WYLIE DR', '1025 N 30TH ST', '1025 N 31 ST', '1025 N 31ST ST', '1025 S ALAMEDA DR', '1025 W GARFIELD ST', '10250  AIRLINE HW', '10250  AVENUE G ST', '10250  GOODWOOD BL', '10250  PLAZA AMERICANA', '10250  PLAZA AMERICANA DR', '10250  PLAZA AMERICANO DR', '10251  AVE E AV', '10251  AVENUE E AV', '10251  AVENUE E ST', '10252  AVE H ST', '10252  FLORIDA BL', '10254  GERALD DR', '10254  TWIN CEDARS ST', '10255  AVENUE G ST', '10255  MOLLYLEA DR', '10256  AVENUE F ST', '10256 S CHOCTAW DR', '10259  AIRLINE HW', '10259  RED OAK DR', '1026 E RIVER OAKS', '1026 E WASHINGTON AV', '1026 E WASHINGTON ST', '1026 N CARROLLTON AV', '10261  TWIN CEDARS ST', '10264  CLETUS DR', '10265  AV', '10265  AVE E', '10265  AVE E AV', '10265  AVE E HW', '10265  AVENUE E', '10265  AVENUE E ST', '10266 S CHOCTAW DR', '10268  AVENUE M ST', '10269  AIRLINE HW', '1027  ROUNDHILL DR', '1027 N 36TH ST', '1027 N 46TH ST', '1027 S TAMARI', '1027 W LEE DR', '10270  AIRLINE HW', '10271 N HARVEY DR', '10274  NEWCASTLE AV', '10275  AVE I AV', '10275  TAMS DR', '10276  AVENUE I ST', '10276  FLEMING ST', '10276  TAMS DR', '10276 S HAMPTON ST', '10278  GOODWOOD BL', '10278  TWIN CEDARS ST', '1028  CAMELIA AV', '1028  CAMELLIA AV', '1028 N 46TH ST', '1028 N SABINE DR', '10280  AVE I AV', '10280  AVENUE F ST', '10280  AVENUE I AV', '10280  AVENUE I ST', '10280  BROWNING DR', '10280  JANICE ST', '10288  JANICE ST', '10288  WHITE OAK DR', '10289  AIRLINE HW', '10289  PARKVIEW DR', '1029  BROMLEY DR', '1029 N 47TH ST', '1029 N SABINE DR', '10294  AVE D', '10294  AVENUE D', '10294  AVENUE D ST', '10296 S CHOCTAW DR', '103   FRANCE ST', '103  3RD ST', '103  BOB PETTIT AV', '103  FM 1571 OLD MILL ST', '103  FRANCE', '103  FRANCE ST', '103  MAYFLOWER DR', '1030  BALSAM AV', '1030  CENTRAL RD', '1030  OAKLEY DR', '1030  PARK BL', '1030 S EUGENE ST', '10300  AIRLINE HW', '10300  AVE G', '10300  AVE J ST', '10300  AVENUE E ST', '10300  AVENUE J ST', '10300  COURSEY BL', '10300  ELM GROVE GARDEN DR', '10300  GOODWOOD BL', '10300  LA HWY 61 (SCENIC)', '10300  MOLLYLEA DR', '10300  OLD HAMMOND HW', '10300  PARKVIEW DR', '10300  SCOTLAND AV', '10300 S CHOCTAW DR', '10300 S GIBBENS DR', '10301  COURSEY BL', '10305  AIRLINE HW', '10307 N MALL DR', '10309  MAMMOTH AV', '1031  COLUMBUS DUNN', '1031  COLUMBUS DUNN DR', '1031  KEED AV', '1031  SEYBURN DR', '1031  WOODHILL DR', '1031 N 47TH ST', '1031 S 16TH ST', '1031 W LEE DR', '10310  ELM GROVE GARDEN DR', '10311  PLAZA AMERICANA', '10311  PLAZA AMERICANA BL', '10311  PLAZA AMERICANA DR', '10311 S RIVER OAKS DR', '10313  AIRLINE HW', '10315  WHITE OAK DR', '10315 S PERDUE AV', '10315 S PURDUE DR', '10319  MAMMOTH AV', '10319  OLD HAMMOND HW', '10319  ZERLEE ST', '10319 N HARVEY DR', '1032  CENTRAL RD', '1032  COLUMBUS DUNN', '1032  TIMBERSIDE DR', '1032  TIMBERSIDE ST', '1032 N 30TH ST', '1032 N 46TH ST', '1032 S ACADIAN TH', '10320  BIRCHWOOD DR', '10320  MOLLYLEA DR', '10321  AIRLINE HW', '10322  CEDAR LN', '10322  CEDARLANE DR', '10322  CLETUS DR', '10322  LEBANON ST', '10322  TAMS DR', '10323 S RIVER OAKS DR', '10324  WHITE OAK DR', '10325  DARRYL DR', '10327  GREENWELLSPRINGS RD', '10328  AVENUE G ST', '10328  CINQUEFOIL AV', '10328  GOODWOOD BL', '10329  CINQUEFOIL AV', '1033  FLORA LN', '1033  LEYCESTER DR', '1033  OSPREY AV', '1033  SWAN AV', '1033  SWAN ST', '1033 N LEIGHTON DR', '10330  AIRLINE', '10330  AIRLINE HW', '10330  COURSEY BL', '10330  FLORIDA', '10330  FLORIDA BL', '10331  AIRLINE HW', '10331 W ALMOND DR', '10331 W ALMOND ST', '10332  AIRLINE HW', '10332  PLAZA AMERICANA', '10332  PLAZA AMERICANA DR', '10333  AIRLINE HW', '10333  AVE K AV', '10333  PATRICIA DR', '10333 N HARVEY DR', '10334  CANADA ST', '10334  CANDA ST', '10334  CEDARLANE DR', '10334  LEBANON ST', '10334 S CHOCTAW DR', '10335  AIRLINE HW', '10335  AVE C AV', '10335  BROWNING DR', '10335  LEBANON', '10335 W DARRYL DR', '10336  BIG BEND AV', '10337  ELM GROVE GARDEN DR', '10338  MAMMOTH AV', '10338  NELWYN DR', '10339  MAMMOTH AV', '10339  MAMMOTH DR', '1034  COLUMBUS DUNN DR', '1034  FOXLANE DR', '1034  LEYCESTER DR', '1034  MAGNOLIA WOOD AV', '1034 N DONMOOR AV', '10340  BIRCHWOOD ST', '10340  CELTIC DR', '10340  WHITE OAK DR', '10341 W ALMOND DR', '10341 W ALMOND ST', '10342  GERALD DR', '10344  BLACK OAK DR', '10344  CINQUEFOIL AV', '10344  OLD HAMMOND HW', '10344  RED OAK DR', '10344  REDOAK DR', '10345  BARBARA ST', '10345  CYPRUS CEDAR DR', '10345  DARRYL DR', '10345  PATRICIA DR', '10345  RED OAK DR', '10345 S RIVEROAKS DR', '10346  PATRICIA DR', '10346  RHAPSODY DR', '10348  CYPRUS CEDAR ST', '1035  ARCADIA DR', '1035  BAYBERRY AV', '1035  CARDINAL ST', '1035  EXECUTIVE PARK AV', '1035  RITTNER DR', '1035  ROSEDALE ST', '1035  SAVANNA VIEW DR', '1035  WYLIE DR', '1035 N 35TH ST', '1035 N 48TH ST', '10350  FLORIDA BL', '10350  HWY 19', '10350  REIGER RD', '10350  SCOTLAND AV', '10351  PLAZA AMERICANA DR', '10352  GERALD DR', '10354  BRONZEBUSH AV', '10354  CYPRUS CEDAR ST', '10354  DARRYL DR', '10354  OLD HAMMOND HW', '10354 N HARVEY DR', '10355  AVE C ST', '10355  CEDARLANE DR', '10355  CYPRUS CEDAR ST', '10355  PARKVIEW DR', '10355  TAMS', '10355  TAMS DR', '10357  LEBANON ST', '10357  OLD HAMMOND HW', '10358  CEDARLANE DR', '1036  BARANCO ST', '1036  CHIPPENHAM DR', '1036  LANDWOOD DR', '1036 N 31ST ST', '1036 N 36TH ST', '1036 N CARROLLTON AV', '1036 W GARFIELD ST', '10360  AVE C DR', '10360  AVENUE H ST', '10360  AVENUE I ST', '10361  CINQUEFOIL AV', '10362  AVENUE D ST', '10362  BRONZEBUSH AV', '10362  GREENWELL SPRINGS RD', '10363  GERALD DR', '10364  DARRYL DR', '10364  OLD HAMMOND HW', '10364 S PERDUE AV', '10365  AVENUE C ST', '10365  CATHERINE ST', '10365  CLETUS DR', '10365  DARRYL', '10365 S PERDUE AV', '10365 S PERDUE DR', '10366  BROWNING DR', '10366  CLETUS DR', '10366  FIRELIGHT AV', '10367  RED OAK DR', '10368  AVENUE F ST', '10369  PATRICIA DR', '1037  CASTLE KIRK DR', '1037  LAUREL ST', '1037  MAIN ST', '1037  RITTINER DR', '1037  RITTNER DR', '1037 N 36TH ST', '10372  BLACK OAK DR', '10374 N HARVEY DR', '10375  AVENUE C ST', '10379  MAMMOTH AV', '1038  RICHLAND AV', '1038 N 44TH ST', '10383  GREENWELL SPRINGS RD', '10384  ELM GROVE GARDEN DR', '10384 S CHOCTAW', '10384 S CHOCTAW DR', '10386  CINQUEFOIL AV', '10386  ELM GROVE GARDEN', '10386  ELM GROVE GARDEN DR', '10388 </t>
         </is>
@@ -1143,12 +1201,18 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
+        <v>4245</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1037557</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>10388</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10008', '10009', '1001', '10010', '10012', '10013', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10027', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10049', '1005', '10050', '10051', '10053', '10055', '10058', '10059', '1006', '10060', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10073', '10074', '10075', '10076', '10077', '10078', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '1009', '10090', '10091', '10092', '10094', '10095', '10097', '101', '1010', '10100', '10101', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10113', '10114', '10115', '10116', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10139', '1014', '10140', '10142', '10143', '10144', '10145', '10148', '10149', '1015', '10150', '10152', '10154', '10155', '10157', '1016', '10160', '10164', '10165', '10168', '1017', '10172', '10174', '10175', '10178', '10179', '1018', '10180', '10185', '10186', '10188', '1019', '10196', '10197', '10198', '102', '1020', '10200', '10201', '10203', '10204', '10207', '10209', '1021', '10210', '10212', '10213', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10233', '10234', '10235', '10236', '10238', '10239', '1024', '10240', '10241', '10243', '10244', '10245', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10254', '10255', '10256', '10259', '1026', '10261', '10264', '10265', '10266', '10268', '10269', '1027', '10270', '10271', '10274', '10275', '10276', '10278', '1028', '10280', '10288', '10289', '1029', '10294', '10296', '103', '1030', '10300', '10301', '10305', '10307', '10309', '1031', '10310', '10311', '10313', '10315', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10344', '10345', '10346', '10348', '1035', '10350', '10351', '10352', '10354', '10355', '10357', '10358', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10372', '10374', '10375', '10379', '1038', '10383', '10384', '10386', '10388', '10389', '1039', '10391', '10392', '10399', '104', '1040', '10400', '10401', '10402', '10407', '10408', '1041', '10410', '10411', '10412', '10414', '10415', '10416', '10417', '10418', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '1044', '10440', '10442', '10443', '10444', '10445', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '1048', '10480', '10481', '10484', '10485', '10488', '1049', '10490', '10492', '10496', '10499', '105', '1050', '10500', '10501', '10502', '10505', '10509', '1051', '10510', '10511', '10514', '10515', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10529', '1053', '10530', '10531', '10532', '10534', '10535', '10536', '10538', '1054', '10540', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10557', '10558', '1056', '10562', '10563', '10565', '10566', '10567', '10569', '1057', '10570', '10571', '10575', '10577', '10578', '1058', '10580', '10584', '10587', '10588', '10589', '10595', '10596', '10599', '106', '1060', '10600', '10604', '10605', '10606', '10609', '1061', '10610', '10611', '10615', '10619', '1062', '10620', '10621', '10622', '10624', '10625', '10626', '10627', '10628', '1063', '10631', '10632', '10634', '10635', '10637', '1064', '10641', '10642', '10644', '10645', '10646', '10647', '10648', '1065', '10650', '10651', '10652', '10654', '10655', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10665', '10666', '1067', '10674', '10675', '10678', '10679', '1068', '10680', '10683', '10686', '10687', '10689', '1069', '10695', '10697', '107', '1070', '10700', '10701', '10702', '10705', '10706', '10710', '10711', '10713', '10715', '10717', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '1073', '10730', '10731', '10732', '10734', '10736', '10737', '10738', '10739', '1074', '10740', '10743', '10745', '10746', '10747', '1075', '10750', '10752', '10755', '10756', '1076', '10760', '10763', '10764', '10765', '10766', '10767', '10768', '1077', '10770', '10772', '10775', '10776', '10777', '10779', '1078', '10780', '10781', '10782', '10785', '10786', '10787', '1079', '10790', '10795', '10798', '108', '1080', '10800', '10801', '10802', '10805', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10817', '10818', '1082', '10820', '10821', '10822', '10823', '10825', '10827', '10828', '1083', '10832', '10833', '10835', '10836', '10838', '1084', '10841', '10842', '10843', '10844', '10845', '10847', '10848', '1085', '10850', '10855', '1086', '10860', '10862', '10863', '10865', '10869', '1087', '10870', '10877', '1088', '10881', '10884', '10887', '10888', '10889', '1089', '10891', '109', '1090', '10900', '10901', '10904', '10905', '10906', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10932', '10934', '10935', '10936', '10938', '1094', '10940', '10942', '10943', '10944', '10945', '10946', '10948', '10950', '10951', '10953', '10954', '10955', '10956', '10959', '1096', '10960', '10962', '10963', '10966', '10967', '10968', '1097', '10970', '10974', '10975', '10976', '10977', '10978', '10979', '10982', '10988', '10989', '10993', '10996', '11', '110', '1100', '11000', '11001', '11005', '11007', '11008', '1101', '11010', '11011', '11014', '11015', '11016', '11017', '1102', '11021', '11022', '11023', '11024', '11025', '11026', '11028', '1103', '11030', '11031', '11032', '11034', '11035', '11036', '1104', '11040', '11041', '11043', '11044', '11045', '11046', '11047', '1105', '11050', '11051', '11052', '11054', '11055', '11056', '1106', '11060', '11061', '11062', '11063', '11064', '11066', '11069', '1107', '11070', '11071', '11072', '11074', '1108', '11080', '11085', '11087', '1109', '11091', '11094', '11095', '11096', '111', '1110', '11100', '11101', '11105', '11108', '11109', '1111', '11110', '11111', '11112', '11116', '11117', '11119', '1112', '11120', '11122', '11123', '11124', '11125', '11126', '1113', '11130', '11132', '11134', '11135', '11136', '11137', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '1115', '11150', '11151', '11152', '11153', '11154', '11157', '11158', '1116', '11160', '11162', '11165', '11166', '11167', '11169', '1117', '11171', '11172', '11173', '11174', '11175', '11178', '11179', '1118', '11180', '11182', '11186', '11187', '11188', '1119', '11191', '11196', '11198', '112', '1120', '11200', '11201', '11203', '11205', '11209', '1121', '11210', '11211', '11214', '11215', '11219', '1122', '11220', '11222', '11224', '11225', '11227', '11229', '1123', '11230', '11231', '11232', '11234', '11235', '11236', '11239', '1124', '11244', '11245', '11246', '11247', '11248', '1125', '11250', '11251', '11252', '11254', '11255', '11256', '1126', '11262', '11263', '11268', '1127', '11271', '11275', '11277', '1128', '11281', '11283', '11284', '11288', '1129', '11290', '11294', '11297', '113', '1130', '11300', '11301', '11302', '11304', '11307', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11317', '1132', '11320', '11321', '11322', '11324', '1133', '11330', '11331', '11333', '11334', '11335', '11336', '1134', '11340', '11341', '11342', '11343', '1135', '11350', '11352', '11354', '11355', '11356', '11359', '1136', '11360', '11363', '11364', '11368', '11369', '1137', '11371', '11372', '11373', '11375', '11376', '11378', '1138', '11383', '11384', '11385', '11386', '1139', '11390', '11394', '11395', '11396', '11398', '1140', '11400', '11401', '11402', '11404', '1141', '11410', '11411', '11413', '11414', '11415', '11416', '11417', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11427', '11428', '1143', '11430', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '1145', '11450', '11452', '11453', '11455', '11456', '11457', '1146', '11460', '11461', '11463', '11464', '11465', '11467', '11468', '1147', '11470', '11472', '11473', '11475', '11476', '11478', '11479', '1148', '11480', '11481', '11486', '1149', '11496', '115', '1150', '11500', '11501', '1151', '11510', '11512', '11515', '11516', '11519', '1152', '11520', '11521', '11522', '11524', '11525', '11528', '1153', '11530', '11531', '11534', '11535', '11536', '11537', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11555', '11556', '11558', '1156', '11561', '11562', '11567', '11569', '1157', '11570', '11571', '11572', '11574', '11575', '11576', '11577', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '1159', '11590', '11591', '11595', '116', '1160', '11600', '11602', '11603', '11605', '11606', '1161', '11610', '11612', '11613', '11614', '11615', '11617', '11618', '1162', '11620', '11621', '11623', '11624', '11625', '11627', '11628', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11638', '11639', '1164', '11640', '11641', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11654', '11655', '11656', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11665', '11666', '11668', '11669', '1167', '11671', '11672', '11673', '11674', '11675', '11677', '11678', '1168', '11680', '11683', '11685', '11686', '11687', '11688', '1169', '11690', '11692', '11693', '11698', '117', '1170', '11700', '11701', '11702', '11703', '11705', '1171', '11712', '11713', '11715', '11716', '11718', '1172', '11721', '11722', '11724', '11725', '11726', '1173', '11730', '11731', '11732', '11733', '11735', '11736', '11737', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '1175', '11750', '11752', '11753', '11754', '11755', '11756', '11757', '11759', '1176', '11760', '11761', '11762', '11764', '11765', '11766', '11767', '11768', '1177', '11774', '11775', '11776', '11777', '11778', '1178', '11781', '11784', '11786', '11795', '118', '1180', '11800', '11801', '11802', '11804', '11805', '11806', '11809', '1181', '11810', '11811', '11813', '11814', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11848', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11857', '11859', '1186', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '1187', '11870', '11872', '11873', '11875', '11876', '1188', '11881', '11882', '11884', '11888', '11892', '119', '1190', '11900', '11901', '11903', '11904', '11906', '11908', '1191', '11910', '11911', '11913', '11914', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11934', '11936', '11937', '11938', '11939', '1194', '11941', '11942', '11944', '11945', '11947', '11948', '1195', '11950', '11954', '11955', '11958', '11959', '11960', '11962', '11963', '11965', '11967', '11969', '1197', '11970', '11975', '11976', '1198', '11983', '11984', '11986', '11988', '11990', '11994', '11996', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12006', '12009', '1201', '12010', '12011', '12012', '12013', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12026', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12038', '1204', '12041', '12042', '12045', '12047', '12048', '1205', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '1206', '12061', '12065', '12068', '1207', '12071', '12072', '12074', '12076', '12077', '1208', '12080', '12081', '12086', '12087', '1209', '12095', '12097', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12128', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12137', '1214', '12141', '12142', '12143', '12144', '12145', '12148', '1215', '12150', '12151', '12152', '12153', '12155', '12158', '12159', '1216', '12162', '1217', '12173', '12174', '12175', '12177', '1218', '12186', '12187', '12188', '1219', '12191', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12232', '12233', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '1226', '12260', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12271', '12272', '12273', '12274', '12276', '1228', '12281', '12282', '12283', '12284', '12285', '12288', '12289', '1229', '12291', '12294', '12299', '123', '1230', '12300', '12301', '12302', '12304', '12305', '12307', '1231', '12310', '12311', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '1236', '12360', '12361', '12362', '12363', '12365', '12366', '12367', '12368', '12369', '1237', '12371', '12373', '12374', '12375', '12376', '12379', '1238', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12397', '124', '1240', '12400', '12401', '12402', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12471', '12473', '12474', '12475', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12491', '12493', '12494', '12495', '12497', '125', '1250', '12500', '12501', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12547', '12548', '12549', '1255', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12559', '1256', '12561', '12562', '12564', '12565', '12566', '12567', '1257', '12570', '12573', '12575', '12576', '1258', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '126', '1260', '12600', '12605', '12606', '12607', '1261', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12645', '12646', '12647', '12648', '1265', '12651', '12652', '12654', '12655', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12672', '12674', '12679', '1268', '12684', '12685', '12686', '12689', '1269', '12691', '12694', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12706', '12709', '12710', '12711', '12712', '12713', '12714', '12716', '12717', '12719', '1272', '12720', '12722', '12723', '12724', '12727', '12730', '12731', '12732', '12734', '12736', '12737', '12738', '1274', '12740', '12741', '12745', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12755', '12756', '12757', '12758', '1276', '12762', '12763', '12764', '12765', '12767', '1277', '12770', '12772', '12773', '12776', '12777', '1278', '12784', '12789', '1279', '12792', '128', '1280', '12800', '12808', '1281', '12812', '12815', '12816', '12819', '1282', '12823', '12824', '12825', '12826', '12827', '1283', '12831', '12834', '12835', '12836', '12837', '12838', '1284', '12840', '12842', '12844', '12845', '12848', '1285', '12850', '12853', '12854', '12855', '1286', '12860', '12867', '1287', '12878', '1288', '12888', '12891', '12895', '12897', '129', '1290', '12900', '12901', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '1292', '12923', '12924', '12925', '1293', '12932', '12936', '12942', '12944', '12945', '1295', '12952', '12954', '12955', '1296', '12962', '12964', '12974', '1299', '13', '130', '1300', '13000', '13001', '13002', '1301', '13011', '13012', '13014', '1302', '13024', '13028', '1303', '13030', '13033', '13036', '1304', '13040', '13045', '13047', '1305', '13059', '1306', '1307', '13071', '13074', '1308', '13089', '1309', '131', '1310', '13100', '13101', '1311', '13112', '13115', '1312', '13121', '13122', '13123', '13125', '13126', '1313', '13136', '1314', '13146', '13147', '1315', '13151', '13156', '13157', '13159', '1316', '13169', '1317', '1318', '13185', '1319', '13194', '132', '1320', '13200', '13201', '13202', '13203', '13205', '13206', '1321', '13211', '13212', '13213', '13215', '13217', '13218', '1322', '13222', '13224', '13225', '13227', '13228', '1323', '13231', '13232', '13234', '13235', '1324', '13242', '13243', '13244', '13246', '1325', '13250', '1326', '1327', '13279', '1328', '13289', '1329', '13291', '133', '1330', '13300', '13301', '13303', '1331', '13314', '13315', '13316', '13317', '13319', '1332', '13320', '13321', '13324', '13325', '13326', '1333', '13332', '13334', '1334', '13341', '1335', '13350', '13351', '13354', '1336', '13367', '1337', '1338', '13381', '1339', '13398', '13399', '134', '1340', '13400', '13405', '13407', '13408', '1341', '13411', '13416', '13417', '13418', '13419', '1342', '13420', '13424', '13425', '13426', '1343', '13431', '13435', '1344', '13447', '1345', '13451', '13455', '1346', '13465', '1347', '13475', '1348', '1349', '13499', '135', '1350', '13500', '13501', '13503', '1351', '13511', '1352', '13521', '13522', '13526', '1353', '13534', '1354', '13542', '13544', '1355', '13555', '1356', '13566', '13567', '13568', '13569', '1357', '1358', '13585', '1359', '136', '1360', '13600', '13601', '13602', '13603', '13604', '13605', '1361', '13611', '13614', '13615', '1362', '13620', '13621', '13624', '13625', '13626', '13629', '1363', '13631', '13632', '13633', '13634', '1364', '13641', '13645', '13646', '13647', '13648', '1365', '13650', '13651', '13654', '13657', '1366', '13664', '13667', '13668', '13669', '1367', '13672', '13674', '13675', '1368', '1369', '137', '1370', '13700', '13706', '13707', '13708', '1371', '13712', '13714', '1372', '13722', '13723', '13726', '13728', '1373', '13733', '13734', '13736', '13737', '13738', '1374', '13742', '13743', '13744', '13748', '13749', '1375', '13758', '1376', '1377', '13774', '1378', '1379', '138', '1380', '13801', '13802', '13804', '13805', '13807', '1381', '13811', '13814', '13815', '13816', '13819', '1382', '13820', '13822', '13824', '13825', '13828', '1383', '13834', '13835', '13836', '13838', '13839', '1384', '13842', '13844', '13847', '13849', '1385', '13850', '1386', '13860', '13863', '13865', '13869', '1387', '1388', '13880', '1389', '1390', '13900', '13902', '13903', '13904', '13906', '13907', '1391', '13912', '13914', '13916', '13923', '13926', '1393', '13931', '13934', '13936', '13939', '1394', '13941', '13944', '13946', '1395', '13950', '13959', '1396', '13969', '1397', '13970', '13982', '1399', '13999', '140', '1400', '14000', '14001', '14004', '14009', '1401', '14011', '14012', '14013', '14014', '14015', '1402', '14029', '1403', '14031', '14032', '14039', '1404', '14041', '1405', '14059', '1406', '14062', '1407', '14071', '1408', '1409', '141', '1410', '14100', '14104', '1411', '14115', '1412', '14123', '1413', '14135', '1414', '14140', '1415', '1416', '14163', '1417', '14174', '1418', '14188', '1419', '142', '1420', '14200', '14201', '14208', '1421', '14211', '14212', '14213', '14215', '14217', '14218', '1422', '14220', '14221', '14222', '14224', '1423', '14230', '14232', '14233', '14238', '1424', '1425', '14250', '14252', '14253', '14257', '14258', '1426', '14267', '1427', '1428', '1429', '143', '1430', '14300', '1431', '14310', '14312', '14313', '14315', '14316', '14317', '1432', '14322', '14324', '14325', '14327', '14328', '1433', '14333', '14334', '14339', '1434', '14340', '14344', '14345', '14347', '14349', '1435', '14352', '14355', '14357', '14358', '14359', '1436', '14360', '14369', '1437', '14370', '1438', '1439', '14395', '144', '1440', '14400', '1441', '14413', '14416', '1442', '14422', '14424', '14425', '14426', '14428', '1443', '14433', '14434', '14435', '14436', '14437', '14438', '1444', '14443', '14444', '14445', '14446', '1445', '14453', '14455', '14456', '1446', '1447', '1448', '14482', '14485', '1449', '145', '1450', '14500', '14507', '1451', '14517', '14518', '1452', '14521', '14522', '14527', '14528', '14529', '1453', '14531', '14532', '1454', '14541', '14542', '14545', '14546', '1455', '14555', '14557', '1456', '1457', '1458', '1459', '146', '1460', '14600', '1461', '14613', '1462', '14624', '1463', '14635', '1464', '14643', '1465', '1466', '1467', '14675', '1468', '1469', '147', '1470', '1471', '1472', '14721', '14722', '14728', '1473', '14733', '14734', '14736', '1474', '1475', '14755', '1476', '14763', '1477', '1478', '1479', '148', '1480', '14800', '14808', '1481', '14815', '14817', '1482', '14822', '14825', '14828', '1483', '14836', '14845', '14848', '1485', '14857', '1486', '1487', '1488', '14882', '1489', '149', '1490', '14900', '14901', '14909', '1491', '14914', '14917', '14918', '1492', '14924', '14927', '14928', '14934', '14937', '14938', '1494', '14948', '1495', '1496', '1498', '15', '150', '1500', '15000', '15001', '15006', '1501', '15015', '15016', '1502', '1503', '15036', '1504', '15049', '1505', '15059', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '15151', '1516', '15165', '1517', '15171', '1518', '1519', '152', '1520', '15200', '15201', '15202', '1521', '15212', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '15300', '1531', '1532', '1533', '15336', '1534', '15344', '15346', '1535', '15351', '1536', '15363', '1537', '1538', '1539', '154', '1540', '15407', '1541', '15411', '15417', '1542', '15420', '15421', '15422', '1543', '15431', '1544', '15444', '1545', '15453', '1546', '1547', '1548', '1549', '155', '1550', '15500', '15501', '15502', '1551', '1552', '15522', '1553', '15530', '15532', '1554', '15543', '1555', '15555', '15559', '1556', '1557', '1558', '1559', '156', '1560', '15600', '15604', '1561', '15612', '15615', '1562', '15621', '15622', '1563', '15631', '1564', '15641', '1565', '1566', '1567', '1568', '15687', '1569', '157', '1570', '15700', '15706', '15707', '1571', '1572', '15721', '15723', '1573', '15731', '15735', '1574', '15745', '1575', '1576', '1577', '1578', '1579', '158', '1580', '15800', '15801', '15805', '1582', '15823', '15825', '1583', '15835', '1584', '15842', '15843', '15845', '1585', '15852', '1586', '1587', '1588', '1589', '159', '1590', '15900', '1591', '15910', '15915', '1592', '15920', '15925', '15927', '15929', '1594', '15941', '1595', '15959', '1596', '1597', '15999', '16', '160', '1600', '16000', '16001', '1601', '16010', '16011', '16012', '1602', '16021', '1603', '16030', '16031', '1604', '16040', '16041', '1605', '16050', '16051', '1606', '16060', '16061', '1607', '16071', '1608', '1609', '161', '1610', '16100', '1611', '1612', '16125', '16127', '1613', '1614', '1615', '1616', '1617', '16175', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '16273', '1628', '1629', '163', '1630', '16300', '1631', '1632', '1633', '16339', '1634', '16347', '1635', '16352', '1636', '16364', '16366', '1637', '16373', '1638', '16386', '1639', '164', '1640', '16400', '1641', '16410', '16412', '16415', '1642', '16420', '16422', '16424', '16426', '16429', '1643', '16431', '16434', '1644', '16441', '16442', '16445', '16446', '16447', '16448', '1645', '16456', '16458', '16459', '1646', '16465', '1647', '16470', '16479', '1648', '1649', '16490', '165', '1650', '16506', '1651', '16510', '16511', '16516', '16517', '1652', '16524', '16525', '16526', '1653', '16536', '16537', '1654', '16541', '16545', '16547', '16548', '1655', '16550', '16551', '16553', '1656', '16565', '16566', '16567', '1657', '16570', '16579', '1658', '1659', '16591', '16595', '166', '1660', '16600', '16601', '16606', '1661', '16611', '16613', '16618', '1662', '16621', '16622', '16624', '16625', '16626', '1663', '16632', '16633', '16634', '16636', '16637', '1664', '16641', '16646', '1665', '16651', '1666', '16666', '1667', '16678', '1668', '1669', '167', '1670', '16700', '16705', '16707', '16708', '16710', '16711', '16712', '1672', '16726', '16727', '1673', '16731', '16735', '1674', '16741', '16745', '16746', '16747', '1675', '16753', '1676', '1677', '16778', '1678', '16788', '1679', '168', '1680', '16800', '16801', '16804', '16805', '1681', '16813', '16815', '1682', '16822', '1683', '1684', '16844', '1685', '16855', '1686', '16866', '1688', '16888', '1689', '169', '1690', '16900', '16901', '1692', '1693', '16947', '1695', '1698', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '17232', '1724', '1725', '17253', '1726', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '17400', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '1760', '17601', '17605', '1761', '1762', '1763', '1764', '1765', '1766', '1767', '1768', '1769', '177', '1770', '1771', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '1780', '17801', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '1790', '17900', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '180', '1800', '18000', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '18130', '1814', '18149', '1815', '18155', '1816', '1817', '1818', '1819', '182', '1820', '18200', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1873', '1874', '1875', '1876', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '190', '1900', '1901', '1902', '1903', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '19364', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '19555', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1963', '1964', '1965', '1966', '1967', '1968', '1969', '1970', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '1979', '1980', '19801', '1981', '1982', '1984', '1985', '1986', '1987', '1988', '1989', '1990', '1991', '1992', '1993', '1994', '1995', '19950', '2', '200', '2000', '20000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2066', '2067', '2068', '2069', '207', '2070', '2071', '2072', '2073', '2074', '2075', '2076', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2088', '2089', '209', '2090', '2097', '2098', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2183', '2185', '2186', '2187', '2188', '219', '2191', '2192', '2195', '2196', '2199', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2268', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '22813', '2282', '2283', '2284', '2285', '2286', '2287', '2288', '2289', '229', '2290', '2291', '2292', '2293', '2295', '2296', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '23340', '2335', '2336', '2337', '2338', '2339', '234', '2340',</t>
         </is>
@@ -1217,12 +1281,18 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
+        <v>223270</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>44503</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>4</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['E', 'N', 'S', 'W']</t>
         </is>
@@ -1295,12 +1365,18 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>11901</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>2020259</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>3957</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['0NEAL', '0SAGE', '1-Oct', '10', '10600 CHOCTAW', '10TH', '11TH', '11TH STREET', '12', '12000 SOUTH CHOCTAW', '12TH', '13', '13TH', '13TH ST', '14', '14TH', '15', '157TH', '15TH', '16', '16TH', '17', '17TH', '17THST', '18TH', '19', '19TH', '20', '20TH', '21', '21 ST', '21ST', '22', '2200 KENTUCKY STREET', '222ND', '22ND', '22NDST', '23', '23 RD', '2300 COLLEGE', '23041/2 GRACIE', '233 ST. LOUIS', '23RD', '23TH', '24', '24TH', '25', '25TH', '26', '26H', '26TH', '27 TH', '27TH', '28', '28TH', '29', '29TH', '30', '300 N. 22ND ST.', '30TH', '31', '31ST', '3210 BARTLETT', '32ND', '33RD', '35', '35 TH', '35TH', '36', '36TH', '37', '37TH', '38', '3800 ELM', '38TH', '39', '39TH', '3ND', '3OTH', '3RD', '3RD STREET', '3TH', '40', '40TH', '41', '41ST', '42ND', '4343 DENHAM', '43RD', '44TH', '45TH', '46', '46TH', '47', '47 TH', '47TH', '48', '48TH', '49', '49TH', '4OTH', '4TH', '5746 LINDEN ST', '5TH', '68TH', '69 TH', '69TH', '69TH. AVE', '69TH. AVE.', '6TH', '70TH', '70TH. AVE.', '71', '71 ST', '71ST', '71ST AVENUE', '72', '72 ND', '72ND', '72ND. AVE.', '73RD', '73RD AVE', '74', '74TH', '74TH AVE', '75', '75TH', '75TH AVE', '75TH. AVE.', '76TH', '77T', '77TH', '78TH', '78TH AVE', '78TH AVENUE', '79TH', '7OTH', '7TH', '8', '8TH', '9', '9000 GREENWELL SPRINGS', '9TH', 'A', 'ABEL', 'ABELIA', 'ABERDEEN', 'ACADAIN', 'ACADIA', 'ACADIA W.', 'ACADIAN', 'ACADIAN  EAST', 'ACADIAN  W', 'ACADIAN  W.', 'ACADIAN E', 'ACADIAN E.', 'ACADIAN EAST', 'ACADIAN THRUWAY', 'ACADIAN THRUWAY E', 'ACADIAN THRUWAY WEST', 'ACADIAN THWY', 'ACADIAN THWY  W.', 'ACADIAN THWY E', 'ACADIAN THWY W', 'ACADIAN THWY W.', 'ACADIAN THWY WEST', 'ACADIAN THWY. W', 'ACADIAN TWY W', 'ACADIAN W', 'ACADIAN W.', 'ACADIAN WEST', 'ACADIANA', 'ACCARDO', 'ACHORD', 'ACORN', 'ADAMS', 'ADDINGTON', 'ADDISON', 'ADELLA', 'ADRICHS', 'AFTON', 'AFTON PARKWAY', 'AIRINE', 'AIRLIEN', 'AIRLIINE', 'AIRLINE', 'AIRLINE HIGHWAY', 'AIRLINE HW', 'AIRLINE HWY', 'AIRLINE HWY.', 'AIRLINEGURLIE', 'AIRLLINE', 'AIRPORT', 'AIRTLINE', 'AIRWAY', 'ALABAMA', 'ALAMDEA', 'ALAMEDA', 'ALAMEDIA', 'ALAMONSTER', 'ALASKA', 'ALBATROS', 'ALBATROSS', 'ALBERT', 'ALBERT HART', 'ALBERTA', 'ALCO', 'ALDEN', 'ALDRICH', 'ALELLO', 'ALETHA', 'ALEXANDER', 'ALICE', 'ALICE`', 'ALIQUIPPA', 'ALIRLINE', 'ALIVIN DARK', 'ALLAN', 'ALLELO', 'ALLEN', 'ALLIPPA', 'ALLIPUIPPA', 'ALLIQUIPA', 'ALLIQUIPPA', 'ALLIQUPPA', 'ALLYSON', 'ALMA', 'ALMOND', 'ALPHA', 'ALRICH', 'ALVIN 0DARK', 'ALVIN DARK', 'AMARILLO', 'AMARILLO CT', 'AMARILLO ST', 'AMARILLO ST.', 'AMBERALYNN', 'AMBERLYNN', 'AMBROSE', 'AMERCICA', 'AMERICA', 'AMERICAN', 'AMERICAN PLAZA', 'AMERILLO', 'AMESBURY', 'AMHERST', 'AMIR', 'AMITE', 'AMOS', 'AMRILLO', 'ANDOVER', 'ANGLO', 'ANI', 'ANITA', 'ANN', 'ANNA', 'ANNABELLE', 'ANNETTE', 'ANNETTE ST', 'ANNETTE ST.', 'ANNETTTE', 'ANSELMO', 'ANTIOCH', 'ANTRIM', 'APARTMENT', 'APARTMENT COURT', 'APARTMENT CT', 'APPERSON', 'APPLE', 'APPLETON', 'APPLEWOOD', 'APPLKE', 'APRIL', 'APT COURT', 'ARBOR  VITAE', 'ARBOR VITA', 'ARBOR VITAE', 'ARBOR VITEA', 'ARBUTUS', 'ARCADIA', 'ARCHERY', 'ARD', 'ARDEN', 'ARDENWOD', 'ARDENWOOD', 'AREDENWOOD', 'ARGOSY', 'ARIALO', 'ARILINE', 'ARIZONA', 'ARKANSAS', 'ARLINGFORD', 'ARLINGTON', 'ARMSTRONG', 'ARROWHEAD', 'ASBOURNE', 'ASCENSION PARISH PRISON', 'ASH', 'ASHBOURNE', 'ASHLAND', 'ASHODEL', 'ASPENWOOD', 'ASPHODEL', 'ASTER', 'ASTOLAT', 'ATHENS', 'ATKINSON', 'AUBIN', 'AUBINWOOD', 'AUBURN', 'AUDREY', 'AUDUBON', 'AUGUSTUS', 'AURORA', 'AUTOMN BLOSSOM', 'AUTUMN  BLOSSOM', 'AUTUMN BLOSSOM', 'AUVENUE B', 'AV', 'AV A', 'AVANTIS', 'AVANTS', 'AVE', 'AVE  A', 'AVE A', 'AVE B', 'AVE C', 'AVE D', 'AVE E', 'AVE F', 'AVE G', 'AVE H', 'AVE I', 'AVE J', 'AVE K', 'AVE L', 'AVE M', 'AVE.  A', 'AVE. E', 'AVE. I', 'AVE. J', 'AVE. L', 'AVE. M', 'AVEENUE F', 'AVEENUE K', 'AVEJ', 'AVENUE A', 'AVENUE B', 'AVENUE C', 'AVENUE D', 'AVENUE E', 'AVENUE F', 'AVENUE G', 'AVENUE H', 'AVENUE I', 'AVENUE J', 'AVENUE K', 'AVENUE L', 'AVENUE M', 'AVEUNE F', 'AVIS', 'AVOCET', 'AVONDALE', 'AZALEA', 'AZALEA PARK', 'AZELA PARK', 'AZTEC', 'B', 'B A LITTLE', 'B NEHRU', 'B-HOLLYWOOD', 'BADLEY', 'BADLEY RD.', 'BAHIN', 'BAHM', 'BAIRD', 'BALBOA', 'BALIS', 'BALLINA', 'BALSAM', 'BALSAWOOD', 'BANCROFT', 'BANCROFT WAY', 'BANK', 'BANKERS', 'BANKS', 'BANYAN', 'BANYAN TRACE', 'BANYANWOOD', 'BANYON TRACE', 'BARANCO', 'BARBAR', 'BARBARA', 'BARBER', 'BARBER STREET', 'BARD', 'BARDWELL', 'BARKLEY', 'BARKSDALE', 'BARLETT', 'BARON', 'BARROSA', 'BARROW', 'BARTLETT', 'BATEMAN', 'BATON ROUGE', 'BAWEL', 'BAWELL', 'BAXTER', 'BAXTON', 'BAY', 'BAYBERRY', 'BAYLOR', 'BAYNARD', 'BAYOU FOUNTAIN', 'BAYSIDE', 'BAYWELL', 'BAYWOOD', 'BBRIERWOOD', 'BEACH', 'BEACHGROVE', 'BEACHWOOD', 'BEAU PRE', 'BEAUMONT', 'BEAUREGARD', 'BEAUVERDE', 'BEAVER', 'BECHWOOD', 'BECK', 'BECKENHAM', 'BEDFORD', 'BEECH', 'BEECH ST', 'BEECHGROVE', 'BEECHST', 'BEECHWOOD', 'BEECHWOOD DR', 'BELARBOR', 'BELCARO', 'BELFAIR', 'BELHAVEN', 'BELHAVEN CI', 'BELHAVEN TRACE', 'BELL HELENE', 'BELLARBOR', 'BELLE CHERIE', 'BELLE FOUNTAINE', 'BELLE GROVE', 'BELLE HELENE', 'BELLE PIONTE', 'BELLE POINTE', 'BELLEMEADE', 'BELLEROSE', 'BELLEVIEW', 'BELLEWOOD', 'BELLFORT', 'BELLGLADE', 'BELLGLEN', 'BELLHAVEN', 'BELLHAVEN  TRACE', 'BELLHAVEN TRACE', 'BELLMEADE', 'BELLONIA', 'BELLRIDGE', 'BELLROSE', 'BELLVALE', 'BELLVIEW', 'BELMEADE', 'BELMONT', 'BELVEDERE', 'BEN', 'BEN HUR', 'BEN HURR', 'BENHUR', 'BENINGTON', 'BENNETT', 'BENNINGTON', 'BENSON', 'BENTLEY', 'BENTON', 'BERKELEY', 'BERKLEY', 'BERKLEY HILL', 'BERKSHIRE', 'BERLIN', 'BERMUDA', 'BERMUDA AV', 'BERN', 'BERNARDO', 'BERNWOOD', 'BERRYBROOK', 'BERTHA', 'BERWICK', 'BETA', 'BETH ANN', 'BETTY SMOTHERS', 'BEVERELY', 'BEVERLY', 'BICENTENNIAL', 'BIENVILLE', 'BIG BEND', 'BIIG. GEN. ISAAC SMITH', 'BILLIOPS', 'BILLOPS', 'BILLUPS', 'BIRCH', 'BIRCHWOOD', 'BIRGHTSIDE', 'BIRHGTSIDE', 'BISHOP  OTT', 'BISHOP OTT', 'BLACHE', 'BLACK', 'BLACK OAK', 'BLACKBERRY', 'BLACKWELL', 'BLAIRSTOWN', 'BLAKEMORE', 'BLAKERIDGE', 'BLANCHARD', 'BLANCHE', 'BLANCHU', 'BLENDON', 'BLES', 'BLOUIN', 'BLOUNT', 'BLOUNT RD.', 'BLUBONNET', 'BLUE BONNET', 'BLUE GLASS', 'BLUE GRASS', 'BLUEBELL', 'BLUEBERRY', 'BLUEBONET', 'BLUEBONNER', 'BLUEBONNET', 'BLUEBONNETT', 'BLUEGRASS', 'BLUERIDGE', 'BLUNT', 'BLVD', 'BLVD  DE PROVINCE', 'BLVD DE PROVANCE', 'BLVD DE PROVENCE', 'BLVD DE PROVIDENCE', 'BLVD DE PROVINCE', 'BLVD DE. PROVINCE', 'BLVD DEPROVINCE', 'BLVD. DE PROVINCE', 'BLVD. DE. PROVINCE', 'BLVDDEPROVINCE', 'BO0B PETIT', 'BOARD WALK', 'BOARDWALK', 'BOB  PETTIT', 'BOB PETIT', 'BOB PETITE', 'BOB PETITIE', 'BOB PETITT', 'BOB PETITTE', 'BOB PETTET', 'BOB PETTIE', 'BOB PETTIIT', 'BOB PETTIT', 'BOB PETTITE', 'BOB PETTITT', 'BOB PRTTIT', 'BOB PTTTIT', 'BOBB PETTIT', 'BOBPETTIT', 'BOCAGE', 'BOCAGE LAKE', 'BOCAGE LAKES', 'BOGAN', 'BOGAN BOGAN', 'BOGAN WALK', 'BOGANWALK', 'BOMER', 'BON CREST', 'BON DURANT', 'BON MARCHE', 'BON SEJOUR', 'BONABRIDGE', 'BONARBRIDGE', 'BONCREST', 'BOND', 'BONN', 'BONTURA', 'BOOKER', 'BOOKERLINE', 'BOONE', 'BOOSIE', 'BOOTSIE', 'BOREAS', 'BOSTON', 'BOULEVARD DE PROVINCE', 'BOULEVARDE DE PROVINCE', 'BOUNT', 'BOURBON', 'BOURGEOIS', 'BOURGOIS', 'BOWMAN', 'BOXELDER', 'BOYCE', 'BOYD', 'BOYED', 'BRACEWELL', 'BRADDOCK', 'BRADDROCK', 'BRADFIELD', 'BRADLEY', 'BRADY', 'BRADY ST', 'BRAEBURN', 'BRAEWOOD', 'BRAKLEY', 'BRAME', 'BRANDON', 'BRANDON LYNN', 'BRANDYWINE', 'BRASHEARS', 'BREC-SCOTLANDVILLE PARK', 'BRECKENRIDGE', 'BRECKENRIDGE AVE.', 'BRECKINRIDGE', 'BREEDEN', 'BRENT', 'BRENTWOOD', 'BRIARCLIFF', 'BRIARWOOD', 'BRICE', 'BRICKSOME', 'BRICKYARD', 'BRID. GEN. ISSAC SMITH', 'BRIERWOOD', 'BRIG GEN ISAAC SMITH', 'BRIG GEN ISSAC SMITH', 'BRIG GENERAL ISAAC SIMTH', 'BRIG GENERAL ISAAC SMITH', 'BRIG GENERAL ISSAC SMITH', 'BRIG. GEN. ISAAC SMITH', 'BRIG. GEN. ISACC SMITH', 'BRIG. GEN. ISSAC SMITH', 'BRIG. GENERAL ISAAC SMITH', 'BRIGADERE GENERAL ISSAC SMIT', 'BRIGHSIDE', 'BRIGHTSDIE', 'BRIGHTSIDE', 'BRIGHTSIDE VEIW', 'BRIGHTSIDE VIEW', 'BRIGHTSIDE VIEW DR', 'BRIGHTSITE', 'BRIGTHSIDE', 'BRINWOOD', 'BRISTOL', 'BRITTANY', 'BROAD', 'BROADMOOR', 'BROADMOORE', 'BROADWALK', 'BROADWAY', 'BROARDMOOR', 'BROCADE', 'BROCATO', 'BROCK', 'BROGDEN', 'BROGDON', 'BROMLEY', 'BRONZEBUSH', 'BROODMOOR', 'BROOKESTOWN', 'BROOKHAVEN', 'BROOKISTOWN', 'BROOKLINE', 'BROOKSHIRE', 'BROOKSTON', 'BROOKSTOWN', 'BROOKSTWON', 'BROOKTOWN', 'BROOKVIEW', 'BROOKWOOD', 'BRORDWALK', 'BROUSSARD', 'BROWNING', 'BROWNLEE', 'BROWNSFIELD', 'BRROKSTOWN', 'BRUCE', 'BRUCE AL', 'BRUCE ALL', 'BRUCE ALLEY', 'BRUCE ALLY', 'BRUGHTSIDE', 'BRYON', 'BTECKENRIDGE', 'BUCHANAN', 'BUCHANNAN', 'BUCHANNON', 'BUCHANON', 'BUCKEY', 'BUCKEYE', 'BUCKINGHAM', 'BUCKLEY', 'BUENA VISTA', 'BULL RUN', 'BUNGALOW', 'BUNKER HILL', 'BUNKERHILL', 'BURBANK', 'BURBNANK', 'BURDEN', 'BURGESS', 'BURGIN', 'BURGUNDY', 'BURGUOIS', 'BURNS', 'BURTON', 'BUTTONWOOD', 'BYNUM', 'BYRD', 'BYRON', 'BYRON ST', 'BYRON ST.', 'BYWOOD', 'C', 'CABLE', 'CADALLIC', 'CADDO', 'CADILLAC', 'CADILLAC ST', 'CADILLC', 'CADILLIAC', 'CADILLLAC', 'CAEDEZA', 'CAIN', 'CALANNE', 'CALDWELL', 'CALIFORNIA', 'CALLAHAN', 'CALUMET', 'CAMBRIDGE', 'CAMEILLA', 'CAMELIA', 'CAMELLIA', 'CAMELLIA TRACE', 'CAMELLIA WAY', 'CAMELOT', 'CAMERON', 'CAMMY', 'CAMPUS', 'CAMPUS LAKE', 'CANADA', 'CANADA ST.', 'CANAL', 'CANDA', 'CANDACE', 'CANDLEWOOD', 'CANNIN', 'CANNON', 'CANNON ST', 'CANNON ST.', 'CANON', 'CANONICUS', 'CANONIUS', 'CANONUCUS', 'CANTERBURY SQUARE APARTMENTS', 'CANTREE', 'CANYONLAND', 'CANYONLANDS', 'CAPE HATTERAS', 'CAPITAL', 'CAPITAL ACCESS', 'CAPITAL HEIGHTS', 'CAPITAL PARK', 'CAPITOL', 'CAPITOL ACCESS', 'CAPITOL HEIGHTS', 'CAPITOL LAKE', 'CAPITOL PARK', 'CAPRI', 'CAPTIAL PARK', 'CARALINA', 'CARDEZA', 'CARDINAL', 'CARDINAL ST', 'CARIBOU', 'CARL', 'CARLETON', 'CARLOTA', 'CARLOTTA', 'CARLSBAD', 'CARLTON', 'CARMEN', 'CAROL', 'CAROL MARIE', 'CAROLINA', 'CAROLYN SUE', 'CARR', 'CARR ALLEY', 'CARRIAGE', 'CARRIAGE HOUSE', 'CARRIAGE WAY', 'CARROL', 'CARROLLTON', 'CARROLTON', 'CARTER', 'CARVER', 'CAS LOMA', 'CASA GRANDE', 'CASA LOMA', 'CASHEL', 'CASPER', 'CASPIANA', 'CASTILE', 'CASTLE KIRK', 'CASTLEBURY', 'CASTLEKIRK', 'CASTLEWOOD', 'CATALPA', 'CATE', 'CATHEDRAL', 'CATHERINE', 'CECARCREST', 'CEDAR', 'CEDAR BEND', 'CEDAR CREST', 'CEDAR LAKE', 'CEDAR LODGE', 'CEDAR WAY', 'CEDARCREAT', 'CEDARCREST', 'CEDARDALE', 'CEDARLAKE', 'CEDARLANE', 'CEFALU', 'CELTIC', 'CENTENARY', 'CENTERPOINTE', 'CENTRAL', 'CENTRAL THWY', 'CENTURY', 'CEZANNE', 'CHALET', 'CHALICE', 'CHALMA', 'CHANADIA', 'CHANDADIA', 'CHANDLER', 'CHANEY', 'CHAPELVIEW', 'CHAPELWOOD', 'CHARINGTON', 'CHARLES', 'CHARLES STREET', 'CHARLES T SMITH', 'CHARLES T. SMITH', 'CHARLESTOWNE', 'CHARLEY WATTS', 'CHARLOTTE', 'CHARMAINE', 'CHAROLETTE', 'CHATAWA', 'CHATEAU', 'CHATFIELD', 'CHATSWORTH', 'CHENAGO', 'CHENANGO', 'CHEROKEE', 'CHERRY', 'CHERRYDALE', 'CHESNUT', 'CHESTERFIELD', 'CHESTNUT', 'CHETERFIELD', 'CHEVELLE', 'CHIMES', 'CHIMNEYWOOD', 'CHINN', 'CHIPENHAM', 'CHIPPEEWA', 'CHIPPENHAM', 'CHIPPEWA', 'CHIPPEWA ST.', 'CHIPPPEWA', 'CHIPPWA', 'CHOCKTAW', 'CHOCTAW', 'CHOCTAW EXT', 'CHOCYAW', 'CHOPIN', 'CHRISTIAN', 'CHRISTINA', 'CHRISTY', 'CHUCK YEAGER', 'CHURCHILL', 'CINQUEFOIL', 'CIRCLE', 'CIRSTY', 'CITADEL', 'CITI PLACE', 'CITIPLACE', 'CITY PARK', 'CITYPLACE', 'CLAIREWOOD', 'CLAIRMONT', 'CLARA', 'CLARET', 'CLARK', 'CLASSIQUE', 'CLAUMET', 'CLAYCUT', 'CLAYCUTT', 'CLAYTO0N', 'CLAYTON', 'CLEAR LAKE', 'CLEARLAKE', 'CLEMATIS', 'CLEMENTE', 'CLEO', 'CLETUS', 'CLIFTON', 'CLINTON', 'CLOUD', 'CLOVER', 'CLOVERDALE', 'CLOVERLAND', 'CLYTON', 'COBBLESTONE', 'COLDWATER CREEK', 'COLE', 'COLEGE', 'COLLAGE', 'COLLEEN', 'COLLEGE', 'COLLEGE HILL', 'COLLINS', 'COLLLEGE', 'COLONEL ALLEN', 'COLONEL GIBSON', 'COLONIAL', 'COLORADO', 'COLORODO', 'COLUMBINE', 'COLUMBUS DUNN', 'COMAL', 'COMISH', 'COMISH DR.', 'COMMERCE', 'COMMON', 'COMMUNITY COLLEGE', 'COMORANT', 'COMPTON', 'CONARD', 'CONCORD', 'CONCORDE', 'CONCORDIA', 'CONFIDENCE', 'CONGERSS', 'CONGRESS', 'CONLEY', 'CONNELL', 'CONNELL PARK', 'CONNELLS PARK', 'CONONICOUS', 'CONRAD', 'CONSITUTION', 'CONSTANCE', 'CONSTITUTION', 'CONTINENTAL', 'CONTOUR', 'CONVENTION', 'CONVENTIONS', 'CONWAY', 'COOT', 'COPORATE', 'COPPERFIELD', 'CORA', 'CORINTH', 'CORK', 'CORMORANT', 'CORNELL', 'CORONADO', 'CORPOATE', 'CORPORATE', 'CORPORATE BLVD', 'CORPORATE BOULEVARD', 'CORPORATE0808', 'CORPORTE', 'CORSICA', 'CORT', 'CORTAN', 'CORTANA', 'CORTANA MALL', 'CORTANA P', 'CORTANA PLACE', 'CORTNA', 'COSTELLO', 'COSTITUTION', 'COTANA', 'COTTAGE', 'COTTON', 'COTTONDALE', 'COTTONWOOD', 'COUNTRY CLUB', 'COUNTRY MEADOW', 'COUNTRY RIDGE', 'COURSEY', 'COURSEY BLVD', 'COURTLAND', 'COURTNEY CLUB', 'COUSEY', 'COVENTION', 'COVENTRY', 'COVINGTON', 'CPNGRESS', 'CRANE', 'CRATER LAKE', 'CREATVIEW', 'CREEKSIDE', 'CREEKWOOD', 'CRESCENT', 'CRESTAIRE', 'CRESTVIEW', 'CRESTWAY', 'CRESTWOOD', 'CRISTY', 'CROWN', 'CROWN OAKS', 'CROWN WAY', 'CROWNE', 'CROYDON', 'CRYODON', 'CUMBERLAND', 'CUNARD', 'CUNARD AVE.', 'CURLEW', 'CURTIS', 'CURTSI', 'CUYHANGA', 'CYNDAL', 'CYPRESS', 'CYPRESS  LAKE', 'CYPRESS DALE', 'CYPRESS GLEN', 'CYPRESS GLENN', 'CYPRESS HALL', 'CYPRESS HALL ALLEY', 'CYPRESS LAKE', 'CYPRESS MANOR', 'CYPRUS CEDAR', 'CYRIL', 'CYRUS', 'D', 'DABNEY', 'DABRY', 'DAGGET', 'DAGGETT', 'DAHLIA', 'DAIRYMPLE', 'DAKIN', 'DALARK', 'DALLAS', 'DALRYMPLE', 'DALRYMPLY', 'DALTON', 'DAMON', 'DAMUTH', 'DAN', 'DANIEL', 'DANIEL WEBSTER', 'DARADELE', 'DARADELL', 'DARADELLE', 'DARBY', 'DARCI LYNN', 'DARE', 'DARILYN', 'DARIUS', 'DARLYMPLE', 'DARRL', 'DARRYL', 'DARRYL DR', 'DARRYLE', 'DARTMOOR', 'DARWIN', 'DARYLMBLE', 'DARYLPLE', 'DARYLRPLE', 'DARYMPLE', 'DARYRPLE', 'DAUGHTERY', 'DAVENPORT', 'DAVENTRY', 'DAVID', 'DAWN', 'DAWNADALE', 'DAWNADELE', 'DAWSON', 'DAWSON DR', 'DAWSON DR.', "DAWSON'S CREEK", 'DAYTON', 'DAYTON CT', 'DE', 'DE SOTO', 'DEAN LEE', 'DEER', 'DEERFIELD', 'DEERPATH', 'DEERPATH WAY', 'DEERPATH WY', 'DEERWOOD', 'DEHNAM', 'DEL PLAZA', 'DELAWARE', 'DELCOURT', 'DELEWARE', 'DELGADO', 'DELL', 'DELMAR', 'DELPHINE', 'DELPLAZA', 'DELTA', 'DEMBO', 'DENA LYNN', 'DENAHM', 'DENBO', 'DENHAM', 'DENHAM ST', 'DENHAM ST.', 'DENHAMS', 'DENHAN', 'DENTATION', 'DEPLAZA', 'DERBY', 'DESOTO', 'DESTRAHAN', 'DESTREHAN', 'DEVALL', 'DEVONSHIRE', 'DIANE', 'DIDESSE', 'DIJON', 'DIUGHERTY', 'DIVINCENTI', 'DIXON', 'DODGE', 'DODSON', 'DOGWOOD', 'DOLLAR GENERAL-GOVERNMENT', 'DON REDDEN', 'DONALD', 'DONALDSON', 'DONCASTER', 'DONMOOR', 'DONMOORE', 'DONMOR', 'DONMORE', 'DONNA', 'DONOVAN', 'DONRAY', 'DOOLEY', 'DOOLITTLE', 'DORAL', 'DORCHESTER', 'DORIE MILLER', 'DOROTHY DIX', 'DOT', 'DOUGHERTY', 'DOUGHRETY', 'DOUGHTERY', 'DOUGLAS', 'DOUGLAS  AVE', 'DOUGLAS AVE', 'DOUGLAS AVE.', 'DOVE', 'DOVE HAVEN', 'DOVE HOLLOW', 'DOVERWOOD', 'DREHR', 'DREW', 'DRUCILLA', 'DRUID CIRCLE', 'DRUSILLA', 'DUAL', 'DUANE', 'DUBLIN', 'DUBOIS', 'DUCHESS', 'DUCHESS ST.', 'DUCK', 'DUCROS', 'DUKE', 'DULCITO', 'DUMONT', 'DUNBAR', 'DUNCAN', 'DUNCAN KENNER', 'DUNSTAN', 'DUPLANTIER', 'DURANDE', 'DURHAM', 'DUTCH HIGHLAND', 'DUTCHESS', 'DUTON', 'DUTTON', 'DUTTON AVE', 'DWAINE', 'E BOYD', 'E FAIROAKS', 'E GRAND', 'E MASON', 'E-I12', 'E.  BROCKSTOWN', 'E. 110', 'E. BOYD', 'E. BROOKSTOWN', 'E. BROOKSTOWN DR.', 'E. MASON', 'E. WASHINGTON', 'EAGLE', 'EARL GROS', 'EARL GROSS', 'EARLGROS', 'EAST', 'EAST BOYD', 'EAST BROOKSTOWN', 'EAST DAYTON', 'EAST END', 'EAST GATE', 'EAST I 10 ON RAMP', 'EAST I 12', 'EAST I-10', 'EAST I-12', 'EAST VAN', 'EASTBANK', 'EASTBAY', 'EASTGATE', 'EASTLAND', 'EASTWOOD', 'EATON', 'EATON ST', 'EBONY', 'EDDIE ROBINGSON', 'EDDIE ROBINSON', 'EDDIE ROBINSON SR', 'EDDIE ROBINSON SR.', 'EDDISON', 'EDEGEMONT', 'EDEN', 'EDGEMONT', 'EDGEWOOD', 'EDGMONT', 'EDGWOOD', 'EDINBURG', 'EDINBURGH', 'EDISON', 'EDUCATION', 'EDWARD', 'EDWARDS', 'EDWIN', 'EDWIN ST.', 'EFFRINGHAM', 'EGRET', 'EILEEN', 'EL CAJON', 'EL CAMINO', 'EL MARRO', 'EL MONTE', 'EL MORRO', 'ELAIN', 'ELAINE', 'ELANOR', 'ELDERWOOD', 'ELEANDOR', 'ELEANOR', 'ELEARNOR', 'ELERSLIE', 'ELGIN', 'ELISE', 'ELISSALDE', 'ELIZABETH', 'ELIZEBETH', 'ELJIN', 'ELKWOOD', 'ELLERSLIE', 'ELLWOOD', 'ELM', 'ELM  GROVE GARDEN', 'ELM GARDEN GROVE', 'ELM GROOVE GARDEN', 'ELM GROVE', 'ELM GROVE GARBEN', 'ELM GROVE GARDEN', 'ELM GROVE GARDEN DRIVE', 'ELM GROVE GARDENS', 'ELM GROVE GARRDEN', 'ELM GROVEN GARDEN', 'ELM PARK', 'ELMBRIDGE', 'ELMCREST', 'ELMER', 'ELMER AV', 'ELMGROVE', 'ELMGROVE GARDEN', 'ELTON C HARRISON', 'ELVA', 'ELWICK', 'ELYSIAM', 'ELYSIAN', 'EMERALD', 'EMILE', 'EMMALINE', 'EMMETT BOURGEOIS', 'EMORY', 'ENERGY', 'ENTERGY', 'ENTERPISE', 'ENTERPRISE', 'ENTERPRISEST', 'ENTERPRIST', 'EOLA', 'ERIE', 'ERLANGER', 'ESPLANADE', 'ESPLANDE', 'ESSEN', 'ESSEN COVE', 'ESSEN HEIGHTS', 'ESSEN PARK', 'ESTATES', 'ETTA', 'EUGENE', 'EUROPE', 'EVAGELINE', 'EVAN BROOK', 'EVAN BROOKS', 'EVANGELINE', 'EVANGELINE ST', 'EVANGELINE ST.', 'EVANGLINE', 'EVANS', 'EVEANGELINE', 'EVEN BROOKS', 'EVERGLADE', 'EVERGLADES', 'EVERGREEN', 'EXCALIBUR', 'EXCHANGE', 'EXCHANGE PLACE', 'EXECUTIVE  PARK', 'EXECUTIVE PAARK', 'EXECUTIVE PARK', 'EXHANGE', 'F', 'FAICHILD', 'FAIIRCHILD', 'FAIR FILEDS', 'FAIR OAK', 'FAIR OAKS', 'FAIRCHILD', 'FAIRCHILD ST', 'FAIRCREST', 'FAIRFAX', 'FAIRFEILDS', 'FAIRFIELD', 'FAIRFIELDS', 'FAIRGATE', 'FAIRGREEN', 'FAIRHAM', 'FAIRHAVEN', 'FAIRHOPE', 'FAIRMONT', 'FAIRMOUNT', 'FAIROAK', 'FAIRWAY', 'FAIRWOOD', 'FAIRWOODS', 'FAITH COURT', 'FALL RIVER', 'FANNIE', 'FARIFIELDS', 'FARIWOOD', 'FARRAR', 'FARRINGTON', 'FARRINTON', 'FELICITY', 'FELLSWAY', 'FELONY THEFT', 'FENWAY', 'FERDINAND', 'FERNCLIFF', 'FERNDALE', 'FERNWOOD', 'FERRET', 'FERRETT', 'FIARFIELDS', 'FIELD HOUSE', 'FIELDGATE', 'FIELDHOUSE', 'FIERO', 'FIESTA', 'FIFTH', 'FIG', 'FINCH', 'FINCH ST.', 'FINCHLEY', 'FIRELIGHT', 'FIREWOOD', 'FLA', 'FLAG', 'FLANDERS', 'FLANERY', 'FLANNERY', 'FLATSWAY', 'FLEET', 'FLEMING', 'FLETCHER WILLIAMS', 'FLICKER', 'FLOIDA', 'FLOIRDA', 'FLOORLINE', 'FLOR', 'FLORA', 'FLORDA', 'FLORDIA', 'FLORENCE', 'FLORID', 'FLORIDA', 'FLORIDA BLVD', 'FLORIDA BLVD S. SERVICE', 'FLORIDA BLVD.', 'FLORIDA BOLEVARD', 'FLORIDA BOULEVARD', 'FLORIDA ST', 'FLORIDA.', 'FLORIDIA', 'FLORIIDA', 'FLORLINE', 'FLOYD', 'FLROIDA', 'FM 1571 OLD MILL', 'FORD', 'FORD ST', 'FOREST', 'FOREST OAK', 'FOREST OAKS', 'FOREST PARK', 'FORGE', 'FORIDA', 'FORSTER', 'FORSYTHIA', 'FOSS', 'FOSTER', 'FOSTER/GOVERNMENT', 'FOUNTAIN', 'FOURTH', 'FOX CROFT', 'FOX LANE', 'FOX RUN', 'FOXCROFT', 'FOXLANE', 'FOXRUN', 'FOXSHIRE', 'FOXTON', 'FOXWOOD', 'FRAIRTUCK', 'FRANCE', 'FRANCES HARRIET', 'FRANCIS HARRIET', 'FRANKFURT', 'FRANKLIN', 'FRANWOOD', 'FRAT', 'FRATERNITY', 'FRATERNITY DR', 'FREY', 'FRIAR TUCK', 'FRISCO', 'FRITCHIE', 'FRY', 'FULTON', 'FUQUA', 'G', 'G LEON NETTERVILLE', 'GABRIEL OAKS', 'GALAHAD', 'GALERIA', 'GALLERIA', 'GALVEZ', 'GAMMA', 'GARCO', 'GARDERE', 'GARFIELD', 'GARIG', 'GARNER', 'GARNET', 'GARY', 'GASSIE', 'GASSIE ST', 'GATES', 'GATES CIRCLE', 'GAWAIN', 'GAY', 'GAYASA', 'GAYOSA', 'GAYSOA', 'GEBELIN', 'GEBHART', 'GEN CHENNAULT', 'GEN ISAAC SMITH', 'GEN ISSAC SMITH', 'GENERAL CHENAULT', 'GENERAL CHENNAULT', 'GENERAL ISAAC SMITH', 'GENERAL ISAC SMITH', 'GENERAL ISSAC SMITH', 'GENERAL LEE', 'GENERAL PRENTISS', 'GEOGIA', 'GEORGE', 'GEORGE ONEAL', 'GEORGETOWN', 'GEORGIA', 'GERALD', 'GERANDEUR', 'GERANIUM', 'GERLANDO', 'GERMANTOWN', 'GERONIMO', 'GIBBENS', 'GIBBINS', 'GIBBONS', 'GIBSON', 'GILBERT', 'GLADDEN', 'GLADEWOOD', 'GLADIOLA', 'GLASGOW', 'GLEN', 'GLEN OAKS', 'GLEN OAKS DR', 'GLENBURIE', 'GLENBURNIE', 'GLENDA', 'GLENDALE', 'GLENDWILD', 'GLENHAVEN', 'GLENMORE', 'GLENN OAKS', 'GLENNOAKS', 'GLENNSADE', 'GLENOAKS', 'GLENWAY', 'GLENWILD', 'GLENWOOD', 'GODFREY', 'GODWOOD', 'GOLD CUP', 'GOLDENROD', 'GONERNMENT', 'GOODE', 'GOODWOOD', 'GOOSE', 'GOOVERNMENT', 'GORDON', 'GORE', 'GOTILEB', 'GOTLIEB', 'GOTTLEIB', 'GOTTLIEB', 'GOUDCHAUX', 'GOUDCHAUX ST.', 'GOUDCHEAUX', 'GOURRIER', 'GOURRIER AVE', 'GOV', 'GOVENRMENT', 'GOVERMENT', 'GOVERMNENT', 'GOVERMNET', 'GOVERNEMENT', 'GOVERNENT', 'GOVERNMEMT', 'GOVERNMENT', 'GOVERNMENT ST', 'GOVERNMENT STREET', 'GOVERNMNET', 'GOVERNOR BLANCHARD', 'GOVERNTMENT', 'GOYA', 'GR', 'GRACIE', 'GRAHAM', 'GRANADA', 'GRAND', 'GRAND TETON', 'GRANDEAUR', 'GRANDEUR', 'GRANDPRE', 'GRANDUER', 'GRANT', 'GREAT  SMOKEY', 'GREAT SMOKEY', 'GREAT SMOKY', 'GREBE', 'GREEN OAK', 'GREEN OAKS', 'GREENBRIAR', 'GREENCASTLE', 'GREENMOSS', 'GREENOAK', 'GREENSIDE', 'GREENTREE', 'GREENWAY', 'GREENWEEL SPRINGS', 'GREENWELL', 'GREENWELL PRRINGS', 'GREENWELL SPINGS', 'GREENWELL SPRIINGS', 'GREENWELL SPRING', 'GREENWELL SPRINGS', 'GREENWELL SPRINGS RD', 'GREENWELL SPRINGS RD.', 'GREENWELL SPRINGS ROAD', 'GREENWELL ST', 'GREENWELL ST.', 'GREENWELLS SPRINGS', 'GREENWELLSPRINGS', 'GREENWICH', 'GREENWOOD', 'GREENWWLL', 'GREGWORTH', 'GRETA', 'GRONER', 'GROOM', 'GSRI', 'GUAVA', 'GUM', 'GURLIE', 'GURNEY', 'GURNEY ST.', 'GUS  YOUNG', 'GUS YOUND', 'GUS YOUNG', 'GUS YOUNG AVE.', 'GWEB', 'GWEN', 'GWENADADELE', 'GWENADALE', 'GWENADALLE', 'GWENADELE', 'GWENADELLE', 'GWENADLE', 'GWENDALE', 'GWENDELE', 'GWENEDALE', 'GWENEDELE', 'HADRING', 'HAIG', 'HALEY', 'HALFWAY TREE', 'HALLMARK', 'HAMILTON', 'HAMMOD', 'HAMMOND', 'HAMMOND ST', 'HAMPTON', 'HAMPTON WAY', 'HANKS', 'HARCO', 'HARDING', 'HARDING BLVD', 'HARDING BLVD.', 'HARDWICK', 'HARELLS FERRY', 'HARELSON', 'HARLESON', "HARRELL'S FERREY", "HARRELL'S FERRY", 'HARRELLS FERRY', 'HARRELLS FERRY Q', 'HARRELLS FERY', "HARRELLS'S FERRY", 'HARRELLSFERRY', 'HARRELS FERRY', 'HARRIET', 'HARRIS', 'HARRISON', "HARRLL'S FERRY", 'HARRY', 'HARRY DR', 'HARRY DRIVE', "HART'S MILL", 'HARVARD', 'HARVEY', 'HARWICH', 'HARWICK', 'HASTINGS', 'HATCHER', 'HATERAS', 'HATERASS', 'HATTERAS', 'HATTERS', 'HAVANA', 'HAVENPARK', 'HAVENWOOD', 'HAYMARKET', 'HAZEL', 'HAZELWOOD', 'HAZEWOOD', 'HEARTHSTONE', 'HEARTSMILL', 'HEARTSTONE', 'HEATH', 'HEATHER', 'HEATHERSTONE', 'HEATHERVIEW', 'HEATHERWOOD', 'HEBERT', 'HEDGEWOOD', 'HEIDEL', 'HELEN BARRON', 'HELENE', 'HELVETIA', 'HEMLOCK', 'HENAGEN', 'HENAGGEN', 'HENAGON', 'HENDERSON', 'HENDRICKS', 'HENDRSON', 'HENESSEY', 'HENESSY', 'HENNAGEN', 'HENNESEE', 'HENNESEY', 'HENNESSBOARDWALKEY', 'HENNESSEY', 'HENNESSY', 'HENNESSY BL', 'HENNSSEY', 'HENRY E COBB', 'HERITAGE', 'HERMADEL', 'HERMITAGE', 'HERMOSA', 'HERON', 'HERWOOD FOREST', 'HEWWOOD', 'HGHLAND', 'HIAWATHA', 'HIBISCUS', 'HICKORY', 'HIDDEN GARDEN', 'HIDDEN GARDENS', 'HIDDEN GATE', 'HIDDEN GATES', 'HIDDEN RIDGE', 'HIDDENRIDGE', 'HIDEAWAY', 'HIDEWAY', 'HIGGINS', 'HIGH MEADOW', 'HIGH POINT', 'HIGHALND', 'HIGHLABND', 'HIGHLAD', 'HIGHLAND', 'HIGHLAND CREEK', 'HIGHLAND PARK', 'HIGHLAND RD', 'HIGHLANDIA', 'HIGHLND', 'HIGHMEADOW', 'HIGHWAY', 'HIGHWAY 19', 'HIGLAND', 'HIHGLAND', 'HIIGHLAND', 'HILL TRACE', 'HILLCREAST', 'HILLCREST', 'HILLCRESTA', 'HILLMONT', 'HILLSDALE', 'HILLTOP', 'HILLTRACE', 'HILTON', 'HILTON GARDEN INN', 'HITCHCOCK', 'HOLLEYWOOD', 'HOLLOWAY', 'HOLLOYWOOD', 'HOLLY', 'HOLLYDALE', 'HOLLYSTONE', 'HOLLYWOOD', 'HOLLYWOOD CROSSOVER', 'HOLLYWOOD ST', 'HOLLYWOOD ST.', 'HOLMES', 'HOLT', 'HOMER', 'HOMEWOOD', 'HONEYSUCKLE', 'HOO SHOO TOO', 'HOOD', 'HOOLYWOOD', 'HOOPER', 'HOOPER RD', 'HOOTSELL', 'HOPE ESTATE', 'HOPPER', 'HORACE', 'HOWARD', 'HOWELL', 'HOWELL  RANGE', 'HOWELL BLVD', 'HOWELL PA', 'HOWELL PARK', 'HOWELL PLACE', 'HOWELL RANGE', "HUDSON'S", 'HUGHLAND', 'HUMPHREYS', 'HUNDRED OAK', 'HUNDRED OAKS', 'HUNDRED OAKS AVENUE', 'HUNT', 'HURON', 'HURST', 'HWY  19', 'HWY 19', 'HWY 19 (SCOTLAND AVE)', 'HWY 19TH', 'HWY 61', 'HWY, 19', 'HWY.19', 'HWY19', 'HYACINTH', 'HYANCINTH', 'I - 10', 'I - 10   /    ACADIAN THWY', 'I - 10   /   ACADIAN THWY', 'I - 10 / ACADIAN THWY', 'I - 10 / COLLEGE DR', 'I - 10 / COLLEGE DR.', 'I - 10 / WASHINGTON ST.', 'I - 110', 'I - 12', "I - 12   /   O'NEAL LANE", "I - 12  /  O'NEAL LANE", 'I - 12  /  SHERWOOD FOREST', 'I - 12 / AIRLINE HWY', 'I - 12 / DRUSILLA', 'I - 12 / ESSEN LN', 'I - 12 / MILLERVILLE', 'I - 12 / OVER JEFFERSON HWY', 'I - 12 / SHERWOOD FOREST', 'I -10 / ACADIAN THWY ON RAMP', 'I -110', 'I -12', 'I 10', 'I 110', 'I 12', 'I--10', 'I-10', 'I-10 / ACADIAN THWY', 'I-10 / COLLEGE DR', 'I-10 @ HWY 73', 'I-10 EAST', 'I-10 EAST ON RAMP', 'I-10 EAST ON RAMP LAFFY.', 'I-10 FRONTAGE', 'I-10 S. BOUND @ N. NINETH EX', 'I-10 SERVICE', 'I-10 WEST @ DALRYMPLE', 'I-110', 'I-110 / HARDING', 'I-110 N. B. @ CAPITAL ACCESS', 'I-110 S/B @ AIRLINE', 'I-110 SOUTH @ WELLER', 'I-12', 'I-12  /  ESSEN LANE', 'I-12  WESTBOUND', 'I-12 / AIRLINE HWY', 'I-12 / MILLERVILLE', 'I-12 / SHERWOOD FOREST', 'I-12 EAST', 'I10', 'I110', 'I110 ENTRANCE', 'I12', 'IBERIA', 'IBERIA ST', 'IBERIA ST.', 'IBERIEA', 'IBERVILLE', 'IBEVILLE', 'IDLE OAKS', 'ILLINOIS', 'INCHBROOK', 'INDEPENCE', 'INDEPENDANCE', 'INDEPENDECE', 'INDEPENDENCE', 'INDIANA', 'INDIUSTRIAL', 'INDUSTRIAL', 'INGE', 'INGLESIDE', 'INNISWOLD', 'INTERLINE', 'INTERSTATE', 'INTERSTATE 10', 'INTERSTATE 110', 'INTERSTATE 110 (N/B)', 'INTERSTATE 12', 'INTERSTATE110', 'INTERTSATE 10', 'INTERTSTATE 12', 'INVERRARY', 'IOWA', 'IRA', 'IRIQUIOS', 'IRIQUOIS', 'IRIS', 'IROQOUIS', 'IROQUIOS', 'IROQUOIS', 'IRVINE', 'IVANHOE', 'J H COONEY', 'J. H. COONEY', 'J.H. COONEY', 'J.H.COONEY', 'JACKIE COCHRAN', 'JACKSON', 'JADE', 'JAMAICA', 'JAMESTOWN', 'JAMIACA', 'JAMICA', 'JANET', 'JANICE', 'JAPONICA', 'JASMINE', 'JASPER', 'JASSAMINE', 'JAY', 'JAY HEBERT', 'JEAN', 'JEFF DAVIS', 'JEFFERSON', 'JEFFERSON DAVIS', 'JEFFERSON HIGHWAY', 'JEFFERSON HWY', 'JEFFERSON WOODS DR', 'JEFFESON', 'JEFFRSON', 'JENNIFER JEAN', 'JENNIFER LYNN', 'JENNIFER LYNNE', 'JESSAMINE', 'JEWEL', 'JH COOHNEY', 'JH COONEY', 'JIM TAYLOR', 'JO ANNE', 'JO ANNNE', 'JOCKEY CLUB', 'JOE LOUIS', 'JOHNSNO', 'JOHNSON', 'JOHNSTON', 'JOHSON', 'JOILET', 'JOLIET', 'JOLLY', 'JOLSEN', 'JOLSON', 'JONAH', 'JONES', 'JONES CREEK', 'JOOR', 'JOPLIN', 'JORDAN', 'JOSEPH', 'JOSPEH', 'JOYCE', 'JPLANK', 'JRFFERSON', 'JUBAN', 'JUDI', 'JULIA', 'JULIA ST', 'JULY', 'JUNE', 'JUNIPER PARK', 'JURA', 'JUSTICE', 'KALURAH', 'KANAS', 'KANSAS', 'KAREN', 'KATHERINE', 'KAUFMAN', 'KAUFMAN ST.', 'KAY', 'KEANLAND', 'KEATY', 'KEED', 'KEEL', 'KEKOUK', 'KELVIN', 'KELWOOD', 'KENDALWOOD', 'KENILWORTH', 'KENILWORTH PARKWAY', 'KENIWORTH', 'KENLEE', 'KENMORE', 'KENNY', 'KENSINGTON', 'KENTUCKY', 'KENWOOD', 'KEOKUK', 'KERNAN', 'KERR', 'KEUKUK', 'KEVEL', 'KEY', 'KILDEER', 'KILKENNY', 'KILT', 'KILT PLACE', 'KIMBERLY', 'KIMBERLY WAY', 'KIMBRO', 'KIMMERIDGE', 'KINCAID', 'KING', 'KING ARTHUR', 'KING CREST', 'KING JOHN', 'KING RICHARD', "KING'S CANYON", "KING'S HILL", 'KINGCREST', 'KINGCREST PARKWAY', 'KINGFISHER', 'KINGLET', 'KINGS CANYON', 'KINGS CAYON', 'KINGS HILL', 'KINGSCREST', 'KINGSTON', 'KIOWA', 'KIRKLEY', 'KIRLKLEY', 'KISSEL', 'KISSELL', 'KISSELL ST', 'KITTY', 'KLEINART', 'KLEINERT', 'KLEINPETER', "KNIGHT'S BRIDGE", 'KNIGHTS BRIDGE', 'KNOLLWOOD', 'KODIAK', 'KOLIN', 'KORNMEYER PLAZA', 'KRISTA', 'L', "L'AUBERGE", 'LA 19', 'LA 19TH', 'LA AINNIE', 'LA ANNIE', 'LA BELLE', 'LA HWY 19', 'LA HWY 61 (SCENIC)', 'LA MARGIE', 'LA. HWY. 19', 'LAANNIE', 'LAC CACE', 'LAC CACHE', 'LACA', 'LACEY', 'LAFASO', 'LAFAYEETE', 'LAFAYETTA', 'LAFAYETTE', 'LAFETTE', 'LAFEYETTE', 'LAFOURCHE', 'LAJESHORE', 'LAKE', 'LAKE  CALAIS', 'LAKE BEAU PRE', "LAKE BEAU PRE'", 'LAKE CALAIS', 'LAKE CALIS', 'LAKE FOREST PARK', 'LAKE HILLS', 'LAKE LA BELLE', 'LAKE LA DARE', 'LAKE LABELLE', 'LAKE LABERGE', 'LAKE LADARE', 'LAKE LAMOND', 'LAKE LAROUGE', 'LAKE LATANIA', 'LAKE LAWFORD', 'LAKE LAWRENCE', 'LAKE LEBERGE', 'LAKE LERY', 'LAKE LILY', 'LAKE LIMESTONE', 'LAKE LINGHAM', 'LAKE LIVINGSTON', 'LAKE LORA', 'LAKE SHERWOOD', 'LAKE SHERWOOD EAST', 'LAKE SHERWOOD FOREST', 'LAKE SHERWWOD', 'LAKE SHORE', 'LAKE WORTH', 'LAKECREST', 'LAKELAND', 'LAKERIDGE', 'LAKES', 'LAKESHORE', 'LAKESHORRE', 'LAKEWOOD', 'LAMARGIE', 'LAMBERT', 'LANCASTER', 'LANCELOT', 'LANDING', 'LANDWOOD', 'LANIER', 'LANINGSTON', 'LANSWOOD', 'LARCHWOOD', 'LARK', 'LARKSPUR', 'LARKST', 'LAS COLINAS', 'LASALLE', 'LASSEN', 'LAUBERGE', 'LAUREL', 'LAUREL LAKES', 'LAUREL PLANTATION', 'LAURELLAKES', 'LAURELWOOD', 'LAURYNWOOD', 'LAVA BEDS', 'LAVINA', 'LAVINIA', 'LAWN', 'LAYTON', 'LE ANNIE', 'LEA ANN', 'LEBANON', 'LEE', 'LEE ANNE', 'LEE DRIVE', 'LEEANNE', 'LEESVILLE', 'LEEWARD', 'LEGACY', 'LEHMAN', 'LEHMANN', 'LEIGHTON', 'LEIGHWOOD', 'LEMOMWOOD', 'LEMONWOOD', 'LENOARD', 'LEO', 'LEONARD', 'LEONIDAS', 'LESSMAN', 'LETITIA', 'LETTSWORTH', 'LEVERA', 'LEWIS', 'LEXINGTON', 'LEYCASTER', 'LEYCESTER', 'LEYLAND', 'LI ROCCHI', 'LI ROCCI', 'LIDEN', 'LIL JOHN', 'LILA', 'LILS', 'LIMEWOOD', 'LINDA', 'LINDALE', 'LINDEN', 'LINWOOD', 'LIROCCHI', 'LITTLE  JOHN', 'LITTLE JOHN', 'LITTLEWOOD', 'LITTLEWOODS', 'LIVE OAK', 'LIVE OAKS', 'LIVESTOCK', 'LLAKE LADERE', 'LOAN OAK', 'LOBDELL', 'LOBDELLL', 'LOBELIA', 'LOBELLIA', 'LOBWOOD', 'LOCATION UNKNOWN', 'LOCATIONS UNKNOWN', 'LOCHNESS', 'LOCKEFIELD', 'LOCKHAVEN', 'LOCKSLEY', 'LOCKWOOD', 'LODBDELL', 'LODDELL', 'LODELL', 'LOFASO', 'LONE OAK', 'LONE OAKS', 'LONEOAK', 'LONG OAK', 'LONGBOW', 'LONGFELLLOW', 'LONGFELLOW', 'LONGFELLOW DR', 'LONGFELOW', 'LONGRIDGE', 'LONGVIEW', 'LONGWOOD', 'LONITA', 'LORNA', 'LORRAINE', 'LORRAINE ST', 'LORRAINE ST.', 'LORRANNE', 'LORRRAINE', 'LOTUS', 'LOUISE', 'LOUISIANA', 'LOURAY', 'LOUSIANA', 'LOVERS', 'LOWER JOHNSON', 'LOYOLA', 'LSU', 'LSU PLACE', 'LT GEN BENJAMIN DAVIS JR', 'LT GENERAL BENJAMIN DAVIS', 'LUCILLA', 'LULA', 'LUPINE', 'LYDIA', 'LYNBROOK', 'LYNELL', 'LYNN', 'MACEDONIA', 'MACRELLIOUS', 'MADEIRA', 'MADELINE', 'MADISIN', 'MADISON', 'MADRAS', 'MADRID', 'MAESTRI', 'MAGEE', 'MAGNA CARTA', 'MAGNOLIA', 'MAGNOLIA LEAF', 'MAGNOLIA WOOD', 'MAGNOLIA WOODS', 'MAIN', 'MAIN STREET', 'MAIN2', 'MAISON DEVILLE', 'MAJOR OAK', 'MAJOR OAKS', 'MALBROOK', 'MALL', 'MALL LOUISIANA', 'MALL OF LOUISIANA', 'MALLARD', 'MALLORY', 'MALMAISON', 'MAMMOTH', 'MAMOTH', 'MANCUSO', 'MANHANTTAN', 'MANORWOOD', 'MANSON', 'MAPLE', 'MAPLE DR', 'MAPLEWOOD', 'MAR', 'MARCEL', 'MARCELLIOUS', 'MARCELLLIOUS', 'MARCH', 'MARCI', 'MARCIA', 'MARGARET', 'MARGARET ANN', 'MARGEBROOK', 'MARGUE ANN', 'MARIBEL', 'MARICA', 'MARIE', 'MARIGOLD', 'MARILYN', 'MARILYNN', 'MARION', 'MARKET', 'MARKET PLACE', 'MARKETPLACE', 'MARLBROOK', 'MARQUE  ANN', 'MARQUE ANN', 'MARQUE ANNE', 'MARQUEANN', 'MARQUETTE', 'MARSH', 'MARSHALL', 'MARTIN', 'MARWEDE', 'MARWOOD', 'MARY', 'MARY ANN', 'MARY ELLEN', 'MARY EVERS', 'MARY LOU', 'MARY RUTH', 'MARY SUE', 'MARYDON', 'MARYLAN', 'MARYLAND', 'MARYLIN', 'MARYLNN', 'MARYLOU', 'MASON', 'MASON AVE', 'MASON AVE.', 'MATILDA', 'MATTHEWS', 'MAXAMILLION', 'MAXIMILIAN', 'MAXIMILLAIN', 'MAXIMILLIAN', 'MAXIMILLION', 'MAXINE', 'MAXMILIAN', 'MAY', 'MAY BELLE', 'MAYAN', 'MAYFAIR HILL', 'MAYFLOWER', 'MAYHAW', 'MAYWOOD', 'MC BAN', 'MC CLELLAND', 'MC CLUNG', 'MC CONNELL', 'MC DONALD', 'MCCALOP', 'MCCALUP', 'MCCARROLL', 'MCCELLAND', 'MCCLEALLAND', 'MCCLELAND', 'MCCLELANND', 'MCCLELLAND', 'MCCLELLAND DR', 'MCCLELLAND DR.', 'MCCLELLEND', 'MCCLLEAND DR.', 'MCCLLELAND', 'MCCLUNG', 'MCCONNELL', 'MCCULAND', 'MCDONALD', 'MCGEHEE', 'MCGRATH', 'MCILHENNY', 'MCKINLEY', 'MCKINOEY', 'MCLELLAND', 'MCMICHAEL', 'MEAD', 'MEADE', 'MEADOW LEA', 'MEADOW PARK', 'MEADOW WOOD', 'MEADOWBROOKS', 'MEADOWOOD', 'MEEKER', 'MEGEL', 'MELANIE', 'MELON', 'MELROSE', 'MENGEL', 'MENLO', 'MENSIA', 'MEREDITH', 'MERGANZER', 'MERLE GUSTAFSON', 'MERLIN', 'MERRYDALE', 'MESA VERDE', 'MESAVERDE', 'MIAN', 'MICHELLI', 'MIDDLESEX', 'MIDWAY', 'MIKE', 'MILBURN', 'MILL LANE', 'MILLBURN', 'MILLDALE', 'MILLER DORMITORY - LSU', 'MILLERVILLE', 'MILLGATE', 'MILLS', 'MILLS AVE', 'MILLS AVE.', 'MILLSTLONE', 'MILLSTONE', 'MILLWOOD', 'MILNOR', 'MILS', 'MIMOSA', 'MINDEN', 'MINMESOTA', 'MINNESOTA', 'MIRAFLORES', 'MISSION', 'MISSISSIPPI', 'MISSISSIPPO', 'MISSON', 'MISSOURI', 'MISTY CREEK', 'MISTYBROOK', 'MITCHELL', 'MOCHICAN', 'MOCKINGBIRD', 'MOHAWK', 'MOHICAN', 'MOHICAN / N. FOSTER', 'MOHICAN PRESCOTT', 'MOHICAN PRESCOTT CROSS', 'MOHICAN PRESCOTT CROSS OVER', 'MOHICAN PRESCOTT CROSSOVER', 'MOHICAN-PRESCOTT', 'MOHICAN-PRESCOTT CROSSOVER', 'MOHICAN/PRECCOTT CROSSOVER', 'MOHICAN/PRESCOTT', 'MOHICAN/PRESCOTT CROSSOVER', 'MOHICAN/PRESOCTT', 'MOHICANPRESCOTT CROSSOVER', 'MOHICHAN PRESCOTT XOVER', 'MOHINCAN', 'MOHNICAN PRESCOTT', 'MOLLY LEA', 'MOLLYLEA', 'MONACO', 'MONARCH', 'MONARCH AVE', 'MONARCH AVE.', 'MONET', 'MONEY', 'MONITEAU', 'MONMOUTH', 'MONROE', 'MONTA SANO', 'MONTE SANO', 'MONTE SANO AVE', 'MONTECELLO', 'MONTEREY', 'MONTERRAY', 'MONTERREY', 'MONTERRY', 'MONTESANO', 'MONTGOMERY', 'MONTROSE', 'MOON', 'MOORE', 'MOORSTONE', 'MORELAND', 'MORGAN BEND', 'MORGANBEND', 'MORLAIX', 'MORMING GLORY', 'MORNING GLORY', 'MORNINGBROOK', 'MORNINGSIDE', 'MORVANT', 'MOSS SIDE', 'MOTERREY', 'MOUNT CARMEL', 'MOUNT HOPE', 'MOUNT HOPE ALLEY', 'MOUNT PLEASANT', 'MOUTON', 'MRYTLE WALK', 'MT HOPE', 'MULBERRY', 'MULBERRY HILL', 'MUMFORD', 'MURIAL', 'MURIEL', 'MURPHY', 'MUSE', 'MYRTLE', 'MYRTLE WALK', 'MYRTLEDALE', 'MYRTLELAWN', 'MYRTLEWALK', 'N 23', 'N 23RD', 'N 26', 'N 29TH', 'N 35TH', 'N 38TH', 'N 3RD', 'N 46TH', 'N 48TH', 'N 4TH', 'N ACADIAN', 'N ACADIAN WEST', 'N FOSTER', 'N LOBDELL', 'N ROTHMER', 'N SHERWOOD FOREST', 'N. 13TH', 'N. 14TH ST', 'N. 18TH', 'N. 21ST', 'N. 29TH', 'N. 35TH', 'N. 36TH', 'N. 37TH', 'N. 38TH', 'N. 39TH', 'N. 3RD', 'N. 40TH', 'N. 43RD', 'N. 44', 'N. 44TH', 'N. 46TH', 'N. 47TH', 'N. 48TH', 'N. ACADIAN', 'N. ACADIAN AT MADISON', 'N. ARDENWOOD', 'N. BAXTER', 'N. BLVD', 'N. BOURGEOIS', 'N. BOURGIOS', 'N. EUGENE', 'N. FLANNERY', 'N. FOSTER', 'N. HOWELL', 'N. I-110', 'N. LOBDELL', 'N.15TH', 'N.16TH', 'N.17', 'N.17TH', 'N.19TH', 'N.20TH', 'N.22ND', 'N.23RD', 'N.24TH', 'N.25TH', 'N.26TH', 'N.28TH', 'N.29TH', 'N.30TH', 'N.31ST', 'N.32ND', 'N.35TH', 'N.37TH', 'N.38TH', 'N.39TH', 'N.3RD', 'N.44TH', 'N.46TH'</t>
         </is>
@@ -1373,12 +1449,18 @@
         </is>
       </c>
       <c r="T13" t="n">
+        <v>74702</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
         <v>507384</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>15</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['AV', 'BL', 'BT', 'CR', 'CT', 'DR', 'HW', 'LN', 'OT', 'PK', 'PL', 'RD', 'ST', 'TH', 'WY']</t>
         </is>
@@ -1451,12 +1533,18 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2903747</v>
+        <v>263977</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" t="n">
+        <v>2903747</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>['BATON ROUGE']</t>
         </is>
@@ -1529,12 +1617,18 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>527954</v>
+        <v>263977</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" t="n">
+        <v>527954</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>['LA']</t>
         </is>
@@ -1603,12 +1697,18 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
+        <v>121010</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>733670</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>304</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>['0.613194444', '1', '11', '2012', '20802', '2092', '2C3', '3063', '39402', '56082', '60473', '60715', '60816', '7', '7-0805', '7-802', '7-815', '7/08/2005', '7/08/2006', '70', '70/802', '70002', '70005', '7002', '7005', '70058', '7006', '70062', '7007', '70070', '7008', '700802', '700805', '700806', '700807', '700815', '700816', '700817', '70082', '70085', '701', '70114', '70123', '70125', '7014', '7015', '7016', '7018', '701815', '701816', '70184', '70185', '70186', '70302', '7036', '70380', '70420', '70422', '70433', '70447', '70460', '70502', '70503', '70505', '70508', '70515', '705815', '70602', '70615', '70616', '70669', '707', '70701', '70702', '70705', '70706', '7070616', '70707', '70708', '70709', '70710', '707114', '70712', '70714', '70715', '70716', '70718', '70720', '70726', '70730', '70737', '70739', '70748', '70752', '70756', '70764', '70767', '70769', '70770', '70777', '70780', '707807', '707808', '707816', '70785', '70786', '70791', '708', '708 02', '7080', '7080 5', '70800', '708001', '708002', '708005', '708006', '708007', '708008', '70801', '708010', '708011', '708012', '708013', '708014', '708015', '708016', '708017', '70802', '70802-', '708020', '7080201', '708022', '708025', '70802A', '70802C', '70802L', '70802NAT', '70802PN', '70803', '70804', '708045', '70805', '708051', '708054', '70805C', '70805CC', '70805IN', '70805LA', '70805NAT', '70805P', '70805PN', '70805QQ', '70805`', '70806', '7080601', '708061', '708065', '70806PN', '70807', '708070', '7080715', '708078', '70807C', '70807PN', '70807Q', '70808', '708080', '708082', '708085', '708086', '708088', '70808C', '70808NAT', '70808Q', '70809', '70809PN', '7080=10', '7080F', '7081', '70810', '70811', '708111', '7081113', '708112', '708115', '708117', '70812', '70813', '70814', '708144', '70814C', '70815', '708151', '70815P', '70815PN', '70815`', '70816', '708160000', '70816=5', '70816C', '70816N', '70817', '70818', '70819', '708196', '7082', '70820', '70820C', '70821', '70823', '70824', '70825', '70826', '7082=02', '70836', '70839', '7085', '70850', '7086', '7087', '708702', '708715', '70873', '7088', '708802', '708805', '708811', '708814', '708816', '708906', '70891', '70892', '70895', '708`5', '708`6', '70905', '70906', '70907', '70909', '70914', '70915', '70916', '709816', '71037', '71129', '71203', '71373', '71403', '75039', '750807', '75453', '760805', '760816', '770808', '77803', '78002', '78005', '7801', '78014', '78016', '7802', '78020', '7805', '7808', '780802', '7815', '7816', '79', '798', '79802', '79808', '79815', '79816', '79898', '7O819', '7P0805', '7U0806', '802', '805', '806', '80802', '80805', '80806', '80807', '80808', '80816', '80912', '811', '815', '870802', '902', 'AA', 'L70815', 'LA', 'P10402', 'PN', 'Q70802', 'SD70820', ']70805', '`', '`70805', '`70808', '`70815', '`70816']</t>
         </is>
@@ -1681,12 +1781,18 @@
         </is>
       </c>
       <c r="T17" t="n">
+        <v>78012</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>254200</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>5</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', 'O']</t>
         </is>
@@ -1759,12 +1865,18 @@
         </is>
       </c>
       <c r="T18" t="n">
+        <v>54338</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>254200</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>8</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>['A', 'B', 'C', 'D', 'E', 'F', 'G', 'T']</t>
         </is>
@@ -1837,12 +1949,18 @@
         </is>
       </c>
       <c r="T19" t="n">
+        <v>120153</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>254200</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>6</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', '5', 'H']</t>
         </is>
@@ -1911,12 +2029,18 @@
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
+        <v>13573</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>912455</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>77</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>['1.00E+01', '1.00E+02', '1A1', '1A2', '1A3', '1A4', '1B1', '1B2', '1B3', '1B4', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '2.00E+01', '2.00E+02', '2.00E+03', '2.00E+04', '2.00E+05', '2A1', '2A2', '2A3', '2A4', '2B1', '2B2', '2B3', '2B4', '2B5', '2C1', '2C2', '2C3', '2D1', '2D2', '2D3', '2F1', '2F2', '3.00E+01', '3.00E+02', '3.00E+03', '3.00E+04', '3.00E+05', '3A1', '3A2', '3A3', '3B1', '3B2', '3C1', '3C2', '3C3', '3D1', '3D2', '3D3', '3F1', '3F2', '3F3', '3G1', '3G2', '3G3', '4.00E+01', '4.00E+02', '4A1', '4A2', '4B1', '4B2', '4B3', '4C1', '4C2', '4D1', '4D2', '4D3', '4F1', '4F2', 'OTH']</t>
         </is>
@@ -1985,12 +2109,18 @@
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
+        <v>1662</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>14912566</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>90543</v>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>['1 DAIRYMPLE DR\nBATON ROUGE, LA 70802', '1 DAIRYMPLE ST\nBATON ROUGE, LA 70802', '1 DALRYMPLE\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE\nBATON ROUGE, LA 70808', '1 DALRYMPLE\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70802\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70803\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DARLYMPLE DR\nBATON ROUGE, LA', '1 DARYMPLE\nBATON ROUGE, LA 70820', '1 RUE SORBONNE\nBATON ROUGE, LA 70808\n(30.406303, -91.171551)', '1 RUE SORBONNE ST\nBATON ROUGE, LA 70808\n(30.406384, -91.171672)', '1 S AMITE DR\nBATON ROUGE, LA', '1 W FRATERNITY DR\nBATON ROUGE, LA', '1 W LAKESHORE DR\nBATON ROUGE, LA', '10 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415757, -91.175315)', '10 GOVERNMENT ST\nBATON ROUGE, LA 70808', '10 RUE TOULOUSE ST\nBATON ROUGE, LA 70802\n(30.405535, -91.171963)', '100 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 22ND AV\nBATON ROUGE, LA 70802', '100 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 AMHERST AV\nBATON ROUGE, LA\n(30.403615, -91.172333)', '100 AMHERST AV\nBATON ROUGE, LA 70808\n(30.403615, -91.172333)', '100 APARTMENT COURT DR\nBATON ROUGE, LA\n(30.446683, -91.123122)', '100 APARTMENT COURT DR\nBATON ROUGE, LA 70805\n(30.446683, -91.123122)', '100 ASTER ST\nBATON ROUGE, LA\n(30.419875, -91.177346)', '100 ASTER ST\nBATON ROUGE, LA 70802\n(30.419875, -91.177346)', '100 BEDFORD ST\nBATON ROUGE, LA 70806\n(30.448119, -91.157638)', '100 BELLEWOOD DR\nBATON ROUGE, LA 70802\n(30.451043, -91.12217)', '100 BOB PETIT BL\nBATON ROUGE, LA 70810', '100 BRICE ST\nBATON ROUGE, LA\n(30.447708, -91.171056)', '100 BRICE ST\nBATON ROUGE, LA 70802\n(30.447708, -91.171056)', '100 BROADMOOR AV\nBATON ROUGE, LA 70815\n(30.452889, -91.091776)', '100 CAMPUS LAKE RD\nBATON ROUGE, LA 70820', '100 CHATSWORTH ST\nBATON ROUGE, LA\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70802\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70806\n(30.433567, -91.183508)', '100 CHOCTAW DR\nBATON ROUGE, LA', '100 CHOCTAW DR\nBATON ROUGE, LA 70805', '100 CLOUD DR\nBATON ROUGE, LA\n(30.450733, -91.132157)', '100 CLOUD DR\nBATON ROUGE, LA 70806\n(30.450733, -91.132157)', '100 COMMUNITY COLLEGE DR\nBATON ROUGE, LA 70806\n(30.450858, -91.136046)', '100 CONVENTION\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.448174, -91.190353)', '100 COURSEY BL\nBATON ROUGE, LA', '100 CYPRESS DR\nBATON ROUGE, LA 70802', '100 DALRYMPLE\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA 70810', '100 DALRYMPLE DR\nBATON ROUGE, LA 70820', '100 DARYMPLE\nBATON ROUGE, LA 70820', '100 DELPHINE ST\nBATON ROUGE, LA 70802\n(30.447929, -91.164181)', '100 DOROTHY DIX DR\nBATON ROUGE, LA', '100 DOROTHY DIX DR\nBATON ROUGE, LA 70820', '100 E AIRPORT DR\nBATON ROUGE, LA', '100 E BOYD\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70806\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70805\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD HW\nBATON ROUGE, LA', '100 E BOYD HW\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BUCHANAN ST\nBATON ROUGE, LA\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70805\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70808\n(30.424951, -91.179661)', '100 E CHIMES\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70820\n(30.417243, -91.176423)', '100 E FRATERNITY LN\nBATON ROUGE, LA', '100 E FRATERNITY LN\nBATON ROUGE, LA 70802', '100 E GARFIELD ST\nBATON ROUGE, LA\n(30.422449, -91.178505)', '100 E GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 E GRANT DR\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E HARDING ST\nBATON ROUGE, LA\n(30.425906, -91.180094)', '100 E HARDING ST\nBATON ROUGE, LA 70802\n(30.425906, -91.180094)', '100 E HARRISON ST\nBATON ROUGE, LA\n(30.42891, -91.181483)', '100 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.42891, -91.181483)', '100 E I-10\nBATON ROUGE, LA 70802', '100 E I-10 HW\nBATON ROUGE, LA', '100 E I-10 HW\nBATON ROUGE, LA 70802', '100 E I-12\nBATON ROUGE, LA', '100 E I-12\nBATON ROUGE, LA 70802', '100 E I-12 HW\nBATON ROUGE, LA 70816', '100 E I10\nBATON ROUGE, LA', '100 E I10\nBATON ROUGE, LA 70802', '100 E I10\nBATON ROUGE, LA 70808', '100 E I10 HW\nBATON ROUGE, LA', '100 E I10 HW\nBATON ROUGE, LA 70802', '100 E I10 ST\nBATON ROUGE, LA', '100 E I10 ST\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA', '100 E I12\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA 70809', '100 E JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 E MCKINLEY ST\nBATON ROUGE, LA\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70820\n(30.423786, -91.178895)', '100 E PARKER BL\nBATON ROUGE, LA\n(30.404542, -91.173557)', '100 E POLK AV\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70802\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70814\n(30.426906, -91.180554)', '100 E RIVER OAKS DR\nBATON ROUGE, LA 70816\n(30.453918, -91.087749)', '100 E ROOSEVELT RD\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70806\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70805\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70808\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70820\n(30.418207, -91.176576)', '100 E WASHINGTON ST\nBATON ROUGE, LA\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70805\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70806\n(30.430951, -91.182693)', '100 EAST BL\nBATON ROUGE, LA\n(30.448377, -91.149567)', '100 EAST BL\nBATON ROUGE, LA 70805\n(30.448377, -91.149567)', '100 EAST BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 EAST DR\nBATON ROUGE, LA 70806\n(30.448377, -91.149567)', '100 EAST I-10 HW\nBATON ROUGE, LA', '100 EAST I-10 HW\nBATON ROUGE, LA 70802', '100 EAST I-10 HW\nBATON ROUGE, LA 70808', '100 EAST I-12\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA 700802', '100 EAST I-12 HW\nBATON ROUGE, LA 70802', '100 EAST I-12 HW\nBATON ROUGE, LA 70812', '100 EAST I-12 HW\nBATON ROUGE, LA 70816', '100 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON\nBATON ROUGE, LA 70808\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 ELLWOOD ST\nBATON ROUGE, LA 70802\n(30.434149, -91.184439)', '100 ELMER AV\nBATON ROUGE, LA\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70805\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70807\n(30.537841, -91.20159)', '100 ELTON C HARRISON DR\nBATON ROUGE, LA', '100 ELTON C HARRISON DR\nBATON ROUGE, LA 70807', '100 EVERGREEN DR\nBATON ROUGE, LA\n(30.447945, -91.163126)', '100 EVERGREEN ST\nBATON ROUGE, LA 70802\n(30.447945, -91.163126)', '100 FIELD HOUSE DR\nBATON ROUGE, LA 70820', '100 FLORIDA\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA\nBATON ROUGE, LA 70802', '100 FLORIDA BL\nBATON ROUGE, LA', '100 FLORIDA BL\nBATON ROUGE, LA 70802', '100 FLORIDA ST\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70801\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449273, -91.190404)', '100 FRANCE ST\nBATON ROUGE, LA\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70802\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70805\n(30.442734, -91.190016)', '100 G LEON NETTERVILLE DR\nBATON ROUGE, LA 70807', '100 GARDERE LN\nBATON ROUGE, LA\n(30.365905, -91.119651)', '100 GOTTLIEB ST\nBATON ROUGE, LA\n(30.44809, -91.158998)', '100 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70708\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70805\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70806\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70808\n(30.443968, -91.189906)', '100 GRETA ST\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HAZEL ST\nBATON ROUGE, LA\n(30.434841, -91.184341)', '100 HEARTHSTONE AV\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HEARTHSTONE AV\nBATON ROUGE, LA 70806\n(30.448157, -91.156764)', '100 HEATHERWOOD DR\nBATON ROUGE, LA\n(30.367748, -91.121399)', '100 HELEN BARRON ST\nBATON ROUGE, LA 70811', '100 HENRY E COBB ST\nBATON ROUGE, LA 70807', '100 HOLMES DR\nBATON ROUGE, LA\n(30.451617, -91.11696)', '100 I-10\nBATON ROUGE, LA', '100 I-110 HW\nBATON ROUGE, LA', '100 JASMINE BL\nBATON ROUGE, LA 70808\n(30.448365, -91.150086)', '100 JENNIFER JEAN AV\nBATON ROUGE, LA', '100 JENNIFER JEAN AV\nBATON ROUGE, LA 70820', '100 JULIA ST\nBATON ROUGE, LA', '100 JULIA ST\nBATON ROUGE, LA 70802', '100 JULIA ST\nBATON ROUGE, LA 70806', '100 JULIA ST\nBATON ROUGE, LA 70820', '100 KENILWORTH DR\nBATON ROUGE, LA 70802\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA 70808\n(30.377923, -91.137912)', '100 LAFAYETTE ST\nBATON ROUGE, LA\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70802\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70805\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70808\n(30.447098, -91.189332)', '100 LAFEYETTE ST\nBATON ROUGE, LA 70802', '100 LAUREL\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450299, -91.190465)', '100 LEE\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 LEE DR\nBATON ROUGE, LA\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70802\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70808\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70810\n(30.394183, -91.159427)', '100 LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.459855, -91.051272)', '100 LOBDELL AV\nBATON ROUGE, LA\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70802\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70805\n(30.451651, -91.112061)', '100 LONGBOW DR\nBATON ROUGE, LA\n(30.46088, -91.044769)', '100 LOUISE ST\nBATON ROUGE, LA\n(30.433923, -91.183234)', '100 LOUISE ST\nBATON ROUGE, LA 70802\n(30.433923, -91.183234)', '100 LSU AV\nBATON ROUGE, LA\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70802\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70808\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70810\n(30.402155, -91.170463)', '100 MAIN ST\nBATON ROUGE, LA 70802\n(30.451376, -91.190522)', '100 MAIN ST\nBATON ROUGE, LA 70816\n(30.451376, -91.190522)', '100 MAXIMILIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAXIMILLIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAYFLOWER\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70805\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MCDONALD DR\nBATON ROUGE, LA\n(30.392237, -91.157654)', '100 MCGEHEE DR\nBATON ROUGE, LA\n(30.457735, -91.064563)', '100 MCGEHEE DR\nBATON ROUGE, LA 70815\n(30.457735, -91.064563)', '100 N 10TH ST\nBATON ROUGE, LA 70802\n(30.447454, -91.179693)', '100 N 10TH ST\nBATON ROUGE, LA 70805\n(30.447454, -91.179693)', '100 N 11TH ST\nBATON ROUGE, LA\n(30.447461, -91.178582)', '100 N 11TH ST\nBATON ROUGE, LA 70805\n(30.447461, -91.178582)', '100 N 12TH ST\nBATON ROUGE, LA\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70802\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70805\n(30.447488, -91.177411)', '100 N 13TH ST\nBATON ROUGE, LA\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 700802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70805\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70808\n(30.447539, -91.176222)', '100 N 14 ST\nBATON ROUGE, LA\n(30.447585, -91.175028)', '100 N 14TH ST\nBATON ROUGE, LA\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70802\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70808\n(30.447585, -91.175028)', '100 N 15TH ST\nBATON ROUGE, LA 70802', '100 N 17TH ST\nBATON ROUGE, LA\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70808\n(30.448073, -91.171473)', '100 N 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 N 19TH ST\nBATON ROUGE, LA\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70802\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70806\n(30.447616, -91.169199)', '100 N 20TH ST\nBATON ROUGE, LA\n(30.447808, -91.167896)', '100 N 21ST CT\nBATON ROUGE, LA\n(30.447847, -91.166711)', '100 N 21ST CT\nBATON ROUGE, LA 70820\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70808\n(30.447847, -91.166711)', '100 N 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70805\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70808\n(30.44787, -91.165892)', '100 N 23 RD ST\nBATON ROUGE, LA', '100 N 23 RD ST\nBATON ROUGE, LA 70805', '100 N 23RD ST\nBATON ROUGE, LA\n(30.447929, -91.164181)', '100 N 25 ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70802\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70808\n(30.447979, -91.162635)', '100 N 26TH ST\nBATON ROUGE, LA\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70802\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70806\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70808\n(30.447997, -91.161936)', '100 N 27TH ST\nBATON ROUGE, LA 70808', '100 N 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 N 4TH ST\nBATON ROUGE, LA\n(30.447199, -91.186916)', '100 N 4TH ST\nBATON ROUGE, LA 70802\n(30.447199, -91.186916)', '100 N 5TH ST\nBATON ROUGE, LA\n(30.447253, -91.185465)', '100 N 5TH ST\nBATON ROUGE, LA 70802\n(30.447253, -91.185465)', '100 N 6TH ST\nBATON ROUGE, LA 70802\n(30.447276, -91.184665)', '100 N 6TH ST\nBATON ROUGE, LA 70806\n(30.447276, -91.184665)', '100 N 8 ST\nBATON ROUGE, LA 70802\n(30.447335, -91.182694)', '100 N 8TH ST\nBATON ROUGE, LA\n(30.447335, -91.182694)', '100 N 9TH ST\nBATON ROUGE, LA\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70802\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70812\n(30.447375, -91.181512)', '100 N ACADIAN ST\nBATON ROUGE, LA\n(30.448489, -91.154603)', '100 N ACADIAN ST\nBATON ROUGE, LA 70802\n(30.448489, -91.154603)', '100 N ACADIAN TH\nBATON ROUGE, LA', '100 N ACADIAN TH\nBATON ROUGE, LA 70802', '100 N ARDENWOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70802\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N BAXTER ST\nBATON ROUGE, LA\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70802\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70805\n(30.447896, -91.164911)', '100 N DONMOOR AV\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70802\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N EUGENE ST\nBATON ROUGE, LA 70802\n(30.448041, -91.160442)', '100 N FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 N I-110\nBATON ROUGE, LA', '100 N I110\nBATON ROUGE, LA 70805', '100 N LAFAYETTE ST\nBATON ROUGE, LA 70801\n(30.447098, -91.189332)', '100 N LOBDELL AV\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL AV\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA 70805', '100 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 N RIVER ROAD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 N STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 N STADIUM RD\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM RD\nBATON ROUGE, LA 70810\n(30.415671, -91.182361)', '100 N STEVENDALE AV\nBATON ROUGE, LA\n(30.467741, -91.002952)', '100 N THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N. 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N3RD\nBATON ROUGE, LA 70802', '100 NAPOLEON ST\nBATON ROUGE, LA\n(30.44687, -91.183852)', '100 NAPOLEON ST\nBATON ROUGE, LA 70802\n(30.44687, -91.183852)', '100 NORTH BL\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70802\n(30.45243, -91.190428)', '100 NORTH BL\nBATON ROUGE, LA 70803\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 NORTH BT\nBATON ROUGE, LA', '100 NORTH BT\nBATON ROUGE, LA 70802', '100 NORTH ST\nBATON ROUGE, LA\n(30.45243, -91.190428)', '100 NORTH ST\nBATON ROUGE, LA 70802\n(30.45242687800004, -91.190291939999952)', '100 NORTH ST\nBATON ROUGE, LA 70805\n(30.45243, -91.190428)', '100 NORTH STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 OGDEN DR\nBATON ROUGE, LA 70806\n(30.448096, -91.158524)', '100 OKLAHOMA ST\nBATON ROUGE, LA 70802\n(30.434981, -91.184911)', '100 RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70810', '100 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447285, -91.179598)', '100 S 11TH ST\nBATON ROUGE, LA\n(30.447191, -91.178186)', '100 S 11TH ST\nBATON ROUGE, LA 70802\n(30.447191, -91.178186)', '100 S 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 S 12TH ST\nBATON ROUGE, LA 70802\n(30.447231, -91.177142)', '100 S 13TH\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 S 13TH ST RD\nBATON ROUGE, LA', '100 S 13TH ST RD\nBATON ROUGE, LA 70802', '100 S 14TH ST\nBATON ROUGE, LA\n(30.447587, -91.17486)', '100 S 15TH ST\nBATON ROUGE, LA 70802\n(30.447615, -91.173536)', '100 S 15TH ST\nBATON ROUGE, LA 70806\n(30.447615, -91.173536)', '100 S 16TH ST\nBATON ROUGE, LA\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70802\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70807\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70808\n(30.447633, -91.172878)', '100 S 17TH\nBATON ROUGE, LA\n(30.447691, -91.17169)', '100 S 18TH ST\nBATON ROUGE, LA\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70808\n(30.447868, -91.170289)', '100 S 20TH ST\nBATON ROUGE, LA\n(30.447802, -91.168077)', '100 S 21ST ST\nBATON ROUGE, LA 70802\n(30.447838, -91.166981)', '100 S 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 S 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 S ACADIAN TH\nBATON ROUGE, LA', '100 S ACADIAN TH\nBATON ROUGE, LA 70802', '100 S ACADIAN TH\nBATON ROUGE, LA 70805', '100 S ACADIAN TH\nBATON ROUGE, LA 70808', '100 S ACADIAN TH\nBATON ROUGE, LA 70810', '100 S ARDENWOOD DR\nBATON ROUGE, LA\n(30.450721, -91.127448)', '100 S DONMOORE AV\nBATON ROUGE, LA\n(30.450534, -91.118338)', '100 S DONMOORE AV\nBATON ROUGE, LA 70802\n(30.450534, -91.118338)', '100 S EUGENE ST\nBATON ROUGE, LA\n(30.448041, -91.160442)', '100 S FAIRFAX DR\nBATON ROUGE, LA\n(30.450786, -91.133045)', '100 S FAIRFAX DR\nBATON ROUGE, LA 70808\n(30.450786, -91.133045)', '100 S FLANNERY DR\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY DR\nBATON ROUGE, LA 70802\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.462254, -91.0352)', '100 S FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.448699, -91.138913)', '100 S I-110\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA 70802', '100 S I110\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA 70802', '100 S RIVER RD\nBATON ROUGE, LA\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70802\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 S STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70808\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 S STADIUM DR\nBATON ROUGE, LA', '100 S STADIUM DR\nBATON ROUGE, LA 70802', '100 S STADIUM RD\nBATON ROUGE, LA 70802\n(30.415671, -91.182361)', '100 S TOWER\nBATON ROUGE, LA 70802', '100 S TOWER DR\nBATON ROUGE, LA 70820', '100 S WOODDALE AV\nBATON ROUGE, LA 70806\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA 70815\n(30.451912, -91.104154)', '100 S. STADIUM DR\nBATON ROUGE, LA', '100 SECURITY LN\nBATON ROUGE, LA', '100 SHADOWS BEND DR\nBATON ROUGE, LA 70802\n(30.364681, -91.116408)', '100 SHARP BL\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP LN\nBATON ROUGE, LA', '100 SHARP RD\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70815\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70816\n(30.456398, -91.072071)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 SKIP BERTMAN\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA 70820', '100 SOUTH BL\nBATON ROUGE, LA\n(30.439528, -91.189945)', '100 SOUTH BL\nBATON ROUGE, LA 70802\n(30.439528, -91.189945)', '100 SOUTH I-110 HW\nBATON ROUGE, LA', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70802', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70806', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70808', '100 SPANISH TOWN RD\nBATON ROUGE, LA', '100 ST FERDINAND ST\nBATON ROUGE, LA\n(30.446962, -91.186679)', '100 ST FERDINAND ST\nBATON ROUGE, LA 70802\n(30.446962, -91.186679)', '100 ST LOUIS ST\nBATON ROUGE, LA\n(30.446927, -91.187744)', '100 ST LOUIS ST\nBATON ROUGE, LA 70802\n(30.446927, -91.187744)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70802\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70805\n(30.447807, -91.172792)', '100 ST. CHARLES ST\nBATON ROUGE, LA 70802\n(30.446993, -91.185463)', '100 STANFORD AV\nBATON ROUGE, LA\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70708\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70802\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70806\n(30.402862, -91.169846)', '100 STARING LN\nBATON ROUGE, LA 70808\n(30.368961, -91.122942)', '100 STARING LN\nBATON ROUGE, LA 70809\n(30.368961, -91.122942)', '100 STEELE RD\nBATON ROUGE, LA\n(30.448344, -91.150735)', '100 SUNSET BL\nBATON ROUGE, LA\n(30.388406, -91.152395)', '100 TAFT\nBATON ROUGE, LA 79802\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA 70802\n(30.425327, -91.17983)', '100 TAYLOR ST\nBATON ROUGE, LA\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70802\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70808\n(30.426469, -91.180352)', '100 THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 708001\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70805\n(30.447266, -91.188164)', '100 THOMAS RD\nBATON ROUGE, LA 70807\n(30.550222, -91.203688)', '100 TOWER\nBATON ROUGE, LA', '100 TOWER\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA', '100 TOWER DR\nBATON ROUGE, LA 70005', '100 TOWER DR\nBATON ROUGE, LA 70802', '100 TOWER DR\nBATON ROUGE, LA 70803', '100 TOWER DR\nBATON ROUGE, LA 70805', '100 TOWER DR\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA 70820', '100 VAN BUREN ST\nBATON ROUGE, LA\n(30.430266, -91.181444)', '100 VAN BUREN ST\nBATON ROUGE, LA 70802\n(30.430266, -91.181444)', '100 VETA ST\nBATON ROUGE, LA\n(30.43549, -91.184767)', '100 VETA ST\nBATON ROUGE, LA 70802\n(30.43549, -91.184767)', '100 W BUCHANAN ST\nBATON ROUGE, LA\n(30.425571, -91.17994)', '100 W BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425571, -91.17994)', '100 W CHIMES\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES\nBATON ROUGE, LA 70808\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 W FRAT LN\nBATON ROUGE, LA', '100 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 W GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 W HARDING BL\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARRISON ST\nBATON ROUGE, LA\n(30.429202, -91.181618)', '100 W HARRISON ST\nBATON ROUGE, LA 70802\n(30.429202, -91.181618)', '100 W I-10 AV\nBATON ROUGE, LA 70809', '100 W I-12\nBATON ROUGE, LA', '100 W I-12\nBATON ROUGE, LA 70802', '100 W I-12\nBATON ROUGE, LA 70808', '100 W I10\nBATON ROUGE, LA', '100 W I10\nBATON ROUGE, LA 70812', '100 W I12\nBATON ROUGE, LA', '100 W I12\nBATON ROUGE, LA 70808', '100 W I12\nBATON ROUGE, LA 70810', '100 W I12 HW\nBATON ROUGE, LA', '100 W I12 HW\nBATON ROUGE, LA 70808', '100 W I12 HW\nBATON ROUGE, LA 70809', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA 70802', '100 W JOHNSON\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70816\n(30.424472, -91.179439)', '100 W LAKESHORE DR\nBATON ROUGE, LA 70808', '100 W LEE DR\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70808\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W MCKINLEY ST\nBATON ROUGE, LA\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70802\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423791, -91.179136)', '100 W PARKER\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA 70802\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W POLK ST\nBATON ROUGE, LA\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70802\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70806\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70808\n(30.427399, -91.180777)', '100 W ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70808\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70810\n(30.421799, -91.178198)', '100 W STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 W STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 W WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 WEST I-10 HW\nBATON ROUGE, LA', '100 WEST I-10 HW\nBATON ROUGE, LA 70802', '100 WEST I-10 HW\nBATON ROUGE, LA 70808', '100 WEST I-12 HW\nBATON ROUGE, LA', '100 WEST I-12 HW\nBATON ROUGE, LA 70806', '100 WEST I-12 HW\nBATON ROUGE, LA 70809', '100 WESTMORELAND DR\nBATON ROUGE, LA\n(30.448246, -91.15382)', '100 WOODDALE BL\nBATON ROUGE, LA 70805', '100 WOODDALE BL\nBATON ROUGE, LA 70806\n(30.452025, -91.104022)', '1000 37TH ST\nBATON ROUGE, LA\n(30.457379, -91.152732)', '1000 37TH ST\nBATON ROUGE, LA 70802\n(30.457379, -91.152732)', '1000 38TH ST\nBATON ROUGE, LA\n(30.457367, -91.151964)', '1000 48TH ST\nBATON ROUGE, LA 70808\n(30.457514, -91.141865)', '1000 AIRLINE HW\nBATON ROUGE, LA 70816', '1000 ASTER ST\nBATON ROUGE, LA\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70802\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70806\n(30.419522, -91.188438)', '1000 AVE B ST\nBATON ROUGE, LA 70807', '1000 BAIRD AV\nBATON ROUGE, LA\n(30.385341, -91.120205)', '1000 BAIRD AV\nBATON ROUGE, LA 70808\n(30.385341, -91.120205)', '1000 BARANCO DR\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70807\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70808\n(30.529472, -91.183748)', '1000 BOB PETIT\nBATON ROUGE, LA', '1000 BOB PETIT\nBATON ROUGE, LA 70802', '1000 BOB PETIT DR\nBATO</t>
         </is>

--- a/examples/USA OGD/Baton_rouge/profile.xlsx
+++ b/examples/USA OGD/Baton_rouge/profile.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
